--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1F31C-E539-E54F-8A3C-CD56920E36FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33920" windowHeight="19780" tabRatio="500"/>
+    <workbookView xWindow="4340" yWindow="460" windowWidth="33920" windowHeight="19780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
     <sheet name="exam-results" sheetId="2" r:id="rId2"/>
-    <sheet name="openstack" sheetId="3" r:id="rId3"/>
+    <sheet name="evolving-1-1" sheetId="5" r:id="rId3"/>
+    <sheet name="openstack" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">topics!$B$1:$H$892</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="639">
   <si>
     <t>3-node architecture</t>
   </si>
@@ -2136,20 +2143,458 @@
   <si>
     <t>7.3.a [iii] IoT security (network segmentation, device profiling, and secure remote)</t>
   </si>
+  <si>
+    <t>Books and Videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco Live Presentations </t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>CCIE Community Events</t>
+  </si>
+  <si>
+    <t>Cisco DevNet</t>
+  </si>
+  <si>
+    <t>Evolving Technologies (10%)</t>
+  </si>
+  <si>
+    <t>Evolving Technologies Study Guide</t>
+  </si>
+  <si>
+    <t>A.1</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>A.1a</t>
+  </si>
+  <si>
+    <t>A.1.a.i</t>
+  </si>
+  <si>
+    <t>Designing Networks and Services for the Cloud - Chapter 1</t>
+  </si>
+  <si>
+    <t>Automating the Cisco Enterprise Cloud (CLDAUT)</t>
+  </si>
+  <si>
+    <t>Cisco Cloud Overview</t>
+  </si>
+  <si>
+    <t>Cloud Dev Center</t>
+  </si>
+  <si>
+    <t>A.1.a.ii</t>
+  </si>
+  <si>
+    <t>TNKCLD-1004 - From Convergence to Cloud</t>
+  </si>
+  <si>
+    <t>Cisco Cloud Blogs</t>
+  </si>
+  <si>
+    <t>A.1.a.iii</t>
+  </si>
+  <si>
+    <t>Designing the Cisco Cloud (CLDDES)</t>
+  </si>
+  <si>
+    <t>A.1.a.iv</t>
+  </si>
+  <si>
+    <t>A.1b</t>
+  </si>
+  <si>
+    <t>A.1.b.i</t>
+  </si>
+  <si>
+    <t>A.1.b.ii</t>
+  </si>
+  <si>
+    <t>A.1.b.iii</t>
+  </si>
+  <si>
+    <t>Cloud Security Alliance</t>
+  </si>
+  <si>
+    <t>A.1.b.iv</t>
+  </si>
+  <si>
+    <t>A.2</t>
+  </si>
+  <si>
+    <t>Network Programmability</t>
+  </si>
+  <si>
+    <t>A.2a</t>
+  </si>
+  <si>
+    <t>A.2.a.i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKDEV-2003 - Programming the Network: Let's Get Started </t>
+  </si>
+  <si>
+    <t>Designing and Implementing Cisco Network Programmability (NPDESI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Networking Dev Center </t>
+  </si>
+  <si>
+    <t>A.2.a.ii</t>
+  </si>
+  <si>
+    <t>Programming for Network Engineers (PRNE)</t>
+  </si>
+  <si>
+    <t>A.2.a.iii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKRST-1014 - Introduction to Software-Defined Networking (SDN) and Network Programmability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducing Network Programmability Fundamentals </t>
+  </si>
+  <si>
+    <t>A.2.a.iv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKCDN-1005 - Better Network Management Through Network Programmability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to APIC EM Deployment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKNMS-2030 - Onboard Automation with Cisco IOS Embedded Event Manager </t>
+  </si>
+  <si>
+    <t>SOLCLD-2012 - Journey to an Agile Cloud Infrastructure with Open Source</t>
+  </si>
+  <si>
+    <t>A.3</t>
+  </si>
+  <si>
+    <t>Internet of Things</t>
+  </si>
+  <si>
+    <t>A.3a</t>
+  </si>
+  <si>
+    <t>A.3.a.i</t>
+  </si>
+  <si>
+    <t>Managing Industrial Networks with Cisco Networking Technologies (IMINS)</t>
+  </si>
+  <si>
+    <t>IoT Webinar Series</t>
+  </si>
+  <si>
+    <t>IoT Dev Center</t>
+  </si>
+  <si>
+    <t>A.3.a.ii</t>
+  </si>
+  <si>
+    <t>Networking Fundamentals for Industrial Control Systems (INICS)</t>
+  </si>
+  <si>
+    <t>Internet of Everything - PDF Library</t>
+  </si>
+  <si>
+    <t>A.3.a.iii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKIOT-2020 - The Evolution from Machine-to-Machine (M2M) to the Internet of Everything: Technologies and Standards </t>
+  </si>
+  <si>
+    <t>Control Systems Fundamentals for Industrial Networking (ICINS)</t>
+  </si>
+  <si>
+    <t>A.3.a.iv</t>
+  </si>
+  <si>
+    <t>IoT Security</t>
+  </si>
+  <si>
+    <t>BRKIOT-2113 - Internet of Things for the Enterprise</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>URLs, Blogs, Demos, and Webinars</t>
+  </si>
+  <si>
+    <t>BRKCCIE-3352 - The Next-Generation CCIE</t>
+  </si>
+  <si>
+    <t>Compare and contrast public, private, hybrid, and multicloud design considerations</t>
+  </si>
+  <si>
+    <t>Infrastructure, Platform, and Software Services [XaaS]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCIE Technical Webinars </t>
+  </si>
+  <si>
+    <t>Performance, Scalability, and High Availability</t>
+  </si>
+  <si>
+    <t>Cloud Computing: Automating the Virtualized Data Center - Chapter 4</t>
+  </si>
+  <si>
+    <t>Implementing and Troubleshooting the Cisco Cloud Infrastructure (CLDINF)</t>
+  </si>
+  <si>
+    <t>Security Implications, Compliance, and Policy</t>
+  </si>
+  <si>
+    <t>Understanding Cisco Cloud Fundamentals - LiveLessons</t>
+  </si>
+  <si>
+    <t>BSOGEN-1002 - Cloud Security Lessons Learned</t>
+  </si>
+  <si>
+    <t>BRKCLD-2000 - Cloud Types and Security - What They Mean to You and Your Company</t>
+  </si>
+  <si>
+    <t>Cloud Security Webinar</t>
+  </si>
+  <si>
+    <t>BRKSEC-2404 - Effective Cloud Security Made Simple – Cloud Security Reimagined with Cloudlock</t>
+  </si>
+  <si>
+    <t>Workload Migration</t>
+  </si>
+  <si>
+    <t>BRKCLD-2008 - Multi-Cloud and Application Centric Modeling, Deployment and Management with Cisco CloudCenter
+"</t>
+  </si>
+  <si>
+    <t>NIST Cloud Tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVNET-1179 - Migrating Cloud Applications with CloudCenter
+</t>
+  </si>
+  <si>
+    <t>Workload Portability - Presentation</t>
+  </si>
+  <si>
+    <t>Describe cloud infrastructure and operations</t>
+  </si>
+  <si>
+    <t>Compute Virtualization (Containers and Virtual Machines)</t>
+  </si>
+  <si>
+    <t>Cisco Contiv Introduction</t>
+  </si>
+  <si>
+    <t>BRKSDN-2115 - Introduction to Containers and Container Networking</t>
+  </si>
+  <si>
+    <t>Service Containers - Cisco Blog</t>
+  </si>
+  <si>
+    <t>Connectivity (Virtual Switches, SD-WAN, and SD-Access)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco SD-WAN Overview </t>
+  </si>
+  <si>
+    <t>BRKCRS-3811 - Cisco SD-Access - Policy Driven Manageability</t>
+  </si>
+  <si>
+    <t>SD-WAN Overview</t>
+  </si>
+  <si>
+    <t>Virtualization Functions (NFVI, VNF, and L4-L7)</t>
+  </si>
+  <si>
+    <t>NFVI at Cisco Live: Architecture and the Virtual Network Functions - Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKNMS-2309 - Introduction to NFV Orchestration Using ETSI Standard </t>
+  </si>
+  <si>
+    <t>Cisco NFV Infrastructure - Report</t>
+  </si>
+  <si>
+    <t>Automation and Orchestration Tools (CloudCenter, DNA Center, and Kubernetes)</t>
+  </si>
+  <si>
+    <t>DEVNET-1198 - CloudCenter for Developers</t>
+  </si>
+  <si>
+    <t>DEVNET-1651 - Hybrid Cloud Automation using Cisco CloudCenter API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKCLD-2235 - Deploy a Hybrid, Multi-Cloud Container Environment in Less than an Hour </t>
+  </si>
+  <si>
+    <t>Migrate Applications to AWS with Cisco CloudCenter - Video</t>
+  </si>
+  <si>
+    <t>BRKCLD-2091 - Introduction to Kubernetes on UCS</t>
+  </si>
+  <si>
+    <t>DNA Center: Base Automation - Webinar</t>
+  </si>
+  <si>
+    <t>BRKNMS-2031 - APIC-EM: Evolution from Traditional Management to SDN-Led, Policy-Based Automation</t>
+  </si>
+  <si>
+    <t>Kubernetes Rising - Cisco Blog</t>
+  </si>
+  <si>
+    <t>BRKDCN-2390 - Kubernetes Container Networking</t>
+  </si>
+  <si>
+    <t>Describe architectural and operational considerations for a programmable network</t>
+  </si>
+  <si>
+    <t>Data Models and Structures (YANG, JSON, and XML)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Software Defined Networking (SDN) - LiveLessons </t>
+  </si>
+  <si>
+    <t>Simplify and Automate the Virtualized Environment - White Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKRST-2051 - SDN - From Concepts to Reality </t>
+  </si>
+  <si>
+    <t>Device Programmability (gRPC, NETCONF, and RESTCONF)</t>
+  </si>
+  <si>
+    <t>Programming and Automating Cisco Networks - Chapters 7 and 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKSDN-1903 - A Model-Driven Approach to Software Defined Networks with Yang, Netconf/Restconf </t>
+  </si>
+  <si>
+    <t>Virtual Topology System: Build an Agile and Programmable Data Center</t>
+  </si>
+  <si>
+    <t>Controller-Based Network Design (Policy-Driven Configuration and Northbound/Southbound APIs)</t>
+  </si>
+  <si>
+    <t>Programming and Automating Cisco Networks - Chapters 3, 6, and 8</t>
+  </si>
+  <si>
+    <t>SDN Recorded Seminars</t>
+  </si>
+  <si>
+    <t>Configuration Management Tools (Agent and Agentless) and Version Control Systems (Git and SVN)</t>
+  </si>
+  <si>
+    <t>Programming and Automating Cisco Networks - Chapters 2 and 5</t>
+  </si>
+  <si>
+    <t>Simplify by Automating and Orchestrating SDN Solutions</t>
+  </si>
+  <si>
+    <t>Describe architectural framework and deployment considerations for Internet of Things (IoT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IoT Technology Stack (IoT Network Hierarchy and Data Acquisition and Flow) </t>
+  </si>
+  <si>
+    <t>IoT Fundamentals - Chapters 1, 2, 3, 5, and 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKSPM-2007 - Cisco IoT in a 5G World </t>
+  </si>
+  <si>
+    <t>IoT Networking</t>
+  </si>
+  <si>
+    <t>BRKCRS-2116 - Know How to Deploy Enterprise IoT with Your Catalyst Switches</t>
+  </si>
+  <si>
+    <t>Cisco IoT System</t>
+  </si>
+  <si>
+    <t>IoT Standards and Protocols (Characteristics Within IT and OT Environments)</t>
+  </si>
+  <si>
+    <t>IoT Fundamentals - Chapter 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKCRS-2444 - The Internet of Things: An Architectural Foundation and Its Protocols </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKIOT-2115 - Industrial Security: IT vs. OT Deployment Practices </t>
+  </si>
+  <si>
+    <t>IoT Security (Network Segmentation, Device Profiling, and Secure Remote Access)</t>
+  </si>
+  <si>
+    <t>IoT Fundamentals - Chapter 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLSEC-1004 - Securing the IoT </t>
+  </si>
+  <si>
+    <t>BRKIOT-2112 - Architecting Security for the Internet of Things</t>
+  </si>
+  <si>
+    <t>IoT Edge and Fog Computing (Data Aggregation and Edge Intelligence)</t>
+  </si>
+  <si>
+    <t>IoT Fundamentals - Chapter 2</t>
+  </si>
+  <si>
+    <t>BRKIOT-1432 - Cisco Kinetic - The Horizontal IoT Data Platform</t>
+  </si>
+  <si>
+    <t>Cisco Kinetic for Industries</t>
+  </si>
+  <si>
+    <t>DEVNET-1068 - Introduction to Developing for Cisco Kinetic - Data Control Module</t>
+  </si>
+  <si>
+    <t>Cisco Kinetic Unlocks the Power of Your IoT Data - Cisco Blog</t>
+  </si>
+  <si>
+    <t>BRKIOT-2129 - Understanding and Troubleshooting Edge and Fog Fabric Solution</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2231,8 +2676,44 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2251,8 +2732,20 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2260,49 +2753,453 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2316,6 +3213,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2640,18 +3545,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="99.83203125" customWidth="1"/>
@@ -2664,7 +3569,7 @@
     <col min="9" max="9" width="14.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="50" customHeight="1">
+    <row r="1" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2682,7 +3587,7 @@
       </c>
       <c r="F1" s="13">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>24</v>
@@ -2694,7 +3599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -2713,7 +3618,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -2732,7 +3637,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -2751,7 +3656,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -2770,7 +3675,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -2789,7 +3694,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -2808,7 +3713,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2825,7 +3730,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -2842,7 +3747,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -2859,7 +3764,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2876,7 +3781,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -2893,7 +3798,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -2910,7 +3815,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2927,7 +3832,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -2944,7 +3849,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -2961,7 +3866,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +3883,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -2995,7 +3900,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
@@ -3012,7 +3917,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -3029,7 +3934,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -3046,7 +3951,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -3063,7 +3968,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -3080,7 +3985,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -3097,7 +4002,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -3114,7 +4019,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -3131,7 +4036,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -3148,7 +4053,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -3165,7 +4070,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -3182,7 +4087,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
@@ -3199,7 +4104,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
@@ -3216,7 +4121,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -3233,7 +4138,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>27</v>
       </c>
@@ -3250,7 +4155,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -3267,7 +4172,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
@@ -3284,7 +4189,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>27</v>
       </c>
@@ -3301,7 +4206,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>27</v>
       </c>
@@ -3318,7 +4223,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -3335,7 +4240,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>27</v>
       </c>
@@ -3352,7 +4257,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>27</v>
       </c>
@@ -3369,7 +4274,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>27</v>
       </c>
@@ -3386,7 +4291,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>27</v>
       </c>
@@ -3403,7 +4308,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>27</v>
       </c>
@@ -3420,7 +4325,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>27</v>
       </c>
@@ -3437,7 +4342,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>27</v>
       </c>
@@ -3454,7 +4359,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>27</v>
       </c>
@@ -3471,7 +4376,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>27</v>
       </c>
@@ -3490,7 +4395,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>27</v>
       </c>
@@ -3507,7 +4412,7 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>27</v>
       </c>
@@ -3524,7 +4429,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>27</v>
       </c>
@@ -3541,7 +4446,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>27</v>
       </c>
@@ -3558,7 +4463,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>27</v>
       </c>
@@ -3575,7 +4480,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>27</v>
       </c>
@@ -3592,7 +4497,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>27</v>
       </c>
@@ -3609,7 +4514,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>27</v>
       </c>
@@ -3626,7 +4531,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>104</v>
       </c>
@@ -3643,7 +4548,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>104</v>
       </c>
@@ -3660,7 +4565,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>104</v>
       </c>
@@ -3677,7 +4582,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>104</v>
       </c>
@@ -3694,7 +4599,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>104</v>
       </c>
@@ -3711,7 +4616,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>104</v>
       </c>
@@ -3728,7 +4633,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>104</v>
       </c>
@@ -3745,7 +4650,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>104</v>
       </c>
@@ -3762,7 +4667,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>104</v>
       </c>
@@ -3779,7 +4684,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>104</v>
       </c>
@@ -3796,7 +4701,7 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>104</v>
       </c>
@@ -3813,7 +4718,7 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>104</v>
       </c>
@@ -3830,7 +4735,7 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>104</v>
       </c>
@@ -3847,7 +4752,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>104</v>
       </c>
@@ -3864,7 +4769,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>104</v>
       </c>
@@ -3881,7 +4786,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>104</v>
       </c>
@@ -3898,7 +4803,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>104</v>
       </c>
@@ -3915,7 +4820,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>104</v>
       </c>
@@ -3932,7 +4837,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>104</v>
       </c>
@@ -3949,7 +4854,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>104</v>
       </c>
@@ -3966,7 +4871,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>104</v>
       </c>
@@ -3983,7 +4888,7 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>104</v>
       </c>
@@ -4000,7 +4905,7 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>104</v>
       </c>
@@ -4017,7 +4922,7 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>104</v>
       </c>
@@ -4034,7 +4939,7 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>104</v>
       </c>
@@ -4051,7 +4956,7 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>104</v>
       </c>
@@ -4068,7 +4973,7 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -4085,7 +4990,7 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>104</v>
       </c>
@@ -4102,7 +5007,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>104</v>
       </c>
@@ -4119,7 +5024,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>104</v>
       </c>
@@ -4136,7 +5041,7 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>104</v>
       </c>
@@ -4153,7 +5058,7 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>104</v>
       </c>
@@ -4170,7 +5075,7 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>104</v>
       </c>
@@ -4187,7 +5092,7 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>104</v>
       </c>
@@ -4204,7 +5109,7 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>104</v>
       </c>
@@ -4221,7 +5126,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>104</v>
       </c>
@@ -4238,7 +5143,7 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>104</v>
       </c>
@@ -4255,7 +5160,7 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>104</v>
       </c>
@@ -4272,7 +5177,7 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>104</v>
       </c>
@@ -4289,7 +5194,7 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>104</v>
       </c>
@@ -4306,7 +5211,7 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>104</v>
       </c>
@@ -4323,7 +5228,7 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>104</v>
       </c>
@@ -4340,7 +5245,7 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>104</v>
       </c>
@@ -4357,7 +5262,7 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>104</v>
       </c>
@@ -4374,7 +5279,7 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>104</v>
       </c>
@@ -4391,7 +5296,7 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>104</v>
       </c>
@@ -4408,7 +5313,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>104</v>
       </c>
@@ -4425,7 +5330,7 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>104</v>
       </c>
@@ -4442,7 +5347,7 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>104</v>
       </c>
@@ -4459,7 +5364,7 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>104</v>
       </c>
@@ -4476,7 +5381,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
@@ -4493,7 +5398,7 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>104</v>
       </c>
@@ -4510,7 +5415,7 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>104</v>
       </c>
@@ -4527,7 +5432,7 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>104</v>
       </c>
@@ -4544,7 +5449,7 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>104</v>
       </c>
@@ -4561,7 +5466,7 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>104</v>
       </c>
@@ -4578,7 +5483,7 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>104</v>
       </c>
@@ -4595,7 +5500,7 @@
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>162</v>
       </c>
@@ -4612,7 +5517,7 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>162</v>
       </c>
@@ -4629,7 +5534,7 @@
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>162</v>
       </c>
@@ -4646,7 +5551,7 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>162</v>
       </c>
@@ -4663,7 +5568,7 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>162</v>
       </c>
@@ -4680,7 +5585,7 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>162</v>
       </c>
@@ -4697,7 +5602,7 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>162</v>
       </c>
@@ -4714,7 +5619,7 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>162</v>
       </c>
@@ -4731,7 +5636,7 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>162</v>
       </c>
@@ -4748,7 +5653,7 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>162</v>
       </c>
@@ -4765,7 +5670,7 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>162</v>
       </c>
@@ -4782,7 +5687,7 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>162</v>
       </c>
@@ -4799,7 +5704,7 @@
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>162</v>
       </c>
@@ -4816,7 +5721,7 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>162</v>
       </c>
@@ -4833,7 +5738,7 @@
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>162</v>
       </c>
@@ -4850,7 +5755,7 @@
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -4867,7 +5772,7 @@
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>162</v>
       </c>
@@ -4884,7 +5789,7 @@
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>162</v>
       </c>
@@ -4901,7 +5806,7 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>162</v>
       </c>
@@ -4918,7 +5823,7 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>162</v>
       </c>
@@ -4935,7 +5840,7 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>162</v>
       </c>
@@ -4952,7 +5857,7 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>162</v>
       </c>
@@ -4969,7 +5874,7 @@
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>162</v>
       </c>
@@ -4986,7 +5891,7 @@
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>162</v>
       </c>
@@ -5003,7 +5908,7 @@
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>162</v>
       </c>
@@ -5020,7 +5925,7 @@
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>162</v>
       </c>
@@ -5037,7 +5942,7 @@
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>162</v>
       </c>
@@ -5054,7 +5959,7 @@
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>162</v>
       </c>
@@ -5071,7 +5976,7 @@
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>162</v>
       </c>
@@ -5088,7 +5993,7 @@
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>162</v>
       </c>
@@ -5105,7 +6010,7 @@
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>162</v>
       </c>
@@ -5122,7 +6027,7 @@
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>162</v>
       </c>
@@ -5139,7 +6044,7 @@
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>162</v>
       </c>
@@ -5156,7 +6061,7 @@
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>162</v>
       </c>
@@ -5173,7 +6078,7 @@
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>162</v>
       </c>
@@ -5190,7 +6095,7 @@
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>162</v>
       </c>
@@ -5207,7 +6112,7 @@
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>162</v>
       </c>
@@ -5224,7 +6129,7 @@
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>162</v>
       </c>
@@ -5241,7 +6146,7 @@
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>162</v>
       </c>
@@ -5258,7 +6163,7 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>162</v>
       </c>
@@ -5275,7 +6180,7 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>162</v>
       </c>
@@ -5292,7 +6197,7 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>162</v>
       </c>
@@ -5309,7 +6214,7 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>162</v>
       </c>
@@ -5326,7 +6231,7 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>162</v>
       </c>
@@ -5343,7 +6248,7 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>162</v>
       </c>
@@ -5360,7 +6265,7 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>162</v>
       </c>
@@ -5377,7 +6282,7 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>162</v>
       </c>
@@ -5394,7 +6299,7 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>162</v>
       </c>
@@ -5411,7 +6316,7 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>162</v>
       </c>
@@ -5428,7 +6333,7 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>162</v>
       </c>
@@ -5445,7 +6350,7 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>162</v>
       </c>
@@ -5462,7 +6367,7 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>162</v>
       </c>
@@ -5479,7 +6384,7 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>162</v>
       </c>
@@ -5496,7 +6401,7 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>162</v>
       </c>
@@ -5513,7 +6418,7 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>162</v>
       </c>
@@ -5530,7 +6435,7 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>162</v>
       </c>
@@ -5547,7 +6452,7 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>162</v>
       </c>
@@ -5564,7 +6469,7 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>162</v>
       </c>
@@ -5581,7 +6486,7 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>162</v>
       </c>
@@ -5598,7 +6503,7 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>162</v>
       </c>
@@ -5615,7 +6520,7 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>162</v>
       </c>
@@ -5632,7 +6537,7 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>162</v>
       </c>
@@ -5649,7 +6554,7 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>162</v>
       </c>
@@ -5666,7 +6571,7 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>162</v>
       </c>
@@ -5683,7 +6588,7 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>162</v>
       </c>
@@ -5700,7 +6605,7 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>162</v>
       </c>
@@ -5717,7 +6622,7 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>162</v>
       </c>
@@ -5734,7 +6639,7 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>162</v>
       </c>
@@ -5751,7 +6656,7 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>162</v>
       </c>
@@ -5768,7 +6673,7 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>162</v>
       </c>
@@ -5785,7 +6690,7 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>162</v>
       </c>
@@ -5802,7 +6707,7 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>162</v>
       </c>
@@ -5819,7 +6724,7 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>162</v>
       </c>
@@ -5836,7 +6741,7 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>162</v>
       </c>
@@ -5853,7 +6758,7 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>162</v>
       </c>
@@ -5870,7 +6775,7 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>162</v>
       </c>
@@ -5887,7 +6792,7 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>162</v>
       </c>
@@ -5904,7 +6809,7 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>162</v>
       </c>
@@ -5921,7 +6826,7 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>162</v>
       </c>
@@ -5938,7 +6843,7 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>162</v>
       </c>
@@ -5955,7 +6860,7 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>162</v>
       </c>
@@ -5972,7 +6877,7 @@
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>162</v>
       </c>
@@ -5989,7 +6894,7 @@
       <c r="H194" s="14"/>
       <c r="I194" s="14"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>162</v>
       </c>
@@ -6006,7 +6911,7 @@
       <c r="H195" s="14"/>
       <c r="I195" s="14"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>162</v>
       </c>
@@ -6023,7 +6928,7 @@
       <c r="H196" s="14"/>
       <c r="I196" s="14"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>162</v>
       </c>
@@ -6040,7 +6945,7 @@
       <c r="H197" s="14"/>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>162</v>
       </c>
@@ -6057,7 +6962,7 @@
       <c r="H198" s="14"/>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>162</v>
       </c>
@@ -6074,7 +6979,7 @@
       <c r="H199" s="14"/>
       <c r="I199" s="14"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>162</v>
       </c>
@@ -6091,7 +6996,7 @@
       <c r="H200" s="14"/>
       <c r="I200" s="14"/>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>162</v>
       </c>
@@ -6108,7 +7013,7 @@
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>162</v>
       </c>
@@ -6125,7 +7030,7 @@
       <c r="H202" s="14"/>
       <c r="I202" s="14"/>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>162</v>
       </c>
@@ -6142,7 +7047,7 @@
       <c r="H203" s="14"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>162</v>
       </c>
@@ -6159,7 +7064,7 @@
       <c r="H204" s="14"/>
       <c r="I204" s="14"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>162</v>
       </c>
@@ -6176,7 +7081,7 @@
       <c r="H205" s="14"/>
       <c r="I205" s="14"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>162</v>
       </c>
@@ -6193,7 +7098,7 @@
       <c r="H206" s="14"/>
       <c r="I206" s="14"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>162</v>
       </c>
@@ -6210,7 +7115,7 @@
       <c r="H207" s="14"/>
       <c r="I207" s="14"/>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>162</v>
       </c>
@@ -6227,7 +7132,7 @@
       <c r="H208" s="14"/>
       <c r="I208" s="14"/>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>162</v>
       </c>
@@ -6244,7 +7149,7 @@
       <c r="H209" s="14"/>
       <c r="I209" s="14"/>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>162</v>
       </c>
@@ -6261,7 +7166,7 @@
       <c r="H210" s="14"/>
       <c r="I210" s="14"/>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>162</v>
       </c>
@@ -6280,7 +7185,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>162</v>
       </c>
@@ -6297,7 +7202,7 @@
       <c r="H212" s="14"/>
       <c r="I212" s="14"/>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>162</v>
       </c>
@@ -6314,7 +7219,7 @@
       <c r="H213" s="14"/>
       <c r="I213" s="14"/>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>162</v>
       </c>
@@ -6331,7 +7236,7 @@
       <c r="H214" s="14"/>
       <c r="I214" s="14"/>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>162</v>
       </c>
@@ -6348,7 +7253,7 @@
       <c r="H215" s="14"/>
       <c r="I215" s="14"/>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>162</v>
       </c>
@@ -6365,7 +7270,7 @@
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>162</v>
       </c>
@@ -6382,7 +7287,7 @@
       <c r="H217" s="14"/>
       <c r="I217" s="14"/>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>162</v>
       </c>
@@ -6399,7 +7304,7 @@
       <c r="H218" s="14"/>
       <c r="I218" s="14"/>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>162</v>
       </c>
@@ -6416,7 +7321,7 @@
       <c r="H219" s="14"/>
       <c r="I219" s="14"/>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>162</v>
       </c>
@@ -6433,7 +7338,7 @@
       <c r="H220" s="14"/>
       <c r="I220" s="14"/>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>162</v>
       </c>
@@ -6450,7 +7355,7 @@
       <c r="H221" s="14"/>
       <c r="I221" s="14"/>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>162</v>
       </c>
@@ -6467,7 +7372,7 @@
       <c r="H222" s="14"/>
       <c r="I222" s="14"/>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>162</v>
       </c>
@@ -6484,7 +7389,7 @@
       <c r="H223" s="14"/>
       <c r="I223" s="14"/>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>162</v>
       </c>
@@ -6501,7 +7406,7 @@
       <c r="H224" s="14"/>
       <c r="I224" s="14"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>162</v>
       </c>
@@ -6518,7 +7423,7 @@
       <c r="H225" s="14"/>
       <c r="I225" s="14"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>162</v>
       </c>
@@ -6535,7 +7440,7 @@
       <c r="H226" s="14"/>
       <c r="I226" s="14"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>162</v>
       </c>
@@ -6552,7 +7457,7 @@
       <c r="H227" s="14"/>
       <c r="I227" s="14"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>162</v>
       </c>
@@ -6569,7 +7474,7 @@
       <c r="H228" s="14"/>
       <c r="I228" s="14"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>162</v>
       </c>
@@ -6586,7 +7491,7 @@
       <c r="H229" s="14"/>
       <c r="I229" s="14"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>162</v>
       </c>
@@ -6603,7 +7508,7 @@
       <c r="H230" s="14"/>
       <c r="I230" s="14"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>162</v>
       </c>
@@ -6620,7 +7525,7 @@
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>162</v>
       </c>
@@ -6637,7 +7542,7 @@
       <c r="H232" s="14"/>
       <c r="I232" s="14"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>162</v>
       </c>
@@ -6654,7 +7559,7 @@
       <c r="H233" s="14"/>
       <c r="I233" s="14"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>162</v>
       </c>
@@ -6671,7 +7576,7 @@
       <c r="H234" s="14"/>
       <c r="I234" s="14"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>162</v>
       </c>
@@ -6688,7 +7593,7 @@
       <c r="H235" s="14"/>
       <c r="I235" s="14"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>162</v>
       </c>
@@ -6705,7 +7610,7 @@
       <c r="H236" s="14"/>
       <c r="I236" s="14"/>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>162</v>
       </c>
@@ -6722,7 +7627,7 @@
       <c r="H237" s="14"/>
       <c r="I237" s="14"/>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>162</v>
       </c>
@@ -6739,7 +7644,7 @@
       <c r="H238" s="14"/>
       <c r="I238" s="14"/>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>162</v>
       </c>
@@ -6756,7 +7661,7 @@
       <c r="H239" s="14"/>
       <c r="I239" s="14"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>162</v>
       </c>
@@ -6773,7 +7678,7 @@
       <c r="H240" s="14"/>
       <c r="I240" s="14"/>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>162</v>
       </c>
@@ -6790,7 +7695,7 @@
       <c r="H241" s="14"/>
       <c r="I241" s="14"/>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>162</v>
       </c>
@@ -6807,7 +7712,7 @@
       <c r="H242" s="14"/>
       <c r="I242" s="14"/>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>162</v>
       </c>
@@ -6824,7 +7729,7 @@
       <c r="H243" s="14"/>
       <c r="I243" s="14"/>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>162</v>
       </c>
@@ -6841,7 +7746,7 @@
       <c r="H244" s="14"/>
       <c r="I244" s="14"/>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>162</v>
       </c>
@@ -6858,7 +7763,7 @@
       <c r="H245" s="14"/>
       <c r="I245" s="14"/>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>162</v>
       </c>
@@ -6875,7 +7780,7 @@
       <c r="H246" s="14"/>
       <c r="I246" s="14"/>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>162</v>
       </c>
@@ -6892,7 +7797,7 @@
       <c r="H247" s="14"/>
       <c r="I247" s="14"/>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>162</v>
       </c>
@@ -6909,7 +7814,7 @@
       <c r="H248" s="14"/>
       <c r="I248" s="14"/>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>162</v>
       </c>
@@ -6926,7 +7831,7 @@
       <c r="H249" s="14"/>
       <c r="I249" s="14"/>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>162</v>
       </c>
@@ -6943,7 +7848,7 @@
       <c r="H250" s="14"/>
       <c r="I250" s="14"/>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>162</v>
       </c>
@@ -6960,7 +7865,7 @@
       <c r="H251" s="14"/>
       <c r="I251" s="14"/>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>162</v>
       </c>
@@ -6977,7 +7882,7 @@
       <c r="H252" s="14"/>
       <c r="I252" s="14"/>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>162</v>
       </c>
@@ -6994,7 +7899,7 @@
       <c r="H253" s="14"/>
       <c r="I253" s="14"/>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>162</v>
       </c>
@@ -7011,7 +7916,7 @@
       <c r="H254" s="14"/>
       <c r="I254" s="14"/>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>162</v>
       </c>
@@ -7028,7 +7933,7 @@
       <c r="H255" s="14"/>
       <c r="I255" s="14"/>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>162</v>
       </c>
@@ -7045,7 +7950,7 @@
       <c r="H256" s="14"/>
       <c r="I256" s="14"/>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>162</v>
       </c>
@@ -7062,7 +7967,7 @@
       <c r="H257" s="14"/>
       <c r="I257" s="14"/>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>162</v>
       </c>
@@ -7079,7 +7984,7 @@
       <c r="H258" s="14"/>
       <c r="I258" s="14"/>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>162</v>
       </c>
@@ -7096,7 +8001,7 @@
       <c r="H259" s="14"/>
       <c r="I259" s="14"/>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>162</v>
       </c>
@@ -7113,7 +8018,7 @@
       <c r="H260" s="14"/>
       <c r="I260" s="14"/>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>162</v>
       </c>
@@ -7130,7 +8035,7 @@
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>162</v>
       </c>
@@ -7147,7 +8052,7 @@
       <c r="H262" s="14"/>
       <c r="I262" s="14"/>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>162</v>
       </c>
@@ -7164,7 +8069,7 @@
       <c r="H263" s="14"/>
       <c r="I263" s="14"/>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>162</v>
       </c>
@@ -7181,7 +8086,7 @@
       <c r="H264" s="14"/>
       <c r="I264" s="14"/>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>162</v>
       </c>
@@ -7198,7 +8103,7 @@
       <c r="H265" s="14"/>
       <c r="I265" s="14"/>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>162</v>
       </c>
@@ -7215,7 +8120,7 @@
       <c r="H266" s="14"/>
       <c r="I266" s="14"/>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>162</v>
       </c>
@@ -7232,7 +8137,7 @@
       <c r="H267" s="14"/>
       <c r="I267" s="14"/>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>162</v>
       </c>
@@ -7249,7 +8154,7 @@
       <c r="H268" s="14"/>
       <c r="I268" s="14"/>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>162</v>
       </c>
@@ -7266,7 +8171,7 @@
       <c r="H269" s="14"/>
       <c r="I269" s="14"/>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>162</v>
       </c>
@@ -7283,7 +8188,7 @@
       <c r="H270" s="14"/>
       <c r="I270" s="14"/>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>162</v>
       </c>
@@ -7300,7 +8205,7 @@
       <c r="H271" s="14"/>
       <c r="I271" s="14"/>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>162</v>
       </c>
@@ -7317,7 +8222,7 @@
       <c r="H272" s="14"/>
       <c r="I272" s="14"/>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>162</v>
       </c>
@@ -7334,7 +8239,7 @@
       <c r="H273" s="14"/>
       <c r="I273" s="14"/>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>162</v>
       </c>
@@ -7351,7 +8256,7 @@
       <c r="H274" s="14"/>
       <c r="I274" s="14"/>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>162</v>
       </c>
@@ -7368,7 +8273,7 @@
       <c r="H275" s="14"/>
       <c r="I275" s="14"/>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>162</v>
       </c>
@@ -7385,7 +8290,7 @@
       <c r="H276" s="14"/>
       <c r="I276" s="14"/>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>162</v>
       </c>
@@ -7402,7 +8307,7 @@
       <c r="H277" s="14"/>
       <c r="I277" s="14"/>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>162</v>
       </c>
@@ -7419,7 +8324,7 @@
       <c r="H278" s="14"/>
       <c r="I278" s="14"/>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>330</v>
       </c>
@@ -7436,7 +8341,7 @@
       <c r="H279" s="14"/>
       <c r="I279" s="14"/>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>330</v>
       </c>
@@ -7453,7 +8358,7 @@
       <c r="H280" s="14"/>
       <c r="I280" s="14"/>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>330</v>
       </c>
@@ -7470,7 +8375,7 @@
       <c r="H281" s="14"/>
       <c r="I281" s="14"/>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>330</v>
       </c>
@@ -7487,7 +8392,7 @@
       <c r="H282" s="14"/>
       <c r="I282" s="14"/>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>330</v>
       </c>
@@ -7504,7 +8409,7 @@
       <c r="H283" s="14"/>
       <c r="I283" s="14"/>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>330</v>
       </c>
@@ -7521,7 +8426,7 @@
       <c r="H284" s="14"/>
       <c r="I284" s="14"/>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>330</v>
       </c>
@@ -7538,7 +8443,7 @@
       <c r="H285" s="14"/>
       <c r="I285" s="14"/>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>330</v>
       </c>
@@ -7555,7 +8460,7 @@
       <c r="H286" s="14"/>
       <c r="I286" s="14"/>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -7572,7 +8477,7 @@
       <c r="H287" s="14"/>
       <c r="I287" s="14"/>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>330</v>
       </c>
@@ -7589,7 +8494,7 @@
       <c r="H288" s="14"/>
       <c r="I288" s="14"/>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>330</v>
       </c>
@@ -7606,7 +8511,7 @@
       <c r="H289" s="14"/>
       <c r="I289" s="14"/>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>330</v>
       </c>
@@ -7623,7 +8528,7 @@
       <c r="H290" s="14"/>
       <c r="I290" s="14"/>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>330</v>
       </c>
@@ -7642,7 +8547,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>330</v>
       </c>
@@ -7659,7 +8564,7 @@
       <c r="H292" s="14"/>
       <c r="I292" s="14"/>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>330</v>
       </c>
@@ -7676,7 +8581,7 @@
       <c r="H293" s="14"/>
       <c r="I293" s="14"/>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>330</v>
       </c>
@@ -7693,7 +8598,7 @@
       <c r="H294" s="14"/>
       <c r="I294" s="14"/>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>330</v>
       </c>
@@ -7710,7 +8615,7 @@
       <c r="H295" s="14"/>
       <c r="I295" s="14"/>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>330</v>
       </c>
@@ -7727,7 +8632,7 @@
       <c r="H296" s="14"/>
       <c r="I296" s="14"/>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>330</v>
       </c>
@@ -7744,7 +8649,7 @@
       <c r="H297" s="14"/>
       <c r="I297" s="14"/>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>330</v>
       </c>
@@ -7761,7 +8666,7 @@
       <c r="H298" s="14"/>
       <c r="I298" s="14"/>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>330</v>
       </c>
@@ -7778,7 +8683,7 @@
       <c r="H299" s="14"/>
       <c r="I299" s="14"/>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>330</v>
       </c>
@@ -7795,7 +8700,7 @@
       <c r="H300" s="14"/>
       <c r="I300" s="14"/>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>330</v>
       </c>
@@ -7812,7 +8717,7 @@
       <c r="H301" s="14"/>
       <c r="I301" s="14"/>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>330</v>
       </c>
@@ -7829,7 +8734,7 @@
       <c r="H302" s="14"/>
       <c r="I302" s="14"/>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>330</v>
       </c>
@@ -7846,7 +8751,7 @@
       <c r="H303" s="14"/>
       <c r="I303" s="14"/>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>330</v>
       </c>
@@ -7863,7 +8768,7 @@
       <c r="H304" s="14"/>
       <c r="I304" s="14"/>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>330</v>
       </c>
@@ -7880,7 +8785,7 @@
       <c r="H305" s="14"/>
       <c r="I305" s="14"/>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>330</v>
       </c>
@@ -7897,7 +8802,7 @@
       <c r="H306" s="14"/>
       <c r="I306" s="14"/>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>330</v>
       </c>
@@ -7916,7 +8821,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>330</v>
       </c>
@@ -7933,7 +8838,7 @@
       <c r="H308" s="14"/>
       <c r="I308" s="14"/>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>330</v>
       </c>
@@ -7950,7 +8855,7 @@
       <c r="H309" s="14"/>
       <c r="I309" s="14"/>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>330</v>
       </c>
@@ -7967,7 +8872,7 @@
       <c r="H310" s="14"/>
       <c r="I310" s="14"/>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>330</v>
       </c>
@@ -7984,7 +8889,7 @@
       <c r="H311" s="14"/>
       <c r="I311" s="14"/>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>330</v>
       </c>
@@ -8001,7 +8906,7 @@
       <c r="H312" s="14"/>
       <c r="I312" s="14"/>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>330</v>
       </c>
@@ -8018,7 +8923,7 @@
       <c r="H313" s="14"/>
       <c r="I313" s="14"/>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="11"/>
       <c r="B314" s="7" t="s">
         <v>368</v>
@@ -8033,7 +8938,7 @@
       <c r="H314" s="14"/>
       <c r="I314" s="14"/>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>369</v>
       </c>
@@ -8050,7 +8955,7 @@
       <c r="H315" s="14"/>
       <c r="I315" s="14"/>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>369</v>
       </c>
@@ -8067,7 +8972,7 @@
       <c r="H316" s="14"/>
       <c r="I316" s="14"/>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>369</v>
       </c>
@@ -8084,7 +8989,7 @@
       <c r="H317" s="14"/>
       <c r="I317" s="14"/>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>369</v>
       </c>
@@ -8101,7 +9006,7 @@
       <c r="H318" s="14"/>
       <c r="I318" s="14"/>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>369</v>
       </c>
@@ -8118,7 +9023,7 @@
       <c r="H319" s="14"/>
       <c r="I319" s="14"/>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>369</v>
       </c>
@@ -8135,7 +9040,7 @@
       <c r="H320" s="14"/>
       <c r="I320" s="14"/>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>369</v>
       </c>
@@ -8152,7 +9057,7 @@
       <c r="H321" s="14"/>
       <c r="I321" s="14"/>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>369</v>
       </c>
@@ -8169,7 +9074,7 @@
       <c r="H322" s="14"/>
       <c r="I322" s="14"/>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>369</v>
       </c>
@@ -8188,7 +9093,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>369</v>
       </c>
@@ -8205,7 +9110,7 @@
       <c r="H324" s="14"/>
       <c r="I324" s="14"/>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>369</v>
       </c>
@@ -8222,7 +9127,7 @@
       <c r="H325" s="14"/>
       <c r="I325" s="14"/>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>369</v>
       </c>
@@ -8239,7 +9144,7 @@
       <c r="H326" s="14"/>
       <c r="I326" s="14"/>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>369</v>
       </c>
@@ -8256,7 +9161,7 @@
       <c r="H327" s="14"/>
       <c r="I327" s="14"/>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
         <v>369</v>
       </c>
@@ -8273,7 +9178,7 @@
       <c r="H328" s="14"/>
       <c r="I328" s="14"/>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>369</v>
       </c>
@@ -8290,7 +9195,7 @@
       <c r="H329" s="14"/>
       <c r="I329" s="14"/>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>369</v>
       </c>
@@ -8307,7 +9212,7 @@
       <c r="H330" s="14"/>
       <c r="I330" s="14"/>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>369</v>
       </c>
@@ -8324,7 +9229,7 @@
       <c r="H331" s="14"/>
       <c r="I331" s="14"/>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>369</v>
       </c>
@@ -8341,7 +9246,7 @@
       <c r="H332" s="14"/>
       <c r="I332" s="14"/>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>369</v>
       </c>
@@ -8358,7 +9263,7 @@
       <c r="H333" s="14"/>
       <c r="I333" s="14"/>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>369</v>
       </c>
@@ -8375,7 +9280,7 @@
       <c r="H334" s="14"/>
       <c r="I334" s="14"/>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>369</v>
       </c>
@@ -8392,7 +9297,7 @@
       <c r="H335" s="14"/>
       <c r="I335" s="14"/>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
         <v>369</v>
       </c>
@@ -8409,7 +9314,7 @@
       <c r="H336" s="14"/>
       <c r="I336" s="14"/>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>369</v>
       </c>
@@ -8426,7 +9331,7 @@
       <c r="H337" s="14"/>
       <c r="I337" s="14"/>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>369</v>
       </c>
@@ -8443,7 +9348,7 @@
       <c r="H338" s="14"/>
       <c r="I338" s="14"/>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -8460,7 +9365,7 @@
       <c r="H339" s="14"/>
       <c r="I339" s="14"/>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>369</v>
       </c>
@@ -8477,7 +9382,7 @@
       <c r="H340" s="14"/>
       <c r="I340" s="14"/>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
         <v>369</v>
       </c>
@@ -8494,7 +9399,7 @@
       <c r="H341" s="14"/>
       <c r="I341" s="14"/>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>369</v>
       </c>
@@ -8511,7 +9416,7 @@
       <c r="H342" s="14"/>
       <c r="I342" s="14"/>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>369</v>
       </c>
@@ -8528,7 +9433,7 @@
       <c r="H343" s="14"/>
       <c r="I343" s="14"/>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>369</v>
       </c>
@@ -8545,7 +9450,7 @@
       <c r="H344" s="14"/>
       <c r="I344" s="14"/>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>369</v>
       </c>
@@ -8562,7 +9467,7 @@
       <c r="H345" s="14"/>
       <c r="I345" s="14"/>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
         <v>369</v>
       </c>
@@ -8579,7 +9484,7 @@
       <c r="H346" s="14"/>
       <c r="I346" s="14"/>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>369</v>
       </c>
@@ -8598,7 +9503,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
         <v>369</v>
       </c>
@@ -8615,7 +9520,7 @@
       <c r="H348" s="14"/>
       <c r="I348" s="14"/>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
         <v>369</v>
       </c>
@@ -8632,7 +9537,7 @@
       <c r="H349" s="14"/>
       <c r="I349" s="14"/>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="11"/>
       <c r="B350" s="7" t="s">
         <v>407</v>
@@ -8647,7 +9552,7 @@
       <c r="H350" s="14"/>
       <c r="I350" s="14"/>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>408</v>
       </c>
@@ -8664,7 +9569,7 @@
       <c r="H351" s="14"/>
       <c r="I351" s="14"/>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
         <v>408</v>
       </c>
@@ -8681,7 +9586,7 @@
       <c r="H352" s="14"/>
       <c r="I352" s="14"/>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
         <v>408</v>
       </c>
@@ -8698,7 +9603,7 @@
       <c r="H353" s="14"/>
       <c r="I353" s="14"/>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>408</v>
       </c>
@@ -8715,7 +9620,7 @@
       <c r="H354" s="14"/>
       <c r="I354" s="14"/>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>408</v>
       </c>
@@ -8732,7 +9637,7 @@
       <c r="H355" s="14"/>
       <c r="I355" s="14"/>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>408</v>
       </c>
@@ -8749,7 +9654,7 @@
       <c r="H356" s="14"/>
       <c r="I356" s="14"/>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>408</v>
       </c>
@@ -8766,7 +9671,7 @@
       <c r="H357" s="14"/>
       <c r="I357" s="14"/>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>408</v>
       </c>
@@ -8783,7 +9688,7 @@
       <c r="H358" s="14"/>
       <c r="I358" s="14"/>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>408</v>
       </c>
@@ -8800,7 +9705,7 @@
       <c r="H359" s="14"/>
       <c r="I359" s="14"/>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>408</v>
       </c>
@@ -8817,7 +9722,7 @@
       <c r="H360" s="14"/>
       <c r="I360" s="14"/>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>408</v>
       </c>
@@ -8834,7 +9739,7 @@
       <c r="H361" s="14"/>
       <c r="I361" s="14"/>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>408</v>
       </c>
@@ -8851,7 +9756,7 @@
       <c r="H362" s="14"/>
       <c r="I362" s="14"/>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>408</v>
       </c>
@@ -8870,7 +9775,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>408</v>
       </c>
@@ -8887,7 +9792,7 @@
       <c r="H364" s="14"/>
       <c r="I364" s="14"/>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>408</v>
       </c>
@@ -8904,7 +9809,7 @@
       <c r="H365" s="14"/>
       <c r="I365" s="14"/>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>408</v>
       </c>
@@ -8921,7 +9826,7 @@
       <c r="H366" s="14"/>
       <c r="I366" s="14"/>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>408</v>
       </c>
@@ -8938,7 +9843,7 @@
       <c r="H367" s="14"/>
       <c r="I367" s="14"/>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>408</v>
       </c>
@@ -8955,7 +9860,7 @@
       <c r="H368" s="14"/>
       <c r="I368" s="14"/>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>408</v>
       </c>
@@ -8974,7 +9879,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>408</v>
       </c>
@@ -8991,7 +9896,7 @@
       <c r="H370" s="14"/>
       <c r="I370" s="14"/>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>408</v>
       </c>
@@ -9008,7 +9913,7 @@
       <c r="H371" s="14"/>
       <c r="I371" s="14"/>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>408</v>
       </c>
@@ -9025,7 +9930,7 @@
       <c r="H372" s="14"/>
       <c r="I372" s="14"/>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>408</v>
       </c>
@@ -9042,7 +9947,7 @@
       <c r="H373" s="14"/>
       <c r="I373" s="14"/>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>408</v>
       </c>
@@ -9059,7 +9964,7 @@
       <c r="H374" s="14"/>
       <c r="I374" s="14"/>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>408</v>
       </c>
@@ -9076,7 +9981,7 @@
       <c r="H375" s="14"/>
       <c r="I375" s="14"/>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>408</v>
       </c>
@@ -9093,7 +9998,7 @@
       <c r="H376" s="14"/>
       <c r="I376" s="14"/>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>408</v>
       </c>
@@ -9110,7 +10015,7 @@
       <c r="H377" s="14"/>
       <c r="I377" s="14"/>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
         <v>408</v>
       </c>
@@ -9127,7 +10032,7 @@
       <c r="H378" s="14"/>
       <c r="I378" s="14"/>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
         <v>408</v>
       </c>
@@ -9144,7 +10049,7 @@
       <c r="H379" s="14"/>
       <c r="I379" s="14"/>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
         <v>408</v>
       </c>
@@ -9161,7 +10066,7 @@
       <c r="H380" s="14"/>
       <c r="I380" s="14"/>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>408</v>
       </c>
@@ -9178,7 +10083,7 @@
       <c r="H381" s="14"/>
       <c r="I381" s="14"/>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>408</v>
       </c>
@@ -9195,7 +10100,7 @@
       <c r="H382" s="14"/>
       <c r="I382" s="14"/>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
         <v>408</v>
       </c>
@@ -9212,7 +10117,7 @@
       <c r="H383" s="14"/>
       <c r="I383" s="14"/>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>408</v>
       </c>
@@ -9229,7 +10134,7 @@
       <c r="H384" s="14"/>
       <c r="I384" s="14"/>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>408</v>
       </c>
@@ -9246,7 +10151,7 @@
       <c r="H385" s="14"/>
       <c r="I385" s="14"/>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
         <v>408</v>
       </c>
@@ -9263,7 +10168,7 @@
       <c r="H386" s="14"/>
       <c r="I386" s="14"/>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
         <v>408</v>
       </c>
@@ -9280,7 +10185,7 @@
       <c r="H387" s="14"/>
       <c r="I387" s="14"/>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
         <v>408</v>
       </c>
@@ -9297,7 +10202,7 @@
       <c r="H388" s="14"/>
       <c r="I388" s="14"/>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
         <v>408</v>
       </c>
@@ -9314,7 +10219,7 @@
       <c r="H389" s="14"/>
       <c r="I389" s="14"/>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
         <v>408</v>
       </c>
@@ -9333,7 +10238,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
         <v>408</v>
       </c>
@@ -9350,7 +10255,7 @@
       <c r="H391" s="14"/>
       <c r="I391" s="14"/>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
         <v>408</v>
       </c>
@@ -9367,7 +10272,7 @@
       <c r="H392" s="14"/>
       <c r="I392" s="14"/>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>408</v>
       </c>
@@ -9384,7 +10289,7 @@
       <c r="H393" s="14"/>
       <c r="I393" s="14"/>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
         <v>408</v>
       </c>
@@ -9401,7 +10306,7 @@
       <c r="H394" s="14"/>
       <c r="I394" s="14"/>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
         <v>408</v>
       </c>
@@ -9418,7 +10323,7 @@
       <c r="H395" s="14"/>
       <c r="I395" s="14"/>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
         <v>408</v>
       </c>
@@ -9435,7 +10340,7 @@
       <c r="H396" s="14"/>
       <c r="I396" s="14"/>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>408</v>
       </c>
@@ -9452,7 +10357,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>408</v>
       </c>
@@ -9469,7 +10374,7 @@
       <c r="H398" s="14"/>
       <c r="I398" s="14"/>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
         <v>408</v>
       </c>
@@ -9486,7 +10391,7 @@
       <c r="H399" s="14"/>
       <c r="I399" s="14"/>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
         <v>408</v>
       </c>
@@ -9503,7 +10408,7 @@
       <c r="H400" s="14"/>
       <c r="I400" s="14"/>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
         <v>408</v>
       </c>
@@ -9520,7 +10425,7 @@
       <c r="H401" s="14"/>
       <c r="I401" s="14"/>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
         <v>408</v>
       </c>
@@ -9537,7 +10442,7 @@
       <c r="H402" s="14"/>
       <c r="I402" s="14"/>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
         <v>408</v>
       </c>
@@ -9554,7 +10459,7 @@
       <c r="H403" s="14"/>
       <c r="I403" s="14"/>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
         <v>408</v>
       </c>
@@ -9571,7 +10476,7 @@
       <c r="H404" s="14"/>
       <c r="I404" s="14"/>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="6" t="s">
         <v>408</v>
       </c>
@@ -9588,7 +10493,7 @@
       <c r="H405" s="14"/>
       <c r="I405" s="14"/>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
         <v>408</v>
       </c>
@@ -9605,7 +10510,7 @@
       <c r="H406" s="14"/>
       <c r="I406" s="14"/>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="6" t="s">
         <v>408</v>
       </c>
@@ -9622,7 +10527,7 @@
       <c r="H407" s="14"/>
       <c r="I407" s="14"/>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
         <v>408</v>
       </c>
@@ -9639,7 +10544,7 @@
       <c r="H408" s="14"/>
       <c r="I408" s="14"/>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
         <v>408</v>
       </c>
@@ -9656,7 +10561,7 @@
       <c r="H409" s="14"/>
       <c r="I409" s="14"/>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="11"/>
       <c r="B410" s="7" t="s">
         <v>472</v>
@@ -9671,7 +10576,7 @@
       <c r="H410" s="14"/>
       <c r="I410" s="14"/>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
         <v>473</v>
       </c>
@@ -9686,7 +10591,7 @@
       <c r="H411" s="14"/>
       <c r="I411" s="14"/>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
         <v>473</v>
       </c>
@@ -9701,7 +10606,7 @@
       <c r="H412" s="14"/>
       <c r="I412" s="14"/>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
         <v>473</v>
       </c>
@@ -9716,7 +10621,7 @@
       <c r="H413" s="14"/>
       <c r="I413" s="14"/>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
         <v>473</v>
       </c>
@@ -9731,7 +10636,7 @@
       <c r="H414" s="14"/>
       <c r="I414" s="14"/>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
         <v>473</v>
       </c>
@@ -9746,7 +10651,7 @@
       <c r="H415" s="14"/>
       <c r="I415" s="14"/>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
         <v>473</v>
       </c>
@@ -9761,7 +10666,7 @@
       <c r="H416" s="14"/>
       <c r="I416" s="14"/>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
         <v>473</v>
       </c>
@@ -9776,7 +10681,7 @@
       <c r="H417" s="14"/>
       <c r="I417" s="14"/>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="6" t="s">
         <v>473</v>
       </c>
@@ -9791,7 +10696,7 @@
       <c r="H418" s="14"/>
       <c r="I418" s="14"/>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="6" t="s">
         <v>473</v>
       </c>
@@ -9806,7 +10711,7 @@
       <c r="H419" s="14"/>
       <c r="I419" s="14"/>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
         <v>473</v>
       </c>
@@ -9821,7 +10726,7 @@
       <c r="H420" s="14"/>
       <c r="I420" s="14"/>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
         <v>473</v>
       </c>
@@ -9836,7 +10741,7 @@
       <c r="H421" s="14"/>
       <c r="I421" s="14"/>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="6" t="s">
         <v>473</v>
       </c>
@@ -9851,7 +10756,7 @@
       <c r="H422" s="14"/>
       <c r="I422" s="14"/>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
         <v>473</v>
       </c>
@@ -9866,7 +10771,7 @@
       <c r="H423" s="14"/>
       <c r="I423" s="14"/>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="6" t="s">
         <v>473</v>
       </c>
@@ -9881,7 +10786,7 @@
       <c r="H424" s="14"/>
       <c r="I424" s="14"/>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="6" t="s">
         <v>473</v>
       </c>
@@ -9896,7 +10801,7 @@
       <c r="H425" s="14"/>
       <c r="I425" s="14"/>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="6" t="s">
         <v>473</v>
       </c>
@@ -9911,7 +10816,7 @@
       <c r="H426" s="14"/>
       <c r="I426" s="14"/>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
         <v>473</v>
       </c>
@@ -9926,7 +10831,7 @@
       <c r="H427" s="14"/>
       <c r="I427" s="14"/>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="6" t="s">
         <v>473</v>
       </c>
@@ -9941,7 +10846,7 @@
       <c r="H428" s="14"/>
       <c r="I428" s="14"/>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="6" t="s">
         <v>473</v>
       </c>
@@ -9956,7 +10861,7 @@
       <c r="H429" s="14"/>
       <c r="I429" s="14"/>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="6" t="s">
         <v>473</v>
       </c>
@@ -9971,7 +10876,7 @@
       <c r="H430" s="14"/>
       <c r="I430" s="14"/>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="6" t="s">
         <v>473</v>
       </c>
@@ -9986,7 +10891,7 @@
       <c r="H431" s="14"/>
       <c r="I431" s="14"/>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
         <v>473</v>
       </c>
@@ -10001,1403 +10906,1403 @@
       <c r="H432" s="14"/>
       <c r="I432" s="14"/>
     </row>
-    <row r="433" spans="1:1" ht="15.75" customHeight="1">
+    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="12"/>
     </row>
-    <row r="434" spans="1:1" ht="15.75" customHeight="1">
+    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="12"/>
     </row>
-    <row r="435" spans="1:1" ht="15.75" customHeight="1">
+    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="12"/>
     </row>
-    <row r="436" spans="1:1" ht="15.75" customHeight="1">
+    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="12"/>
     </row>
-    <row r="437" spans="1:1" ht="15.75" customHeight="1">
+    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="12"/>
     </row>
-    <row r="438" spans="1:1" ht="15.75" customHeight="1">
+    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="12"/>
     </row>
-    <row r="439" spans="1:1" ht="15.75" customHeight="1">
+    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="12"/>
     </row>
-    <row r="440" spans="1:1" ht="15.75" customHeight="1">
+    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="12"/>
     </row>
-    <row r="441" spans="1:1" ht="15.75" customHeight="1">
+    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="12"/>
     </row>
-    <row r="442" spans="1:1" ht="15.75" customHeight="1">
+    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="12"/>
     </row>
-    <row r="443" spans="1:1" ht="15.75" customHeight="1">
+    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="12"/>
     </row>
-    <row r="444" spans="1:1" ht="15.75" customHeight="1">
+    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="12"/>
     </row>
-    <row r="445" spans="1:1" ht="15.75" customHeight="1">
+    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="12"/>
     </row>
-    <row r="446" spans="1:1" ht="15.75" customHeight="1">
+    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="12"/>
     </row>
-    <row r="447" spans="1:1" ht="15.75" customHeight="1">
+    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="12"/>
     </row>
-    <row r="448" spans="1:1" ht="15.75" customHeight="1">
+    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="12"/>
     </row>
-    <row r="449" spans="1:1" ht="15.75" customHeight="1">
+    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="12"/>
     </row>
-    <row r="450" spans="1:1" ht="15.75" customHeight="1">
+    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="12"/>
     </row>
-    <row r="451" spans="1:1" ht="15.75" customHeight="1">
+    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="12"/>
     </row>
-    <row r="452" spans="1:1" ht="15.75" customHeight="1">
+    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="12"/>
     </row>
-    <row r="453" spans="1:1" ht="15.75" customHeight="1">
+    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="12"/>
     </row>
-    <row r="454" spans="1:1" ht="15.75" customHeight="1">
+    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="12"/>
     </row>
-    <row r="455" spans="1:1" ht="15.75" customHeight="1">
+    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="12"/>
     </row>
-    <row r="456" spans="1:1" ht="15.75" customHeight="1">
+    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="12"/>
     </row>
-    <row r="457" spans="1:1" ht="15.75" customHeight="1">
+    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="12"/>
     </row>
-    <row r="458" spans="1:1" ht="15.75" customHeight="1">
+    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="12"/>
     </row>
-    <row r="459" spans="1:1" ht="15.75" customHeight="1">
+    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="12"/>
     </row>
-    <row r="460" spans="1:1" ht="15.75" customHeight="1">
+    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="12"/>
     </row>
-    <row r="461" spans="1:1" ht="15.75" customHeight="1">
+    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="12"/>
     </row>
-    <row r="462" spans="1:1" ht="15.75" customHeight="1">
+    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="12"/>
     </row>
-    <row r="463" spans="1:1" ht="15.75" customHeight="1">
+    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="12"/>
     </row>
-    <row r="464" spans="1:1" ht="15.75" customHeight="1">
+    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="12"/>
     </row>
-    <row r="465" spans="1:1" ht="15.75" customHeight="1">
+    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="12"/>
     </row>
-    <row r="466" spans="1:1" ht="15.75" customHeight="1">
+    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="12"/>
     </row>
-    <row r="467" spans="1:1" ht="15.75" customHeight="1">
+    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="12"/>
     </row>
-    <row r="468" spans="1:1" ht="15.75" customHeight="1">
+    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="12"/>
     </row>
-    <row r="469" spans="1:1" ht="15.75" customHeight="1">
+    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="12"/>
     </row>
-    <row r="470" spans="1:1" ht="15.75" customHeight="1">
+    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="12"/>
     </row>
-    <row r="471" spans="1:1" ht="15.75" customHeight="1">
+    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="12"/>
     </row>
-    <row r="472" spans="1:1" ht="15.75" customHeight="1">
+    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="12"/>
     </row>
-    <row r="473" spans="1:1" ht="15.75" customHeight="1">
+    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="12"/>
     </row>
-    <row r="474" spans="1:1" ht="15.75" customHeight="1">
+    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="12"/>
     </row>
-    <row r="475" spans="1:1" ht="15.75" customHeight="1">
+    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="12"/>
     </row>
-    <row r="476" spans="1:1" ht="15.75" customHeight="1">
+    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="12"/>
     </row>
-    <row r="477" spans="1:1" ht="15.75" customHeight="1">
+    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="12"/>
     </row>
-    <row r="478" spans="1:1" ht="15.75" customHeight="1">
+    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="12"/>
     </row>
-    <row r="479" spans="1:1" ht="15.75" customHeight="1">
+    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="12"/>
     </row>
-    <row r="480" spans="1:1" ht="15.75" customHeight="1">
+    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="12"/>
     </row>
-    <row r="481" spans="1:1" ht="15.75" customHeight="1">
+    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="12"/>
     </row>
-    <row r="482" spans="1:1" ht="15.75" customHeight="1">
+    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="12"/>
     </row>
-    <row r="483" spans="1:1" ht="15.75" customHeight="1">
+    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="12"/>
     </row>
-    <row r="484" spans="1:1" ht="15.75" customHeight="1">
+    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="12"/>
     </row>
-    <row r="485" spans="1:1" ht="15.75" customHeight="1">
+    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="12"/>
     </row>
-    <row r="486" spans="1:1" ht="15.75" customHeight="1">
+    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="12"/>
     </row>
-    <row r="487" spans="1:1" ht="15.75" customHeight="1">
+    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="12"/>
     </row>
-    <row r="488" spans="1:1" ht="15.75" customHeight="1">
+    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="12"/>
     </row>
-    <row r="489" spans="1:1" ht="15.75" customHeight="1">
+    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="12"/>
     </row>
-    <row r="490" spans="1:1" ht="15.75" customHeight="1">
+    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="12"/>
     </row>
-    <row r="491" spans="1:1" ht="15.75" customHeight="1">
+    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="12"/>
     </row>
-    <row r="492" spans="1:1" ht="15.75" customHeight="1">
+    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="12"/>
     </row>
-    <row r="493" spans="1:1" ht="15.75" customHeight="1">
+    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="12"/>
     </row>
-    <row r="494" spans="1:1" ht="15.75" customHeight="1">
+    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="12"/>
     </row>
-    <row r="495" spans="1:1" ht="15.75" customHeight="1">
+    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="12"/>
     </row>
-    <row r="496" spans="1:1" ht="15.75" customHeight="1">
+    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="12"/>
     </row>
-    <row r="497" spans="1:1" ht="15.75" customHeight="1">
+    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="12"/>
     </row>
-    <row r="498" spans="1:1" ht="15.75" customHeight="1">
+    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="12"/>
     </row>
-    <row r="499" spans="1:1" ht="15.75" customHeight="1">
+    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="12"/>
     </row>
-    <row r="500" spans="1:1" ht="15.75" customHeight="1">
+    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="12"/>
     </row>
-    <row r="501" spans="1:1" ht="15.75" customHeight="1">
+    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="12"/>
     </row>
-    <row r="502" spans="1:1" ht="15.75" customHeight="1">
+    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="12"/>
     </row>
-    <row r="503" spans="1:1" ht="15.75" customHeight="1">
+    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="12"/>
     </row>
-    <row r="504" spans="1:1" ht="15.75" customHeight="1">
+    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="12"/>
     </row>
-    <row r="505" spans="1:1" ht="15.75" customHeight="1">
+    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="12"/>
     </row>
-    <row r="506" spans="1:1" ht="15.75" customHeight="1">
+    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="12"/>
     </row>
-    <row r="507" spans="1:1" ht="15.75" customHeight="1">
+    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="12"/>
     </row>
-    <row r="508" spans="1:1" ht="15.75" customHeight="1">
+    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="12"/>
     </row>
-    <row r="509" spans="1:1" ht="15.75" customHeight="1">
+    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="12"/>
     </row>
-    <row r="510" spans="1:1" ht="15.75" customHeight="1">
+    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="12"/>
     </row>
-    <row r="511" spans="1:1" ht="15.75" customHeight="1">
+    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="12"/>
     </row>
-    <row r="512" spans="1:1" ht="15.75" customHeight="1">
+    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="12"/>
     </row>
-    <row r="513" spans="1:1" ht="15.75" customHeight="1">
+    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="12"/>
     </row>
-    <row r="514" spans="1:1" ht="15.75" customHeight="1">
+    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="12"/>
     </row>
-    <row r="515" spans="1:1" ht="15.75" customHeight="1">
+    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="12"/>
     </row>
-    <row r="516" spans="1:1" ht="15.75" customHeight="1">
+    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="12"/>
     </row>
-    <row r="517" spans="1:1" ht="15.75" customHeight="1">
+    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="12"/>
     </row>
-    <row r="518" spans="1:1" ht="15.75" customHeight="1">
+    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="12"/>
     </row>
-    <row r="519" spans="1:1" ht="15.75" customHeight="1">
+    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="12"/>
     </row>
-    <row r="520" spans="1:1" ht="15.75" customHeight="1">
+    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="12"/>
     </row>
-    <row r="521" spans="1:1" ht="15.75" customHeight="1">
+    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="12"/>
     </row>
-    <row r="522" spans="1:1" ht="15.75" customHeight="1">
+    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="12"/>
     </row>
-    <row r="523" spans="1:1" ht="15.75" customHeight="1">
+    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="12"/>
     </row>
-    <row r="524" spans="1:1" ht="15.75" customHeight="1">
+    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="12"/>
     </row>
-    <row r="525" spans="1:1" ht="15.75" customHeight="1">
+    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="12"/>
     </row>
-    <row r="526" spans="1:1" ht="15.75" customHeight="1">
+    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="12"/>
     </row>
-    <row r="527" spans="1:1" ht="15.75" customHeight="1">
+    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="12"/>
     </row>
-    <row r="528" spans="1:1" ht="15.75" customHeight="1">
+    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="12"/>
     </row>
-    <row r="529" spans="1:1" ht="15.75" customHeight="1">
+    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="12"/>
     </row>
-    <row r="530" spans="1:1" ht="15.75" customHeight="1">
+    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="12"/>
     </row>
-    <row r="531" spans="1:1" ht="15.75" customHeight="1">
+    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="12"/>
     </row>
-    <row r="532" spans="1:1" ht="15.75" customHeight="1">
+    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="12"/>
     </row>
-    <row r="533" spans="1:1" ht="15.75" customHeight="1">
+    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="12"/>
     </row>
-    <row r="534" spans="1:1" ht="15.75" customHeight="1">
+    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="12"/>
     </row>
-    <row r="535" spans="1:1" ht="15.75" customHeight="1">
+    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="12"/>
     </row>
-    <row r="536" spans="1:1" ht="15.75" customHeight="1">
+    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="12"/>
     </row>
-    <row r="537" spans="1:1" ht="15.75" customHeight="1">
+    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="12"/>
     </row>
-    <row r="538" spans="1:1" ht="15.75" customHeight="1">
+    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="12"/>
     </row>
-    <row r="539" spans="1:1" ht="15.75" customHeight="1">
+    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="12"/>
     </row>
-    <row r="540" spans="1:1" ht="15.75" customHeight="1">
+    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="12"/>
     </row>
-    <row r="541" spans="1:1" ht="15.75" customHeight="1">
+    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="12"/>
     </row>
-    <row r="542" spans="1:1" ht="15.75" customHeight="1">
+    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="12"/>
     </row>
-    <row r="543" spans="1:1" ht="15.75" customHeight="1">
+    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="12"/>
     </row>
-    <row r="544" spans="1:1" ht="15.75" customHeight="1">
+    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="12"/>
     </row>
-    <row r="545" spans="1:1" ht="15.75" customHeight="1">
+    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="12"/>
     </row>
-    <row r="546" spans="1:1" ht="15.75" customHeight="1">
+    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="12"/>
     </row>
-    <row r="547" spans="1:1" ht="15.75" customHeight="1">
+    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="12"/>
     </row>
-    <row r="548" spans="1:1" ht="15.75" customHeight="1">
+    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="12"/>
     </row>
-    <row r="549" spans="1:1" ht="15.75" customHeight="1">
+    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="12"/>
     </row>
-    <row r="550" spans="1:1" ht="15.75" customHeight="1">
+    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A550" s="12"/>
     </row>
-    <row r="551" spans="1:1" ht="15.75" customHeight="1">
+    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="12"/>
     </row>
-    <row r="552" spans="1:1" ht="15.75" customHeight="1">
+    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="12"/>
     </row>
-    <row r="553" spans="1:1" ht="15.75" customHeight="1">
+    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="12"/>
     </row>
-    <row r="554" spans="1:1" ht="15.75" customHeight="1">
+    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="12"/>
     </row>
-    <row r="555" spans="1:1" ht="15.75" customHeight="1">
+    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="12"/>
     </row>
-    <row r="556" spans="1:1" ht="15.75" customHeight="1">
+    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="12"/>
     </row>
-    <row r="557" spans="1:1" ht="15.75" customHeight="1">
+    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="12"/>
     </row>
-    <row r="558" spans="1:1" ht="15.75" customHeight="1">
+    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="12"/>
     </row>
-    <row r="559" spans="1:1" ht="15.75" customHeight="1">
+    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="12"/>
     </row>
-    <row r="560" spans="1:1" ht="15.75" customHeight="1">
+    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="12"/>
     </row>
-    <row r="561" spans="1:1" ht="15.75" customHeight="1">
+    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="12"/>
     </row>
-    <row r="562" spans="1:1" ht="15.75" customHeight="1">
+    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="12"/>
     </row>
-    <row r="563" spans="1:1" ht="15.75" customHeight="1">
+    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="12"/>
     </row>
-    <row r="564" spans="1:1" ht="15.75" customHeight="1">
+    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="12"/>
     </row>
-    <row r="565" spans="1:1" ht="15.75" customHeight="1">
+    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="12"/>
     </row>
-    <row r="566" spans="1:1" ht="15.75" customHeight="1">
+    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="12"/>
     </row>
-    <row r="567" spans="1:1" ht="15.75" customHeight="1">
+    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="12"/>
     </row>
-    <row r="568" spans="1:1" ht="15.75" customHeight="1">
+    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="12"/>
     </row>
-    <row r="569" spans="1:1" ht="15.75" customHeight="1">
+    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="12"/>
     </row>
-    <row r="570" spans="1:1" ht="15.75" customHeight="1">
+    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="12"/>
     </row>
-    <row r="571" spans="1:1" ht="15.75" customHeight="1">
+    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="12"/>
     </row>
-    <row r="572" spans="1:1" ht="15.75" customHeight="1">
+    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="12"/>
     </row>
-    <row r="573" spans="1:1" ht="15.75" customHeight="1">
+    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="12"/>
     </row>
-    <row r="574" spans="1:1" ht="15.75" customHeight="1">
+    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="12"/>
     </row>
-    <row r="575" spans="1:1" ht="15.75" customHeight="1">
+    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="12"/>
     </row>
-    <row r="576" spans="1:1" ht="15.75" customHeight="1">
+    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="12"/>
     </row>
-    <row r="577" spans="1:1" ht="15.75" customHeight="1">
+    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="12"/>
     </row>
-    <row r="578" spans="1:1" ht="15.75" customHeight="1">
+    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="12"/>
     </row>
-    <row r="579" spans="1:1" ht="15.75" customHeight="1">
+    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="12"/>
     </row>
-    <row r="580" spans="1:1" ht="15.75" customHeight="1">
+    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="12"/>
     </row>
-    <row r="581" spans="1:1" ht="15.75" customHeight="1">
+    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="12"/>
     </row>
-    <row r="582" spans="1:1" ht="15.75" customHeight="1">
+    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A582" s="12"/>
     </row>
-    <row r="583" spans="1:1" ht="15.75" customHeight="1">
+    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="12"/>
     </row>
-    <row r="584" spans="1:1" ht="15.75" customHeight="1">
+    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A584" s="12"/>
     </row>
-    <row r="585" spans="1:1" ht="15.75" customHeight="1">
+    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A585" s="12"/>
     </row>
-    <row r="586" spans="1:1" ht="15.75" customHeight="1">
+    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A586" s="12"/>
     </row>
-    <row r="587" spans="1:1" ht="15.75" customHeight="1">
+    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="12"/>
     </row>
-    <row r="588" spans="1:1" ht="15.75" customHeight="1">
+    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A588" s="12"/>
     </row>
-    <row r="589" spans="1:1" ht="15.75" customHeight="1">
+    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="12"/>
     </row>
-    <row r="590" spans="1:1" ht="15.75" customHeight="1">
+    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A590" s="12"/>
     </row>
-    <row r="591" spans="1:1" ht="15.75" customHeight="1">
+    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A591" s="12"/>
     </row>
-    <row r="592" spans="1:1" ht="15.75" customHeight="1">
+    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A592" s="12"/>
     </row>
-    <row r="593" spans="1:1" ht="15.75" customHeight="1">
+    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="12"/>
     </row>
-    <row r="594" spans="1:1" ht="15.75" customHeight="1">
+    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="12"/>
     </row>
-    <row r="595" spans="1:1" ht="15.75" customHeight="1">
+    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="12"/>
     </row>
-    <row r="596" spans="1:1" ht="15.75" customHeight="1">
+    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="12"/>
     </row>
-    <row r="597" spans="1:1" ht="15.75" customHeight="1">
+    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="12"/>
     </row>
-    <row r="598" spans="1:1" ht="15.75" customHeight="1">
+    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="12"/>
     </row>
-    <row r="599" spans="1:1" ht="15.75" customHeight="1">
+    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A599" s="12"/>
     </row>
-    <row r="600" spans="1:1" ht="15.75" customHeight="1">
+    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="12"/>
     </row>
-    <row r="601" spans="1:1" ht="15.75" customHeight="1">
+    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A601" s="12"/>
     </row>
-    <row r="602" spans="1:1" ht="15.75" customHeight="1">
+    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="12"/>
     </row>
-    <row r="603" spans="1:1" ht="15.75" customHeight="1">
+    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="12"/>
     </row>
-    <row r="604" spans="1:1" ht="15.75" customHeight="1">
+    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="12"/>
     </row>
-    <row r="605" spans="1:1" ht="15.75" customHeight="1">
+    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A605" s="12"/>
     </row>
-    <row r="606" spans="1:1" ht="15.75" customHeight="1">
+    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="12"/>
     </row>
-    <row r="607" spans="1:1" ht="15.75" customHeight="1">
+    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A607" s="12"/>
     </row>
-    <row r="608" spans="1:1" ht="15.75" customHeight="1">
+    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="12"/>
     </row>
-    <row r="609" spans="1:1" ht="15.75" customHeight="1">
+    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" s="12"/>
     </row>
-    <row r="610" spans="1:1" ht="15.75" customHeight="1">
+    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" s="12"/>
     </row>
-    <row r="611" spans="1:1" ht="15.75" customHeight="1">
+    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A611" s="12"/>
     </row>
-    <row r="612" spans="1:1" ht="15.75" customHeight="1">
+    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A612" s="12"/>
     </row>
-    <row r="613" spans="1:1" ht="15.75" customHeight="1">
+    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A613" s="12"/>
     </row>
-    <row r="614" spans="1:1" ht="15.75" customHeight="1">
+    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" s="12"/>
     </row>
-    <row r="615" spans="1:1" ht="15.75" customHeight="1">
+    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A615" s="12"/>
     </row>
-    <row r="616" spans="1:1" ht="15.75" customHeight="1">
+    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A616" s="12"/>
     </row>
-    <row r="617" spans="1:1" ht="15.75" customHeight="1">
+    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A617" s="12"/>
     </row>
-    <row r="618" spans="1:1" ht="15.75" customHeight="1">
+    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" s="12"/>
     </row>
-    <row r="619" spans="1:1" ht="15.75" customHeight="1">
+    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" s="12"/>
     </row>
-    <row r="620" spans="1:1" ht="15.75" customHeight="1">
+    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A620" s="12"/>
     </row>
-    <row r="621" spans="1:1" ht="15.75" customHeight="1">
+    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" s="12"/>
     </row>
-    <row r="622" spans="1:1" ht="15.75" customHeight="1">
+    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A622" s="12"/>
     </row>
-    <row r="623" spans="1:1" ht="15.75" customHeight="1">
+    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A623" s="12"/>
     </row>
-    <row r="624" spans="1:1" ht="15.75" customHeight="1">
+    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A624" s="12"/>
     </row>
-    <row r="625" spans="1:1" ht="15.75" customHeight="1">
+    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A625" s="12"/>
     </row>
-    <row r="626" spans="1:1" ht="15.75" customHeight="1">
+    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A626" s="12"/>
     </row>
-    <row r="627" spans="1:1" ht="15.75" customHeight="1">
+    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A627" s="12"/>
     </row>
-    <row r="628" spans="1:1" ht="15.75" customHeight="1">
+    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A628" s="12"/>
     </row>
-    <row r="629" spans="1:1" ht="15.75" customHeight="1">
+    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A629" s="12"/>
     </row>
-    <row r="630" spans="1:1" ht="15.75" customHeight="1">
+    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A630" s="12"/>
     </row>
-    <row r="631" spans="1:1" ht="15.75" customHeight="1">
+    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A631" s="12"/>
     </row>
-    <row r="632" spans="1:1" ht="15.75" customHeight="1">
+    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A632" s="12"/>
     </row>
-    <row r="633" spans="1:1" ht="15.75" customHeight="1">
+    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A633" s="12"/>
     </row>
-    <row r="634" spans="1:1" ht="15.75" customHeight="1">
+    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A634" s="12"/>
     </row>
-    <row r="635" spans="1:1" ht="15.75" customHeight="1">
+    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A635" s="12"/>
     </row>
-    <row r="636" spans="1:1" ht="15.75" customHeight="1">
+    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A636" s="12"/>
     </row>
-    <row r="637" spans="1:1" ht="15.75" customHeight="1">
+    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A637" s="12"/>
     </row>
-    <row r="638" spans="1:1" ht="15.75" customHeight="1">
+    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" s="12"/>
     </row>
-    <row r="639" spans="1:1" ht="15.75" customHeight="1">
+    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A639" s="12"/>
     </row>
-    <row r="640" spans="1:1" ht="15.75" customHeight="1">
+    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A640" s="12"/>
     </row>
-    <row r="641" spans="1:1" ht="15.75" customHeight="1">
+    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="12"/>
     </row>
-    <row r="642" spans="1:1" ht="15.75" customHeight="1">
+    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A642" s="12"/>
     </row>
-    <row r="643" spans="1:1" ht="15.75" customHeight="1">
+    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A643" s="12"/>
     </row>
-    <row r="644" spans="1:1" ht="15.75" customHeight="1">
+    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="12"/>
     </row>
-    <row r="645" spans="1:1" ht="15.75" customHeight="1">
+    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A645" s="12"/>
     </row>
-    <row r="646" spans="1:1" ht="15.75" customHeight="1">
+    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A646" s="12"/>
     </row>
-    <row r="647" spans="1:1" ht="15.75" customHeight="1">
+    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A647" s="12"/>
     </row>
-    <row r="648" spans="1:1" ht="15.75" customHeight="1">
+    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A648" s="12"/>
     </row>
-    <row r="649" spans="1:1" ht="15.75" customHeight="1">
+    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A649" s="12"/>
     </row>
-    <row r="650" spans="1:1" ht="15.75" customHeight="1">
+    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A650" s="12"/>
     </row>
-    <row r="651" spans="1:1" ht="15.75" customHeight="1">
+    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A651" s="12"/>
     </row>
-    <row r="652" spans="1:1" ht="15.75" customHeight="1">
+    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A652" s="12"/>
     </row>
-    <row r="653" spans="1:1" ht="15.75" customHeight="1">
+    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A653" s="12"/>
     </row>
-    <row r="654" spans="1:1" ht="15.75" customHeight="1">
+    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A654" s="12"/>
     </row>
-    <row r="655" spans="1:1" ht="15.75" customHeight="1">
+    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A655" s="12"/>
     </row>
-    <row r="656" spans="1:1" ht="15.75" customHeight="1">
+    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A656" s="12"/>
     </row>
-    <row r="657" spans="1:1" ht="15.75" customHeight="1">
+    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A657" s="12"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" customHeight="1">
+    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A658" s="12"/>
     </row>
-    <row r="659" spans="1:1" ht="15.75" customHeight="1">
+    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A659" s="12"/>
     </row>
-    <row r="660" spans="1:1" ht="15.75" customHeight="1">
+    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A660" s="12"/>
     </row>
-    <row r="661" spans="1:1" ht="15.75" customHeight="1">
+    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A661" s="12"/>
     </row>
-    <row r="662" spans="1:1" ht="15.75" customHeight="1">
+    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A662" s="12"/>
     </row>
-    <row r="663" spans="1:1" ht="15.75" customHeight="1">
+    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A663" s="12"/>
     </row>
-    <row r="664" spans="1:1" ht="15.75" customHeight="1">
+    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A664" s="12"/>
     </row>
-    <row r="665" spans="1:1" ht="15.75" customHeight="1">
+    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A665" s="12"/>
     </row>
-    <row r="666" spans="1:1" ht="15.75" customHeight="1">
+    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A666" s="12"/>
     </row>
-    <row r="667" spans="1:1" ht="15.75" customHeight="1">
+    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A667" s="12"/>
     </row>
-    <row r="668" spans="1:1" ht="15.75" customHeight="1">
+    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A668" s="12"/>
     </row>
-    <row r="669" spans="1:1" ht="15.75" customHeight="1">
+    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A669" s="12"/>
     </row>
-    <row r="670" spans="1:1" ht="15.75" customHeight="1">
+    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A670" s="12"/>
     </row>
-    <row r="671" spans="1:1" ht="15.75" customHeight="1">
+    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A671" s="12"/>
     </row>
-    <row r="672" spans="1:1" ht="15.75" customHeight="1">
+    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A672" s="12"/>
     </row>
-    <row r="673" spans="1:1" ht="15.75" customHeight="1">
+    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A673" s="12"/>
     </row>
-    <row r="674" spans="1:1" ht="15.75" customHeight="1">
+    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A674" s="12"/>
     </row>
-    <row r="675" spans="1:1" ht="15.75" customHeight="1">
+    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A675" s="12"/>
     </row>
-    <row r="676" spans="1:1" ht="15.75" customHeight="1">
+    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A676" s="12"/>
     </row>
-    <row r="677" spans="1:1" ht="15.75" customHeight="1">
+    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A677" s="12"/>
     </row>
-    <row r="678" spans="1:1" ht="15.75" customHeight="1">
+    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A678" s="12"/>
     </row>
-    <row r="679" spans="1:1" ht="15.75" customHeight="1">
+    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A679" s="12"/>
     </row>
-    <row r="680" spans="1:1" ht="15.75" customHeight="1">
+    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A680" s="12"/>
     </row>
-    <row r="681" spans="1:1" ht="15.75" customHeight="1">
+    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A681" s="12"/>
     </row>
-    <row r="682" spans="1:1" ht="15.75" customHeight="1">
+    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A682" s="12"/>
     </row>
-    <row r="683" spans="1:1" ht="15.75" customHeight="1">
+    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A683" s="12"/>
     </row>
-    <row r="684" spans="1:1" ht="15.75" customHeight="1">
+    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A684" s="12"/>
     </row>
-    <row r="685" spans="1:1" ht="15.75" customHeight="1">
+    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A685" s="12"/>
     </row>
-    <row r="686" spans="1:1" ht="15.75" customHeight="1">
+    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A686" s="12"/>
     </row>
-    <row r="687" spans="1:1" ht="15.75" customHeight="1">
+    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A687" s="12"/>
     </row>
-    <row r="688" spans="1:1" ht="15.75" customHeight="1">
+    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A688" s="12"/>
     </row>
-    <row r="689" spans="1:1" ht="15.75" customHeight="1">
+    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A689" s="12"/>
     </row>
-    <row r="690" spans="1:1" ht="15.75" customHeight="1">
+    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A690" s="12"/>
     </row>
-    <row r="691" spans="1:1" ht="15.75" customHeight="1">
+    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A691" s="12"/>
     </row>
-    <row r="692" spans="1:1" ht="15.75" customHeight="1">
+    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A692" s="12"/>
     </row>
-    <row r="693" spans="1:1" ht="15.75" customHeight="1">
+    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A693" s="12"/>
     </row>
-    <row r="694" spans="1:1" ht="15.75" customHeight="1">
+    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A694" s="12"/>
     </row>
-    <row r="695" spans="1:1" ht="15.75" customHeight="1">
+    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A695" s="12"/>
     </row>
-    <row r="696" spans="1:1" ht="15.75" customHeight="1">
+    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A696" s="12"/>
     </row>
-    <row r="697" spans="1:1" ht="15.75" customHeight="1">
+    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A697" s="12"/>
     </row>
-    <row r="698" spans="1:1" ht="15.75" customHeight="1">
+    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A698" s="12"/>
     </row>
-    <row r="699" spans="1:1" ht="15.75" customHeight="1">
+    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A699" s="12"/>
     </row>
-    <row r="700" spans="1:1" ht="15.75" customHeight="1">
+    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A700" s="12"/>
     </row>
-    <row r="701" spans="1:1" ht="15.75" customHeight="1">
+    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A701" s="12"/>
     </row>
-    <row r="702" spans="1:1" ht="15.75" customHeight="1">
+    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A702" s="12"/>
     </row>
-    <row r="703" spans="1:1" ht="15.75" customHeight="1">
+    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A703" s="12"/>
     </row>
-    <row r="704" spans="1:1" ht="15.75" customHeight="1">
+    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A704" s="12"/>
     </row>
-    <row r="705" spans="1:1" ht="15.75" customHeight="1">
+    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A705" s="12"/>
     </row>
-    <row r="706" spans="1:1" ht="15.75" customHeight="1">
+    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A706" s="12"/>
     </row>
-    <row r="707" spans="1:1" ht="15.75" customHeight="1">
+    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A707" s="12"/>
     </row>
-    <row r="708" spans="1:1" ht="15.75" customHeight="1">
+    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A708" s="12"/>
     </row>
-    <row r="709" spans="1:1" ht="15.75" customHeight="1">
+    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A709" s="12"/>
     </row>
-    <row r="710" spans="1:1" ht="15.75" customHeight="1">
+    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A710" s="12"/>
     </row>
-    <row r="711" spans="1:1" ht="15.75" customHeight="1">
+    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A711" s="12"/>
     </row>
-    <row r="712" spans="1:1" ht="15.75" customHeight="1">
+    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A712" s="12"/>
     </row>
-    <row r="713" spans="1:1" ht="15.75" customHeight="1">
+    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A713" s="12"/>
     </row>
-    <row r="714" spans="1:1" ht="15.75" customHeight="1">
+    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A714" s="12"/>
     </row>
-    <row r="715" spans="1:1" ht="15.75" customHeight="1">
+    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A715" s="12"/>
     </row>
-    <row r="716" spans="1:1" ht="15.75" customHeight="1">
+    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A716" s="12"/>
     </row>
-    <row r="717" spans="1:1" ht="15.75" customHeight="1">
+    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A717" s="12"/>
     </row>
-    <row r="718" spans="1:1" ht="15.75" customHeight="1">
+    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A718" s="12"/>
     </row>
-    <row r="719" spans="1:1" ht="15.75" customHeight="1">
+    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A719" s="12"/>
     </row>
-    <row r="720" spans="1:1" ht="15.75" customHeight="1">
+    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A720" s="12"/>
     </row>
-    <row r="721" spans="1:1" ht="15.75" customHeight="1">
+    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A721" s="12"/>
     </row>
-    <row r="722" spans="1:1" ht="15.75" customHeight="1">
+    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A722" s="12"/>
     </row>
-    <row r="723" spans="1:1" ht="15.75" customHeight="1">
+    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A723" s="12"/>
     </row>
-    <row r="724" spans="1:1" ht="15.75" customHeight="1">
+    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A724" s="12"/>
     </row>
-    <row r="725" spans="1:1" ht="15.75" customHeight="1">
+    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A725" s="12"/>
     </row>
-    <row r="726" spans="1:1" ht="15.75" customHeight="1">
+    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A726" s="12"/>
     </row>
-    <row r="727" spans="1:1" ht="15.75" customHeight="1">
+    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A727" s="12"/>
     </row>
-    <row r="728" spans="1:1" ht="15.75" customHeight="1">
+    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A728" s="12"/>
     </row>
-    <row r="729" spans="1:1" ht="15.75" customHeight="1">
+    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A729" s="12"/>
     </row>
-    <row r="730" spans="1:1" ht="15.75" customHeight="1">
+    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A730" s="12"/>
     </row>
-    <row r="731" spans="1:1" ht="15.75" customHeight="1">
+    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A731" s="12"/>
     </row>
-    <row r="732" spans="1:1" ht="15.75" customHeight="1">
+    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A732" s="12"/>
     </row>
-    <row r="733" spans="1:1" ht="15.75" customHeight="1">
+    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A733" s="12"/>
     </row>
-    <row r="734" spans="1:1" ht="15.75" customHeight="1">
+    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A734" s="12"/>
     </row>
-    <row r="735" spans="1:1" ht="15.75" customHeight="1">
+    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A735" s="12"/>
     </row>
-    <row r="736" spans="1:1" ht="15.75" customHeight="1">
+    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A736" s="12"/>
     </row>
-    <row r="737" spans="1:1" ht="15.75" customHeight="1">
+    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A737" s="12"/>
     </row>
-    <row r="738" spans="1:1" ht="15.75" customHeight="1">
+    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A738" s="12"/>
     </row>
-    <row r="739" spans="1:1" ht="15.75" customHeight="1">
+    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A739" s="12"/>
     </row>
-    <row r="740" spans="1:1" ht="15.75" customHeight="1">
+    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A740" s="12"/>
     </row>
-    <row r="741" spans="1:1" ht="15.75" customHeight="1">
+    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A741" s="12"/>
     </row>
-    <row r="742" spans="1:1" ht="15.75" customHeight="1">
+    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A742" s="12"/>
     </row>
-    <row r="743" spans="1:1" ht="15.75" customHeight="1">
+    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A743" s="12"/>
     </row>
-    <row r="744" spans="1:1" ht="15.75" customHeight="1">
+    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A744" s="12"/>
     </row>
-    <row r="745" spans="1:1" ht="15.75" customHeight="1">
+    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A745" s="12"/>
     </row>
-    <row r="746" spans="1:1" ht="15.75" customHeight="1">
+    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A746" s="12"/>
     </row>
-    <row r="747" spans="1:1" ht="15.75" customHeight="1">
+    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A747" s="12"/>
     </row>
-    <row r="748" spans="1:1" ht="15.75" customHeight="1">
+    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A748" s="12"/>
     </row>
-    <row r="749" spans="1:1" ht="15.75" customHeight="1">
+    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A749" s="12"/>
     </row>
-    <row r="750" spans="1:1" ht="15.75" customHeight="1">
+    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A750" s="12"/>
     </row>
-    <row r="751" spans="1:1" ht="15.75" customHeight="1">
+    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A751" s="12"/>
     </row>
-    <row r="752" spans="1:1" ht="15.75" customHeight="1">
+    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A752" s="12"/>
     </row>
-    <row r="753" spans="1:1" ht="15.75" customHeight="1">
+    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A753" s="12"/>
     </row>
-    <row r="754" spans="1:1" ht="15.75" customHeight="1">
+    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A754" s="12"/>
     </row>
-    <row r="755" spans="1:1" ht="15.75" customHeight="1">
+    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A755" s="12"/>
     </row>
-    <row r="756" spans="1:1" ht="15.75" customHeight="1">
+    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A756" s="12"/>
     </row>
-    <row r="757" spans="1:1" ht="15.75" customHeight="1">
+    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A757" s="12"/>
     </row>
-    <row r="758" spans="1:1" ht="15.75" customHeight="1">
+    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A758" s="12"/>
     </row>
-    <row r="759" spans="1:1" ht="15.75" customHeight="1">
+    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A759" s="12"/>
     </row>
-    <row r="760" spans="1:1" ht="15.75" customHeight="1">
+    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A760" s="12"/>
     </row>
-    <row r="761" spans="1:1" ht="15.75" customHeight="1">
+    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A761" s="12"/>
     </row>
-    <row r="762" spans="1:1" ht="15.75" customHeight="1">
+    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A762" s="12"/>
     </row>
-    <row r="763" spans="1:1" ht="15.75" customHeight="1">
+    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A763" s="12"/>
     </row>
-    <row r="764" spans="1:1" ht="15.75" customHeight="1">
+    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A764" s="12"/>
     </row>
-    <row r="765" spans="1:1" ht="15.75" customHeight="1">
+    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A765" s="12"/>
     </row>
-    <row r="766" spans="1:1" ht="15.75" customHeight="1">
+    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A766" s="12"/>
     </row>
-    <row r="767" spans="1:1" ht="15.75" customHeight="1">
+    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A767" s="12"/>
     </row>
-    <row r="768" spans="1:1" ht="15.75" customHeight="1">
+    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A768" s="12"/>
     </row>
-    <row r="769" spans="1:1" ht="15.75" customHeight="1">
+    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A769" s="12"/>
     </row>
-    <row r="770" spans="1:1" ht="15.75" customHeight="1">
+    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A770" s="12"/>
     </row>
-    <row r="771" spans="1:1" ht="15.75" customHeight="1">
+    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A771" s="12"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" customHeight="1">
+    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A772" s="12"/>
     </row>
-    <row r="773" spans="1:1" ht="15.75" customHeight="1">
+    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A773" s="12"/>
     </row>
-    <row r="774" spans="1:1" ht="15.75" customHeight="1">
+    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A774" s="12"/>
     </row>
-    <row r="775" spans="1:1" ht="15.75" customHeight="1">
+    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A775" s="12"/>
     </row>
-    <row r="776" spans="1:1" ht="15.75" customHeight="1">
+    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A776" s="12"/>
     </row>
-    <row r="777" spans="1:1" ht="15.75" customHeight="1">
+    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A777" s="12"/>
     </row>
-    <row r="778" spans="1:1" ht="15.75" customHeight="1">
+    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A778" s="12"/>
     </row>
-    <row r="779" spans="1:1" ht="15.75" customHeight="1">
+    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A779" s="12"/>
     </row>
-    <row r="780" spans="1:1" ht="15.75" customHeight="1">
+    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A780" s="12"/>
     </row>
-    <row r="781" spans="1:1" ht="15.75" customHeight="1">
+    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A781" s="12"/>
     </row>
-    <row r="782" spans="1:1" ht="15.75" customHeight="1">
+    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A782" s="12"/>
     </row>
-    <row r="783" spans="1:1" ht="15.75" customHeight="1">
+    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A783" s="12"/>
     </row>
-    <row r="784" spans="1:1" ht="15.75" customHeight="1">
+    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A784" s="12"/>
     </row>
-    <row r="785" spans="1:1" ht="15.75" customHeight="1">
+    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A785" s="12"/>
     </row>
-    <row r="786" spans="1:1" ht="15.75" customHeight="1">
+    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A786" s="12"/>
     </row>
-    <row r="787" spans="1:1" ht="15.75" customHeight="1">
+    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A787" s="12"/>
     </row>
-    <row r="788" spans="1:1" ht="15.75" customHeight="1">
+    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A788" s="12"/>
     </row>
-    <row r="789" spans="1:1" ht="15.75" customHeight="1">
+    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A789" s="12"/>
     </row>
-    <row r="790" spans="1:1" ht="15.75" customHeight="1">
+    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A790" s="12"/>
     </row>
-    <row r="791" spans="1:1" ht="15.75" customHeight="1">
+    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A791" s="12"/>
     </row>
-    <row r="792" spans="1:1" ht="15.75" customHeight="1">
+    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A792" s="12"/>
     </row>
-    <row r="793" spans="1:1" ht="15.75" customHeight="1">
+    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A793" s="12"/>
     </row>
-    <row r="794" spans="1:1" ht="15.75" customHeight="1">
+    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A794" s="12"/>
     </row>
-    <row r="795" spans="1:1" ht="15.75" customHeight="1">
+    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A795" s="12"/>
     </row>
-    <row r="796" spans="1:1" ht="15.75" customHeight="1">
+    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A796" s="12"/>
     </row>
-    <row r="797" spans="1:1" ht="15.75" customHeight="1">
+    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A797" s="12"/>
     </row>
-    <row r="798" spans="1:1" ht="15.75" customHeight="1">
+    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A798" s="12"/>
     </row>
-    <row r="799" spans="1:1" ht="15.75" customHeight="1">
+    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A799" s="12"/>
     </row>
-    <row r="800" spans="1:1" ht="15.75" customHeight="1">
+    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A800" s="12"/>
     </row>
-    <row r="801" spans="1:1" ht="15.75" customHeight="1">
+    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A801" s="12"/>
     </row>
-    <row r="802" spans="1:1" ht="15.75" customHeight="1">
+    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A802" s="12"/>
     </row>
-    <row r="803" spans="1:1" ht="15.75" customHeight="1">
+    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A803" s="12"/>
     </row>
-    <row r="804" spans="1:1" ht="15.75" customHeight="1">
+    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A804" s="12"/>
     </row>
-    <row r="805" spans="1:1" ht="15.75" customHeight="1">
+    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A805" s="12"/>
     </row>
-    <row r="806" spans="1:1" ht="15.75" customHeight="1">
+    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A806" s="12"/>
     </row>
-    <row r="807" spans="1:1" ht="15.75" customHeight="1">
+    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A807" s="12"/>
     </row>
-    <row r="808" spans="1:1" ht="15.75" customHeight="1">
+    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A808" s="12"/>
     </row>
-    <row r="809" spans="1:1" ht="15.75" customHeight="1">
+    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A809" s="12"/>
     </row>
-    <row r="810" spans="1:1" ht="15.75" customHeight="1">
+    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A810" s="12"/>
     </row>
-    <row r="811" spans="1:1" ht="15.75" customHeight="1">
+    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A811" s="12"/>
     </row>
-    <row r="812" spans="1:1" ht="15.75" customHeight="1">
+    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A812" s="12"/>
     </row>
-    <row r="813" spans="1:1" ht="15.75" customHeight="1">
+    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A813" s="12"/>
     </row>
-    <row r="814" spans="1:1" ht="15.75" customHeight="1">
+    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A814" s="12"/>
     </row>
-    <row r="815" spans="1:1" ht="15.75" customHeight="1">
+    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A815" s="12"/>
     </row>
-    <row r="816" spans="1:1" ht="15.75" customHeight="1">
+    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A816" s="12"/>
     </row>
-    <row r="817" spans="1:1" ht="15.75" customHeight="1">
+    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A817" s="12"/>
     </row>
-    <row r="818" spans="1:1" ht="15.75" customHeight="1">
+    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A818" s="12"/>
     </row>
-    <row r="819" spans="1:1" ht="15.75" customHeight="1">
+    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A819" s="12"/>
     </row>
-    <row r="820" spans="1:1" ht="15.75" customHeight="1">
+    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A820" s="12"/>
     </row>
-    <row r="821" spans="1:1" ht="15.75" customHeight="1">
+    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A821" s="12"/>
     </row>
-    <row r="822" spans="1:1" ht="15.75" customHeight="1">
+    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A822" s="12"/>
     </row>
-    <row r="823" spans="1:1" ht="15.75" customHeight="1">
+    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A823" s="12"/>
     </row>
-    <row r="824" spans="1:1" ht="15.75" customHeight="1">
+    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A824" s="12"/>
     </row>
-    <row r="825" spans="1:1" ht="15.75" customHeight="1">
+    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A825" s="12"/>
     </row>
-    <row r="826" spans="1:1" ht="15.75" customHeight="1">
+    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A826" s="12"/>
     </row>
-    <row r="827" spans="1:1" ht="15.75" customHeight="1">
+    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A827" s="12"/>
     </row>
-    <row r="828" spans="1:1" ht="15.75" customHeight="1">
+    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A828" s="12"/>
     </row>
-    <row r="829" spans="1:1" ht="15.75" customHeight="1">
+    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A829" s="12"/>
     </row>
-    <row r="830" spans="1:1" ht="15.75" customHeight="1">
+    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A830" s="12"/>
     </row>
-    <row r="831" spans="1:1" ht="15.75" customHeight="1">
+    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A831" s="12"/>
     </row>
-    <row r="832" spans="1:1" ht="15.75" customHeight="1">
+    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A832" s="12"/>
     </row>
-    <row r="833" spans="1:1" ht="15.75" customHeight="1">
+    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A833" s="12"/>
     </row>
-    <row r="834" spans="1:1" ht="15.75" customHeight="1">
+    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A834" s="12"/>
     </row>
-    <row r="835" spans="1:1" ht="15.75" customHeight="1">
+    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A835" s="12"/>
     </row>
-    <row r="836" spans="1:1" ht="15.75" customHeight="1">
+    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A836" s="12"/>
     </row>
-    <row r="837" spans="1:1" ht="15.75" customHeight="1">
+    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A837" s="12"/>
     </row>
-    <row r="838" spans="1:1" ht="15.75" customHeight="1">
+    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A838" s="12"/>
     </row>
-    <row r="839" spans="1:1" ht="15.75" customHeight="1">
+    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A839" s="12"/>
     </row>
-    <row r="840" spans="1:1" ht="15.75" customHeight="1">
+    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A840" s="12"/>
     </row>
-    <row r="841" spans="1:1" ht="15.75" customHeight="1">
+    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A841" s="12"/>
     </row>
-    <row r="842" spans="1:1" ht="15.75" customHeight="1">
+    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A842" s="12"/>
     </row>
-    <row r="843" spans="1:1" ht="15.75" customHeight="1">
+    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A843" s="12"/>
     </row>
-    <row r="844" spans="1:1" ht="15.75" customHeight="1">
+    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A844" s="12"/>
     </row>
-    <row r="845" spans="1:1" ht="15.75" customHeight="1">
+    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A845" s="12"/>
     </row>
-    <row r="846" spans="1:1" ht="15.75" customHeight="1">
+    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A846" s="12"/>
     </row>
-    <row r="847" spans="1:1" ht="15.75" customHeight="1">
+    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A847" s="12"/>
     </row>
-    <row r="848" spans="1:1" ht="15.75" customHeight="1">
+    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A848" s="12"/>
     </row>
-    <row r="849" spans="1:1" ht="15.75" customHeight="1">
+    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A849" s="12"/>
     </row>
-    <row r="850" spans="1:1" ht="15.75" customHeight="1">
+    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A850" s="12"/>
     </row>
-    <row r="851" spans="1:1" ht="15.75" customHeight="1">
+    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A851" s="12"/>
     </row>
-    <row r="852" spans="1:1" ht="15.75" customHeight="1">
+    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A852" s="12"/>
     </row>
-    <row r="853" spans="1:1" ht="15.75" customHeight="1">
+    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A853" s="12"/>
     </row>
-    <row r="854" spans="1:1" ht="15.75" customHeight="1">
+    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A854" s="12"/>
     </row>
-    <row r="855" spans="1:1" ht="15.75" customHeight="1">
+    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A855" s="12"/>
     </row>
-    <row r="856" spans="1:1" ht="15.75" customHeight="1">
+    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A856" s="12"/>
     </row>
-    <row r="857" spans="1:1" ht="15.75" customHeight="1">
+    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A857" s="12"/>
     </row>
-    <row r="858" spans="1:1" ht="15.75" customHeight="1">
+    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A858" s="12"/>
     </row>
-    <row r="859" spans="1:1" ht="15.75" customHeight="1">
+    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A859" s="12"/>
     </row>
-    <row r="860" spans="1:1" ht="15.75" customHeight="1">
+    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A860" s="12"/>
     </row>
-    <row r="861" spans="1:1" ht="15.75" customHeight="1">
+    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A861" s="12"/>
     </row>
-    <row r="862" spans="1:1" ht="15.75" customHeight="1">
+    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A862" s="12"/>
     </row>
-    <row r="863" spans="1:1" ht="15.75" customHeight="1">
+    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A863" s="12"/>
     </row>
-    <row r="864" spans="1:1" ht="15.75" customHeight="1">
+    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A864" s="12"/>
     </row>
-    <row r="865" spans="1:1" ht="15.75" customHeight="1">
+    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A865" s="12"/>
     </row>
-    <row r="866" spans="1:1" ht="15.75" customHeight="1">
+    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A866" s="12"/>
     </row>
-    <row r="867" spans="1:1" ht="15.75" customHeight="1">
+    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A867" s="12"/>
     </row>
-    <row r="868" spans="1:1" ht="15.75" customHeight="1">
+    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A868" s="12"/>
     </row>
-    <row r="869" spans="1:1" ht="15.75" customHeight="1">
+    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A869" s="12"/>
     </row>
-    <row r="870" spans="1:1" ht="15.75" customHeight="1">
+    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A870" s="12"/>
     </row>
-    <row r="871" spans="1:1" ht="15.75" customHeight="1">
+    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A871" s="12"/>
     </row>
-    <row r="872" spans="1:1" ht="15.75" customHeight="1">
+    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A872" s="12"/>
     </row>
-    <row r="873" spans="1:1" ht="15.75" customHeight="1">
+    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A873" s="12"/>
     </row>
-    <row r="874" spans="1:1" ht="15.75" customHeight="1">
+    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A874" s="12"/>
     </row>
-    <row r="875" spans="1:1" ht="15.75" customHeight="1">
+    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A875" s="12"/>
     </row>
-    <row r="876" spans="1:1" ht="15.75" customHeight="1">
+    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A876" s="12"/>
     </row>
-    <row r="877" spans="1:1" ht="15.75" customHeight="1">
+    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A877" s="12"/>
     </row>
-    <row r="878" spans="1:1" ht="15.75" customHeight="1">
+    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A878" s="12"/>
     </row>
-    <row r="879" spans="1:1" ht="15.75" customHeight="1">
+    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A879" s="12"/>
     </row>
-    <row r="880" spans="1:1" ht="15.75" customHeight="1">
+    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A880" s="12"/>
     </row>
-    <row r="881" spans="1:1" ht="15.75" customHeight="1">
+    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A881" s="12"/>
     </row>
-    <row r="882" spans="1:1" ht="15.75" customHeight="1">
+    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A882" s="12"/>
     </row>
-    <row r="883" spans="1:1" ht="15.75" customHeight="1">
+    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A883" s="12"/>
     </row>
-    <row r="884" spans="1:1" ht="15.75" customHeight="1">
+    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A884" s="12"/>
     </row>
-    <row r="885" spans="1:1" ht="15.75" customHeight="1">
+    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A885" s="12"/>
     </row>
-    <row r="886" spans="1:1" ht="15.75" customHeight="1">
+    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A886" s="12"/>
     </row>
-    <row r="887" spans="1:1" ht="15.75" customHeight="1">
+    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A887" s="12"/>
     </row>
-    <row r="888" spans="1:1" ht="15.75" customHeight="1">
+    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A888" s="12"/>
     </row>
-    <row r="889" spans="1:1" ht="15.75" customHeight="1">
+    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A889" s="12"/>
     </row>
-    <row r="890" spans="1:1" ht="15.75" customHeight="1">
+    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A890" s="12"/>
     </row>
-    <row r="891" spans="1:1" ht="15.75" customHeight="1">
+    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A891" s="12"/>
     </row>
-    <row r="892" spans="1:1" ht="15.75" customHeight="1">
+    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A892" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H892"/>
+  <autoFilter ref="B1:H892" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="C2:C432">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="c">
       <formula>NOT(ISERROR(SEARCH(("c"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I47" r:id="rId1" location="GUID-1A08B87D-D022-4F41-A0CB-B30938EB9EF8"/>
-    <hyperlink ref="I211" r:id="rId2" location="GUID-C94EFDA2-7D3C-4A82-AA0C-94A662767CB7"/>
-    <hyperlink ref="I291" r:id="rId3" location="wp1277848"/>
-    <hyperlink ref="I307" r:id="rId4"/>
-    <hyperlink ref="I323" r:id="rId5" location="comparing"/>
-    <hyperlink ref="I347" r:id="rId6" location="GUID-C4AE2303-3ACC-482E-BDD1-73A61E6E4752"/>
-    <hyperlink ref="I363" r:id="rId7" location="dscpandassuredforwardingclasses"/>
-    <hyperlink ref="I369" r:id="rId8" location="wp5865016930"/>
-    <hyperlink ref="I390" r:id="rId9" location="topic1"/>
+    <hyperlink ref="I47" r:id="rId1" location="GUID-1A08B87D-D022-4F41-A0CB-B30938EB9EF8" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I211" r:id="rId2" location="GUID-C94EFDA2-7D3C-4A82-AA0C-94A662767CB7" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I291" r:id="rId3" location="wp1277848" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I307" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I323" r:id="rId5" location="comparing" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I347" r:id="rId6" location="GUID-C4AE2303-3ACC-482E-BDD1-73A61E6E4752" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I363" r:id="rId7" location="dscpandassuredforwardingclasses" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I369" r:id="rId8" location="wp5865016930" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I390" r:id="rId9" location="topic1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11410,15 +12315,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" customWidth="1"/>
@@ -11432,7 +12337,7 @@
     <col min="12" max="12" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -11447,7 +12352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>43132</v>
       </c>
@@ -11476,7 +12381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>43261</v>
       </c>
@@ -11491,7 +12396,7 @@
         <v>-48</v>
       </c>
       <c r="E3" t="e">
-        <f t="shared" ref="E3:E4" ca="1" si="1">days(A3,A2)</f>
+        <f t="shared" ref="E3:E4" ca="1" si="1">_xludf.days(A3,A2)</f>
         <v>#NAME?</v>
       </c>
       <c r="F3" s="1">
@@ -11516,7 +12421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>43304</v>
       </c>
@@ -11567,123 +12472,1247 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F53FFD-2747-544D-92E8-B9F3A583BF5D}">
+  <dimension ref="A1:N43"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="55" customWidth="1"/>
+    <col min="6" max="6" width="87.6640625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="54" customWidth="1"/>
+    <col min="8" max="8" width="74.5" style="39" customWidth="1"/>
+    <col min="9" max="9" width="104.5" style="54" customWidth="1"/>
+    <col min="10" max="10" width="68.33203125" style="54" customWidth="1"/>
+    <col min="11" max="11" width="52.83203125" style="54" customWidth="1"/>
+    <col min="12" max="12" width="26.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="54" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="1:13" s="39" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" s="25" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="99" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>505</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>560</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>557</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="L6" s="101" t="s">
+        <v>562</v>
+      </c>
+      <c r="M6" s="101" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>637</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>564</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>513</v>
+      </c>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+    </row>
+    <row r="8" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="99" t="s">
+        <v>514</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>566</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:13" s="25" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="J9" s="51"/>
+      <c r="K9" s="58" t="s">
+        <v>570</v>
+      </c>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+    </row>
+    <row r="10" spans="1:13" s="25" customFormat="1" ht="19" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="H10" s="97"/>
+      <c r="I10" s="57" t="s">
+        <v>571</v>
+      </c>
+      <c r="J10" s="51"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+    </row>
+    <row r="11" spans="1:13" s="25" customFormat="1" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="99" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" s="94" t="s">
+        <v>572</v>
+      </c>
+      <c r="G11" s="85"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="60" t="s">
+        <v>573</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="50" t="s">
+        <v>574</v>
+      </c>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+    </row>
+    <row r="12" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="87" t="s">
+        <v>637</v>
+      </c>
+      <c r="H12" s="113"/>
+      <c r="I12" s="61" t="s">
+        <v>575</v>
+      </c>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63" t="s">
+        <v>576</v>
+      </c>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+    </row>
+    <row r="13" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90" t="s">
+        <v>517</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>577</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>578</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>579</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>580</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+    </row>
+    <row r="14" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>582</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>637</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>583</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+    </row>
+    <row r="15" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>638</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>587</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="J15" s="53"/>
+      <c r="K15" s="50" t="s">
+        <v>589</v>
+      </c>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+    </row>
+    <row r="16" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="99" t="s">
+        <v>522</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="G16" s="85"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="J16" s="53"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+    </row>
+    <row r="17" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="90"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="70" t="s">
+        <v>592</v>
+      </c>
+      <c r="J17" s="53"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+    </row>
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="50" t="s">
+        <v>593</v>
+      </c>
+      <c r="J18" s="53"/>
+      <c r="K18" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+    </row>
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="50" t="s">
+        <v>595</v>
+      </c>
+      <c r="J19" s="53"/>
+      <c r="K19" s="70" t="s">
+        <v>596</v>
+      </c>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+    </row>
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="50" t="s">
+        <v>597</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="K20" s="70" t="s">
+        <v>598</v>
+      </c>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+    </row>
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="52" t="s">
+        <v>539</v>
+      </c>
+      <c r="J21" s="53"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+    </row>
+    <row r="22" spans="1:14" s="25" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="H22" s="107"/>
+      <c r="I22" s="50" t="s">
+        <v>599</v>
+      </c>
+      <c r="J22" s="53"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+    </row>
+    <row r="23" spans="1:14" s="25" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="76"/>
+    </row>
+    <row r="24" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="99" t="s">
+        <v>523</v>
+      </c>
+      <c r="B24" s="108" t="s">
+        <v>524</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>525</v>
+      </c>
+      <c r="D24" s="104" t="s">
+        <v>600</v>
+      </c>
+      <c r="E24" s="99" t="s">
+        <v>526</v>
+      </c>
+      <c r="F24" s="94" t="s">
+        <v>601</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="95" t="s">
+        <v>602</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>528</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>603</v>
+      </c>
+      <c r="L24" s="101" t="s">
+        <v>562</v>
+      </c>
+      <c r="M24" s="98" t="s">
+        <v>529</v>
+      </c>
+      <c r="N24" s="54"/>
+    </row>
+    <row r="25" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="90"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="H25" s="97"/>
+      <c r="I25" s="51" t="s">
+        <v>604</v>
+      </c>
+      <c r="J25" s="52"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="54"/>
+    </row>
+    <row r="26" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="90"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="99" t="s">
+        <v>530</v>
+      </c>
+      <c r="F26" s="94" t="s">
+        <v>605</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="95" t="s">
+        <v>606</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>607</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>608</v>
+      </c>
+      <c r="L26" s="102"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="54"/>
+    </row>
+    <row r="27" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="90"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="65" t="s">
+        <v>638</v>
+      </c>
+      <c r="H27" s="97"/>
+      <c r="I27" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="K27" s="50"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="54"/>
+    </row>
+    <row r="28" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="90"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>609</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>637</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>533</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>611</v>
+      </c>
+      <c r="L28" s="102"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="54"/>
+    </row>
+    <row r="29" spans="1:14" s="25" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="91"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="F29" s="78" t="s">
+        <v>612</v>
+      </c>
+      <c r="G29" s="78" t="s">
+        <v>637</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>613</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>614</v>
+      </c>
+      <c r="L29" s="103"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="54"/>
+    </row>
+    <row r="30" spans="1:14" s="25" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+    </row>
+    <row r="31" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="99" t="s">
+        <v>540</v>
+      </c>
+      <c r="B31" s="99" t="s">
+        <v>541</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>542</v>
+      </c>
+      <c r="D31" s="104" t="s">
+        <v>615</v>
+      </c>
+      <c r="E31" s="99" t="s">
+        <v>543</v>
+      </c>
+      <c r="F31" s="94" t="s">
+        <v>616</v>
+      </c>
+      <c r="G31" s="85"/>
+      <c r="H31" s="95" t="s">
+        <v>617</v>
+      </c>
+      <c r="I31" s="83" t="s">
+        <v>618</v>
+      </c>
+      <c r="J31" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>619</v>
+      </c>
+      <c r="L31" s="98" t="s">
+        <v>545</v>
+      </c>
+      <c r="M31" s="98" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="J32" s="51"/>
+      <c r="K32" s="50" t="s">
+        <v>621</v>
+      </c>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+    </row>
+    <row r="33" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="H33" s="97"/>
+      <c r="I33" s="58" t="s">
+        <v>555</v>
+      </c>
+      <c r="J33" s="51"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+    </row>
+    <row r="34" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="F34" s="94" t="s">
+        <v>622</v>
+      </c>
+      <c r="G34" s="85"/>
+      <c r="H34" s="95" t="s">
+        <v>623</v>
+      </c>
+      <c r="I34" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="J34" s="51"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+    </row>
+    <row r="35" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="51" t="s">
+        <v>551</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+    </row>
+    <row r="36" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="H36" s="97"/>
+      <c r="I36" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="J36" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="K36" s="50" t="s">
+        <v>549</v>
+      </c>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+    </row>
+    <row r="37" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="99" t="s">
+        <v>550</v>
+      </c>
+      <c r="F37" s="94" t="s">
+        <v>626</v>
+      </c>
+      <c r="G37" s="85"/>
+      <c r="H37" s="88" t="s">
+        <v>627</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="J37" s="89" t="s">
+        <v>552</v>
+      </c>
+      <c r="K37" s="88" t="s">
+        <v>554</v>
+      </c>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
+    </row>
+    <row r="38" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="90"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="86" t="s">
+        <v>637</v>
+      </c>
+      <c r="H38" s="88"/>
+      <c r="I38" s="70" t="s">
+        <v>629</v>
+      </c>
+      <c r="J38" s="89"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+    </row>
+    <row r="39" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="90" t="s">
+        <v>553</v>
+      </c>
+      <c r="F39" s="92" t="s">
+        <v>630</v>
+      </c>
+      <c r="G39" s="86"/>
+      <c r="H39" s="88" t="s">
+        <v>631</v>
+      </c>
+      <c r="I39" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="J39" s="60"/>
+      <c r="K39" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="L39" s="98"/>
+      <c r="M39" s="98"/>
+    </row>
+    <row r="40" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="90"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="70" t="s">
+        <v>634</v>
+      </c>
+      <c r="J40" s="60"/>
+      <c r="K40" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
+    </row>
+    <row r="41" spans="1:13" s="25" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="H41" s="88"/>
+      <c r="I41" s="70" t="s">
+        <v>636</v>
+      </c>
+      <c r="J41" s="53"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K42" s="84"/>
+    </row>
+    <row r="43" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="L31:L41"/>
+    <mergeCell ref="M31:M41"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="H39:H41"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{D7C432E5-734B-A84F-9513-83614378A680}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{B96A19F3-38A6-DF40-BE4E-7C4F85E2E6AC}"/>
+    <hyperlink ref="H8" r:id="rId3" display="Understanding Cisco Cloud Fundamentals Video Lessons" xr:uid="{6B74A4BF-8137-B44C-829A-33D192D7F7D2}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{59057F98-7A42-C541-B3BB-B4A9D0192019}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{E7CECAA3-C839-1E44-9484-C94E0C070146}"/>
+    <hyperlink ref="K6" r:id="rId6" xr:uid="{7DA62BB9-42AE-734A-8596-61F13AD3C2AD}"/>
+    <hyperlink ref="K7" r:id="rId7" xr:uid="{47F115F9-637C-7942-8FBF-AF4DB1EADA09}"/>
+    <hyperlink ref="K11" r:id="rId8" xr:uid="{F7E6A1D3-A572-2B48-BA3D-AF81EF75C8C5}"/>
+    <hyperlink ref="K8" r:id="rId9" xr:uid="{24A22C04-6F1C-E143-8682-DC1DFFF4CB87}"/>
+    <hyperlink ref="H28" r:id="rId10" xr:uid="{FD16E0B6-9A58-5244-ABD6-0C2A3C1EFBBA}"/>
+    <hyperlink ref="H24" r:id="rId11" display="Introduction to Software Defined Networking (SDN) Live Lessons (ISBN-10: 0-7897-5381-2) " xr:uid="{E0AAB528-39E6-A744-89E3-BBB8B47AF2B1}"/>
+    <hyperlink ref="I24" r:id="rId12" xr:uid="{A1143911-2CD7-734D-8514-A2FF76DEBD18}"/>
+    <hyperlink ref="I26" r:id="rId13" xr:uid="{767ADB27-6B48-9746-A8F3-AD930B5C3505}"/>
+    <hyperlink ref="I28" r:id="rId14" xr:uid="{B5306AE5-4640-9148-8376-A9B7CFF729B4}"/>
+    <hyperlink ref="I29" r:id="rId15" xr:uid="{584947F4-2014-894C-8253-D3ECF6C56FA6}"/>
+    <hyperlink ref="J27" r:id="rId16" xr:uid="{9922A2BA-12F2-8442-A9DD-47E9086A150E}"/>
+    <hyperlink ref="J29" r:id="rId17" xr:uid="{78F003DD-D1DF-994C-B2AF-FE7025740686}"/>
+    <hyperlink ref="K24" r:id="rId18" xr:uid="{B6409C5A-2643-0646-A771-7DD51657AA18}"/>
+    <hyperlink ref="K26" r:id="rId19" xr:uid="{AC4F497A-4BF1-A642-B004-C54D473B2F68}"/>
+    <hyperlink ref="K28" r:id="rId20" xr:uid="{C2268708-672F-114E-9826-40C60B15DF8C}"/>
+    <hyperlink ref="K29" r:id="rId21" xr:uid="{D0A778B6-F684-6B48-B45E-161EA61A6FD1}"/>
+    <hyperlink ref="J31" r:id="rId22" xr:uid="{9E0CB94A-047A-4F40-824A-E933DED4961F}"/>
+    <hyperlink ref="K36" r:id="rId23" xr:uid="{D07E9DCD-8787-2A45-989C-762578765C70}"/>
+    <hyperlink ref="L31" r:id="rId24" xr:uid="{408D28F8-C7CB-5941-B494-250C99BD6912}"/>
+    <hyperlink ref="L36" r:id="rId25" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series" xr:uid="{4C4F7274-7463-7745-A303-592F83BD957B}"/>
+    <hyperlink ref="L41" r:id="rId26" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series" xr:uid="{EF7B30E9-EA92-1743-84BE-39D16F11ECDE}"/>
+    <hyperlink ref="M31" r:id="rId27" xr:uid="{021C2B94-0B1B-E145-8B4A-F790B82CCDBC}"/>
+    <hyperlink ref="M36" r:id="rId28" display="https://developer.cisco.com/site/iot/" xr:uid="{EBEA2BFD-0CE1-4F4E-BD68-A88952576D1C}"/>
+    <hyperlink ref="M41" r:id="rId29" display="https://developer.cisco.com/site/iot/" xr:uid="{DF511EFC-BD64-4A4A-B992-33548B4D7A3E}"/>
+    <hyperlink ref="L24" r:id="rId30" display="CCIE Technical webinars " xr:uid="{7D2F66B2-8DD0-B341-9525-0C006757AE06}"/>
+    <hyperlink ref="L6" r:id="rId31" display="CCIE Technical webinars " xr:uid="{1CBEAFD3-A7E0-9D45-BE17-23CFD0EC0018}"/>
+    <hyperlink ref="M24" r:id="rId32" xr:uid="{8D389C1E-718C-AE46-8C40-A3CE33D71FCA}"/>
+    <hyperlink ref="M26" r:id="rId33" display="https://developer.cisco.com/site/networking/" xr:uid="{326AEB6B-F0C6-CB4F-81B7-8D5BDB059CA8}"/>
+    <hyperlink ref="M28" r:id="rId34" display="https://developer.cisco.com/site/networking/" xr:uid="{ACDB8CC1-028F-8F49-A130-D94DC54DB0CE}"/>
+    <hyperlink ref="M29" r:id="rId35" display="https://developer.cisco.com/site/networking/" xr:uid="{548297E5-49FE-FE42-9FC8-5C5118572E46}"/>
+    <hyperlink ref="M6" r:id="rId36" xr:uid="{02405999-93B8-B14B-8B8F-58C75F556F07}"/>
+    <hyperlink ref="H31" r:id="rId37" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{3ACC2D50-DBED-444B-87BF-EC67CBC7402D}"/>
+    <hyperlink ref="I7" r:id="rId38" location="/video/1509464085M66129455a" xr:uid="{67FC7ABA-3C6C-5745-88C9-F617A259FF80}"/>
+    <hyperlink ref="J24:J26" r:id="rId39" display="Designing and Implementing Cisco Network Programmability (NPDESI)" xr:uid="{30143DE3-E6DC-4F4F-823E-3B8A2B5968DE}"/>
+    <hyperlink ref="J36" r:id="rId40" xr:uid="{3570674C-2C75-4649-874E-71F2B64AA981}"/>
+    <hyperlink ref="K4" r:id="rId41" display="Evolving Technologies Study Guide - By: Nicholas J. Russo CCIE #42518 (RS/SP)" xr:uid="{767A4EAE-B1EA-CB4B-97C3-A78FE9B8D24A}"/>
+    <hyperlink ref="I3" r:id="rId42" display="BRKCCIE-3352 - The Next Generation CCIE" xr:uid="{789A8DA2-10E7-B948-94D0-86D6184C7FBC}"/>
+    <hyperlink ref="H34" r:id="rId43" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{7AC5344E-D6AC-234B-AF3A-B80B0C6C59C9}"/>
+    <hyperlink ref="H39" r:id="rId44" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{7FA1E26B-1548-ED42-AB1C-1438766BCE7F}"/>
+    <hyperlink ref="H26" r:id="rId45" display="Programming and Automating Cisco Networks (ISBN-10: 0-13-443678-4) " xr:uid="{62EC966E-5F04-8643-A80C-AEA669F54DA7}"/>
+    <hyperlink ref="H29" r:id="rId46" xr:uid="{9E072DAA-D609-F745-9BF1-8DE075EE709E}"/>
+    <hyperlink ref="I12" r:id="rId47" xr:uid="{EECE4BD0-E2C2-6E44-AD7E-03E2A56CC376}"/>
+    <hyperlink ref="J8" r:id="rId48" xr:uid="{2A4F0881-E982-4D4F-8793-3E2979A702D8}"/>
+    <hyperlink ref="I10" r:id="rId49" xr:uid="{A1C90AE9-69AA-9749-91F6-245A3BF3649B}"/>
+    <hyperlink ref="I9" r:id="rId50" xr:uid="{10056F58-F0D5-814B-8222-224E369FE93D}"/>
+    <hyperlink ref="I8" r:id="rId51" xr:uid="{64BBD535-3FF0-FC4C-913A-D147EEAC55F8}"/>
+    <hyperlink ref="I25" r:id="rId52" xr:uid="{34713F78-66BF-5845-A1C1-F701DA270DEB}"/>
+    <hyperlink ref="K31" r:id="rId53" xr:uid="{B8B8048F-CF8B-5440-A476-D210F80087EF}"/>
+    <hyperlink ref="K12" r:id="rId54" xr:uid="{6C4EDA26-B2A9-1545-866C-826738A68110}"/>
+    <hyperlink ref="I11" r:id="rId55" display="BRKCLD-2008 - Multi-Cloud and Application Centric Modeling, Deployment and Management with Cisco CloudCenter " xr:uid="{ADA80EA4-DB3C-884A-BB64-C8EB68E16F45}"/>
+    <hyperlink ref="I13" r:id="rId56" xr:uid="{975EC89F-FD21-9B46-9FB8-58F920BA48A7}"/>
+    <hyperlink ref="K15" r:id="rId57" xr:uid="{F9015DB6-4A85-F444-B99A-31C5BD86A98E}"/>
+    <hyperlink ref="I18" r:id="rId58" display="Deploy a Hybrid, Multi-Cloud Container Environment in Less than an Hour - BRKCLD-2235" xr:uid="{4AFBD5CE-7E09-D14F-A363-FEAFC177D02F}"/>
+    <hyperlink ref="I22" r:id="rId59" xr:uid="{49F703E8-9087-DD41-A668-B6D47100FFF8}"/>
+    <hyperlink ref="I15" r:id="rId60" xr:uid="{62D70BC9-4734-CD40-A518-E1EBA2A92363}"/>
+    <hyperlink ref="H13" r:id="rId61" xr:uid="{6C54049E-55B6-994C-9BFC-199B317CEA3A}"/>
+    <hyperlink ref="H14" r:id="rId62" xr:uid="{E70D3A66-CC91-A14F-B7E2-888942E0AF5F}"/>
+    <hyperlink ref="H15" r:id="rId63" xr:uid="{B25EBF1A-3528-6F45-B783-C3D4E5A9F032}"/>
+    <hyperlink ref="I19" r:id="rId64" xr:uid="{E0DD4EB7-D00F-5B4E-B0FC-269784A15763}"/>
+    <hyperlink ref="K19" r:id="rId65" xr:uid="{6C8A71E8-B4C0-E245-9C5B-3E4102A31970}"/>
+    <hyperlink ref="I20" r:id="rId66" xr:uid="{01EFA691-B2D5-F44A-920A-F273C2BF0931}"/>
+    <hyperlink ref="I14" r:id="rId67" xr:uid="{F18323F1-0C58-714B-9FD3-879D828FB6C4}"/>
+    <hyperlink ref="K14" r:id="rId68" xr:uid="{3107ADA7-978A-DB40-8F41-242C17BB4A53}"/>
+    <hyperlink ref="I16" r:id="rId69" xr:uid="{18DEE8DE-F4A1-E14C-9AB6-B8184F0529FA}"/>
+    <hyperlink ref="K9" r:id="rId70" xr:uid="{9A4E36AD-A701-544E-BFC3-4D4FEDB41E83}"/>
+    <hyperlink ref="K20" r:id="rId71" xr:uid="{D275FD09-D351-4946-BB07-B40B3F62A990}"/>
+    <hyperlink ref="K13" r:id="rId72" xr:uid="{EDCBB1CF-7107-2242-824C-42BF10400A62}"/>
+    <hyperlink ref="K18" r:id="rId73" xr:uid="{E164C673-6AF7-2F46-B8E0-56215A56E4D1}"/>
+    <hyperlink ref="I21" r:id="rId74" location="/video/1509464085I780fb5aec" xr:uid="{1BC909AE-91BD-554F-92BD-68E377856A18}"/>
+    <hyperlink ref="I27" r:id="rId75" xr:uid="{755ACBA9-63ED-B940-9BC4-6E19BE1E8EDF}"/>
+    <hyperlink ref="I17" r:id="rId76" xr:uid="{ABB92652-B3C1-0F41-B9BF-4453F4EEDE5D}"/>
+    <hyperlink ref="I37" r:id="rId77" location="/video/1509464085H9c9ccc747" display="SOLSEC-1004 - Securing the IoT" xr:uid="{55BFA2E5-7C00-5C4C-A99C-FA94B984C712}"/>
+    <hyperlink ref="I36" r:id="rId78" xr:uid="{81C992E8-5980-DA47-86C0-2CD48F42FBFA}"/>
+    <hyperlink ref="I38" r:id="rId79" xr:uid="{3622C8FD-DFDA-A441-A782-8B4465C5BCBF}"/>
+    <hyperlink ref="I34" r:id="rId80" xr:uid="{5F78089A-F72B-464C-B577-12C4FD2B67EE}"/>
+    <hyperlink ref="J37" r:id="rId81" xr:uid="{32117DA8-F5A7-F642-9B0B-2AA2AF3F702C}"/>
+    <hyperlink ref="K37" r:id="rId82" xr:uid="{AF5007CD-00CB-B14F-8083-D9254CB6F566}"/>
+    <hyperlink ref="I31" r:id="rId83" xr:uid="{CFCC720F-54D6-5741-8037-BEB1BA0A25EA}"/>
+    <hyperlink ref="I35" r:id="rId84" xr:uid="{C334D070-2858-DC46-B35F-0F99052B70B3}"/>
+    <hyperlink ref="I33" r:id="rId85" xr:uid="{68FFC777-9008-464B-ADA2-55894C2A27EC}"/>
+    <hyperlink ref="I41" r:id="rId86" xr:uid="{AFEEA126-85D0-6C44-A602-60D34D7B7E98}"/>
+    <hyperlink ref="I32" r:id="rId87" xr:uid="{2B29132B-D7D4-444E-9B25-0FDF116447C6}"/>
+    <hyperlink ref="I39" r:id="rId88" xr:uid="{F97FBDAF-0B1B-4C42-85A8-5B80D8486DAF}"/>
+    <hyperlink ref="I40" r:id="rId89" xr:uid="{E9EB1F04-2825-784F-905D-9CB6EE720762}"/>
+    <hyperlink ref="K39" r:id="rId90" location="~stickynav=3" xr:uid="{A8285B42-5244-0648-BE79-6CD004361BF9}"/>
+    <hyperlink ref="K32" r:id="rId91" xr:uid="{B510B71A-031A-0B41-B077-1FE56DBF2FE1}"/>
+    <hyperlink ref="K40" r:id="rId92" xr:uid="{DE932FEC-CD83-5548-93EF-D5075EA5D4BE}"/>
+    <hyperlink ref="M6:M22" r:id="rId93" display="Cloud Dev Center" xr:uid="{6B432815-7A63-A045-B419-798685024484}"/>
+    <hyperlink ref="J26" r:id="rId94" xr:uid="{31E2BB3B-7821-E748-AB06-DF01165465E2}"/>
+    <hyperlink ref="H37:H38" r:id="rId95" display="IoT Fundamentals - Chapter 8" xr:uid="{1647D174-336D-EB44-B200-EA05CE428135}"/>
+    <hyperlink ref="H31:H33" r:id="rId96" display="IoT Fundamentals - Chapters 1, 2, 3, 5, and 6" xr:uid="{54CFB838-AA98-B34B-BBA4-4A1453F6E016}"/>
+    <hyperlink ref="H26:H27" r:id="rId97" display="Programming and Automating Cisco Networks - Chapters 7 and 8" xr:uid="{7DC86B60-BC21-B54F-AC94-6093F5970875}"/>
+    <hyperlink ref="H24:H25" r:id="rId98" display="Introduction to Software Defined Networking (SDN) - LiveLessons " xr:uid="{FC5B265A-87B8-064D-AD78-0AFC6DEDA63C}"/>
+    <hyperlink ref="H8:H10" r:id="rId99" display="Understanding Cisco Cloud Fundamentals - LiveLessons" xr:uid="{D7324FD8-D5EC-7048-A0B1-B5D87EC72BA0}"/>
+    <hyperlink ref="K24:L29" r:id="rId100" display="Simplify and Automate the Virtualized Environment - White Paper" xr:uid="{7CFF943C-FE30-C049-B865-5DBC698AC06B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>63</v>
       </c>

--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\admin\git\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1F31C-E539-E54F-8A3C-CD56920E36FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{11EAACB6-831A-448F-9364-7772AA130A77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="460" windowWidth="33920" windowHeight="19780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4344" yWindow="456" windowWidth="33924" windowHeight="19776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">topics!$B$1:$H$892</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3106,11 +3106,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3118,13 +3124,37 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -3136,32 +3166,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3175,26 +3187,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3552,24 +3552,24 @@
   <dimension ref="A1:I892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="99.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="99.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="15" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="15"/>
+    <col min="9" max="9" width="14.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3587,19 +3587,19 @@
       </c>
       <c r="F1" s="13">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="17">
-        <v>43465</v>
+        <v>43467</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -3764,7 +3764,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -3781,7 +3781,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -3798,7 +3798,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -3883,7 +3883,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
@@ -3917,7 +3917,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -3934,7 +3934,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -3951,7 +3951,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -3968,7 +3968,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -3985,7 +3985,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -4138,7 +4138,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>27</v>
       </c>
@@ -4155,7 +4155,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>27</v>
       </c>
@@ -4206,7 +4206,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>27</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>27</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>27</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>27</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>27</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>27</v>
       </c>
@@ -4325,7 +4325,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>27</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>27</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>27</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>27</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>27</v>
       </c>
@@ -4412,7 +4412,7 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>27</v>
       </c>
@@ -4429,7 +4429,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>27</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>27</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>27</v>
       </c>
@@ -4480,7 +4480,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
-    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>27</v>
       </c>
@@ -4497,7 +4497,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>27</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>27</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>104</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>104</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>104</v>
       </c>
@@ -4582,7 +4582,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>104</v>
       </c>
@@ -4599,7 +4599,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
     </row>
-    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>104</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
     </row>
-    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>104</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
-    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>104</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
     </row>
-    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>104</v>
       </c>
@@ -4667,7 +4667,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>104</v>
       </c>
@@ -4684,7 +4684,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>104</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>104</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>104</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>104</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>104</v>
       </c>
@@ -4769,7 +4769,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>104</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>104</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>104</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>104</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>104</v>
       </c>
@@ -4854,7 +4854,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>104</v>
       </c>
@@ -4871,7 +4871,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>104</v>
       </c>
@@ -4888,7 +4888,7 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>104</v>
       </c>
@@ -4905,7 +4905,7 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>104</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>104</v>
       </c>
@@ -4939,7 +4939,7 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>104</v>
       </c>
@@ -4956,7 +4956,7 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
     </row>
-    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>104</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
     </row>
-    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -4990,7 +4990,7 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>104</v>
       </c>
@@ -5007,7 +5007,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>104</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>104</v>
       </c>
@@ -5041,7 +5041,7 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
     </row>
-    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>104</v>
       </c>
@@ -5058,7 +5058,7 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>104</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>104</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>104</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
     </row>
-    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>104</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>104</v>
       </c>
@@ -5143,7 +5143,7 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
     </row>
-    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>104</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
     </row>
-    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>104</v>
       </c>
@@ -5177,7 +5177,7 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
     </row>
-    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>104</v>
       </c>
@@ -5194,7 +5194,7 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>104</v>
       </c>
@@ -5211,7 +5211,7 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>104</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>104</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>104</v>
       </c>
@@ -5262,7 +5262,7 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>104</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
     </row>
-    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>104</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>104</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>104</v>
       </c>
@@ -5330,7 +5330,7 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
     </row>
-    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>104</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
     </row>
-    <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>104</v>
       </c>
@@ -5364,7 +5364,7 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
     </row>
-    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>104</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
     </row>
-    <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
     </row>
-    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>104</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
     </row>
-    <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>104</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
     </row>
-    <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>104</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
     </row>
-    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>104</v>
       </c>
@@ -5466,7 +5466,7 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
     </row>
-    <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>104</v>
       </c>
@@ -5483,7 +5483,7 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
     </row>
-    <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>104</v>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
     </row>
-    <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>162</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
     </row>
-    <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>162</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
     </row>
-    <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>162</v>
       </c>
@@ -5551,7 +5551,7 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
     </row>
-    <row r="116" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>162</v>
       </c>
@@ -5568,7 +5568,7 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
     </row>
-    <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>162</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
     </row>
-    <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>162</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
     </row>
-    <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>162</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
     </row>
-    <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>162</v>
       </c>
@@ -5636,7 +5636,7 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
     </row>
-    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>162</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
     </row>
-    <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>162</v>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
     </row>
-    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>162</v>
       </c>
@@ -5687,7 +5687,7 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
     </row>
-    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>162</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
     </row>
-    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>162</v>
       </c>
@@ -5721,7 +5721,7 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
     </row>
-    <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>162</v>
       </c>
@@ -5738,7 +5738,7 @@
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
     </row>
-    <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>162</v>
       </c>
@@ -5755,7 +5755,7 @@
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
     </row>
-    <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -5772,7 +5772,7 @@
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
     </row>
-    <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>162</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
     </row>
-    <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>162</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
     </row>
-    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>162</v>
       </c>
@@ -5823,7 +5823,7 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
     </row>
-    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>162</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
     </row>
-    <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>162</v>
       </c>
@@ -5857,7 +5857,7 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
     </row>
-    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>162</v>
       </c>
@@ -5874,7 +5874,7 @@
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
     </row>
-    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>162</v>
       </c>
@@ -5891,7 +5891,7 @@
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
     </row>
-    <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>162</v>
       </c>
@@ -5908,7 +5908,7 @@
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
     </row>
-    <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>162</v>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
     </row>
-    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>162</v>
       </c>
@@ -5942,7 +5942,7 @@
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
     </row>
-    <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>162</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
     </row>
-    <row r="140" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>162</v>
       </c>
@@ -5976,7 +5976,7 @@
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
     </row>
-    <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>162</v>
       </c>
@@ -5993,7 +5993,7 @@
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
     </row>
-    <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>162</v>
       </c>
@@ -6010,7 +6010,7 @@
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
     </row>
-    <row r="143" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>162</v>
       </c>
@@ -6027,7 +6027,7 @@
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
     </row>
-    <row r="144" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>162</v>
       </c>
@@ -6044,7 +6044,7 @@
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
     </row>
-    <row r="145" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>162</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
     </row>
-    <row r="146" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>162</v>
       </c>
@@ -6078,7 +6078,7 @@
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
     </row>
-    <row r="147" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>162</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
     </row>
-    <row r="148" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>162</v>
       </c>
@@ -6112,7 +6112,7 @@
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
     </row>
-    <row r="149" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>162</v>
       </c>
@@ -6129,7 +6129,7 @@
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
     </row>
-    <row r="150" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>162</v>
       </c>
@@ -6146,7 +6146,7 @@
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
     </row>
-    <row r="151" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>162</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
     </row>
-    <row r="152" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>162</v>
       </c>
@@ -6180,7 +6180,7 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
     </row>
-    <row r="153" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>162</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
     </row>
-    <row r="154" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>162</v>
       </c>
@@ -6214,7 +6214,7 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
     </row>
-    <row r="155" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>162</v>
       </c>
@@ -6231,7 +6231,7 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
     </row>
-    <row r="156" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>162</v>
       </c>
@@ -6248,7 +6248,7 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
     </row>
-    <row r="157" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>162</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
     </row>
-    <row r="158" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>162</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
     </row>
-    <row r="159" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>162</v>
       </c>
@@ -6299,7 +6299,7 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
     </row>
-    <row r="160" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>162</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
     </row>
-    <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>162</v>
       </c>
@@ -6333,7 +6333,7 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
     </row>
-    <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>162</v>
       </c>
@@ -6350,7 +6350,7 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
     </row>
-    <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>162</v>
       </c>
@@ -6367,7 +6367,7 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
     </row>
-    <row r="164" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>162</v>
       </c>
@@ -6384,7 +6384,7 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
     </row>
-    <row r="165" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>162</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
     </row>
-    <row r="166" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>162</v>
       </c>
@@ -6418,7 +6418,7 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
     </row>
-    <row r="167" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>162</v>
       </c>
@@ -6435,7 +6435,7 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
     </row>
-    <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>162</v>
       </c>
@@ -6452,7 +6452,7 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>162</v>
       </c>
@@ -6469,7 +6469,7 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
-    <row r="170" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>162</v>
       </c>
@@ -6486,7 +6486,7 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
     </row>
-    <row r="171" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>162</v>
       </c>
@@ -6503,7 +6503,7 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>162</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
     </row>
-    <row r="173" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>162</v>
       </c>
@@ -6537,7 +6537,7 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
     </row>
-    <row r="174" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>162</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
     </row>
-    <row r="175" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>162</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
     </row>
-    <row r="176" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>162</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
     </row>
-    <row r="177" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>162</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
     </row>
-    <row r="178" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>162</v>
       </c>
@@ -6622,7 +6622,7 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
     </row>
-    <row r="179" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>162</v>
       </c>
@@ -6639,7 +6639,7 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
     </row>
-    <row r="180" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>162</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>162</v>
       </c>
@@ -6673,7 +6673,7 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
     </row>
-    <row r="182" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>162</v>
       </c>
@@ -6690,7 +6690,7 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
     </row>
-    <row r="183" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>162</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
     </row>
-    <row r="184" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>162</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
     </row>
-    <row r="185" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>162</v>
       </c>
@@ -6741,7 +6741,7 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
     </row>
-    <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>162</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
     </row>
-    <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>162</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
     </row>
-    <row r="188" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>162</v>
       </c>
@@ -6792,7 +6792,7 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
     </row>
-    <row r="189" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>162</v>
       </c>
@@ -6809,7 +6809,7 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
     </row>
-    <row r="190" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>162</v>
       </c>
@@ -6826,7 +6826,7 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
     </row>
-    <row r="191" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>162</v>
       </c>
@@ -6843,7 +6843,7 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>162</v>
       </c>
@@ -6860,7 +6860,7 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
     </row>
-    <row r="193" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>162</v>
       </c>
@@ -6877,7 +6877,7 @@
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>162</v>
       </c>
@@ -6894,7 +6894,7 @@
       <c r="H194" s="14"/>
       <c r="I194" s="14"/>
     </row>
-    <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>162</v>
       </c>
@@ -6911,7 +6911,7 @@
       <c r="H195" s="14"/>
       <c r="I195" s="14"/>
     </row>
-    <row r="196" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>162</v>
       </c>
@@ -6928,7 +6928,7 @@
       <c r="H196" s="14"/>
       <c r="I196" s="14"/>
     </row>
-    <row r="197" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>162</v>
       </c>
@@ -6945,7 +6945,7 @@
       <c r="H197" s="14"/>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>162</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="H198" s="14"/>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>162</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="H199" s="14"/>
       <c r="I199" s="14"/>
     </row>
-    <row r="200" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>162</v>
       </c>
@@ -6996,7 +6996,7 @@
       <c r="H200" s="14"/>
       <c r="I200" s="14"/>
     </row>
-    <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>162</v>
       </c>
@@ -7013,7 +7013,7 @@
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
     </row>
-    <row r="202" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>162</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="H202" s="14"/>
       <c r="I202" s="14"/>
     </row>
-    <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>162</v>
       </c>
@@ -7047,7 +7047,7 @@
       <c r="H203" s="14"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>162</v>
       </c>
@@ -7064,7 +7064,7 @@
       <c r="H204" s="14"/>
       <c r="I204" s="14"/>
     </row>
-    <row r="205" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>162</v>
       </c>
@@ -7081,7 +7081,7 @@
       <c r="H205" s="14"/>
       <c r="I205" s="14"/>
     </row>
-    <row r="206" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>162</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="H206" s="14"/>
       <c r="I206" s="14"/>
     </row>
-    <row r="207" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>162</v>
       </c>
@@ -7115,7 +7115,7 @@
       <c r="H207" s="14"/>
       <c r="I207" s="14"/>
     </row>
-    <row r="208" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>162</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="H208" s="14"/>
       <c r="I208" s="14"/>
     </row>
-    <row r="209" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>162</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="H209" s="14"/>
       <c r="I209" s="14"/>
     </row>
-    <row r="210" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>162</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="H210" s="14"/>
       <c r="I210" s="14"/>
     </row>
-    <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>162</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>162</v>
       </c>
@@ -7202,7 +7202,7 @@
       <c r="H212" s="14"/>
       <c r="I212" s="14"/>
     </row>
-    <row r="213" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>162</v>
       </c>
@@ -7219,7 +7219,7 @@
       <c r="H213" s="14"/>
       <c r="I213" s="14"/>
     </row>
-    <row r="214" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>162</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="H214" s="14"/>
       <c r="I214" s="14"/>
     </row>
-    <row r="215" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>162</v>
       </c>
@@ -7253,7 +7253,7 @@
       <c r="H215" s="14"/>
       <c r="I215" s="14"/>
     </row>
-    <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>162</v>
       </c>
@@ -7270,7 +7270,7 @@
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
     </row>
-    <row r="217" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>162</v>
       </c>
@@ -7287,7 +7287,7 @@
       <c r="H217" s="14"/>
       <c r="I217" s="14"/>
     </row>
-    <row r="218" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>162</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="H218" s="14"/>
       <c r="I218" s="14"/>
     </row>
-    <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>162</v>
       </c>
@@ -7321,7 +7321,7 @@
       <c r="H219" s="14"/>
       <c r="I219" s="14"/>
     </row>
-    <row r="220" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>162</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="H220" s="14"/>
       <c r="I220" s="14"/>
     </row>
-    <row r="221" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>162</v>
       </c>
@@ -7355,7 +7355,7 @@
       <c r="H221" s="14"/>
       <c r="I221" s="14"/>
     </row>
-    <row r="222" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>162</v>
       </c>
@@ -7372,7 +7372,7 @@
       <c r="H222" s="14"/>
       <c r="I222" s="14"/>
     </row>
-    <row r="223" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>162</v>
       </c>
@@ -7389,7 +7389,7 @@
       <c r="H223" s="14"/>
       <c r="I223" s="14"/>
     </row>
-    <row r="224" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>162</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="H224" s="14"/>
       <c r="I224" s="14"/>
     </row>
-    <row r="225" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>162</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="H225" s="14"/>
       <c r="I225" s="14"/>
     </row>
-    <row r="226" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>162</v>
       </c>
@@ -7440,7 +7440,7 @@
       <c r="H226" s="14"/>
       <c r="I226" s="14"/>
     </row>
-    <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>162</v>
       </c>
@@ -7457,7 +7457,7 @@
       <c r="H227" s="14"/>
       <c r="I227" s="14"/>
     </row>
-    <row r="228" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>162</v>
       </c>
@@ -7474,7 +7474,7 @@
       <c r="H228" s="14"/>
       <c r="I228" s="14"/>
     </row>
-    <row r="229" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>162</v>
       </c>
@@ -7491,7 +7491,7 @@
       <c r="H229" s="14"/>
       <c r="I229" s="14"/>
     </row>
-    <row r="230" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>162</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="H230" s="14"/>
       <c r="I230" s="14"/>
     </row>
-    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>162</v>
       </c>
@@ -7525,7 +7525,7 @@
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
     </row>
-    <row r="232" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>162</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="H232" s="14"/>
       <c r="I232" s="14"/>
     </row>
-    <row r="233" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>162</v>
       </c>
@@ -7559,7 +7559,7 @@
       <c r="H233" s="14"/>
       <c r="I233" s="14"/>
     </row>
-    <row r="234" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>162</v>
       </c>
@@ -7576,7 +7576,7 @@
       <c r="H234" s="14"/>
       <c r="I234" s="14"/>
     </row>
-    <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>162</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="H235" s="14"/>
       <c r="I235" s="14"/>
     </row>
-    <row r="236" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>162</v>
       </c>
@@ -7610,7 +7610,7 @@
       <c r="H236" s="14"/>
       <c r="I236" s="14"/>
     </row>
-    <row r="237" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>162</v>
       </c>
@@ -7627,7 +7627,7 @@
       <c r="H237" s="14"/>
       <c r="I237" s="14"/>
     </row>
-    <row r="238" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>162</v>
       </c>
@@ -7644,7 +7644,7 @@
       <c r="H238" s="14"/>
       <c r="I238" s="14"/>
     </row>
-    <row r="239" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>162</v>
       </c>
@@ -7661,7 +7661,7 @@
       <c r="H239" s="14"/>
       <c r="I239" s="14"/>
     </row>
-    <row r="240" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>162</v>
       </c>
@@ -7678,7 +7678,7 @@
       <c r="H240" s="14"/>
       <c r="I240" s="14"/>
     </row>
-    <row r="241" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>162</v>
       </c>
@@ -7695,7 +7695,7 @@
       <c r="H241" s="14"/>
       <c r="I241" s="14"/>
     </row>
-    <row r="242" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>162</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="H242" s="14"/>
       <c r="I242" s="14"/>
     </row>
-    <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>162</v>
       </c>
@@ -7729,7 +7729,7 @@
       <c r="H243" s="14"/>
       <c r="I243" s="14"/>
     </row>
-    <row r="244" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>162</v>
       </c>
@@ -7746,7 +7746,7 @@
       <c r="H244" s="14"/>
       <c r="I244" s="14"/>
     </row>
-    <row r="245" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>162</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="H245" s="14"/>
       <c r="I245" s="14"/>
     </row>
-    <row r="246" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>162</v>
       </c>
@@ -7780,7 +7780,7 @@
       <c r="H246" s="14"/>
       <c r="I246" s="14"/>
     </row>
-    <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>162</v>
       </c>
@@ -7797,7 +7797,7 @@
       <c r="H247" s="14"/>
       <c r="I247" s="14"/>
     </row>
-    <row r="248" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>162</v>
       </c>
@@ -7814,7 +7814,7 @@
       <c r="H248" s="14"/>
       <c r="I248" s="14"/>
     </row>
-    <row r="249" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>162</v>
       </c>
@@ -7831,7 +7831,7 @@
       <c r="H249" s="14"/>
       <c r="I249" s="14"/>
     </row>
-    <row r="250" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>162</v>
       </c>
@@ -7848,7 +7848,7 @@
       <c r="H250" s="14"/>
       <c r="I250" s="14"/>
     </row>
-    <row r="251" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>162</v>
       </c>
@@ -7865,7 +7865,7 @@
       <c r="H251" s="14"/>
       <c r="I251" s="14"/>
     </row>
-    <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>162</v>
       </c>
@@ -7882,7 +7882,7 @@
       <c r="H252" s="14"/>
       <c r="I252" s="14"/>
     </row>
-    <row r="253" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>162</v>
       </c>
@@ -7899,7 +7899,7 @@
       <c r="H253" s="14"/>
       <c r="I253" s="14"/>
     </row>
-    <row r="254" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>162</v>
       </c>
@@ -7916,7 +7916,7 @@
       <c r="H254" s="14"/>
       <c r="I254" s="14"/>
     </row>
-    <row r="255" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>162</v>
       </c>
@@ -7933,7 +7933,7 @@
       <c r="H255" s="14"/>
       <c r="I255" s="14"/>
     </row>
-    <row r="256" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>162</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="H256" s="14"/>
       <c r="I256" s="14"/>
     </row>
-    <row r="257" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>162</v>
       </c>
@@ -7967,7 +7967,7 @@
       <c r="H257" s="14"/>
       <c r="I257" s="14"/>
     </row>
-    <row r="258" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>162</v>
       </c>
@@ -7984,7 +7984,7 @@
       <c r="H258" s="14"/>
       <c r="I258" s="14"/>
     </row>
-    <row r="259" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>162</v>
       </c>
@@ -8001,7 +8001,7 @@
       <c r="H259" s="14"/>
       <c r="I259" s="14"/>
     </row>
-    <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>162</v>
       </c>
@@ -8018,7 +8018,7 @@
       <c r="H260" s="14"/>
       <c r="I260" s="14"/>
     </row>
-    <row r="261" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>162</v>
       </c>
@@ -8035,7 +8035,7 @@
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
     </row>
-    <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>162</v>
       </c>
@@ -8052,7 +8052,7 @@
       <c r="H262" s="14"/>
       <c r="I262" s="14"/>
     </row>
-    <row r="263" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>162</v>
       </c>
@@ -8069,7 +8069,7 @@
       <c r="H263" s="14"/>
       <c r="I263" s="14"/>
     </row>
-    <row r="264" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>162</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="H264" s="14"/>
       <c r="I264" s="14"/>
     </row>
-    <row r="265" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>162</v>
       </c>
@@ -8103,7 +8103,7 @@
       <c r="H265" s="14"/>
       <c r="I265" s="14"/>
     </row>
-    <row r="266" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>162</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="H266" s="14"/>
       <c r="I266" s="14"/>
     </row>
-    <row r="267" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>162</v>
       </c>
@@ -8137,7 +8137,7 @@
       <c r="H267" s="14"/>
       <c r="I267" s="14"/>
     </row>
-    <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>162</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="H268" s="14"/>
       <c r="I268" s="14"/>
     </row>
-    <row r="269" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>162</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="H269" s="14"/>
       <c r="I269" s="14"/>
     </row>
-    <row r="270" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>162</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="H270" s="14"/>
       <c r="I270" s="14"/>
     </row>
-    <row r="271" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>162</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="H271" s="14"/>
       <c r="I271" s="14"/>
     </row>
-    <row r="272" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>162</v>
       </c>
@@ -8222,7 +8222,7 @@
       <c r="H272" s="14"/>
       <c r="I272" s="14"/>
     </row>
-    <row r="273" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>162</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="H273" s="14"/>
       <c r="I273" s="14"/>
     </row>
-    <row r="274" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>162</v>
       </c>
@@ -8256,7 +8256,7 @@
       <c r="H274" s="14"/>
       <c r="I274" s="14"/>
     </row>
-    <row r="275" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>162</v>
       </c>
@@ -8273,7 +8273,7 @@
       <c r="H275" s="14"/>
       <c r="I275" s="14"/>
     </row>
-    <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>162</v>
       </c>
@@ -8290,7 +8290,7 @@
       <c r="H276" s="14"/>
       <c r="I276" s="14"/>
     </row>
-    <row r="277" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>162</v>
       </c>
@@ -8307,7 +8307,7 @@
       <c r="H277" s="14"/>
       <c r="I277" s="14"/>
     </row>
-    <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>162</v>
       </c>
@@ -8324,7 +8324,7 @@
       <c r="H278" s="14"/>
       <c r="I278" s="14"/>
     </row>
-    <row r="279" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>330</v>
       </c>
@@ -8341,7 +8341,7 @@
       <c r="H279" s="14"/>
       <c r="I279" s="14"/>
     </row>
-    <row r="280" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>330</v>
       </c>
@@ -8358,7 +8358,7 @@
       <c r="H280" s="14"/>
       <c r="I280" s="14"/>
     </row>
-    <row r="281" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>330</v>
       </c>
@@ -8375,7 +8375,7 @@
       <c r="H281" s="14"/>
       <c r="I281" s="14"/>
     </row>
-    <row r="282" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>330</v>
       </c>
@@ -8392,7 +8392,7 @@
       <c r="H282" s="14"/>
       <c r="I282" s="14"/>
     </row>
-    <row r="283" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>330</v>
       </c>
@@ -8409,7 +8409,7 @@
       <c r="H283" s="14"/>
       <c r="I283" s="14"/>
     </row>
-    <row r="284" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>330</v>
       </c>
@@ -8426,7 +8426,7 @@
       <c r="H284" s="14"/>
       <c r="I284" s="14"/>
     </row>
-    <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>330</v>
       </c>
@@ -8443,7 +8443,7 @@
       <c r="H285" s="14"/>
       <c r="I285" s="14"/>
     </row>
-    <row r="286" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>330</v>
       </c>
@@ -8460,7 +8460,7 @@
       <c r="H286" s="14"/>
       <c r="I286" s="14"/>
     </row>
-    <row r="287" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -8477,7 +8477,7 @@
       <c r="H287" s="14"/>
       <c r="I287" s="14"/>
     </row>
-    <row r="288" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>330</v>
       </c>
@@ -8494,7 +8494,7 @@
       <c r="H288" s="14"/>
       <c r="I288" s="14"/>
     </row>
-    <row r="289" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>330</v>
       </c>
@@ -8511,7 +8511,7 @@
       <c r="H289" s="14"/>
       <c r="I289" s="14"/>
     </row>
-    <row r="290" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>330</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="H290" s="14"/>
       <c r="I290" s="14"/>
     </row>
-    <row r="291" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>330</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>330</v>
       </c>
@@ -8564,7 +8564,7 @@
       <c r="H292" s="14"/>
       <c r="I292" s="14"/>
     </row>
-    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>330</v>
       </c>
@@ -8581,7 +8581,7 @@
       <c r="H293" s="14"/>
       <c r="I293" s="14"/>
     </row>
-    <row r="294" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>330</v>
       </c>
@@ -8598,7 +8598,7 @@
       <c r="H294" s="14"/>
       <c r="I294" s="14"/>
     </row>
-    <row r="295" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>330</v>
       </c>
@@ -8615,7 +8615,7 @@
       <c r="H295" s="14"/>
       <c r="I295" s="14"/>
     </row>
-    <row r="296" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>330</v>
       </c>
@@ -8632,7 +8632,7 @@
       <c r="H296" s="14"/>
       <c r="I296" s="14"/>
     </row>
-    <row r="297" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>330</v>
       </c>
@@ -8649,7 +8649,7 @@
       <c r="H297" s="14"/>
       <c r="I297" s="14"/>
     </row>
-    <row r="298" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>330</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="H298" s="14"/>
       <c r="I298" s="14"/>
     </row>
-    <row r="299" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>330</v>
       </c>
@@ -8683,7 +8683,7 @@
       <c r="H299" s="14"/>
       <c r="I299" s="14"/>
     </row>
-    <row r="300" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>330</v>
       </c>
@@ -8700,7 +8700,7 @@
       <c r="H300" s="14"/>
       <c r="I300" s="14"/>
     </row>
-    <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>330</v>
       </c>
@@ -8717,7 +8717,7 @@
       <c r="H301" s="14"/>
       <c r="I301" s="14"/>
     </row>
-    <row r="302" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>330</v>
       </c>
@@ -8734,7 +8734,7 @@
       <c r="H302" s="14"/>
       <c r="I302" s="14"/>
     </row>
-    <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>330</v>
       </c>
@@ -8751,7 +8751,7 @@
       <c r="H303" s="14"/>
       <c r="I303" s="14"/>
     </row>
-    <row r="304" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>330</v>
       </c>
@@ -8768,7 +8768,7 @@
       <c r="H304" s="14"/>
       <c r="I304" s="14"/>
     </row>
-    <row r="305" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>330</v>
       </c>
@@ -8785,7 +8785,7 @@
       <c r="H305" s="14"/>
       <c r="I305" s="14"/>
     </row>
-    <row r="306" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>330</v>
       </c>
@@ -8802,7 +8802,7 @@
       <c r="H306" s="14"/>
       <c r="I306" s="14"/>
     </row>
-    <row r="307" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>330</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>330</v>
       </c>
@@ -8838,7 +8838,7 @@
       <c r="H308" s="14"/>
       <c r="I308" s="14"/>
     </row>
-    <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>330</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="H309" s="14"/>
       <c r="I309" s="14"/>
     </row>
-    <row r="310" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>330</v>
       </c>
@@ -8872,7 +8872,7 @@
       <c r="H310" s="14"/>
       <c r="I310" s="14"/>
     </row>
-    <row r="311" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>330</v>
       </c>
@@ -8889,7 +8889,7 @@
       <c r="H311" s="14"/>
       <c r="I311" s="14"/>
     </row>
-    <row r="312" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>330</v>
       </c>
@@ -8906,7 +8906,7 @@
       <c r="H312" s="14"/>
       <c r="I312" s="14"/>
     </row>
-    <row r="313" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>330</v>
       </c>
@@ -8923,7 +8923,7 @@
       <c r="H313" s="14"/>
       <c r="I313" s="14"/>
     </row>
-    <row r="314" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="11"/>
       <c r="B314" s="7" t="s">
         <v>368</v>
@@ -8938,7 +8938,7 @@
       <c r="H314" s="14"/>
       <c r="I314" s="14"/>
     </row>
-    <row r="315" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>369</v>
       </c>
@@ -8955,7 +8955,7 @@
       <c r="H315" s="14"/>
       <c r="I315" s="14"/>
     </row>
-    <row r="316" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>369</v>
       </c>
@@ -8972,7 +8972,7 @@
       <c r="H316" s="14"/>
       <c r="I316" s="14"/>
     </row>
-    <row r="317" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>369</v>
       </c>
@@ -8989,7 +8989,7 @@
       <c r="H317" s="14"/>
       <c r="I317" s="14"/>
     </row>
-    <row r="318" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>369</v>
       </c>
@@ -9006,7 +9006,7 @@
       <c r="H318" s="14"/>
       <c r="I318" s="14"/>
     </row>
-    <row r="319" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>369</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="H319" s="14"/>
       <c r="I319" s="14"/>
     </row>
-    <row r="320" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>369</v>
       </c>
@@ -9040,7 +9040,7 @@
       <c r="H320" s="14"/>
       <c r="I320" s="14"/>
     </row>
-    <row r="321" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>369</v>
       </c>
@@ -9057,7 +9057,7 @@
       <c r="H321" s="14"/>
       <c r="I321" s="14"/>
     </row>
-    <row r="322" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>369</v>
       </c>
@@ -9074,7 +9074,7 @@
       <c r="H322" s="14"/>
       <c r="I322" s="14"/>
     </row>
-    <row r="323" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>369</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>369</v>
       </c>
@@ -9110,7 +9110,7 @@
       <c r="H324" s="14"/>
       <c r="I324" s="14"/>
     </row>
-    <row r="325" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>369</v>
       </c>
@@ -9127,7 +9127,7 @@
       <c r="H325" s="14"/>
       <c r="I325" s="14"/>
     </row>
-    <row r="326" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>369</v>
       </c>
@@ -9144,7 +9144,7 @@
       <c r="H326" s="14"/>
       <c r="I326" s="14"/>
     </row>
-    <row r="327" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>369</v>
       </c>
@@ -9161,7 +9161,7 @@
       <c r="H327" s="14"/>
       <c r="I327" s="14"/>
     </row>
-    <row r="328" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>369</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="H328" s="14"/>
       <c r="I328" s="14"/>
     </row>
-    <row r="329" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>369</v>
       </c>
@@ -9195,7 +9195,7 @@
       <c r="H329" s="14"/>
       <c r="I329" s="14"/>
     </row>
-    <row r="330" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>369</v>
       </c>
@@ -9212,7 +9212,7 @@
       <c r="H330" s="14"/>
       <c r="I330" s="14"/>
     </row>
-    <row r="331" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>369</v>
       </c>
@@ -9229,7 +9229,7 @@
       <c r="H331" s="14"/>
       <c r="I331" s="14"/>
     </row>
-    <row r="332" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>369</v>
       </c>
@@ -9246,7 +9246,7 @@
       <c r="H332" s="14"/>
       <c r="I332" s="14"/>
     </row>
-    <row r="333" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>369</v>
       </c>
@@ -9263,7 +9263,7 @@
       <c r="H333" s="14"/>
       <c r="I333" s="14"/>
     </row>
-    <row r="334" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>369</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="H334" s="14"/>
       <c r="I334" s="14"/>
     </row>
-    <row r="335" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
         <v>369</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="H335" s="14"/>
       <c r="I335" s="14"/>
     </row>
-    <row r="336" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>369</v>
       </c>
@@ -9314,7 +9314,7 @@
       <c r="H336" s="14"/>
       <c r="I336" s="14"/>
     </row>
-    <row r="337" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>369</v>
       </c>
@@ -9331,7 +9331,7 @@
       <c r="H337" s="14"/>
       <c r="I337" s="14"/>
     </row>
-    <row r="338" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>369</v>
       </c>
@@ -9348,7 +9348,7 @@
       <c r="H338" s="14"/>
       <c r="I338" s="14"/>
     </row>
-    <row r="339" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -9365,7 +9365,7 @@
       <c r="H339" s="14"/>
       <c r="I339" s="14"/>
     </row>
-    <row r="340" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
         <v>369</v>
       </c>
@@ -9382,7 +9382,7 @@
       <c r="H340" s="14"/>
       <c r="I340" s="14"/>
     </row>
-    <row r="341" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>369</v>
       </c>
@@ -9399,7 +9399,7 @@
       <c r="H341" s="14"/>
       <c r="I341" s="14"/>
     </row>
-    <row r="342" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
         <v>369</v>
       </c>
@@ -9416,7 +9416,7 @@
       <c r="H342" s="14"/>
       <c r="I342" s="14"/>
     </row>
-    <row r="343" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>369</v>
       </c>
@@ -9433,7 +9433,7 @@
       <c r="H343" s="14"/>
       <c r="I343" s="14"/>
     </row>
-    <row r="344" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>369</v>
       </c>
@@ -9450,7 +9450,7 @@
       <c r="H344" s="14"/>
       <c r="I344" s="14"/>
     </row>
-    <row r="345" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>369</v>
       </c>
@@ -9467,7 +9467,7 @@
       <c r="H345" s="14"/>
       <c r="I345" s="14"/>
     </row>
-    <row r="346" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
         <v>369</v>
       </c>
@@ -9484,7 +9484,7 @@
       <c r="H346" s="14"/>
       <c r="I346" s="14"/>
     </row>
-    <row r="347" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>369</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>369</v>
       </c>
@@ -9520,7 +9520,7 @@
       <c r="H348" s="14"/>
       <c r="I348" s="14"/>
     </row>
-    <row r="349" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>369</v>
       </c>
@@ -9537,7 +9537,7 @@
       <c r="H349" s="14"/>
       <c r="I349" s="14"/>
     </row>
-    <row r="350" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A350" s="11"/>
       <c r="B350" s="7" t="s">
         <v>407</v>
@@ -9552,7 +9552,7 @@
       <c r="H350" s="14"/>
       <c r="I350" s="14"/>
     </row>
-    <row r="351" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>408</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="H351" s="14"/>
       <c r="I351" s="14"/>
     </row>
-    <row r="352" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>408</v>
       </c>
@@ -9586,7 +9586,7 @@
       <c r="H352" s="14"/>
       <c r="I352" s="14"/>
     </row>
-    <row r="353" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>408</v>
       </c>
@@ -9603,7 +9603,7 @@
       <c r="H353" s="14"/>
       <c r="I353" s="14"/>
     </row>
-    <row r="354" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>408</v>
       </c>
@@ -9620,7 +9620,7 @@
       <c r="H354" s="14"/>
       <c r="I354" s="14"/>
     </row>
-    <row r="355" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
         <v>408</v>
       </c>
@@ -9637,7 +9637,7 @@
       <c r="H355" s="14"/>
       <c r="I355" s="14"/>
     </row>
-    <row r="356" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
         <v>408</v>
       </c>
@@ -9654,7 +9654,7 @@
       <c r="H356" s="14"/>
       <c r="I356" s="14"/>
     </row>
-    <row r="357" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>408</v>
       </c>
@@ -9671,7 +9671,7 @@
       <c r="H357" s="14"/>
       <c r="I357" s="14"/>
     </row>
-    <row r="358" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
         <v>408</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="H358" s="14"/>
       <c r="I358" s="14"/>
     </row>
-    <row r="359" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
         <v>408</v>
       </c>
@@ -9705,7 +9705,7 @@
       <c r="H359" s="14"/>
       <c r="I359" s="14"/>
     </row>
-    <row r="360" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
         <v>408</v>
       </c>
@@ -9722,7 +9722,7 @@
       <c r="H360" s="14"/>
       <c r="I360" s="14"/>
     </row>
-    <row r="361" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
         <v>408</v>
       </c>
@@ -9739,7 +9739,7 @@
       <c r="H361" s="14"/>
       <c r="I361" s="14"/>
     </row>
-    <row r="362" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>408</v>
       </c>
@@ -9756,7 +9756,7 @@
       <c r="H362" s="14"/>
       <c r="I362" s="14"/>
     </row>
-    <row r="363" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>408</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
         <v>408</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="H364" s="14"/>
       <c r="I364" s="14"/>
     </row>
-    <row r="365" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
         <v>408</v>
       </c>
@@ -9809,7 +9809,7 @@
       <c r="H365" s="14"/>
       <c r="I365" s="14"/>
     </row>
-    <row r="366" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>408</v>
       </c>
@@ -9826,7 +9826,7 @@
       <c r="H366" s="14"/>
       <c r="I366" s="14"/>
     </row>
-    <row r="367" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
         <v>408</v>
       </c>
@@ -9843,7 +9843,7 @@
       <c r="H367" s="14"/>
       <c r="I367" s="14"/>
     </row>
-    <row r="368" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
         <v>408</v>
       </c>
@@ -9860,7 +9860,7 @@
       <c r="H368" s="14"/>
       <c r="I368" s="14"/>
     </row>
-    <row r="369" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
         <v>408</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
         <v>408</v>
       </c>
@@ -9896,7 +9896,7 @@
       <c r="H370" s="14"/>
       <c r="I370" s="14"/>
     </row>
-    <row r="371" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
         <v>408</v>
       </c>
@@ -9913,7 +9913,7 @@
       <c r="H371" s="14"/>
       <c r="I371" s="14"/>
     </row>
-    <row r="372" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
         <v>408</v>
       </c>
@@ -9930,7 +9930,7 @@
       <c r="H372" s="14"/>
       <c r="I372" s="14"/>
     </row>
-    <row r="373" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
         <v>408</v>
       </c>
@@ -9947,7 +9947,7 @@
       <c r="H373" s="14"/>
       <c r="I373" s="14"/>
     </row>
-    <row r="374" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
         <v>408</v>
       </c>
@@ -9964,7 +9964,7 @@
       <c r="H374" s="14"/>
       <c r="I374" s="14"/>
     </row>
-    <row r="375" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
         <v>408</v>
       </c>
@@ -9981,7 +9981,7 @@
       <c r="H375" s="14"/>
       <c r="I375" s="14"/>
     </row>
-    <row r="376" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
         <v>408</v>
       </c>
@@ -9998,7 +9998,7 @@
       <c r="H376" s="14"/>
       <c r="I376" s="14"/>
     </row>
-    <row r="377" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
         <v>408</v>
       </c>
@@ -10015,7 +10015,7 @@
       <c r="H377" s="14"/>
       <c r="I377" s="14"/>
     </row>
-    <row r="378" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
         <v>408</v>
       </c>
@@ -10032,7 +10032,7 @@
       <c r="H378" s="14"/>
       <c r="I378" s="14"/>
     </row>
-    <row r="379" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
         <v>408</v>
       </c>
@@ -10049,7 +10049,7 @@
       <c r="H379" s="14"/>
       <c r="I379" s="14"/>
     </row>
-    <row r="380" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
         <v>408</v>
       </c>
@@ -10066,7 +10066,7 @@
       <c r="H380" s="14"/>
       <c r="I380" s="14"/>
     </row>
-    <row r="381" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
         <v>408</v>
       </c>
@@ -10083,7 +10083,7 @@
       <c r="H381" s="14"/>
       <c r="I381" s="14"/>
     </row>
-    <row r="382" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
         <v>408</v>
       </c>
@@ -10100,7 +10100,7 @@
       <c r="H382" s="14"/>
       <c r="I382" s="14"/>
     </row>
-    <row r="383" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
         <v>408</v>
       </c>
@@ -10117,7 +10117,7 @@
       <c r="H383" s="14"/>
       <c r="I383" s="14"/>
     </row>
-    <row r="384" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
         <v>408</v>
       </c>
@@ -10134,7 +10134,7 @@
       <c r="H384" s="14"/>
       <c r="I384" s="14"/>
     </row>
-    <row r="385" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>408</v>
       </c>
@@ -10151,7 +10151,7 @@
       <c r="H385" s="14"/>
       <c r="I385" s="14"/>
     </row>
-    <row r="386" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
         <v>408</v>
       </c>
@@ -10168,7 +10168,7 @@
       <c r="H386" s="14"/>
       <c r="I386" s="14"/>
     </row>
-    <row r="387" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
         <v>408</v>
       </c>
@@ -10185,7 +10185,7 @@
       <c r="H387" s="14"/>
       <c r="I387" s="14"/>
     </row>
-    <row r="388" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
         <v>408</v>
       </c>
@@ -10202,7 +10202,7 @@
       <c r="H388" s="14"/>
       <c r="I388" s="14"/>
     </row>
-    <row r="389" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
         <v>408</v>
       </c>
@@ -10219,7 +10219,7 @@
       <c r="H389" s="14"/>
       <c r="I389" s="14"/>
     </row>
-    <row r="390" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
         <v>408</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
         <v>408</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="H391" s="14"/>
       <c r="I391" s="14"/>
     </row>
-    <row r="392" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
         <v>408</v>
       </c>
@@ -10272,7 +10272,7 @@
       <c r="H392" s="14"/>
       <c r="I392" s="14"/>
     </row>
-    <row r="393" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
         <v>408</v>
       </c>
@@ -10289,7 +10289,7 @@
       <c r="H393" s="14"/>
       <c r="I393" s="14"/>
     </row>
-    <row r="394" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
         <v>408</v>
       </c>
@@ -10306,7 +10306,7 @@
       <c r="H394" s="14"/>
       <c r="I394" s="14"/>
     </row>
-    <row r="395" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
         <v>408</v>
       </c>
@@ -10323,7 +10323,7 @@
       <c r="H395" s="14"/>
       <c r="I395" s="14"/>
     </row>
-    <row r="396" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
         <v>408</v>
       </c>
@@ -10340,7 +10340,7 @@
       <c r="H396" s="14"/>
       <c r="I396" s="14"/>
     </row>
-    <row r="397" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
         <v>408</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
         <v>408</v>
       </c>
@@ -10374,7 +10374,7 @@
       <c r="H398" s="14"/>
       <c r="I398" s="14"/>
     </row>
-    <row r="399" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
         <v>408</v>
       </c>
@@ -10391,7 +10391,7 @@
       <c r="H399" s="14"/>
       <c r="I399" s="14"/>
     </row>
-    <row r="400" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
         <v>408</v>
       </c>
@@ -10408,7 +10408,7 @@
       <c r="H400" s="14"/>
       <c r="I400" s="14"/>
     </row>
-    <row r="401" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>408</v>
       </c>
@@ -10425,7 +10425,7 @@
       <c r="H401" s="14"/>
       <c r="I401" s="14"/>
     </row>
-    <row r="402" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
         <v>408</v>
       </c>
@@ -10442,7 +10442,7 @@
       <c r="H402" s="14"/>
       <c r="I402" s="14"/>
     </row>
-    <row r="403" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>408</v>
       </c>
@@ -10459,7 +10459,7 @@
       <c r="H403" s="14"/>
       <c r="I403" s="14"/>
     </row>
-    <row r="404" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
         <v>408</v>
       </c>
@@ -10476,7 +10476,7 @@
       <c r="H404" s="14"/>
       <c r="I404" s="14"/>
     </row>
-    <row r="405" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
         <v>408</v>
       </c>
@@ -10493,7 +10493,7 @@
       <c r="H405" s="14"/>
       <c r="I405" s="14"/>
     </row>
-    <row r="406" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
         <v>408</v>
       </c>
@@ -10510,7 +10510,7 @@
       <c r="H406" s="14"/>
       <c r="I406" s="14"/>
     </row>
-    <row r="407" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
         <v>408</v>
       </c>
@@ -10527,7 +10527,7 @@
       <c r="H407" s="14"/>
       <c r="I407" s="14"/>
     </row>
-    <row r="408" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
         <v>408</v>
       </c>
@@ -10544,7 +10544,7 @@
       <c r="H408" s="14"/>
       <c r="I408" s="14"/>
     </row>
-    <row r="409" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
         <v>408</v>
       </c>
@@ -10561,7 +10561,7 @@
       <c r="H409" s="14"/>
       <c r="I409" s="14"/>
     </row>
-    <row r="410" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A410" s="11"/>
       <c r="B410" s="7" t="s">
         <v>472</v>
@@ -10576,7 +10576,7 @@
       <c r="H410" s="14"/>
       <c r="I410" s="14"/>
     </row>
-    <row r="411" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>473</v>
       </c>
@@ -10591,7 +10591,7 @@
       <c r="H411" s="14"/>
       <c r="I411" s="14"/>
     </row>
-    <row r="412" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>473</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="H412" s="14"/>
       <c r="I412" s="14"/>
     </row>
-    <row r="413" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>473</v>
       </c>
@@ -10621,7 +10621,7 @@
       <c r="H413" s="14"/>
       <c r="I413" s="14"/>
     </row>
-    <row r="414" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>473</v>
       </c>
@@ -10636,7 +10636,7 @@
       <c r="H414" s="14"/>
       <c r="I414" s="14"/>
     </row>
-    <row r="415" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>473</v>
       </c>
@@ -10651,7 +10651,7 @@
       <c r="H415" s="14"/>
       <c r="I415" s="14"/>
     </row>
-    <row r="416" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>473</v>
       </c>
@@ -10666,7 +10666,7 @@
       <c r="H416" s="14"/>
       <c r="I416" s="14"/>
     </row>
-    <row r="417" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>473</v>
       </c>
@@ -10681,7 +10681,7 @@
       <c r="H417" s="14"/>
       <c r="I417" s="14"/>
     </row>
-    <row r="418" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>473</v>
       </c>
@@ -10696,7 +10696,7 @@
       <c r="H418" s="14"/>
       <c r="I418" s="14"/>
     </row>
-    <row r="419" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>473</v>
       </c>
@@ -10711,7 +10711,7 @@
       <c r="H419" s="14"/>
       <c r="I419" s="14"/>
     </row>
-    <row r="420" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>473</v>
       </c>
@@ -10726,7 +10726,7 @@
       <c r="H420" s="14"/>
       <c r="I420" s="14"/>
     </row>
-    <row r="421" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>473</v>
       </c>
@@ -10741,7 +10741,7 @@
       <c r="H421" s="14"/>
       <c r="I421" s="14"/>
     </row>
-    <row r="422" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>473</v>
       </c>
@@ -10756,7 +10756,7 @@
       <c r="H422" s="14"/>
       <c r="I422" s="14"/>
     </row>
-    <row r="423" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>473</v>
       </c>
@@ -10771,7 +10771,7 @@
       <c r="H423" s="14"/>
       <c r="I423" s="14"/>
     </row>
-    <row r="424" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>473</v>
       </c>
@@ -10786,7 +10786,7 @@
       <c r="H424" s="14"/>
       <c r="I424" s="14"/>
     </row>
-    <row r="425" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>473</v>
       </c>
@@ -10801,7 +10801,7 @@
       <c r="H425" s="14"/>
       <c r="I425" s="14"/>
     </row>
-    <row r="426" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>473</v>
       </c>
@@ -10816,7 +10816,7 @@
       <c r="H426" s="14"/>
       <c r="I426" s="14"/>
     </row>
-    <row r="427" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>473</v>
       </c>
@@ -10831,7 +10831,7 @@
       <c r="H427" s="14"/>
       <c r="I427" s="14"/>
     </row>
-    <row r="428" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>473</v>
       </c>
@@ -10846,7 +10846,7 @@
       <c r="H428" s="14"/>
       <c r="I428" s="14"/>
     </row>
-    <row r="429" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>473</v>
       </c>
@@ -10861,7 +10861,7 @@
       <c r="H429" s="14"/>
       <c r="I429" s="14"/>
     </row>
-    <row r="430" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>473</v>
       </c>
@@ -10876,7 +10876,7 @@
       <c r="H430" s="14"/>
       <c r="I430" s="14"/>
     </row>
-    <row r="431" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>473</v>
       </c>
@@ -10891,7 +10891,7 @@
       <c r="H431" s="14"/>
       <c r="I431" s="14"/>
     </row>
-    <row r="432" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>473</v>
       </c>
@@ -10906,1384 +10906,1384 @@
       <c r="H432" s="14"/>
       <c r="I432" s="14"/>
     </row>
-    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
     </row>
-    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="12"/>
     </row>
-    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="12"/>
     </row>
-    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="12"/>
     </row>
-    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="12"/>
     </row>
-    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
     </row>
-    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
     </row>
-    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="12"/>
     </row>
-    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="12"/>
     </row>
-    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="12"/>
     </row>
-    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="12"/>
     </row>
-    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="12"/>
     </row>
-    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="12"/>
     </row>
-    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="12"/>
     </row>
-    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="12"/>
     </row>
-    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="12"/>
     </row>
-    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="12"/>
     </row>
-    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
     </row>
-    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="12"/>
     </row>
-    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="12"/>
     </row>
-    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="12"/>
     </row>
-    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="12"/>
     </row>
-    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="12"/>
     </row>
-    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="12"/>
     </row>
-    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="12"/>
     </row>
-    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="12"/>
     </row>
-    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="12"/>
     </row>
-    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
     </row>
-    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
     </row>
-    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
     </row>
-    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
     </row>
-    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="12"/>
     </row>
-    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="12"/>
     </row>
-    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="12"/>
     </row>
-    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="12"/>
     </row>
-    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="12"/>
     </row>
-    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="12"/>
     </row>
-    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="12"/>
     </row>
-    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="12"/>
     </row>
-    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12"/>
     </row>
-    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="12"/>
     </row>
-    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="12"/>
     </row>
-    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="12"/>
     </row>
-    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="12"/>
     </row>
-    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="12"/>
     </row>
-    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="12"/>
     </row>
-    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="12"/>
     </row>
-    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="12"/>
     </row>
-    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="12"/>
     </row>
-    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="12"/>
     </row>
-    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="12"/>
     </row>
-    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="12"/>
     </row>
-    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="12"/>
     </row>
-    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="12"/>
     </row>
-    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="12"/>
     </row>
-    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="12"/>
     </row>
-    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="12"/>
     </row>
-    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="12"/>
     </row>
-    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="12"/>
     </row>
-    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="12"/>
     </row>
-    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="12"/>
     </row>
-    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="12"/>
     </row>
-    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="12"/>
     </row>
-    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="12"/>
     </row>
-    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="12"/>
     </row>
-    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="12"/>
     </row>
-    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="12"/>
     </row>
-    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="12"/>
     </row>
-    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="12"/>
     </row>
-    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="12"/>
     </row>
-    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="12"/>
     </row>
-    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="12"/>
     </row>
-    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="12"/>
     </row>
-    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="12"/>
     </row>
-    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="12"/>
     </row>
-    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="12"/>
     </row>
-    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="12"/>
     </row>
-    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="12"/>
     </row>
-    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="12"/>
     </row>
-    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="12"/>
     </row>
-    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="12"/>
     </row>
-    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="12"/>
     </row>
-    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="12"/>
     </row>
-    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="12"/>
     </row>
-    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="12"/>
     </row>
-    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="12"/>
     </row>
-    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="12"/>
     </row>
-    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="12"/>
     </row>
-    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="12"/>
     </row>
-    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="12"/>
     </row>
-    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="12"/>
     </row>
-    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="12"/>
     </row>
-    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="12"/>
     </row>
-    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="12"/>
     </row>
-    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="12"/>
     </row>
-    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="12"/>
     </row>
-    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="12"/>
     </row>
-    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="12"/>
     </row>
-    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="12"/>
     </row>
-    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="12"/>
     </row>
-    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="12"/>
     </row>
-    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="12"/>
     </row>
-    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="12"/>
     </row>
-    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="12"/>
     </row>
-    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="12"/>
     </row>
-    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="12"/>
     </row>
-    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="12"/>
     </row>
-    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="12"/>
     </row>
-    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="12"/>
     </row>
-    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="12"/>
     </row>
-    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="12"/>
     </row>
-    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="12"/>
     </row>
-    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="12"/>
     </row>
-    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="12"/>
     </row>
-    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="12"/>
     </row>
-    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="12"/>
     </row>
-    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="12"/>
     </row>
-    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="12"/>
     </row>
-    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="12"/>
     </row>
-    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="12"/>
     </row>
-    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="12"/>
     </row>
-    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="12"/>
     </row>
-    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="12"/>
     </row>
-    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="12"/>
     </row>
-    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="12"/>
     </row>
-    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="12"/>
     </row>
-    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="12"/>
     </row>
-    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="12"/>
     </row>
-    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="12"/>
     </row>
-    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="12"/>
     </row>
-    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="12"/>
     </row>
-    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="12"/>
     </row>
-    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="12"/>
     </row>
-    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="12"/>
     </row>
-    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="12"/>
     </row>
-    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="12"/>
     </row>
-    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="12"/>
     </row>
-    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="12"/>
     </row>
-    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="12"/>
     </row>
-    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="12"/>
     </row>
-    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="12"/>
     </row>
-    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="12"/>
     </row>
-    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="12"/>
     </row>
-    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="12"/>
     </row>
-    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="12"/>
     </row>
-    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="12"/>
     </row>
-    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="12"/>
     </row>
-    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="12"/>
     </row>
-    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="12"/>
     </row>
-    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="12"/>
     </row>
-    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="12"/>
     </row>
-    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="12"/>
     </row>
-    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="12"/>
     </row>
-    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="12"/>
     </row>
-    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="12"/>
     </row>
-    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="12"/>
     </row>
-    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="12"/>
     </row>
-    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="12"/>
     </row>
-    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="12"/>
     </row>
-    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="12"/>
     </row>
-    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="12"/>
     </row>
-    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="12"/>
     </row>
-    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="12"/>
     </row>
-    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="12"/>
     </row>
-    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="12"/>
     </row>
-    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="12"/>
     </row>
-    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="12"/>
     </row>
-    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="12"/>
     </row>
-    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="12"/>
     </row>
-    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="12"/>
     </row>
-    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="12"/>
     </row>
-    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="12"/>
     </row>
-    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="12"/>
     </row>
-    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="12"/>
     </row>
-    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="12"/>
     </row>
-    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="12"/>
     </row>
-    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="12"/>
     </row>
-    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="12"/>
     </row>
-    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="12"/>
     </row>
-    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="12"/>
     </row>
-    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="12"/>
     </row>
-    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="12"/>
     </row>
-    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="12"/>
     </row>
-    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="12"/>
     </row>
-    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="12"/>
     </row>
-    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="12"/>
     </row>
-    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="12"/>
     </row>
-    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="12"/>
     </row>
-    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="12"/>
     </row>
-    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="12"/>
     </row>
-    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="12"/>
     </row>
-    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="12"/>
     </row>
-    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="12"/>
     </row>
-    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="12"/>
     </row>
-    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="12"/>
     </row>
-    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="12"/>
     </row>
-    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="12"/>
     </row>
-    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="12"/>
     </row>
-    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="12"/>
     </row>
-    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="12"/>
     </row>
-    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="12"/>
     </row>
-    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="12"/>
     </row>
-    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="12"/>
     </row>
-    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="12"/>
     </row>
-    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="12"/>
     </row>
-    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="12"/>
     </row>
-    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="12"/>
     </row>
-    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="12"/>
     </row>
-    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="12"/>
     </row>
-    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="12"/>
     </row>
-    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="12"/>
     </row>
-    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="12"/>
     </row>
-    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="12"/>
     </row>
-    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="12"/>
     </row>
-    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="12"/>
     </row>
-    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="12"/>
     </row>
-    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="12"/>
     </row>
-    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="12"/>
     </row>
-    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="12"/>
     </row>
-    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="12"/>
     </row>
-    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="12"/>
     </row>
-    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="12"/>
     </row>
-    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="12"/>
     </row>
-    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="12"/>
     </row>
-    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="12"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="12"/>
     </row>
-    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="12"/>
     </row>
-    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="12"/>
     </row>
-    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="12"/>
     </row>
-    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="12"/>
     </row>
-    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="12"/>
     </row>
-    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="12"/>
     </row>
-    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="12"/>
     </row>
-    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="12"/>
     </row>
-    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="12"/>
     </row>
-    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="12"/>
     </row>
-    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="12"/>
     </row>
-    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="12"/>
     </row>
-    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="12"/>
     </row>
-    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="12"/>
     </row>
-    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="12"/>
     </row>
-    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="12"/>
     </row>
-    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="12"/>
     </row>
-    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="12"/>
     </row>
-    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="12"/>
     </row>
-    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="12"/>
     </row>
-    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="12"/>
     </row>
-    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="12"/>
     </row>
-    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="12"/>
     </row>
-    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="12"/>
     </row>
-    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="12"/>
     </row>
-    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="12"/>
     </row>
-    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="12"/>
     </row>
-    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="12"/>
     </row>
-    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="12"/>
     </row>
-    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="12"/>
     </row>
-    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="12"/>
     </row>
-    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="12"/>
     </row>
-    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="12"/>
     </row>
-    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="12"/>
     </row>
-    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="12"/>
     </row>
-    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="12"/>
     </row>
-    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="12"/>
     </row>
-    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="12"/>
     </row>
-    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="12"/>
     </row>
-    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="12"/>
     </row>
-    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="12"/>
     </row>
-    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="12"/>
     </row>
-    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="12"/>
     </row>
-    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="12"/>
     </row>
-    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="12"/>
     </row>
-    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="12"/>
     </row>
-    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="12"/>
     </row>
-    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="12"/>
     </row>
-    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="12"/>
     </row>
-    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="12"/>
     </row>
-    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="12"/>
     </row>
-    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="12"/>
     </row>
-    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="12"/>
     </row>
-    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="12"/>
     </row>
-    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="12"/>
     </row>
-    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="12"/>
     </row>
-    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="12"/>
     </row>
-    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="12"/>
     </row>
-    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="12"/>
     </row>
-    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="12"/>
     </row>
-    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="12"/>
     </row>
-    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="12"/>
     </row>
-    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="12"/>
     </row>
-    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="12"/>
     </row>
-    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="12"/>
     </row>
-    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="12"/>
     </row>
-    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="12"/>
     </row>
-    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="12"/>
     </row>
-    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="12"/>
     </row>
-    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="12"/>
     </row>
-    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="12"/>
     </row>
-    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="12"/>
     </row>
-    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="12"/>
     </row>
-    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="12"/>
     </row>
-    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="12"/>
     </row>
-    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="12"/>
     </row>
-    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="12"/>
     </row>
-    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="12"/>
     </row>
-    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="12"/>
     </row>
-    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="12"/>
     </row>
-    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="12"/>
     </row>
-    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="12"/>
     </row>
-    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="12"/>
     </row>
-    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="12"/>
     </row>
-    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="12"/>
     </row>
-    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="12"/>
     </row>
-    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="12"/>
     </row>
-    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="12"/>
     </row>
-    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="12"/>
     </row>
-    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="12"/>
     </row>
-    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="12"/>
     </row>
-    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="12"/>
     </row>
-    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="12"/>
     </row>
-    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="12"/>
     </row>
-    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="12"/>
     </row>
-    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="12"/>
     </row>
-    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="12"/>
     </row>
-    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="12"/>
     </row>
-    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="12"/>
     </row>
-    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="12"/>
     </row>
-    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="12"/>
     </row>
-    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="12"/>
     </row>
-    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="12"/>
     </row>
-    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="12"/>
     </row>
-    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="12"/>
     </row>
-    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="12"/>
     </row>
-    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="12"/>
     </row>
-    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="12"/>
     </row>
-    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="12"/>
     </row>
-    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="12"/>
     </row>
-    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="12"/>
     </row>
-    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="12"/>
     </row>
-    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="12"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="12"/>
     </row>
-    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="12"/>
     </row>
-    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="12"/>
     </row>
-    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="12"/>
     </row>
-    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="12"/>
     </row>
-    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="12"/>
     </row>
-    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="12"/>
     </row>
-    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="12"/>
     </row>
-    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="12"/>
     </row>
-    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="12"/>
     </row>
-    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="12"/>
     </row>
-    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="12"/>
     </row>
-    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="12"/>
     </row>
-    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="12"/>
     </row>
-    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="12"/>
     </row>
-    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="12"/>
     </row>
-    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="12"/>
     </row>
-    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="12"/>
     </row>
-    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="12"/>
     </row>
-    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="12"/>
     </row>
-    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="12"/>
     </row>
-    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="12"/>
     </row>
-    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="12"/>
     </row>
-    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="12"/>
     </row>
-    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="12"/>
     </row>
-    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="12"/>
     </row>
-    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="12"/>
     </row>
-    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="12"/>
     </row>
-    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="12"/>
     </row>
-    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="12"/>
     </row>
-    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="12"/>
     </row>
-    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="12"/>
     </row>
-    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="12"/>
     </row>
-    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="12"/>
     </row>
-    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="12"/>
     </row>
-    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="12"/>
     </row>
-    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="12"/>
     </row>
-    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="12"/>
     </row>
-    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="12"/>
     </row>
-    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="12"/>
     </row>
-    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="12"/>
     </row>
-    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="12"/>
     </row>
-    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="12"/>
     </row>
-    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="12"/>
     </row>
-    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="12"/>
     </row>
-    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="12"/>
     </row>
-    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="12"/>
     </row>
-    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="12"/>
     </row>
-    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="12"/>
     </row>
-    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="12"/>
     </row>
-    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="12"/>
     </row>
-    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="12"/>
     </row>
-    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="12"/>
     </row>
-    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="12"/>
     </row>
-    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="12"/>
     </row>
-    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="12"/>
     </row>
-    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="12"/>
     </row>
-    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="12"/>
     </row>
-    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="12"/>
     </row>
-    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="12"/>
     </row>
-    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="12"/>
     </row>
-    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="12"/>
     </row>
-    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="12"/>
     </row>
-    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="12"/>
     </row>
-    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="12"/>
     </row>
-    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="12"/>
     </row>
-    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="12"/>
     </row>
-    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="12"/>
     </row>
-    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="12"/>
     </row>
-    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="12"/>
     </row>
-    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="12"/>
     </row>
-    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="12"/>
     </row>
-    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="12"/>
     </row>
-    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="12"/>
     </row>
-    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="12"/>
     </row>
-    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="12"/>
     </row>
-    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="12"/>
     </row>
-    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="12"/>
     </row>
-    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="12"/>
     </row>
-    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="12"/>
     </row>
-    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="12"/>
     </row>
-    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="12"/>
     </row>
-    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="12"/>
     </row>
-    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="12"/>
     </row>
-    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="12"/>
     </row>
-    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="12"/>
     </row>
-    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="12"/>
     </row>
-    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="12"/>
     </row>
-    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="12"/>
     </row>
-    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="12"/>
     </row>
-    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="12"/>
     </row>
-    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="12"/>
     </row>
-    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="12"/>
     </row>
-    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="12"/>
     </row>
-    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="12"/>
     </row>
-    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="12"/>
     </row>
-    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="12"/>
     </row>
-    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="12"/>
     </row>
-    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="12"/>
     </row>
-    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="12"/>
     </row>
-    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="12"/>
     </row>
-    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="12"/>
     </row>
-    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="12"/>
     </row>
-    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="12"/>
     </row>
-    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="12"/>
     </row>
-    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="12"/>
     </row>
-    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="12"/>
     </row>
-    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="12"/>
     </row>
-    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="12"/>
     </row>
-    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="12"/>
     </row>
-    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="12"/>
     </row>
-    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="12"/>
     </row>
-    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="12"/>
     </row>
-    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="12"/>
     </row>
-    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="12"/>
     </row>
-    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="12"/>
     </row>
-    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="12"/>
     </row>
-    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="12"/>
     </row>
-    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="12"/>
     </row>
-    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="12"/>
     </row>
-    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="12"/>
     </row>
   </sheetData>
@@ -12323,21 +12323,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="8" width="3.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="8" width="3.109375" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43132</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43261</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43304</v>
       </c>
@@ -12479,25 +12479,25 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="54" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="55" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="54" customWidth="1"/>
+    <col min="4" max="4" width="80.77734375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="55" customWidth="1"/>
     <col min="6" max="6" width="87.6640625" style="54" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="74.5" style="39" customWidth="1"/>
-    <col min="9" max="9" width="104.5" style="54" customWidth="1"/>
+    <col min="8" max="8" width="74.44140625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="104.44140625" style="54" customWidth="1"/>
     <col min="10" max="10" width="68.33203125" style="54" customWidth="1"/>
-    <col min="11" max="11" width="52.83203125" style="54" customWidth="1"/>
-    <col min="12" max="12" width="26.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="54" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="54"/>
+    <col min="11" max="11" width="52.77734375" style="54" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" style="54" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -12512,13 +12512,13 @@
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
     </row>
-    <row r="2" spans="1:13" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="56" t="s">
         <v>556</v>
       </c>
@@ -12541,15 +12541,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+    <row r="3" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
         <v>501</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
       <c r="G3" s="34"/>
       <c r="H3" s="30"/>
       <c r="I3" s="31" t="s">
@@ -12559,13 +12559,13 @@
       <c r="L3" s="32"/>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="1:13" s="39" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
+    <row r="4" spans="1:13" s="39" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
@@ -12576,7 +12576,7 @@
       <c r="L4" s="37"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13" s="25" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="25" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -12591,17 +12591,17 @@
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
     </row>
-    <row r="6" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+    <row r="6" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="91" t="s">
         <v>503</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="91" t="s">
         <v>504</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="91" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="95" t="s">
         <v>560</v>
       </c>
       <c r="E6" s="48" t="s">
@@ -12623,18 +12623,18 @@
       <c r="K6" s="50" t="s">
         <v>509</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="M6" s="101" t="s">
+      <c r="M6" s="99" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="105"/>
+    <row r="7" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="48" t="s">
         <v>511</v>
       </c>
@@ -12656,22 +12656,22 @@
       <c r="K7" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-    </row>
-    <row r="8" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="99" t="s">
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+    </row>
+    <row r="8" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="91" t="s">
         <v>514</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="102" t="s">
         <v>566</v>
       </c>
       <c r="G8" s="85"/>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="105" t="s">
         <v>567</v>
       </c>
       <c r="I8" s="57" t="s">
@@ -12683,18 +12683,18 @@
       <c r="K8" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-    </row>
-    <row r="9" spans="1:13" s="25" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="92"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+    </row>
+    <row r="9" spans="1:13" s="25" customFormat="1" ht="16.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="103"/>
       <c r="G9" s="86"/>
-      <c r="H9" s="96"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="57" t="s">
         <v>569</v>
       </c>
@@ -12702,41 +12702,41 @@
       <c r="K9" s="58" t="s">
         <v>570</v>
       </c>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-    </row>
-    <row r="10" spans="1:13" s="25" customFormat="1" ht="19" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="93"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+    </row>
+    <row r="10" spans="1:13" s="25" customFormat="1" ht="19.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H10" s="97"/>
+      <c r="H10" s="107"/>
       <c r="I10" s="57" t="s">
         <v>571</v>
       </c>
       <c r="J10" s="51"/>
       <c r="K10" s="59"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-    </row>
-    <row r="11" spans="1:13" s="25" customFormat="1" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="99" t="s">
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+    </row>
+    <row r="11" spans="1:13" s="25" customFormat="1" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="91" t="s">
         <v>516</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="102" t="s">
         <v>572</v>
       </c>
       <c r="G11" s="85"/>
-      <c r="H11" s="98"/>
+      <c r="H11" s="109"/>
       <c r="I11" s="60" t="s">
         <v>573</v>
       </c>
@@ -12744,20 +12744,20 @@
       <c r="K11" s="50" t="s">
         <v>574</v>
       </c>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-    </row>
-    <row r="12" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+    </row>
+    <row r="12" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="108"/>
       <c r="G12" s="87" t="s">
         <v>637</v>
       </c>
-      <c r="H12" s="113"/>
+      <c r="H12" s="110"/>
       <c r="I12" s="61" t="s">
         <v>575</v>
       </c>
@@ -12765,16 +12765,16 @@
       <c r="K12" s="63" t="s">
         <v>576</v>
       </c>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-    </row>
-    <row r="13" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90" t="s">
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+    </row>
+    <row r="13" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92" t="s">
         <v>517</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="96" t="s">
         <v>577</v>
       </c>
       <c r="E13" s="64" t="s">
@@ -12796,14 +12796,14 @@
       <c r="K13" s="58" t="s">
         <v>581</v>
       </c>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-    </row>
-    <row r="14" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="105"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+    </row>
+    <row r="14" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="48" t="s">
         <v>519</v>
       </c>
@@ -12823,14 +12823,14 @@
       <c r="K14" s="50" t="s">
         <v>585</v>
       </c>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-    </row>
-    <row r="15" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="105"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+    </row>
+    <row r="15" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="48" t="s">
         <v>520</v>
       </c>
@@ -12850,56 +12850,56 @@
       <c r="K15" s="50" t="s">
         <v>589</v>
       </c>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-    </row>
-    <row r="16" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="99" t="s">
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+    </row>
+    <row r="16" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="91" t="s">
         <v>522</v>
       </c>
-      <c r="F16" s="94" t="s">
+      <c r="F16" s="102" t="s">
         <v>590</v>
       </c>
       <c r="G16" s="85"/>
-      <c r="H16" s="107"/>
+      <c r="H16" s="111"/>
       <c r="I16" s="70" t="s">
         <v>591</v>
       </c>
       <c r="J16" s="53"/>
       <c r="K16" s="50"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-    </row>
-    <row r="17" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="92"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+    </row>
+    <row r="17" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="103"/>
       <c r="G17" s="86"/>
-      <c r="H17" s="107"/>
+      <c r="H17" s="111"/>
       <c r="I17" s="70" t="s">
         <v>592</v>
       </c>
       <c r="J17" s="53"/>
       <c r="K17" s="50"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-    </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="92"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+    </row>
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="86"/>
-      <c r="H18" s="107"/>
+      <c r="H18" s="111"/>
       <c r="I18" s="50" t="s">
         <v>593</v>
       </c>
@@ -12907,18 +12907,18 @@
       <c r="K18" s="70" t="s">
         <v>594</v>
       </c>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-    </row>
-    <row r="19" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="92"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+    </row>
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="86"/>
-      <c r="H19" s="107"/>
+      <c r="H19" s="111"/>
       <c r="I19" s="50" t="s">
         <v>595</v>
       </c>
@@ -12926,18 +12926,18 @@
       <c r="K19" s="70" t="s">
         <v>596</v>
       </c>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-    </row>
-    <row r="20" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="92"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+    </row>
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="103"/>
       <c r="G20" s="86"/>
-      <c r="H20" s="107"/>
+      <c r="H20" s="111"/>
       <c r="I20" s="50" t="s">
         <v>597</v>
       </c>
@@ -12945,46 +12945,46 @@
       <c r="K20" s="70" t="s">
         <v>598</v>
       </c>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-    </row>
-    <row r="21" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="92"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+    </row>
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="103"/>
       <c r="G21" s="86"/>
-      <c r="H21" s="107"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="52" t="s">
         <v>539</v>
       </c>
       <c r="J21" s="53"/>
       <c r="K21" s="70"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-    </row>
-    <row r="22" spans="1:14" s="25" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="93"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+    </row>
+    <row r="22" spans="1:14" s="25" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H22" s="107"/>
+      <c r="H22" s="111"/>
       <c r="I22" s="50" t="s">
         <v>599</v>
       </c>
       <c r="J22" s="53"/>
       <c r="K22" s="51"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-    </row>
-    <row r="23" spans="1:14" s="25" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+    </row>
+    <row r="23" spans="1:14" s="25" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71"/>
       <c r="B23" s="71"/>
       <c r="C23" s="71"/>
@@ -12999,27 +12999,27 @@
       <c r="L23" s="77"/>
       <c r="M23" s="76"/>
     </row>
-    <row r="24" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="99" t="s">
+    <row r="24" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="91" t="s">
         <v>523</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="112" t="s">
         <v>524</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="91" t="s">
         <v>525</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="95" t="s">
         <v>600</v>
       </c>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="91" t="s">
         <v>526</v>
       </c>
-      <c r="F24" s="94" t="s">
+      <c r="F24" s="102" t="s">
         <v>601</v>
       </c>
       <c r="G24" s="85"/>
-      <c r="H24" s="95" t="s">
+      <c r="H24" s="105" t="s">
         <v>602</v>
       </c>
       <c r="I24" s="51" t="s">
@@ -13031,47 +13031,47 @@
       <c r="K24" s="50" t="s">
         <v>603</v>
       </c>
-      <c r="L24" s="101" t="s">
+      <c r="L24" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="M24" s="98" t="s">
+      <c r="M24" s="109" t="s">
         <v>529</v>
       </c>
       <c r="N24" s="54"/>
     </row>
-    <row r="25" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="90"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="93"/>
+    <row r="25" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="92"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H25" s="97"/>
+      <c r="H25" s="107"/>
       <c r="I25" s="51" t="s">
         <v>604</v>
       </c>
       <c r="J25" s="52"/>
       <c r="K25" s="50"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="98"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="109"/>
       <c r="N25" s="54"/>
     </row>
-    <row r="26" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="90"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="99" t="s">
+    <row r="26" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="102" t="s">
         <v>605</v>
       </c>
       <c r="G26" s="85"/>
-      <c r="H26" s="95" t="s">
+      <c r="H26" s="105" t="s">
         <v>606</v>
       </c>
       <c r="I26" s="51" t="s">
@@ -13083,21 +13083,21 @@
       <c r="K26" s="50" t="s">
         <v>608</v>
       </c>
-      <c r="L26" s="102"/>
-      <c r="M26" s="98"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="109"/>
       <c r="N26" s="54"/>
     </row>
-    <row r="27" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="90"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="93"/>
+    <row r="27" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="65" t="s">
         <v>638</v>
       </c>
-      <c r="H27" s="97"/>
+      <c r="H27" s="107"/>
       <c r="I27" s="51" t="s">
         <v>538</v>
       </c>
@@ -13105,15 +13105,15 @@
         <v>534</v>
       </c>
       <c r="K27" s="50"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="98"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="109"/>
       <c r="N27" s="54"/>
     </row>
-    <row r="28" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="90"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="105"/>
+    <row r="28" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="48" t="s">
         <v>532</v>
       </c>
@@ -13132,15 +13132,15 @@
       <c r="K28" s="50" t="s">
         <v>611</v>
       </c>
-      <c r="L28" s="102"/>
-      <c r="M28" s="98"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="109"/>
       <c r="N28" s="54"/>
     </row>
-    <row r="29" spans="1:14" s="25" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="91"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="106"/>
+    <row r="29" spans="1:14" s="25" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="48" t="s">
         <v>535</v>
       </c>
@@ -13162,11 +13162,11 @@
       <c r="K29" s="50" t="s">
         <v>614</v>
       </c>
-      <c r="L29" s="103"/>
-      <c r="M29" s="98"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="109"/>
       <c r="N29" s="54"/>
     </row>
-    <row r="30" spans="1:14" s="25" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" s="25" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="79"/>
       <c r="B30" s="79"/>
       <c r="C30" s="79"/>
@@ -13181,27 +13181,27 @@
       <c r="L30" s="76"/>
       <c r="M30" s="76"/>
     </row>
-    <row r="31" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="99" t="s">
+    <row r="31" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="91" t="s">
         <v>540</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="91" t="s">
         <v>541</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="91" t="s">
         <v>542</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="95" t="s">
         <v>615</v>
       </c>
-      <c r="E31" s="99" t="s">
+      <c r="E31" s="91" t="s">
         <v>543</v>
       </c>
-      <c r="F31" s="94" t="s">
+      <c r="F31" s="102" t="s">
         <v>616</v>
       </c>
       <c r="G31" s="85"/>
-      <c r="H31" s="95" t="s">
+      <c r="H31" s="105" t="s">
         <v>617</v>
       </c>
       <c r="I31" s="83" t="s">
@@ -13213,22 +13213,22 @@
       <c r="K31" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="L31" s="98" t="s">
+      <c r="L31" s="109" t="s">
         <v>545</v>
       </c>
-      <c r="M31" s="98" t="s">
+      <c r="M31" s="109" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="92"/>
+    <row r="32" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="103"/>
       <c r="G32" s="86"/>
-      <c r="H32" s="96"/>
+      <c r="H32" s="106"/>
       <c r="I32" s="58" t="s">
         <v>620</v>
       </c>
@@ -13236,79 +13236,79 @@
       <c r="K32" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-    </row>
-    <row r="33" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="93"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+    </row>
+    <row r="33" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="104"/>
       <c r="G33" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H33" s="97"/>
+      <c r="H33" s="107"/>
       <c r="I33" s="58" t="s">
         <v>555</v>
       </c>
       <c r="J33" s="51"/>
       <c r="K33" s="50"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-    </row>
-    <row r="34" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="99" t="s">
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+    </row>
+    <row r="34" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="91" t="s">
         <v>547</v>
       </c>
-      <c r="F34" s="94" t="s">
+      <c r="F34" s="102" t="s">
         <v>622</v>
       </c>
       <c r="G34" s="85"/>
-      <c r="H34" s="95" t="s">
+      <c r="H34" s="105" t="s">
         <v>623</v>
       </c>
       <c r="I34" s="51" t="s">
         <v>624</v>
       </c>
       <c r="J34" s="51"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-    </row>
-    <row r="35" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="92"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+    </row>
+    <row r="35" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="103"/>
       <c r="G35" s="86"/>
-      <c r="H35" s="96"/>
+      <c r="H35" s="106"/>
       <c r="I35" s="51" t="s">
         <v>551</v>
       </c>
       <c r="J35" s="51"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-    </row>
-    <row r="36" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="93"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+    </row>
+    <row r="36" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H36" s="97"/>
+      <c r="H36" s="107"/>
       <c r="I36" s="51" t="s">
         <v>625</v>
       </c>
@@ -13318,68 +13318,68 @@
       <c r="K36" s="50" t="s">
         <v>549</v>
       </c>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
-    </row>
-    <row r="37" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="99" t="s">
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+    </row>
+    <row r="37" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="91" t="s">
         <v>550</v>
       </c>
-      <c r="F37" s="94" t="s">
+      <c r="F37" s="102" t="s">
         <v>626</v>
       </c>
       <c r="G37" s="85"/>
-      <c r="H37" s="88" t="s">
+      <c r="H37" s="116" t="s">
         <v>627</v>
       </c>
       <c r="I37" s="51" t="s">
         <v>628</v>
       </c>
-      <c r="J37" s="89" t="s">
+      <c r="J37" s="117" t="s">
         <v>552</v>
       </c>
-      <c r="K37" s="88" t="s">
+      <c r="K37" s="116" t="s">
         <v>554</v>
       </c>
-      <c r="L37" s="98"/>
-      <c r="M37" s="98"/>
-    </row>
-    <row r="38" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="90"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="92"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+    </row>
+    <row r="38" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="103"/>
       <c r="G38" s="86" t="s">
         <v>637</v>
       </c>
-      <c r="H38" s="88"/>
+      <c r="H38" s="116"/>
       <c r="I38" s="70" t="s">
         <v>629</v>
       </c>
-      <c r="J38" s="89"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-    </row>
-    <row r="39" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="90" t="s">
+      <c r="J38" s="117"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+    </row>
+    <row r="39" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="92" t="s">
         <v>553</v>
       </c>
-      <c r="F39" s="92" t="s">
+      <c r="F39" s="103" t="s">
         <v>630</v>
       </c>
       <c r="G39" s="86"/>
-      <c r="H39" s="88" t="s">
+      <c r="H39" s="116" t="s">
         <v>631</v>
       </c>
       <c r="I39" s="70" t="s">
@@ -13389,18 +13389,18 @@
       <c r="K39" s="58" t="s">
         <v>633</v>
       </c>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-    </row>
-    <row r="40" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="90"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="92"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+    </row>
+    <row r="40" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="103"/>
       <c r="G40" s="86"/>
-      <c r="H40" s="88"/>
+      <c r="H40" s="116"/>
       <c r="I40" s="70" t="s">
         <v>634</v>
       </c>
@@ -13408,72 +13408,34 @@
       <c r="K40" s="58" t="s">
         <v>635</v>
       </c>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
-    </row>
-    <row r="41" spans="1:13" s="25" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="93"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+    </row>
+    <row r="41" spans="1:13" s="25" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="93"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="104"/>
       <c r="G41" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="116"/>
       <c r="I41" s="70" t="s">
         <v>636</v>
       </c>
       <c r="J41" s="53"/>
       <c r="K41" s="50"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L41" s="109"/>
+      <c r="M41" s="109"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K42" s="84"/>
     </row>
-    <row r="43" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="L6:L22"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="D31:D41"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="H31:H33"/>
     <mergeCell ref="L31:L41"/>
     <mergeCell ref="M31:M41"/>
     <mergeCell ref="E34:E36"/>
@@ -13488,6 +13450,44 @@
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="F39:F41"/>
     <mergeCell ref="H39:H41"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{D7C432E5-734B-A84F-9513-83614378A680}"/>
@@ -13604,115 +13604,115 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>63</v>
       </c>

--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\admin\git\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{11EAACB6-831A-448F-9364-7772AA130A77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D60043-6B34-4B4C-8C27-BFBE646190E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4344" yWindow="456" windowWidth="33924" windowHeight="19776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="940" windowWidth="33160" windowHeight="19980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">topics!$B$1:$H$892</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="640">
   <si>
     <t>3-node architecture</t>
   </si>
@@ -2573,6 +2573,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>3rd attempt</t>
   </si>
 </sst>
 </file>
@@ -3106,13 +3109,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3122,30 +3119,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3166,17 +3139,32 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3187,14 +3175,29 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3553,23 +3556,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="99.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="99.83203125" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="15" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="15"/>
+    <col min="9" max="9" width="14.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3587,7 +3590,7 @@
       </c>
       <c r="F1" s="13">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>24</v>
@@ -3599,7 +3602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -3618,7 +3621,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -3637,7 +3640,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -3656,7 +3659,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -3675,7 +3678,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -3694,7 +3697,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -3713,7 +3716,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -3730,7 +3733,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -3747,7 +3750,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -3764,7 +3767,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -3781,7 +3784,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -3798,7 +3801,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -3815,7 +3818,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -3832,7 +3835,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -3849,7 +3852,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -3866,7 +3869,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -3883,7 +3886,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3900,7 +3903,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
@@ -3917,7 +3920,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -3934,7 +3937,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -3951,7 +3954,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -3968,7 +3971,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -3985,7 +3988,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -4002,7 +4005,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -4019,7 +4022,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -4036,7 +4039,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -4053,7 +4056,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -4070,7 +4073,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -4087,7 +4090,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
@@ -4104,7 +4107,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
@@ -4121,7 +4124,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -4138,7 +4141,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>27</v>
       </c>
@@ -4155,7 +4158,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -4172,7 +4175,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
@@ -4189,7 +4192,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>27</v>
       </c>
@@ -4206,7 +4209,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>27</v>
       </c>
@@ -4223,7 +4226,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -4240,7 +4243,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>27</v>
       </c>
@@ -4257,7 +4260,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>27</v>
       </c>
@@ -4274,7 +4277,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>27</v>
       </c>
@@ -4291,7 +4294,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>27</v>
       </c>
@@ -4308,7 +4311,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>27</v>
       </c>
@@ -4325,7 +4328,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>27</v>
       </c>
@@ -4342,7 +4345,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>27</v>
       </c>
@@ -4359,7 +4362,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>27</v>
       </c>
@@ -4376,7 +4379,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>27</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>27</v>
       </c>
@@ -4412,7 +4415,7 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>27</v>
       </c>
@@ -4429,7 +4432,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>27</v>
       </c>
@@ -4446,7 +4449,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>27</v>
       </c>
@@ -4463,7 +4466,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>27</v>
       </c>
@@ -4480,7 +4483,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>27</v>
       </c>
@@ -4497,7 +4500,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>27</v>
       </c>
@@ -4514,7 +4517,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>27</v>
       </c>
@@ -4531,7 +4534,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>104</v>
       </c>
@@ -4548,7 +4551,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>104</v>
       </c>
@@ -4565,7 +4568,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>104</v>
       </c>
@@ -4582,7 +4585,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>104</v>
       </c>
@@ -4599,7 +4602,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>104</v>
       </c>
@@ -4616,7 +4619,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>104</v>
       </c>
@@ -4633,7 +4636,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>104</v>
       </c>
@@ -4650,7 +4653,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>104</v>
       </c>
@@ -4667,7 +4670,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>104</v>
       </c>
@@ -4684,7 +4687,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>104</v>
       </c>
@@ -4701,7 +4704,7 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>104</v>
       </c>
@@ -4718,7 +4721,7 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>104</v>
       </c>
@@ -4735,7 +4738,7 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>104</v>
       </c>
@@ -4752,7 +4755,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>104</v>
       </c>
@@ -4769,7 +4772,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>104</v>
       </c>
@@ -4786,7 +4789,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>104</v>
       </c>
@@ -4803,7 +4806,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>104</v>
       </c>
@@ -4820,7 +4823,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>104</v>
       </c>
@@ -4837,7 +4840,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>104</v>
       </c>
@@ -4854,7 +4857,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>104</v>
       </c>
@@ -4871,7 +4874,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>104</v>
       </c>
@@ -4888,7 +4891,7 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>104</v>
       </c>
@@ -4905,7 +4908,7 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>104</v>
       </c>
@@ -4922,7 +4925,7 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>104</v>
       </c>
@@ -4939,7 +4942,7 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>104</v>
       </c>
@@ -4956,7 +4959,7 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>104</v>
       </c>
@@ -4973,7 +4976,7 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -4990,7 +4993,7 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>104</v>
       </c>
@@ -5007,7 +5010,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>104</v>
       </c>
@@ -5024,7 +5027,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>104</v>
       </c>
@@ -5041,7 +5044,7 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>104</v>
       </c>
@@ -5058,7 +5061,7 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>104</v>
       </c>
@@ -5075,7 +5078,7 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>104</v>
       </c>
@@ -5092,7 +5095,7 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>104</v>
       </c>
@@ -5109,7 +5112,7 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>104</v>
       </c>
@@ -5126,7 +5129,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>104</v>
       </c>
@@ -5143,7 +5146,7 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>104</v>
       </c>
@@ -5160,7 +5163,7 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>104</v>
       </c>
@@ -5177,7 +5180,7 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>104</v>
       </c>
@@ -5194,7 +5197,7 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>104</v>
       </c>
@@ -5211,7 +5214,7 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>104</v>
       </c>
@@ -5228,7 +5231,7 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>104</v>
       </c>
@@ -5245,7 +5248,7 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>104</v>
       </c>
@@ -5262,7 +5265,7 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>104</v>
       </c>
@@ -5279,7 +5282,7 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>104</v>
       </c>
@@ -5296,7 +5299,7 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>104</v>
       </c>
@@ -5313,7 +5316,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>104</v>
       </c>
@@ -5330,7 +5333,7 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>104</v>
       </c>
@@ -5347,7 +5350,7 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>104</v>
       </c>
@@ -5364,7 +5367,7 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>104</v>
       </c>
@@ -5381,7 +5384,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
@@ -5398,7 +5401,7 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>104</v>
       </c>
@@ -5415,7 +5418,7 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>104</v>
       </c>
@@ -5432,7 +5435,7 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>104</v>
       </c>
@@ -5449,7 +5452,7 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>104</v>
       </c>
@@ -5466,7 +5469,7 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>104</v>
       </c>
@@ -5483,7 +5486,7 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>104</v>
       </c>
@@ -5500,7 +5503,7 @@
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>162</v>
       </c>
@@ -5517,7 +5520,7 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>162</v>
       </c>
@@ -5534,7 +5537,7 @@
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>162</v>
       </c>
@@ -5551,7 +5554,7 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>162</v>
       </c>
@@ -5568,7 +5571,7 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>162</v>
       </c>
@@ -5585,7 +5588,7 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>162</v>
       </c>
@@ -5602,7 +5605,7 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>162</v>
       </c>
@@ -5619,7 +5622,7 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>162</v>
       </c>
@@ -5636,7 +5639,7 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>162</v>
       </c>
@@ -5653,7 +5656,7 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>162</v>
       </c>
@@ -5670,7 +5673,7 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>162</v>
       </c>
@@ -5687,7 +5690,7 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>162</v>
       </c>
@@ -5704,7 +5707,7 @@
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>162</v>
       </c>
@@ -5721,7 +5724,7 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>162</v>
       </c>
@@ -5738,7 +5741,7 @@
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>162</v>
       </c>
@@ -5755,7 +5758,7 @@
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -5772,7 +5775,7 @@
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>162</v>
       </c>
@@ -5789,7 +5792,7 @@
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>162</v>
       </c>
@@ -5806,7 +5809,7 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>162</v>
       </c>
@@ -5823,7 +5826,7 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>162</v>
       </c>
@@ -5840,7 +5843,7 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>162</v>
       </c>
@@ -5857,7 +5860,7 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>162</v>
       </c>
@@ -5874,7 +5877,7 @@
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>162</v>
       </c>
@@ -5891,7 +5894,7 @@
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>162</v>
       </c>
@@ -5908,7 +5911,7 @@
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>162</v>
       </c>
@@ -5925,7 +5928,7 @@
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>162</v>
       </c>
@@ -5942,7 +5945,7 @@
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>162</v>
       </c>
@@ -5959,7 +5962,7 @@
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>162</v>
       </c>
@@ -5976,7 +5979,7 @@
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>162</v>
       </c>
@@ -5993,7 +5996,7 @@
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>162</v>
       </c>
@@ -6010,7 +6013,7 @@
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>162</v>
       </c>
@@ -6027,7 +6030,7 @@
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>162</v>
       </c>
@@ -6044,7 +6047,7 @@
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>162</v>
       </c>
@@ -6061,7 +6064,7 @@
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>162</v>
       </c>
@@ -6078,7 +6081,7 @@
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>162</v>
       </c>
@@ -6095,7 +6098,7 @@
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>162</v>
       </c>
@@ -6112,7 +6115,7 @@
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>162</v>
       </c>
@@ -6129,7 +6132,7 @@
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>162</v>
       </c>
@@ -6146,7 +6149,7 @@
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>162</v>
       </c>
@@ -6163,7 +6166,7 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>162</v>
       </c>
@@ -6180,7 +6183,7 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>162</v>
       </c>
@@ -6197,7 +6200,7 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>162</v>
       </c>
@@ -6214,7 +6217,7 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>162</v>
       </c>
@@ -6231,7 +6234,7 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>162</v>
       </c>
@@ -6248,7 +6251,7 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>162</v>
       </c>
@@ -6265,7 +6268,7 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>162</v>
       </c>
@@ -6282,7 +6285,7 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>162</v>
       </c>
@@ -6299,7 +6302,7 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>162</v>
       </c>
@@ -6316,7 +6319,7 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>162</v>
       </c>
@@ -6333,7 +6336,7 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>162</v>
       </c>
@@ -6350,7 +6353,7 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>162</v>
       </c>
@@ -6367,7 +6370,7 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>162</v>
       </c>
@@ -6384,7 +6387,7 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>162</v>
       </c>
@@ -6401,7 +6404,7 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>162</v>
       </c>
@@ -6418,7 +6421,7 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>162</v>
       </c>
@@ -6435,7 +6438,7 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>162</v>
       </c>
@@ -6452,7 +6455,7 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>162</v>
       </c>
@@ -6469,7 +6472,7 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>162</v>
       </c>
@@ -6486,7 +6489,7 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>162</v>
       </c>
@@ -6503,7 +6506,7 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>162</v>
       </c>
@@ -6520,7 +6523,7 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>162</v>
       </c>
@@ -6537,7 +6540,7 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>162</v>
       </c>
@@ -6554,7 +6557,7 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>162</v>
       </c>
@@ -6571,7 +6574,7 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>162</v>
       </c>
@@ -6588,7 +6591,7 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>162</v>
       </c>
@@ -6605,7 +6608,7 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>162</v>
       </c>
@@ -6622,7 +6625,7 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>162</v>
       </c>
@@ -6639,7 +6642,7 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>162</v>
       </c>
@@ -6656,7 +6659,7 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>162</v>
       </c>
@@ -6673,7 +6676,7 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>162</v>
       </c>
@@ -6690,7 +6693,7 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>162</v>
       </c>
@@ -6707,7 +6710,7 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>162</v>
       </c>
@@ -6724,7 +6727,7 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>162</v>
       </c>
@@ -6741,7 +6744,7 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>162</v>
       </c>
@@ -6758,7 +6761,7 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>162</v>
       </c>
@@ -6775,7 +6778,7 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>162</v>
       </c>
@@ -6792,7 +6795,7 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>162</v>
       </c>
@@ -6809,7 +6812,7 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>162</v>
       </c>
@@ -6826,7 +6829,7 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>162</v>
       </c>
@@ -6843,7 +6846,7 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>162</v>
       </c>
@@ -6860,7 +6863,7 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>162</v>
       </c>
@@ -6877,7 +6880,7 @@
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>162</v>
       </c>
@@ -6894,7 +6897,7 @@
       <c r="H194" s="14"/>
       <c r="I194" s="14"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>162</v>
       </c>
@@ -6911,7 +6914,7 @@
       <c r="H195" s="14"/>
       <c r="I195" s="14"/>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>162</v>
       </c>
@@ -6928,7 +6931,7 @@
       <c r="H196" s="14"/>
       <c r="I196" s="14"/>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>162</v>
       </c>
@@ -6945,7 +6948,7 @@
       <c r="H197" s="14"/>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>162</v>
       </c>
@@ -6962,7 +6965,7 @@
       <c r="H198" s="14"/>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>162</v>
       </c>
@@ -6979,7 +6982,7 @@
       <c r="H199" s="14"/>
       <c r="I199" s="14"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>162</v>
       </c>
@@ -6996,7 +6999,7 @@
       <c r="H200" s="14"/>
       <c r="I200" s="14"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>162</v>
       </c>
@@ -7013,7 +7016,7 @@
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>162</v>
       </c>
@@ -7030,7 +7033,7 @@
       <c r="H202" s="14"/>
       <c r="I202" s="14"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>162</v>
       </c>
@@ -7047,7 +7050,7 @@
       <c r="H203" s="14"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>162</v>
       </c>
@@ -7064,7 +7067,7 @@
       <c r="H204" s="14"/>
       <c r="I204" s="14"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>162</v>
       </c>
@@ -7081,7 +7084,7 @@
       <c r="H205" s="14"/>
       <c r="I205" s="14"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>162</v>
       </c>
@@ -7098,7 +7101,7 @@
       <c r="H206" s="14"/>
       <c r="I206" s="14"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>162</v>
       </c>
@@ -7115,7 +7118,7 @@
       <c r="H207" s="14"/>
       <c r="I207" s="14"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>162</v>
       </c>
@@ -7132,7 +7135,7 @@
       <c r="H208" s="14"/>
       <c r="I208" s="14"/>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>162</v>
       </c>
@@ -7149,7 +7152,7 @@
       <c r="H209" s="14"/>
       <c r="I209" s="14"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>162</v>
       </c>
@@ -7166,7 +7169,7 @@
       <c r="H210" s="14"/>
       <c r="I210" s="14"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>162</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>162</v>
       </c>
@@ -7202,7 +7205,7 @@
       <c r="H212" s="14"/>
       <c r="I212" s="14"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>162</v>
       </c>
@@ -7219,7 +7222,7 @@
       <c r="H213" s="14"/>
       <c r="I213" s="14"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>162</v>
       </c>
@@ -7236,7 +7239,7 @@
       <c r="H214" s="14"/>
       <c r="I214" s="14"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>162</v>
       </c>
@@ -7253,7 +7256,7 @@
       <c r="H215" s="14"/>
       <c r="I215" s="14"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>162</v>
       </c>
@@ -7270,7 +7273,7 @@
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>162</v>
       </c>
@@ -7287,7 +7290,7 @@
       <c r="H217" s="14"/>
       <c r="I217" s="14"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>162</v>
       </c>
@@ -7304,7 +7307,7 @@
       <c r="H218" s="14"/>
       <c r="I218" s="14"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>162</v>
       </c>
@@ -7321,7 +7324,7 @@
       <c r="H219" s="14"/>
       <c r="I219" s="14"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>162</v>
       </c>
@@ -7338,7 +7341,7 @@
       <c r="H220" s="14"/>
       <c r="I220" s="14"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>162</v>
       </c>
@@ -7355,7 +7358,7 @@
       <c r="H221" s="14"/>
       <c r="I221" s="14"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>162</v>
       </c>
@@ -7372,7 +7375,7 @@
       <c r="H222" s="14"/>
       <c r="I222" s="14"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>162</v>
       </c>
@@ -7389,7 +7392,7 @@
       <c r="H223" s="14"/>
       <c r="I223" s="14"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>162</v>
       </c>
@@ -7406,7 +7409,7 @@
       <c r="H224" s="14"/>
       <c r="I224" s="14"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>162</v>
       </c>
@@ -7423,7 +7426,7 @@
       <c r="H225" s="14"/>
       <c r="I225" s="14"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>162</v>
       </c>
@@ -7440,7 +7443,7 @@
       <c r="H226" s="14"/>
       <c r="I226" s="14"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>162</v>
       </c>
@@ -7457,7 +7460,7 @@
       <c r="H227" s="14"/>
       <c r="I227" s="14"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>162</v>
       </c>
@@ -7474,7 +7477,7 @@
       <c r="H228" s="14"/>
       <c r="I228" s="14"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>162</v>
       </c>
@@ -7491,7 +7494,7 @@
       <c r="H229" s="14"/>
       <c r="I229" s="14"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>162</v>
       </c>
@@ -7508,7 +7511,7 @@
       <c r="H230" s="14"/>
       <c r="I230" s="14"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>162</v>
       </c>
@@ -7525,7 +7528,7 @@
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>162</v>
       </c>
@@ -7542,7 +7545,7 @@
       <c r="H232" s="14"/>
       <c r="I232" s="14"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>162</v>
       </c>
@@ -7559,7 +7562,7 @@
       <c r="H233" s="14"/>
       <c r="I233" s="14"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>162</v>
       </c>
@@ -7576,7 +7579,7 @@
       <c r="H234" s="14"/>
       <c r="I234" s="14"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>162</v>
       </c>
@@ -7593,7 +7596,7 @@
       <c r="H235" s="14"/>
       <c r="I235" s="14"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>162</v>
       </c>
@@ -7610,7 +7613,7 @@
       <c r="H236" s="14"/>
       <c r="I236" s="14"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>162</v>
       </c>
@@ -7627,7 +7630,7 @@
       <c r="H237" s="14"/>
       <c r="I237" s="14"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>162</v>
       </c>
@@ -7644,7 +7647,7 @@
       <c r="H238" s="14"/>
       <c r="I238" s="14"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>162</v>
       </c>
@@ -7661,7 +7664,7 @@
       <c r="H239" s="14"/>
       <c r="I239" s="14"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>162</v>
       </c>
@@ -7678,7 +7681,7 @@
       <c r="H240" s="14"/>
       <c r="I240" s="14"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>162</v>
       </c>
@@ -7695,7 +7698,7 @@
       <c r="H241" s="14"/>
       <c r="I241" s="14"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>162</v>
       </c>
@@ -7712,7 +7715,7 @@
       <c r="H242" s="14"/>
       <c r="I242" s="14"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>162</v>
       </c>
@@ -7729,7 +7732,7 @@
       <c r="H243" s="14"/>
       <c r="I243" s="14"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>162</v>
       </c>
@@ -7746,7 +7749,7 @@
       <c r="H244" s="14"/>
       <c r="I244" s="14"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>162</v>
       </c>
@@ -7763,7 +7766,7 @@
       <c r="H245" s="14"/>
       <c r="I245" s="14"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>162</v>
       </c>
@@ -7780,7 +7783,7 @@
       <c r="H246" s="14"/>
       <c r="I246" s="14"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>162</v>
       </c>
@@ -7797,7 +7800,7 @@
       <c r="H247" s="14"/>
       <c r="I247" s="14"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>162</v>
       </c>
@@ -7814,7 +7817,7 @@
       <c r="H248" s="14"/>
       <c r="I248" s="14"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>162</v>
       </c>
@@ -7831,7 +7834,7 @@
       <c r="H249" s="14"/>
       <c r="I249" s="14"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>162</v>
       </c>
@@ -7848,7 +7851,7 @@
       <c r="H250" s="14"/>
       <c r="I250" s="14"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>162</v>
       </c>
@@ -7865,7 +7868,7 @@
       <c r="H251" s="14"/>
       <c r="I251" s="14"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>162</v>
       </c>
@@ -7882,7 +7885,7 @@
       <c r="H252" s="14"/>
       <c r="I252" s="14"/>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>162</v>
       </c>
@@ -7899,7 +7902,7 @@
       <c r="H253" s="14"/>
       <c r="I253" s="14"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>162</v>
       </c>
@@ -7916,7 +7919,7 @@
       <c r="H254" s="14"/>
       <c r="I254" s="14"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>162</v>
       </c>
@@ -7933,7 +7936,7 @@
       <c r="H255" s="14"/>
       <c r="I255" s="14"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>162</v>
       </c>
@@ -7950,7 +7953,7 @@
       <c r="H256" s="14"/>
       <c r="I256" s="14"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>162</v>
       </c>
@@ -7967,7 +7970,7 @@
       <c r="H257" s="14"/>
       <c r="I257" s="14"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>162</v>
       </c>
@@ -7984,7 +7987,7 @@
       <c r="H258" s="14"/>
       <c r="I258" s="14"/>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>162</v>
       </c>
@@ -8001,7 +8004,7 @@
       <c r="H259" s="14"/>
       <c r="I259" s="14"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>162</v>
       </c>
@@ -8018,7 +8021,7 @@
       <c r="H260" s="14"/>
       <c r="I260" s="14"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>162</v>
       </c>
@@ -8035,7 +8038,7 @@
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>162</v>
       </c>
@@ -8052,7 +8055,7 @@
       <c r="H262" s="14"/>
       <c r="I262" s="14"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>162</v>
       </c>
@@ -8069,7 +8072,7 @@
       <c r="H263" s="14"/>
       <c r="I263" s="14"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>162</v>
       </c>
@@ -8086,7 +8089,7 @@
       <c r="H264" s="14"/>
       <c r="I264" s="14"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>162</v>
       </c>
@@ -8103,7 +8106,7 @@
       <c r="H265" s="14"/>
       <c r="I265" s="14"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>162</v>
       </c>
@@ -8120,7 +8123,7 @@
       <c r="H266" s="14"/>
       <c r="I266" s="14"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>162</v>
       </c>
@@ -8137,7 +8140,7 @@
       <c r="H267" s="14"/>
       <c r="I267" s="14"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>162</v>
       </c>
@@ -8154,7 +8157,7 @@
       <c r="H268" s="14"/>
       <c r="I268" s="14"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>162</v>
       </c>
@@ -8171,7 +8174,7 @@
       <c r="H269" s="14"/>
       <c r="I269" s="14"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>162</v>
       </c>
@@ -8188,7 +8191,7 @@
       <c r="H270" s="14"/>
       <c r="I270" s="14"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>162</v>
       </c>
@@ -8205,7 +8208,7 @@
       <c r="H271" s="14"/>
       <c r="I271" s="14"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>162</v>
       </c>
@@ -8222,7 +8225,7 @@
       <c r="H272" s="14"/>
       <c r="I272" s="14"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>162</v>
       </c>
@@ -8239,7 +8242,7 @@
       <c r="H273" s="14"/>
       <c r="I273" s="14"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>162</v>
       </c>
@@ -8256,7 +8259,7 @@
       <c r="H274" s="14"/>
       <c r="I274" s="14"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>162</v>
       </c>
@@ -8273,7 +8276,7 @@
       <c r="H275" s="14"/>
       <c r="I275" s="14"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>162</v>
       </c>
@@ -8290,7 +8293,7 @@
       <c r="H276" s="14"/>
       <c r="I276" s="14"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>162</v>
       </c>
@@ -8307,7 +8310,7 @@
       <c r="H277" s="14"/>
       <c r="I277" s="14"/>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>162</v>
       </c>
@@ -8324,7 +8327,7 @@
       <c r="H278" s="14"/>
       <c r="I278" s="14"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>330</v>
       </c>
@@ -8341,7 +8344,7 @@
       <c r="H279" s="14"/>
       <c r="I279" s="14"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>330</v>
       </c>
@@ -8358,7 +8361,7 @@
       <c r="H280" s="14"/>
       <c r="I280" s="14"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>330</v>
       </c>
@@ -8375,7 +8378,7 @@
       <c r="H281" s="14"/>
       <c r="I281" s="14"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>330</v>
       </c>
@@ -8392,7 +8395,7 @@
       <c r="H282" s="14"/>
       <c r="I282" s="14"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>330</v>
       </c>
@@ -8409,7 +8412,7 @@
       <c r="H283" s="14"/>
       <c r="I283" s="14"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>330</v>
       </c>
@@ -8426,7 +8429,7 @@
       <c r="H284" s="14"/>
       <c r="I284" s="14"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>330</v>
       </c>
@@ -8443,7 +8446,7 @@
       <c r="H285" s="14"/>
       <c r="I285" s="14"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>330</v>
       </c>
@@ -8460,7 +8463,7 @@
       <c r="H286" s="14"/>
       <c r="I286" s="14"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -8477,7 +8480,7 @@
       <c r="H287" s="14"/>
       <c r="I287" s="14"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>330</v>
       </c>
@@ -8494,7 +8497,7 @@
       <c r="H288" s="14"/>
       <c r="I288" s="14"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>330</v>
       </c>
@@ -8511,7 +8514,7 @@
       <c r="H289" s="14"/>
       <c r="I289" s="14"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>330</v>
       </c>
@@ -8528,7 +8531,7 @@
       <c r="H290" s="14"/>
       <c r="I290" s="14"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>330</v>
       </c>
@@ -8547,7 +8550,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>330</v>
       </c>
@@ -8564,7 +8567,7 @@
       <c r="H292" s="14"/>
       <c r="I292" s="14"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>330</v>
       </c>
@@ -8581,7 +8584,7 @@
       <c r="H293" s="14"/>
       <c r="I293" s="14"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>330</v>
       </c>
@@ -8598,7 +8601,7 @@
       <c r="H294" s="14"/>
       <c r="I294" s="14"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>330</v>
       </c>
@@ -8615,7 +8618,7 @@
       <c r="H295" s="14"/>
       <c r="I295" s="14"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>330</v>
       </c>
@@ -8632,7 +8635,7 @@
       <c r="H296" s="14"/>
       <c r="I296" s="14"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>330</v>
       </c>
@@ -8649,7 +8652,7 @@
       <c r="H297" s="14"/>
       <c r="I297" s="14"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>330</v>
       </c>
@@ -8666,7 +8669,7 @@
       <c r="H298" s="14"/>
       <c r="I298" s="14"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>330</v>
       </c>
@@ -8683,7 +8686,7 @@
       <c r="H299" s="14"/>
       <c r="I299" s="14"/>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>330</v>
       </c>
@@ -8700,7 +8703,7 @@
       <c r="H300" s="14"/>
       <c r="I300" s="14"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>330</v>
       </c>
@@ -8717,7 +8720,7 @@
       <c r="H301" s="14"/>
       <c r="I301" s="14"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>330</v>
       </c>
@@ -8734,7 +8737,7 @@
       <c r="H302" s="14"/>
       <c r="I302" s="14"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>330</v>
       </c>
@@ -8751,7 +8754,7 @@
       <c r="H303" s="14"/>
       <c r="I303" s="14"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>330</v>
       </c>
@@ -8768,7 +8771,7 @@
       <c r="H304" s="14"/>
       <c r="I304" s="14"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>330</v>
       </c>
@@ -8785,7 +8788,7 @@
       <c r="H305" s="14"/>
       <c r="I305" s="14"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>330</v>
       </c>
@@ -8802,7 +8805,7 @@
       <c r="H306" s="14"/>
       <c r="I306" s="14"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>330</v>
       </c>
@@ -8821,7 +8824,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>330</v>
       </c>
@@ -8838,7 +8841,7 @@
       <c r="H308" s="14"/>
       <c r="I308" s="14"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>330</v>
       </c>
@@ -8855,7 +8858,7 @@
       <c r="H309" s="14"/>
       <c r="I309" s="14"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>330</v>
       </c>
@@ -8872,7 +8875,7 @@
       <c r="H310" s="14"/>
       <c r="I310" s="14"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>330</v>
       </c>
@@ -8889,7 +8892,7 @@
       <c r="H311" s="14"/>
       <c r="I311" s="14"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>330</v>
       </c>
@@ -8906,7 +8909,7 @@
       <c r="H312" s="14"/>
       <c r="I312" s="14"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>330</v>
       </c>
@@ -8923,7 +8926,7 @@
       <c r="H313" s="14"/>
       <c r="I313" s="14"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="11"/>
       <c r="B314" s="7" t="s">
         <v>368</v>
@@ -8938,7 +8941,7 @@
       <c r="H314" s="14"/>
       <c r="I314" s="14"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>369</v>
       </c>
@@ -8955,7 +8958,7 @@
       <c r="H315" s="14"/>
       <c r="I315" s="14"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>369</v>
       </c>
@@ -8972,7 +8975,7 @@
       <c r="H316" s="14"/>
       <c r="I316" s="14"/>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>369</v>
       </c>
@@ -8989,7 +8992,7 @@
       <c r="H317" s="14"/>
       <c r="I317" s="14"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>369</v>
       </c>
@@ -9006,7 +9009,7 @@
       <c r="H318" s="14"/>
       <c r="I318" s="14"/>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>369</v>
       </c>
@@ -9023,7 +9026,7 @@
       <c r="H319" s="14"/>
       <c r="I319" s="14"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>369</v>
       </c>
@@ -9040,7 +9043,7 @@
       <c r="H320" s="14"/>
       <c r="I320" s="14"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>369</v>
       </c>
@@ -9057,7 +9060,7 @@
       <c r="H321" s="14"/>
       <c r="I321" s="14"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>369</v>
       </c>
@@ -9074,7 +9077,7 @@
       <c r="H322" s="14"/>
       <c r="I322" s="14"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>369</v>
       </c>
@@ -9093,7 +9096,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>369</v>
       </c>
@@ -9110,7 +9113,7 @@
       <c r="H324" s="14"/>
       <c r="I324" s="14"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>369</v>
       </c>
@@ -9127,7 +9130,7 @@
       <c r="H325" s="14"/>
       <c r="I325" s="14"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>369</v>
       </c>
@@ -9144,7 +9147,7 @@
       <c r="H326" s="14"/>
       <c r="I326" s="14"/>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>369</v>
       </c>
@@ -9161,7 +9164,7 @@
       <c r="H327" s="14"/>
       <c r="I327" s="14"/>
     </row>
-    <row r="328" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
         <v>369</v>
       </c>
@@ -9178,7 +9181,7 @@
       <c r="H328" s="14"/>
       <c r="I328" s="14"/>
     </row>
-    <row r="329" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>369</v>
       </c>
@@ -9195,7 +9198,7 @@
       <c r="H329" s="14"/>
       <c r="I329" s="14"/>
     </row>
-    <row r="330" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>369</v>
       </c>
@@ -9212,7 +9215,7 @@
       <c r="H330" s="14"/>
       <c r="I330" s="14"/>
     </row>
-    <row r="331" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>369</v>
       </c>
@@ -9229,7 +9232,7 @@
       <c r="H331" s="14"/>
       <c r="I331" s="14"/>
     </row>
-    <row r="332" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>369</v>
       </c>
@@ -9246,7 +9249,7 @@
       <c r="H332" s="14"/>
       <c r="I332" s="14"/>
     </row>
-    <row r="333" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>369</v>
       </c>
@@ -9263,7 +9266,7 @@
       <c r="H333" s="14"/>
       <c r="I333" s="14"/>
     </row>
-    <row r="334" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>369</v>
       </c>
@@ -9280,7 +9283,7 @@
       <c r="H334" s="14"/>
       <c r="I334" s="14"/>
     </row>
-    <row r="335" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>369</v>
       </c>
@@ -9297,7 +9300,7 @@
       <c r="H335" s="14"/>
       <c r="I335" s="14"/>
     </row>
-    <row r="336" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
         <v>369</v>
       </c>
@@ -9314,7 +9317,7 @@
       <c r="H336" s="14"/>
       <c r="I336" s="14"/>
     </row>
-    <row r="337" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>369</v>
       </c>
@@ -9331,7 +9334,7 @@
       <c r="H337" s="14"/>
       <c r="I337" s="14"/>
     </row>
-    <row r="338" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>369</v>
       </c>
@@ -9348,7 +9351,7 @@
       <c r="H338" s="14"/>
       <c r="I338" s="14"/>
     </row>
-    <row r="339" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -9365,7 +9368,7 @@
       <c r="H339" s="14"/>
       <c r="I339" s="14"/>
     </row>
-    <row r="340" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>369</v>
       </c>
@@ -9382,7 +9385,7 @@
       <c r="H340" s="14"/>
       <c r="I340" s="14"/>
     </row>
-    <row r="341" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
         <v>369</v>
       </c>
@@ -9399,7 +9402,7 @@
       <c r="H341" s="14"/>
       <c r="I341" s="14"/>
     </row>
-    <row r="342" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>369</v>
       </c>
@@ -9416,7 +9419,7 @@
       <c r="H342" s="14"/>
       <c r="I342" s="14"/>
     </row>
-    <row r="343" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>369</v>
       </c>
@@ -9433,7 +9436,7 @@
       <c r="H343" s="14"/>
       <c r="I343" s="14"/>
     </row>
-    <row r="344" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>369</v>
       </c>
@@ -9450,7 +9453,7 @@
       <c r="H344" s="14"/>
       <c r="I344" s="14"/>
     </row>
-    <row r="345" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>369</v>
       </c>
@@ -9467,7 +9470,7 @@
       <c r="H345" s="14"/>
       <c r="I345" s="14"/>
     </row>
-    <row r="346" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
         <v>369</v>
       </c>
@@ -9484,7 +9487,7 @@
       <c r="H346" s="14"/>
       <c r="I346" s="14"/>
     </row>
-    <row r="347" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>369</v>
       </c>
@@ -9503,7 +9506,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
         <v>369</v>
       </c>
@@ -9520,7 +9523,7 @@
       <c r="H348" s="14"/>
       <c r="I348" s="14"/>
     </row>
-    <row r="349" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
         <v>369</v>
       </c>
@@ -9537,7 +9540,7 @@
       <c r="H349" s="14"/>
       <c r="I349" s="14"/>
     </row>
-    <row r="350" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="11"/>
       <c r="B350" s="7" t="s">
         <v>407</v>
@@ -9552,7 +9555,7 @@
       <c r="H350" s="14"/>
       <c r="I350" s="14"/>
     </row>
-    <row r="351" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>408</v>
       </c>
@@ -9569,7 +9572,7 @@
       <c r="H351" s="14"/>
       <c r="I351" s="14"/>
     </row>
-    <row r="352" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
         <v>408</v>
       </c>
@@ -9586,7 +9589,7 @@
       <c r="H352" s="14"/>
       <c r="I352" s="14"/>
     </row>
-    <row r="353" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
         <v>408</v>
       </c>
@@ -9603,7 +9606,7 @@
       <c r="H353" s="14"/>
       <c r="I353" s="14"/>
     </row>
-    <row r="354" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>408</v>
       </c>
@@ -9620,7 +9623,7 @@
       <c r="H354" s="14"/>
       <c r="I354" s="14"/>
     </row>
-    <row r="355" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>408</v>
       </c>
@@ -9637,7 +9640,7 @@
       <c r="H355" s="14"/>
       <c r="I355" s="14"/>
     </row>
-    <row r="356" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>408</v>
       </c>
@@ -9654,7 +9657,7 @@
       <c r="H356" s="14"/>
       <c r="I356" s="14"/>
     </row>
-    <row r="357" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>408</v>
       </c>
@@ -9671,7 +9674,7 @@
       <c r="H357" s="14"/>
       <c r="I357" s="14"/>
     </row>
-    <row r="358" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>408</v>
       </c>
@@ -9688,7 +9691,7 @@
       <c r="H358" s="14"/>
       <c r="I358" s="14"/>
     </row>
-    <row r="359" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>408</v>
       </c>
@@ -9705,7 +9708,7 @@
       <c r="H359" s="14"/>
       <c r="I359" s="14"/>
     </row>
-    <row r="360" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>408</v>
       </c>
@@ -9722,7 +9725,7 @@
       <c r="H360" s="14"/>
       <c r="I360" s="14"/>
     </row>
-    <row r="361" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>408</v>
       </c>
@@ -9739,7 +9742,7 @@
       <c r="H361" s="14"/>
       <c r="I361" s="14"/>
     </row>
-    <row r="362" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>408</v>
       </c>
@@ -9756,7 +9759,7 @@
       <c r="H362" s="14"/>
       <c r="I362" s="14"/>
     </row>
-    <row r="363" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>408</v>
       </c>
@@ -9775,7 +9778,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>408</v>
       </c>
@@ -9792,7 +9795,7 @@
       <c r="H364" s="14"/>
       <c r="I364" s="14"/>
     </row>
-    <row r="365" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>408</v>
       </c>
@@ -9809,7 +9812,7 @@
       <c r="H365" s="14"/>
       <c r="I365" s="14"/>
     </row>
-    <row r="366" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>408</v>
       </c>
@@ -9826,7 +9829,7 @@
       <c r="H366" s="14"/>
       <c r="I366" s="14"/>
     </row>
-    <row r="367" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>408</v>
       </c>
@@ -9843,7 +9846,7 @@
       <c r="H367" s="14"/>
       <c r="I367" s="14"/>
     </row>
-    <row r="368" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>408</v>
       </c>
@@ -9860,7 +9863,7 @@
       <c r="H368" s="14"/>
       <c r="I368" s="14"/>
     </row>
-    <row r="369" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>408</v>
       </c>
@@ -9879,7 +9882,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>408</v>
       </c>
@@ -9896,7 +9899,7 @@
       <c r="H370" s="14"/>
       <c r="I370" s="14"/>
     </row>
-    <row r="371" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>408</v>
       </c>
@@ -9913,7 +9916,7 @@
       <c r="H371" s="14"/>
       <c r="I371" s="14"/>
     </row>
-    <row r="372" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>408</v>
       </c>
@@ -9930,7 +9933,7 @@
       <c r="H372" s="14"/>
       <c r="I372" s="14"/>
     </row>
-    <row r="373" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>408</v>
       </c>
@@ -9947,7 +9950,7 @@
       <c r="H373" s="14"/>
       <c r="I373" s="14"/>
     </row>
-    <row r="374" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>408</v>
       </c>
@@ -9964,7 +9967,7 @@
       <c r="H374" s="14"/>
       <c r="I374" s="14"/>
     </row>
-    <row r="375" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>408</v>
       </c>
@@ -9981,7 +9984,7 @@
       <c r="H375" s="14"/>
       <c r="I375" s="14"/>
     </row>
-    <row r="376" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>408</v>
       </c>
@@ -9998,7 +10001,7 @@
       <c r="H376" s="14"/>
       <c r="I376" s="14"/>
     </row>
-    <row r="377" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>408</v>
       </c>
@@ -10015,7 +10018,7 @@
       <c r="H377" s="14"/>
       <c r="I377" s="14"/>
     </row>
-    <row r="378" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
         <v>408</v>
       </c>
@@ -10032,7 +10035,7 @@
       <c r="H378" s="14"/>
       <c r="I378" s="14"/>
     </row>
-    <row r="379" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
         <v>408</v>
       </c>
@@ -10049,7 +10052,7 @@
       <c r="H379" s="14"/>
       <c r="I379" s="14"/>
     </row>
-    <row r="380" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
         <v>408</v>
       </c>
@@ -10066,7 +10069,7 @@
       <c r="H380" s="14"/>
       <c r="I380" s="14"/>
     </row>
-    <row r="381" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>408</v>
       </c>
@@ -10083,7 +10086,7 @@
       <c r="H381" s="14"/>
       <c r="I381" s="14"/>
     </row>
-    <row r="382" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>408</v>
       </c>
@@ -10100,7 +10103,7 @@
       <c r="H382" s="14"/>
       <c r="I382" s="14"/>
     </row>
-    <row r="383" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
         <v>408</v>
       </c>
@@ -10117,7 +10120,7 @@
       <c r="H383" s="14"/>
       <c r="I383" s="14"/>
     </row>
-    <row r="384" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>408</v>
       </c>
@@ -10134,7 +10137,7 @@
       <c r="H384" s="14"/>
       <c r="I384" s="14"/>
     </row>
-    <row r="385" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>408</v>
       </c>
@@ -10151,7 +10154,7 @@
       <c r="H385" s="14"/>
       <c r="I385" s="14"/>
     </row>
-    <row r="386" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
         <v>408</v>
       </c>
@@ -10168,7 +10171,7 @@
       <c r="H386" s="14"/>
       <c r="I386" s="14"/>
     </row>
-    <row r="387" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
         <v>408</v>
       </c>
@@ -10185,7 +10188,7 @@
       <c r="H387" s="14"/>
       <c r="I387" s="14"/>
     </row>
-    <row r="388" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
         <v>408</v>
       </c>
@@ -10202,7 +10205,7 @@
       <c r="H388" s="14"/>
       <c r="I388" s="14"/>
     </row>
-    <row r="389" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
         <v>408</v>
       </c>
@@ -10219,7 +10222,7 @@
       <c r="H389" s="14"/>
       <c r="I389" s="14"/>
     </row>
-    <row r="390" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
         <v>408</v>
       </c>
@@ -10238,7 +10241,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
         <v>408</v>
       </c>
@@ -10255,7 +10258,7 @@
       <c r="H391" s="14"/>
       <c r="I391" s="14"/>
     </row>
-    <row r="392" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
         <v>408</v>
       </c>
@@ -10272,7 +10275,7 @@
       <c r="H392" s="14"/>
       <c r="I392" s="14"/>
     </row>
-    <row r="393" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>408</v>
       </c>
@@ -10289,7 +10292,7 @@
       <c r="H393" s="14"/>
       <c r="I393" s="14"/>
     </row>
-    <row r="394" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
         <v>408</v>
       </c>
@@ -10306,7 +10309,7 @@
       <c r="H394" s="14"/>
       <c r="I394" s="14"/>
     </row>
-    <row r="395" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
         <v>408</v>
       </c>
@@ -10323,7 +10326,7 @@
       <c r="H395" s="14"/>
       <c r="I395" s="14"/>
     </row>
-    <row r="396" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
         <v>408</v>
       </c>
@@ -10340,7 +10343,7 @@
       <c r="H396" s="14"/>
       <c r="I396" s="14"/>
     </row>
-    <row r="397" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>408</v>
       </c>
@@ -10357,7 +10360,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>408</v>
       </c>
@@ -10374,7 +10377,7 @@
       <c r="H398" s="14"/>
       <c r="I398" s="14"/>
     </row>
-    <row r="399" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
         <v>408</v>
       </c>
@@ -10391,7 +10394,7 @@
       <c r="H399" s="14"/>
       <c r="I399" s="14"/>
     </row>
-    <row r="400" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
         <v>408</v>
       </c>
@@ -10408,7 +10411,7 @@
       <c r="H400" s="14"/>
       <c r="I400" s="14"/>
     </row>
-    <row r="401" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
         <v>408</v>
       </c>
@@ -10425,7 +10428,7 @@
       <c r="H401" s="14"/>
       <c r="I401" s="14"/>
     </row>
-    <row r="402" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
         <v>408</v>
       </c>
@@ -10442,7 +10445,7 @@
       <c r="H402" s="14"/>
       <c r="I402" s="14"/>
     </row>
-    <row r="403" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
         <v>408</v>
       </c>
@@ -10459,7 +10462,7 @@
       <c r="H403" s="14"/>
       <c r="I403" s="14"/>
     </row>
-    <row r="404" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
         <v>408</v>
       </c>
@@ -10476,7 +10479,7 @@
       <c r="H404" s="14"/>
       <c r="I404" s="14"/>
     </row>
-    <row r="405" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="6" t="s">
         <v>408</v>
       </c>
@@ -10493,7 +10496,7 @@
       <c r="H405" s="14"/>
       <c r="I405" s="14"/>
     </row>
-    <row r="406" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
         <v>408</v>
       </c>
@@ -10510,7 +10513,7 @@
       <c r="H406" s="14"/>
       <c r="I406" s="14"/>
     </row>
-    <row r="407" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="6" t="s">
         <v>408</v>
       </c>
@@ -10527,7 +10530,7 @@
       <c r="H407" s="14"/>
       <c r="I407" s="14"/>
     </row>
-    <row r="408" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
         <v>408</v>
       </c>
@@ -10544,7 +10547,7 @@
       <c r="H408" s="14"/>
       <c r="I408" s="14"/>
     </row>
-    <row r="409" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
         <v>408</v>
       </c>
@@ -10561,7 +10564,7 @@
       <c r="H409" s="14"/>
       <c r="I409" s="14"/>
     </row>
-    <row r="410" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="11"/>
       <c r="B410" s="7" t="s">
         <v>472</v>
@@ -10576,7 +10579,7 @@
       <c r="H410" s="14"/>
       <c r="I410" s="14"/>
     </row>
-    <row r="411" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
         <v>473</v>
       </c>
@@ -10591,7 +10594,7 @@
       <c r="H411" s="14"/>
       <c r="I411" s="14"/>
     </row>
-    <row r="412" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
         <v>473</v>
       </c>
@@ -10606,7 +10609,7 @@
       <c r="H412" s="14"/>
       <c r="I412" s="14"/>
     </row>
-    <row r="413" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
         <v>473</v>
       </c>
@@ -10621,7 +10624,7 @@
       <c r="H413" s="14"/>
       <c r="I413" s="14"/>
     </row>
-    <row r="414" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
         <v>473</v>
       </c>
@@ -10636,7 +10639,7 @@
       <c r="H414" s="14"/>
       <c r="I414" s="14"/>
     </row>
-    <row r="415" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
         <v>473</v>
       </c>
@@ -10651,7 +10654,7 @@
       <c r="H415" s="14"/>
       <c r="I415" s="14"/>
     </row>
-    <row r="416" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
         <v>473</v>
       </c>
@@ -10666,7 +10669,7 @@
       <c r="H416" s="14"/>
       <c r="I416" s="14"/>
     </row>
-    <row r="417" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
         <v>473</v>
       </c>
@@ -10681,7 +10684,7 @@
       <c r="H417" s="14"/>
       <c r="I417" s="14"/>
     </row>
-    <row r="418" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="6" t="s">
         <v>473</v>
       </c>
@@ -10696,7 +10699,7 @@
       <c r="H418" s="14"/>
       <c r="I418" s="14"/>
     </row>
-    <row r="419" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="6" t="s">
         <v>473</v>
       </c>
@@ -10711,7 +10714,7 @@
       <c r="H419" s="14"/>
       <c r="I419" s="14"/>
     </row>
-    <row r="420" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
         <v>473</v>
       </c>
@@ -10726,7 +10729,7 @@
       <c r="H420" s="14"/>
       <c r="I420" s="14"/>
     </row>
-    <row r="421" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
         <v>473</v>
       </c>
@@ -10741,7 +10744,7 @@
       <c r="H421" s="14"/>
       <c r="I421" s="14"/>
     </row>
-    <row r="422" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="6" t="s">
         <v>473</v>
       </c>
@@ -10756,7 +10759,7 @@
       <c r="H422" s="14"/>
       <c r="I422" s="14"/>
     </row>
-    <row r="423" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
         <v>473</v>
       </c>
@@ -10771,7 +10774,7 @@
       <c r="H423" s="14"/>
       <c r="I423" s="14"/>
     </row>
-    <row r="424" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="6" t="s">
         <v>473</v>
       </c>
@@ -10786,7 +10789,7 @@
       <c r="H424" s="14"/>
       <c r="I424" s="14"/>
     </row>
-    <row r="425" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="6" t="s">
         <v>473</v>
       </c>
@@ -10801,7 +10804,7 @@
       <c r="H425" s="14"/>
       <c r="I425" s="14"/>
     </row>
-    <row r="426" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="6" t="s">
         <v>473</v>
       </c>
@@ -10816,7 +10819,7 @@
       <c r="H426" s="14"/>
       <c r="I426" s="14"/>
     </row>
-    <row r="427" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
         <v>473</v>
       </c>
@@ -10831,7 +10834,7 @@
       <c r="H427" s="14"/>
       <c r="I427" s="14"/>
     </row>
-    <row r="428" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="6" t="s">
         <v>473</v>
       </c>
@@ -10846,7 +10849,7 @@
       <c r="H428" s="14"/>
       <c r="I428" s="14"/>
     </row>
-    <row r="429" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="6" t="s">
         <v>473</v>
       </c>
@@ -10861,7 +10864,7 @@
       <c r="H429" s="14"/>
       <c r="I429" s="14"/>
     </row>
-    <row r="430" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="6" t="s">
         <v>473</v>
       </c>
@@ -10876,7 +10879,7 @@
       <c r="H430" s="14"/>
       <c r="I430" s="14"/>
     </row>
-    <row r="431" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="6" t="s">
         <v>473</v>
       </c>
@@ -10891,7 +10894,7 @@
       <c r="H431" s="14"/>
       <c r="I431" s="14"/>
     </row>
-    <row r="432" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
         <v>473</v>
       </c>
@@ -10906,1384 +10909,1384 @@
       <c r="H432" s="14"/>
       <c r="I432" s="14"/>
     </row>
-    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="12"/>
     </row>
-    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="12"/>
     </row>
-    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="12"/>
     </row>
-    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="12"/>
     </row>
-    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="12"/>
     </row>
-    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="12"/>
     </row>
-    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="12"/>
     </row>
-    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="12"/>
     </row>
-    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="12"/>
     </row>
-    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="12"/>
     </row>
-    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="12"/>
     </row>
-    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="12"/>
     </row>
-    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="12"/>
     </row>
-    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="12"/>
     </row>
-    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="12"/>
     </row>
-    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="12"/>
     </row>
-    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="12"/>
     </row>
-    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="12"/>
     </row>
-    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="12"/>
     </row>
-    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="12"/>
     </row>
-    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="12"/>
     </row>
-    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="12"/>
     </row>
-    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="12"/>
     </row>
-    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="12"/>
     </row>
-    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="12"/>
     </row>
-    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="12"/>
     </row>
-    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="12"/>
     </row>
-    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="12"/>
     </row>
-    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="12"/>
     </row>
-    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="12"/>
     </row>
-    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="12"/>
     </row>
-    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="12"/>
     </row>
-    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="12"/>
     </row>
-    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="12"/>
     </row>
-    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="12"/>
     </row>
-    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="12"/>
     </row>
-    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="12"/>
     </row>
-    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="12"/>
     </row>
-    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="12"/>
     </row>
-    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="12"/>
     </row>
-    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="12"/>
     </row>
-    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="12"/>
     </row>
-    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="12"/>
     </row>
-    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="12"/>
     </row>
-    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="12"/>
     </row>
-    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="12"/>
     </row>
-    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="12"/>
     </row>
-    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="12"/>
     </row>
-    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="12"/>
     </row>
-    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="12"/>
     </row>
-    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="12"/>
     </row>
-    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="12"/>
     </row>
-    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="12"/>
     </row>
-    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="12"/>
     </row>
-    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="12"/>
     </row>
-    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="12"/>
     </row>
-    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="12"/>
     </row>
-    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="12"/>
     </row>
-    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="12"/>
     </row>
-    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="12"/>
     </row>
-    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="12"/>
     </row>
-    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="12"/>
     </row>
-    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="12"/>
     </row>
-    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="12"/>
     </row>
-    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="12"/>
     </row>
-    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="12"/>
     </row>
-    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="12"/>
     </row>
-    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="12"/>
     </row>
-    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="12"/>
     </row>
-    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="12"/>
     </row>
-    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="12"/>
     </row>
-    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="12"/>
     </row>
-    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="12"/>
     </row>
-    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="12"/>
     </row>
-    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="12"/>
     </row>
-    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="12"/>
     </row>
-    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="12"/>
     </row>
-    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="12"/>
     </row>
-    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="12"/>
     </row>
-    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="12"/>
     </row>
-    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="12"/>
     </row>
-    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="12"/>
     </row>
-    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="12"/>
     </row>
-    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="12"/>
     </row>
-    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="12"/>
     </row>
-    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="12"/>
     </row>
-    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="12"/>
     </row>
-    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="12"/>
     </row>
-    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="12"/>
     </row>
-    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="12"/>
     </row>
-    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="12"/>
     </row>
-    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="12"/>
     </row>
-    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="12"/>
     </row>
-    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="12"/>
     </row>
-    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="12"/>
     </row>
-    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="12"/>
     </row>
-    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="12"/>
     </row>
-    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="12"/>
     </row>
-    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="12"/>
     </row>
-    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="12"/>
     </row>
-    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="12"/>
     </row>
-    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="12"/>
     </row>
-    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="12"/>
     </row>
-    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="12"/>
     </row>
-    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="12"/>
     </row>
-    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="12"/>
     </row>
-    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="12"/>
     </row>
-    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="12"/>
     </row>
-    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="12"/>
     </row>
-    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="12"/>
     </row>
-    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="12"/>
     </row>
-    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="12"/>
     </row>
-    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="12"/>
     </row>
-    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="12"/>
     </row>
-    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="12"/>
     </row>
-    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="12"/>
     </row>
-    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="12"/>
     </row>
-    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A550" s="12"/>
     </row>
-    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="12"/>
     </row>
-    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="12"/>
     </row>
-    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="12"/>
     </row>
-    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="12"/>
     </row>
-    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="12"/>
     </row>
-    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="12"/>
     </row>
-    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="12"/>
     </row>
-    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="12"/>
     </row>
-    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="12"/>
     </row>
-    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="12"/>
     </row>
-    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="12"/>
     </row>
-    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="12"/>
     </row>
-    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="12"/>
     </row>
-    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="12"/>
     </row>
-    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="12"/>
     </row>
-    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="12"/>
     </row>
-    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="12"/>
     </row>
-    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="12"/>
     </row>
-    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="12"/>
     </row>
-    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="12"/>
     </row>
-    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="12"/>
     </row>
-    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="12"/>
     </row>
-    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="12"/>
     </row>
-    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="12"/>
     </row>
-    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="12"/>
     </row>
-    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="12"/>
     </row>
-    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="12"/>
     </row>
-    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="12"/>
     </row>
-    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="12"/>
     </row>
-    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="12"/>
     </row>
-    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="12"/>
     </row>
-    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A582" s="12"/>
     </row>
-    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="12"/>
     </row>
-    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A584" s="12"/>
     </row>
-    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A585" s="12"/>
     </row>
-    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A586" s="12"/>
     </row>
-    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="12"/>
     </row>
-    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A588" s="12"/>
     </row>
-    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="12"/>
     </row>
-    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A590" s="12"/>
     </row>
-    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A591" s="12"/>
     </row>
-    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A592" s="12"/>
     </row>
-    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="12"/>
     </row>
-    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="12"/>
     </row>
-    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="12"/>
     </row>
-    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="12"/>
     </row>
-    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="12"/>
     </row>
-    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="12"/>
     </row>
-    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A599" s="12"/>
     </row>
-    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="12"/>
     </row>
-    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A601" s="12"/>
     </row>
-    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="12"/>
     </row>
-    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="12"/>
     </row>
-    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="12"/>
     </row>
-    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A605" s="12"/>
     </row>
-    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="12"/>
     </row>
-    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A607" s="12"/>
     </row>
-    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="12"/>
     </row>
-    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" s="12"/>
     </row>
-    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" s="12"/>
     </row>
-    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A611" s="12"/>
     </row>
-    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A612" s="12"/>
     </row>
-    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A613" s="12"/>
     </row>
-    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" s="12"/>
     </row>
-    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A615" s="12"/>
     </row>
-    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A616" s="12"/>
     </row>
-    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A617" s="12"/>
     </row>
-    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" s="12"/>
     </row>
-    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" s="12"/>
     </row>
-    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A620" s="12"/>
     </row>
-    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" s="12"/>
     </row>
-    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A622" s="12"/>
     </row>
-    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A623" s="12"/>
     </row>
-    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A624" s="12"/>
     </row>
-    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A625" s="12"/>
     </row>
-    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A626" s="12"/>
     </row>
-    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A627" s="12"/>
     </row>
-    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A628" s="12"/>
     </row>
-    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A629" s="12"/>
     </row>
-    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A630" s="12"/>
     </row>
-    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A631" s="12"/>
     </row>
-    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A632" s="12"/>
     </row>
-    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A633" s="12"/>
     </row>
-    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A634" s="12"/>
     </row>
-    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A635" s="12"/>
     </row>
-    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A636" s="12"/>
     </row>
-    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A637" s="12"/>
     </row>
-    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" s="12"/>
     </row>
-    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A639" s="12"/>
     </row>
-    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A640" s="12"/>
     </row>
-    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="12"/>
     </row>
-    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A642" s="12"/>
     </row>
-    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A643" s="12"/>
     </row>
-    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="12"/>
     </row>
-    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A645" s="12"/>
     </row>
-    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A646" s="12"/>
     </row>
-    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A647" s="12"/>
     </row>
-    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A648" s="12"/>
     </row>
-    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A649" s="12"/>
     </row>
-    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A650" s="12"/>
     </row>
-    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A651" s="12"/>
     </row>
-    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A652" s="12"/>
     </row>
-    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A653" s="12"/>
     </row>
-    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A654" s="12"/>
     </row>
-    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A655" s="12"/>
     </row>
-    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A656" s="12"/>
     </row>
-    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A657" s="12"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A658" s="12"/>
     </row>
-    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A659" s="12"/>
     </row>
-    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A660" s="12"/>
     </row>
-    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A661" s="12"/>
     </row>
-    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A662" s="12"/>
     </row>
-    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A663" s="12"/>
     </row>
-    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A664" s="12"/>
     </row>
-    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A665" s="12"/>
     </row>
-    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A666" s="12"/>
     </row>
-    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A667" s="12"/>
     </row>
-    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A668" s="12"/>
     </row>
-    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A669" s="12"/>
     </row>
-    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A670" s="12"/>
     </row>
-    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A671" s="12"/>
     </row>
-    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A672" s="12"/>
     </row>
-    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A673" s="12"/>
     </row>
-    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A674" s="12"/>
     </row>
-    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A675" s="12"/>
     </row>
-    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A676" s="12"/>
     </row>
-    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A677" s="12"/>
     </row>
-    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A678" s="12"/>
     </row>
-    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A679" s="12"/>
     </row>
-    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A680" s="12"/>
     </row>
-    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A681" s="12"/>
     </row>
-    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A682" s="12"/>
     </row>
-    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A683" s="12"/>
     </row>
-    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A684" s="12"/>
     </row>
-    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A685" s="12"/>
     </row>
-    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A686" s="12"/>
     </row>
-    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A687" s="12"/>
     </row>
-    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A688" s="12"/>
     </row>
-    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A689" s="12"/>
     </row>
-    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A690" s="12"/>
     </row>
-    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A691" s="12"/>
     </row>
-    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A692" s="12"/>
     </row>
-    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A693" s="12"/>
     </row>
-    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A694" s="12"/>
     </row>
-    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A695" s="12"/>
     </row>
-    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A696" s="12"/>
     </row>
-    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A697" s="12"/>
     </row>
-    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A698" s="12"/>
     </row>
-    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A699" s="12"/>
     </row>
-    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A700" s="12"/>
     </row>
-    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A701" s="12"/>
     </row>
-    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A702" s="12"/>
     </row>
-    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A703" s="12"/>
     </row>
-    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A704" s="12"/>
     </row>
-    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A705" s="12"/>
     </row>
-    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A706" s="12"/>
     </row>
-    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A707" s="12"/>
     </row>
-    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A708" s="12"/>
     </row>
-    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A709" s="12"/>
     </row>
-    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A710" s="12"/>
     </row>
-    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A711" s="12"/>
     </row>
-    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A712" s="12"/>
     </row>
-    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A713" s="12"/>
     </row>
-    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A714" s="12"/>
     </row>
-    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A715" s="12"/>
     </row>
-    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A716" s="12"/>
     </row>
-    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A717" s="12"/>
     </row>
-    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A718" s="12"/>
     </row>
-    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A719" s="12"/>
     </row>
-    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A720" s="12"/>
     </row>
-    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A721" s="12"/>
     </row>
-    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A722" s="12"/>
     </row>
-    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A723" s="12"/>
     </row>
-    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A724" s="12"/>
     </row>
-    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A725" s="12"/>
     </row>
-    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A726" s="12"/>
     </row>
-    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A727" s="12"/>
     </row>
-    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A728" s="12"/>
     </row>
-    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A729" s="12"/>
     </row>
-    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A730" s="12"/>
     </row>
-    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A731" s="12"/>
     </row>
-    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A732" s="12"/>
     </row>
-    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A733" s="12"/>
     </row>
-    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A734" s="12"/>
     </row>
-    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A735" s="12"/>
     </row>
-    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A736" s="12"/>
     </row>
-    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A737" s="12"/>
     </row>
-    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A738" s="12"/>
     </row>
-    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A739" s="12"/>
     </row>
-    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A740" s="12"/>
     </row>
-    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A741" s="12"/>
     </row>
-    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A742" s="12"/>
     </row>
-    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A743" s="12"/>
     </row>
-    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A744" s="12"/>
     </row>
-    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A745" s="12"/>
     </row>
-    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A746" s="12"/>
     </row>
-    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A747" s="12"/>
     </row>
-    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A748" s="12"/>
     </row>
-    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A749" s="12"/>
     </row>
-    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A750" s="12"/>
     </row>
-    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A751" s="12"/>
     </row>
-    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A752" s="12"/>
     </row>
-    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A753" s="12"/>
     </row>
-    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A754" s="12"/>
     </row>
-    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A755" s="12"/>
     </row>
-    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A756" s="12"/>
     </row>
-    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A757" s="12"/>
     </row>
-    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A758" s="12"/>
     </row>
-    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A759" s="12"/>
     </row>
-    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A760" s="12"/>
     </row>
-    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A761" s="12"/>
     </row>
-    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A762" s="12"/>
     </row>
-    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A763" s="12"/>
     </row>
-    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A764" s="12"/>
     </row>
-    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A765" s="12"/>
     </row>
-    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A766" s="12"/>
     </row>
-    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A767" s="12"/>
     </row>
-    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A768" s="12"/>
     </row>
-    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A769" s="12"/>
     </row>
-    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A770" s="12"/>
     </row>
-    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A771" s="12"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A772" s="12"/>
     </row>
-    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A773" s="12"/>
     </row>
-    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A774" s="12"/>
     </row>
-    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A775" s="12"/>
     </row>
-    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A776" s="12"/>
     </row>
-    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A777" s="12"/>
     </row>
-    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A778" s="12"/>
     </row>
-    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A779" s="12"/>
     </row>
-    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A780" s="12"/>
     </row>
-    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A781" s="12"/>
     </row>
-    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A782" s="12"/>
     </row>
-    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A783" s="12"/>
     </row>
-    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A784" s="12"/>
     </row>
-    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A785" s="12"/>
     </row>
-    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A786" s="12"/>
     </row>
-    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A787" s="12"/>
     </row>
-    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A788" s="12"/>
     </row>
-    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A789" s="12"/>
     </row>
-    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A790" s="12"/>
     </row>
-    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A791" s="12"/>
     </row>
-    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A792" s="12"/>
     </row>
-    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A793" s="12"/>
     </row>
-    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A794" s="12"/>
     </row>
-    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A795" s="12"/>
     </row>
-    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A796" s="12"/>
     </row>
-    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A797" s="12"/>
     </row>
-    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A798" s="12"/>
     </row>
-    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A799" s="12"/>
     </row>
-    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A800" s="12"/>
     </row>
-    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A801" s="12"/>
     </row>
-    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A802" s="12"/>
     </row>
-    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A803" s="12"/>
     </row>
-    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A804" s="12"/>
     </row>
-    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A805" s="12"/>
     </row>
-    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A806" s="12"/>
     </row>
-    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A807" s="12"/>
     </row>
-    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A808" s="12"/>
     </row>
-    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A809" s="12"/>
     </row>
-    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A810" s="12"/>
     </row>
-    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A811" s="12"/>
     </row>
-    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A812" s="12"/>
     </row>
-    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A813" s="12"/>
     </row>
-    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A814" s="12"/>
     </row>
-    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A815" s="12"/>
     </row>
-    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A816" s="12"/>
     </row>
-    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A817" s="12"/>
     </row>
-    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A818" s="12"/>
     </row>
-    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A819" s="12"/>
     </row>
-    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A820" s="12"/>
     </row>
-    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A821" s="12"/>
     </row>
-    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A822" s="12"/>
     </row>
-    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A823" s="12"/>
     </row>
-    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A824" s="12"/>
     </row>
-    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A825" s="12"/>
     </row>
-    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A826" s="12"/>
     </row>
-    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A827" s="12"/>
     </row>
-    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A828" s="12"/>
     </row>
-    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A829" s="12"/>
     </row>
-    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A830" s="12"/>
     </row>
-    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A831" s="12"/>
     </row>
-    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A832" s="12"/>
     </row>
-    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A833" s="12"/>
     </row>
-    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A834" s="12"/>
     </row>
-    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A835" s="12"/>
     </row>
-    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A836" s="12"/>
     </row>
-    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A837" s="12"/>
     </row>
-    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A838" s="12"/>
     </row>
-    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A839" s="12"/>
     </row>
-    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A840" s="12"/>
     </row>
-    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A841" s="12"/>
     </row>
-    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A842" s="12"/>
     </row>
-    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A843" s="12"/>
     </row>
-    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A844" s="12"/>
     </row>
-    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A845" s="12"/>
     </row>
-    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A846" s="12"/>
     </row>
-    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A847" s="12"/>
     </row>
-    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A848" s="12"/>
     </row>
-    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A849" s="12"/>
     </row>
-    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A850" s="12"/>
     </row>
-    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A851" s="12"/>
     </row>
-    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A852" s="12"/>
     </row>
-    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A853" s="12"/>
     </row>
-    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A854" s="12"/>
     </row>
-    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A855" s="12"/>
     </row>
-    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A856" s="12"/>
     </row>
-    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A857" s="12"/>
     </row>
-    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A858" s="12"/>
     </row>
-    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A859" s="12"/>
     </row>
-    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A860" s="12"/>
     </row>
-    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A861" s="12"/>
     </row>
-    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A862" s="12"/>
     </row>
-    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A863" s="12"/>
     </row>
-    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A864" s="12"/>
     </row>
-    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A865" s="12"/>
     </row>
-    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A866" s="12"/>
     </row>
-    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A867" s="12"/>
     </row>
-    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A868" s="12"/>
     </row>
-    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A869" s="12"/>
     </row>
-    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A870" s="12"/>
     </row>
-    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A871" s="12"/>
     </row>
-    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A872" s="12"/>
     </row>
-    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A873" s="12"/>
     </row>
-    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A874" s="12"/>
     </row>
-    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A875" s="12"/>
     </row>
-    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A876" s="12"/>
     </row>
-    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A877" s="12"/>
     </row>
-    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A878" s="12"/>
     </row>
-    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A879" s="12"/>
     </row>
-    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A880" s="12"/>
     </row>
-    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A881" s="12"/>
     </row>
-    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A882" s="12"/>
     </row>
-    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A883" s="12"/>
     </row>
-    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A884" s="12"/>
     </row>
-    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A885" s="12"/>
     </row>
-    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A886" s="12"/>
     </row>
-    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A887" s="12"/>
     </row>
-    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A888" s="12"/>
     </row>
-    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A889" s="12"/>
     </row>
-    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A890" s="12"/>
     </row>
-    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A891" s="12"/>
     </row>
-    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A892" s="12"/>
     </row>
   </sheetData>
@@ -12319,25 +12322,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="7" max="8" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="8" width="3.1640625" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -12352,7 +12357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>43132</v>
       </c>
@@ -12381,7 +12386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>43261</v>
       </c>
@@ -12395,9 +12400,9 @@
         <f t="shared" ref="D3:D4" si="0">C3-804</f>
         <v>-48</v>
       </c>
-      <c r="E3" t="e">
-        <f t="shared" ref="E3:E4" ca="1" si="1">_xludf.days(A3,A2)</f>
-        <v>#NAME?</v>
+      <c r="E3">
+        <f>_xlfn.DAYS(A3,A2)</f>
+        <v>129</v>
       </c>
       <c r="F3" s="1">
         <v>67</v>
@@ -12421,7 +12426,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>43304</v>
       </c>
@@ -12435,9 +12440,9 @@
         <f t="shared" si="0"/>
         <v>-70</v>
       </c>
-      <c r="E4" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="E4">
+        <f>_xlfn.DAYS(A4,A3)</f>
+        <v>43</v>
       </c>
       <c r="F4" s="1">
         <v>67</v>
@@ -12459,6 +12464,18 @@
       </c>
       <c r="L4" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>43467</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.DAYS(A5,A4)</f>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -12476,28 +12493,28 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="M6" sqref="M6:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="54" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="54" customWidth="1"/>
-    <col min="4" max="4" width="80.77734375" style="54" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="55" customWidth="1"/>
     <col min="6" max="6" width="87.6640625" style="54" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="74.44140625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="104.44140625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="74.5" style="39" customWidth="1"/>
+    <col min="9" max="9" width="104.5" style="54" customWidth="1"/>
     <col min="10" max="10" width="68.33203125" style="54" customWidth="1"/>
-    <col min="11" max="11" width="52.77734375" style="54" customWidth="1"/>
-    <col min="12" max="12" width="26.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" style="54" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="54"/>
+    <col min="11" max="11" width="52.83203125" style="54" customWidth="1"/>
+    <col min="12" max="12" width="26.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="54" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -12512,13 +12529,13 @@
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
     </row>
-    <row r="2" spans="1:13" s="25" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="56" t="s">
         <v>556</v>
       </c>
@@ -12541,15 +12558,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="115" t="s">
         <v>501</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
       <c r="G3" s="34"/>
       <c r="H3" s="30"/>
       <c r="I3" s="31" t="s">
@@ -12559,13 +12576,13 @@
       <c r="L3" s="32"/>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="1:13" s="39" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+    <row r="4" spans="1:13" s="39" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
@@ -12576,7 +12593,7 @@
       <c r="L4" s="37"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13" s="25" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="25" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -12591,17 +12608,17 @@
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
     </row>
-    <row r="6" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="89" t="s">
         <v>503</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="89" t="s">
         <v>504</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="89" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="104" t="s">
         <v>560</v>
       </c>
       <c r="E6" s="48" t="s">
@@ -12623,18 +12640,18 @@
       <c r="K6" s="50" t="s">
         <v>509</v>
       </c>
-      <c r="L6" s="99" t="s">
+      <c r="L6" s="101" t="s">
         <v>562</v>
       </c>
-      <c r="M6" s="99" t="s">
+      <c r="M6" s="101" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="96"/>
+    <row r="7" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="48" t="s">
         <v>511</v>
       </c>
@@ -12656,22 +12673,22 @@
       <c r="K7" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-    </row>
-    <row r="8" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="91" t="s">
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+    </row>
+    <row r="8" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="89" t="s">
         <v>514</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="92" t="s">
         <v>566</v>
       </c>
       <c r="G8" s="85"/>
-      <c r="H8" s="105" t="s">
+      <c r="H8" s="95" t="s">
         <v>567</v>
       </c>
       <c r="I8" s="57" t="s">
@@ -12683,18 +12700,18 @@
       <c r="K8" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-    </row>
-    <row r="9" spans="1:13" s="25" customFormat="1" ht="16.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="103"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:13" s="25" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="86"/>
-      <c r="H9" s="106"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="57" t="s">
         <v>569</v>
       </c>
@@ -12702,41 +12719,41 @@
       <c r="K9" s="58" t="s">
         <v>570</v>
       </c>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-    </row>
-    <row r="10" spans="1:13" s="25" customFormat="1" ht="19.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="104"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+    </row>
+    <row r="10" spans="1:13" s="25" customFormat="1" ht="19" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H10" s="107"/>
+      <c r="H10" s="97"/>
       <c r="I10" s="57" t="s">
         <v>571</v>
       </c>
       <c r="J10" s="51"/>
       <c r="K10" s="59"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-    </row>
-    <row r="11" spans="1:13" s="25" customFormat="1" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="91" t="s">
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+    </row>
+    <row r="11" spans="1:13" s="25" customFormat="1" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="92" t="s">
         <v>572</v>
       </c>
       <c r="G11" s="85"/>
-      <c r="H11" s="109"/>
+      <c r="H11" s="88"/>
       <c r="I11" s="60" t="s">
         <v>573</v>
       </c>
@@ -12744,20 +12761,20 @@
       <c r="K11" s="50" t="s">
         <v>574</v>
       </c>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-    </row>
-    <row r="12" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="108"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+    </row>
+    <row r="12" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="87" t="s">
         <v>637</v>
       </c>
-      <c r="H12" s="110"/>
+      <c r="H12" s="112"/>
       <c r="I12" s="61" t="s">
         <v>575</v>
       </c>
@@ -12765,16 +12782,16 @@
       <c r="K12" s="63" t="s">
         <v>576</v>
       </c>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-    </row>
-    <row r="13" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92" t="s">
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+    </row>
+    <row r="13" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90" t="s">
         <v>517</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="105" t="s">
         <v>577</v>
       </c>
       <c r="E13" s="64" t="s">
@@ -12796,14 +12813,14 @@
       <c r="K13" s="58" t="s">
         <v>581</v>
       </c>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-    </row>
-    <row r="14" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="96"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+    </row>
+    <row r="14" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="48" t="s">
         <v>519</v>
       </c>
@@ -12823,14 +12840,14 @@
       <c r="K14" s="50" t="s">
         <v>585</v>
       </c>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-    </row>
-    <row r="15" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="96"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+    </row>
+    <row r="15" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="48" t="s">
         <v>520</v>
       </c>
@@ -12850,56 +12867,56 @@
       <c r="K15" s="50" t="s">
         <v>589</v>
       </c>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-    </row>
-    <row r="16" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="91" t="s">
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+    </row>
+    <row r="16" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="89" t="s">
         <v>522</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="92" t="s">
         <v>590</v>
       </c>
       <c r="G16" s="85"/>
-      <c r="H16" s="111"/>
+      <c r="H16" s="113"/>
       <c r="I16" s="70" t="s">
         <v>591</v>
       </c>
       <c r="J16" s="53"/>
       <c r="K16" s="50"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-    </row>
-    <row r="17" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="103"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+    </row>
+    <row r="17" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="90"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="86"/>
-      <c r="H17" s="111"/>
+      <c r="H17" s="113"/>
       <c r="I17" s="70" t="s">
         <v>592</v>
       </c>
       <c r="J17" s="53"/>
       <c r="K17" s="50"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-    </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="103"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+    </row>
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="86"/>
-      <c r="H18" s="111"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="50" t="s">
         <v>593</v>
       </c>
@@ -12907,18 +12924,18 @@
       <c r="K18" s="70" t="s">
         <v>594</v>
       </c>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-    </row>
-    <row r="19" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="103"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+    </row>
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="86"/>
-      <c r="H19" s="111"/>
+      <c r="H19" s="113"/>
       <c r="I19" s="50" t="s">
         <v>595</v>
       </c>
@@ -12926,18 +12943,18 @@
       <c r="K19" s="70" t="s">
         <v>596</v>
       </c>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-    </row>
-    <row r="20" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="103"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+    </row>
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="86"/>
-      <c r="H20" s="111"/>
+      <c r="H20" s="113"/>
       <c r="I20" s="50" t="s">
         <v>597</v>
       </c>
@@ -12945,46 +12962,46 @@
       <c r="K20" s="70" t="s">
         <v>598</v>
       </c>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-    </row>
-    <row r="21" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="103"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+    </row>
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="86"/>
-      <c r="H21" s="111"/>
+      <c r="H21" s="113"/>
       <c r="I21" s="52" t="s">
         <v>539</v>
       </c>
       <c r="J21" s="53"/>
       <c r="K21" s="70"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-    </row>
-    <row r="22" spans="1:14" s="25" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="104"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+    </row>
+    <row r="22" spans="1:14" s="25" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="94"/>
       <c r="G22" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H22" s="111"/>
+      <c r="H22" s="113"/>
       <c r="I22" s="50" t="s">
         <v>599</v>
       </c>
       <c r="J22" s="53"/>
       <c r="K22" s="51"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-    </row>
-    <row r="23" spans="1:14" s="25" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+    </row>
+    <row r="23" spans="1:14" s="25" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="71"/>
       <c r="B23" s="71"/>
       <c r="C23" s="71"/>
@@ -12999,27 +13016,27 @@
       <c r="L23" s="77"/>
       <c r="M23" s="76"/>
     </row>
-    <row r="24" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
+    <row r="24" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="89" t="s">
         <v>523</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="107" t="s">
         <v>524</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="89" t="s">
         <v>525</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="104" t="s">
         <v>600</v>
       </c>
-      <c r="E24" s="91" t="s">
+      <c r="E24" s="89" t="s">
         <v>526</v>
       </c>
-      <c r="F24" s="102" t="s">
+      <c r="F24" s="92" t="s">
         <v>601</v>
       </c>
       <c r="G24" s="85"/>
-      <c r="H24" s="105" t="s">
+      <c r="H24" s="95" t="s">
         <v>602</v>
       </c>
       <c r="I24" s="51" t="s">
@@ -13031,47 +13048,47 @@
       <c r="K24" s="50" t="s">
         <v>603</v>
       </c>
-      <c r="L24" s="99" t="s">
+      <c r="L24" s="101" t="s">
         <v>562</v>
       </c>
-      <c r="M24" s="109" t="s">
+      <c r="M24" s="88" t="s">
         <v>529</v>
       </c>
       <c r="N24" s="54"/>
     </row>
-    <row r="25" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="104"/>
+    <row r="25" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="90"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="94"/>
       <c r="G25" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H25" s="107"/>
+      <c r="H25" s="97"/>
       <c r="I25" s="51" t="s">
         <v>604</v>
       </c>
       <c r="J25" s="52"/>
       <c r="K25" s="50"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="109"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="88"/>
       <c r="N25" s="54"/>
     </row>
-    <row r="26" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="91" t="s">
+    <row r="26" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="90"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="89" t="s">
         <v>530</v>
       </c>
-      <c r="F26" s="102" t="s">
+      <c r="F26" s="92" t="s">
         <v>605</v>
       </c>
       <c r="G26" s="85"/>
-      <c r="H26" s="105" t="s">
+      <c r="H26" s="95" t="s">
         <v>606</v>
       </c>
       <c r="I26" s="51" t="s">
@@ -13083,21 +13100,21 @@
       <c r="K26" s="50" t="s">
         <v>608</v>
       </c>
-      <c r="L26" s="100"/>
-      <c r="M26" s="109"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="88"/>
       <c r="N26" s="54"/>
     </row>
-    <row r="27" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="104"/>
+    <row r="27" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="90"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="65" t="s">
         <v>638</v>
       </c>
-      <c r="H27" s="107"/>
+      <c r="H27" s="97"/>
       <c r="I27" s="51" t="s">
         <v>538</v>
       </c>
@@ -13105,15 +13122,15 @@
         <v>534</v>
       </c>
       <c r="K27" s="50"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="109"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="88"/>
       <c r="N27" s="54"/>
     </row>
-    <row r="28" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="96"/>
+    <row r="28" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="90"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="105"/>
       <c r="E28" s="48" t="s">
         <v>532</v>
       </c>
@@ -13132,15 +13149,15 @@
       <c r="K28" s="50" t="s">
         <v>611</v>
       </c>
-      <c r="L28" s="100"/>
-      <c r="M28" s="109"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="88"/>
       <c r="N28" s="54"/>
     </row>
-    <row r="29" spans="1:14" s="25" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="98"/>
+    <row r="29" spans="1:14" s="25" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="91"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="48" t="s">
         <v>535</v>
       </c>
@@ -13162,11 +13179,11 @@
       <c r="K29" s="50" t="s">
         <v>614</v>
       </c>
-      <c r="L29" s="101"/>
-      <c r="M29" s="109"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="88"/>
       <c r="N29" s="54"/>
     </row>
-    <row r="30" spans="1:14" s="25" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="25" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="79"/>
       <c r="B30" s="79"/>
       <c r="C30" s="79"/>
@@ -13181,27 +13198,27 @@
       <c r="L30" s="76"/>
       <c r="M30" s="76"/>
     </row>
-    <row r="31" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+    <row r="31" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="89" t="s">
         <v>540</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="89" t="s">
         <v>541</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="89" t="s">
         <v>542</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="D31" s="104" t="s">
         <v>615</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="89" t="s">
         <v>543</v>
       </c>
-      <c r="F31" s="102" t="s">
+      <c r="F31" s="92" t="s">
         <v>616</v>
       </c>
       <c r="G31" s="85"/>
-      <c r="H31" s="105" t="s">
+      <c r="H31" s="95" t="s">
         <v>617</v>
       </c>
       <c r="I31" s="83" t="s">
@@ -13213,22 +13230,22 @@
       <c r="K31" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="L31" s="109" t="s">
+      <c r="L31" s="88" t="s">
         <v>545</v>
       </c>
-      <c r="M31" s="109" t="s">
+      <c r="M31" s="88" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="103"/>
+    <row r="32" spans="1:14" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="86"/>
-      <c r="H32" s="106"/>
+      <c r="H32" s="96"/>
       <c r="I32" s="58" t="s">
         <v>620</v>
       </c>
@@ -13236,79 +13253,79 @@
       <c r="K32" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-    </row>
-    <row r="33" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="104"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+    </row>
+    <row r="33" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="94"/>
       <c r="G33" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H33" s="107"/>
+      <c r="H33" s="97"/>
       <c r="I33" s="58" t="s">
         <v>555</v>
       </c>
       <c r="J33" s="51"/>
       <c r="K33" s="50"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-    </row>
-    <row r="34" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="91" t="s">
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+    </row>
+    <row r="34" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="89" t="s">
         <v>547</v>
       </c>
-      <c r="F34" s="102" t="s">
+      <c r="F34" s="92" t="s">
         <v>622</v>
       </c>
       <c r="G34" s="85"/>
-      <c r="H34" s="105" t="s">
+      <c r="H34" s="95" t="s">
         <v>623</v>
       </c>
       <c r="I34" s="51" t="s">
         <v>624</v>
       </c>
       <c r="J34" s="51"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109"/>
-    </row>
-    <row r="35" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="103"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+    </row>
+    <row r="35" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="93"/>
       <c r="G35" s="86"/>
-      <c r="H35" s="106"/>
+      <c r="H35" s="96"/>
       <c r="I35" s="51" t="s">
         <v>551</v>
       </c>
       <c r="J35" s="51"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-    </row>
-    <row r="36" spans="1:13" s="25" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="104"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+    </row>
+    <row r="36" spans="1:13" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H36" s="107"/>
+      <c r="H36" s="97"/>
       <c r="I36" s="51" t="s">
         <v>625</v>
       </c>
@@ -13318,68 +13335,68 @@
       <c r="K36" s="50" t="s">
         <v>549</v>
       </c>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
-    </row>
-    <row r="37" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="91" t="s">
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+    </row>
+    <row r="37" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="89" t="s">
         <v>550</v>
       </c>
-      <c r="F37" s="102" t="s">
+      <c r="F37" s="92" t="s">
         <v>626</v>
       </c>
       <c r="G37" s="85"/>
-      <c r="H37" s="116" t="s">
+      <c r="H37" s="99" t="s">
         <v>627</v>
       </c>
       <c r="I37" s="51" t="s">
         <v>628</v>
       </c>
-      <c r="J37" s="117" t="s">
+      <c r="J37" s="100" t="s">
         <v>552</v>
       </c>
-      <c r="K37" s="116" t="s">
+      <c r="K37" s="99" t="s">
         <v>554</v>
       </c>
-      <c r="L37" s="109"/>
-      <c r="M37" s="109"/>
-    </row>
-    <row r="38" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="103"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+    </row>
+    <row r="38" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="90"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="93"/>
       <c r="G38" s="86" t="s">
         <v>637</v>
       </c>
-      <c r="H38" s="116"/>
+      <c r="H38" s="99"/>
       <c r="I38" s="70" t="s">
         <v>629</v>
       </c>
-      <c r="J38" s="117"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="109"/>
-    </row>
-    <row r="39" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="92" t="s">
+      <c r="J38" s="100"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+    </row>
+    <row r="39" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="90" t="s">
         <v>553</v>
       </c>
-      <c r="F39" s="103" t="s">
+      <c r="F39" s="93" t="s">
         <v>630</v>
       </c>
       <c r="G39" s="86"/>
-      <c r="H39" s="116" t="s">
+      <c r="H39" s="99" t="s">
         <v>631</v>
       </c>
       <c r="I39" s="70" t="s">
@@ -13389,18 +13406,18 @@
       <c r="K39" s="58" t="s">
         <v>633</v>
       </c>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-    </row>
-    <row r="40" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="103"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+    </row>
+    <row r="40" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="90"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="93"/>
       <c r="G40" s="86"/>
-      <c r="H40" s="116"/>
+      <c r="H40" s="99"/>
       <c r="I40" s="70" t="s">
         <v>634</v>
       </c>
@@ -13408,34 +13425,70 @@
       <c r="K40" s="58" t="s">
         <v>635</v>
       </c>
-      <c r="L40" s="109"/>
-      <c r="M40" s="109"/>
-    </row>
-    <row r="41" spans="1:13" s="25" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="104"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+    </row>
+    <row r="41" spans="1:13" s="25" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="94"/>
       <c r="G41" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="H41" s="116"/>
+      <c r="H41" s="99"/>
       <c r="I41" s="70" t="s">
         <v>636</v>
       </c>
       <c r="J41" s="53"/>
       <c r="K41" s="50"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="K42" s="84"/>
     </row>
-    <row r="43" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="L31:L41"/>
     <mergeCell ref="M31:M41"/>
     <mergeCell ref="E34:E36"/>
@@ -13450,44 +13503,8 @@
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="F39:F41"/>
     <mergeCell ref="H39:H41"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="D31:D41"/>
-    <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="L6:L22"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{D7C432E5-734B-A84F-9513-83614378A680}"/>
@@ -13604,115 +13621,115 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>63</v>
       </c>

--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907C09A3-298A-BE44-9DA7-A901D8814673}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25204952-CF77-2648-8BE1-955D8A309D31}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1460" windowWidth="27780" windowHeight="19000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="694">
   <si>
     <t>3-node architecture</t>
   </si>
@@ -2542,15 +2542,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>performance monitor commands</t>
-  </si>
-  <si>
-    <t>comparisons between two</t>
-  </si>
-  <si>
-    <t>disabling stp?</t>
-  </si>
-  <si>
     <t>criteria</t>
   </si>
   <si>
@@ -2602,12 +2593,6 @@
     <t>NAT-PT</t>
   </si>
   <si>
-    <t>differences ppp</t>
-  </si>
-  <si>
-    <t>prevention</t>
-  </si>
-  <si>
     <t>timers, summay addresses</t>
   </si>
   <si>
@@ -2632,9 +2617,6 @@
     <t>options</t>
   </si>
   <si>
-    <t>loop guard subtleties, compatibilities</t>
-  </si>
-  <si>
     <t>message types, solicited vs. unsolicited</t>
   </si>
   <si>
@@ -2654,30 +2636,6 @@
   </si>
   <si>
     <t>practice needed with acl, etc</t>
-  </si>
-  <si>
-    <t>reserved vlan numbers</t>
-  </si>
-  <si>
-    <t>review vtpv3 features, comparison to others</t>
-  </si>
-  <si>
-    <t>options, effect</t>
-  </si>
-  <si>
-    <t>mst interactions and boundaries</t>
-  </si>
-  <si>
-    <t>layer 3 vs layer 2, l2 on  ios xe</t>
-  </si>
-  <si>
-    <t>explain function, behaviors</t>
-  </si>
-  <si>
-    <t>selection order</t>
-  </si>
-  <si>
-    <t>functions of each</t>
   </si>
   <si>
     <t>describe and distinguish all types</t>
@@ -3310,6 +3268,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3400,7 +3359,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -3756,9 +3714,9 @@
   </sheetPr>
   <dimension ref="A1:H892"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3791,7 +3749,7 @@
       </c>
       <c r="F1" s="13">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>23</v>
@@ -3982,9 +3940,7 @@
       <c r="C13" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="87" t="s">
-        <v>649</v>
-      </c>
+      <c r="D13" s="87"/>
       <c r="E13" s="9"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -4078,7 +4034,7 @@
       <c r="C19" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="119"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="9"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -4252,7 +4208,7 @@
       <c r="C30" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="119"/>
+      <c r="D30" s="89"/>
       <c r="E30" s="9"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -4529,12 +4485,10 @@
       <c r="B48" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="87" t="s">
-        <v>628</v>
-      </c>
+      <c r="C48" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="87"/>
       <c r="E48" s="9"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
@@ -4643,7 +4597,7 @@
         <v>86</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="14"/>
@@ -4699,8 +4653,8 @@
       <c r="B59" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>51</v>
+      <c r="C59" s="86" t="s">
+        <v>35</v>
       </c>
       <c r="D59" s="87"/>
       <c r="E59" s="9"/>
@@ -4731,8 +4685,8 @@
       <c r="B61" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>86</v>
+      <c r="C61" s="86" t="s">
+        <v>35</v>
       </c>
       <c r="D61" s="87"/>
       <c r="E61" s="9"/>
@@ -4761,12 +4715,10 @@
       <c r="B63" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="87" t="s">
-        <v>629</v>
-      </c>
+      <c r="C63" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="87"/>
       <c r="E63" s="9"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
@@ -4841,12 +4793,10 @@
       <c r="B68" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="87" t="s">
-        <v>666</v>
-      </c>
+      <c r="C68" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="87"/>
       <c r="E68" s="9"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
@@ -4873,12 +4823,10 @@
       <c r="B70" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="87" t="s">
-        <v>667</v>
-      </c>
+      <c r="C70" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="87"/>
       <c r="E70" s="9"/>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
@@ -4969,12 +4917,10 @@
       <c r="B76" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" s="87" t="s">
-        <v>670</v>
-      </c>
+      <c r="C76" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="87"/>
       <c r="E76" s="9"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
@@ -4987,12 +4933,10 @@
       <c r="B77" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" s="87" t="s">
-        <v>668</v>
-      </c>
+      <c r="C77" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="87"/>
       <c r="E77" s="9"/>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
@@ -5005,12 +4949,10 @@
       <c r="B78" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="87" t="s">
-        <v>671</v>
-      </c>
+      <c r="C78" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="87"/>
       <c r="E78" s="9"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
@@ -5037,12 +4979,10 @@
       <c r="B80" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="87" t="s">
-        <v>669</v>
-      </c>
+      <c r="C80" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="87"/>
       <c r="E80" s="9"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
@@ -5071,12 +5011,10 @@
       <c r="B82" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="87" t="s">
-        <v>630</v>
-      </c>
+      <c r="C82" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="87"/>
       <c r="E82" s="9"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
@@ -5089,12 +5027,10 @@
       <c r="B83" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="87" t="s">
-        <v>658</v>
-      </c>
+      <c r="C83" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="87"/>
       <c r="E83" s="9"/>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
@@ -5199,12 +5135,10 @@
       <c r="B90" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D90" s="87" t="s">
-        <v>672</v>
-      </c>
+      <c r="C90" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="87"/>
       <c r="E90" s="9"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
@@ -5233,9 +5167,7 @@
       <c r="B92" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="C92" s="10"/>
       <c r="D92" s="88"/>
       <c r="E92" s="9"/>
       <c r="F92" s="14"/>
@@ -5249,8 +5181,8 @@
       <c r="B93" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>86</v>
+      <c r="C93" s="86" t="s">
+        <v>35</v>
       </c>
       <c r="D93" s="87"/>
       <c r="E93" s="9"/>
@@ -5265,12 +5197,10 @@
       <c r="B94" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D94" s="87" t="s">
-        <v>673</v>
-      </c>
+      <c r="C94" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="87"/>
       <c r="E94" s="9"/>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
@@ -5361,8 +5291,8 @@
       <c r="B100" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>86</v>
+      <c r="C100" s="86" t="s">
+        <v>35</v>
       </c>
       <c r="D100" s="87"/>
       <c r="E100" s="9"/>
@@ -5377,8 +5307,8 @@
       <c r="B101" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>86</v>
+      <c r="C101" s="86" t="s">
+        <v>35</v>
       </c>
       <c r="D101" s="87"/>
       <c r="E101" s="9"/>
@@ -5393,8 +5323,8 @@
       <c r="B102" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>86</v>
+      <c r="C102" s="86" t="s">
+        <v>35</v>
       </c>
       <c r="D102" s="87"/>
       <c r="E102" s="9"/>
@@ -5440,11 +5370,9 @@
         <v>150</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D105" s="87" t="s">
-        <v>648</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D105" s="87"/>
       <c r="E105" s="9"/>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
@@ -5474,7 +5402,7 @@
         <v>152</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D107" s="87"/>
       <c r="E107" s="9"/>
@@ -5509,7 +5437,7 @@
         <v>86</v>
       </c>
       <c r="D109" s="87" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="14"/>
@@ -5543,7 +5471,7 @@
         <v>86</v>
       </c>
       <c r="D111" s="87" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="14"/>
@@ -5605,7 +5533,7 @@
         <v>86</v>
       </c>
       <c r="D115" s="87" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="14"/>
@@ -5959,7 +5887,7 @@
         <v>86</v>
       </c>
       <c r="D137" s="87" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="14"/>
@@ -6009,7 +5937,7 @@
         <v>86</v>
       </c>
       <c r="D140" s="87" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="14"/>
@@ -6027,7 +5955,7 @@
         <v>86</v>
       </c>
       <c r="D141" s="87" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="14"/>
@@ -6441,7 +6369,7 @@
         <v>86</v>
       </c>
       <c r="D167" s="87" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="14"/>
@@ -6491,7 +6419,7 @@
         <v>86</v>
       </c>
       <c r="D170" s="87" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="14"/>
@@ -6523,7 +6451,7 @@
         <v>86</v>
       </c>
       <c r="D172" s="87" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="14"/>
@@ -6557,7 +6485,7 @@
         <v>86</v>
       </c>
       <c r="D174" s="88" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="14"/>
@@ -6591,7 +6519,7 @@
         <v>86</v>
       </c>
       <c r="D176" s="87" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E176" s="9"/>
       <c r="F176" s="14"/>
@@ -6625,7 +6553,7 @@
         <v>86</v>
       </c>
       <c r="D178" s="87" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="14"/>
@@ -6867,7 +6795,7 @@
         <v>86</v>
       </c>
       <c r="D193" s="87" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E193" s="9"/>
       <c r="F193" s="14"/>
@@ -7071,7 +6999,7 @@
         <v>86</v>
       </c>
       <c r="D206" s="87" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="E206" s="9"/>
       <c r="F206" s="14"/>
@@ -7151,7 +7079,7 @@
         <v>86</v>
       </c>
       <c r="D211" s="87" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="14"/>
@@ -7185,7 +7113,7 @@
         <v>86</v>
       </c>
       <c r="D213" s="87" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="E213" s="9"/>
       <c r="F213" s="14"/>
@@ -7232,7 +7160,7 @@
         <v>35</v>
       </c>
       <c r="D216" s="87" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="14"/>
@@ -7264,7 +7192,7 @@
         <v>86</v>
       </c>
       <c r="D218" s="87" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E218" s="9"/>
       <c r="F218" s="14"/>
@@ -7330,7 +7258,7 @@
         <v>86</v>
       </c>
       <c r="D222" s="87" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="E222" s="9"/>
       <c r="F222" s="14"/>
@@ -7380,7 +7308,7 @@
         <v>86</v>
       </c>
       <c r="D225" s="87" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E225" s="9"/>
       <c r="F225" s="14"/>
@@ -7646,7 +7574,7 @@
         <v>86</v>
       </c>
       <c r="D242" s="87" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="E242" s="9"/>
       <c r="F242" s="14"/>
@@ -7680,7 +7608,7 @@
         <v>86</v>
       </c>
       <c r="D244" s="87" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="14"/>
@@ -7728,7 +7656,7 @@
         <v>86</v>
       </c>
       <c r="D247" s="87" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="E247" s="9"/>
       <c r="F247" s="14"/>
@@ -7746,7 +7674,7 @@
         <v>86</v>
       </c>
       <c r="D248" s="87" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="E248" s="9"/>
       <c r="F248" s="14"/>
@@ -7764,7 +7692,7 @@
         <v>86</v>
       </c>
       <c r="D249" s="87" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="E249" s="9"/>
       <c r="F249" s="14"/>
@@ -7782,7 +7710,7 @@
         <v>86</v>
       </c>
       <c r="D250" s="87" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="E250" s="9"/>
       <c r="F250" s="14"/>
@@ -7814,7 +7742,7 @@
         <v>35</v>
       </c>
       <c r="D252" s="87" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="E252" s="9"/>
       <c r="F252" s="14"/>
@@ -7942,7 +7870,7 @@
         <v>86</v>
       </c>
       <c r="D260" s="87" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="14"/>
@@ -7974,7 +7902,7 @@
         <v>86</v>
       </c>
       <c r="D262" s="87" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E262" s="9"/>
       <c r="F262" s="14"/>
@@ -7992,7 +7920,7 @@
         <v>86</v>
       </c>
       <c r="D263" s="87" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="E263" s="9"/>
       <c r="F263" s="14"/>
@@ -8056,7 +7984,7 @@
         <v>86</v>
       </c>
       <c r="D267" s="87" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E267" s="9"/>
       <c r="F267" s="14"/>
@@ -8168,7 +8096,7 @@
         <v>86</v>
       </c>
       <c r="D274" s="87" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E274" s="9"/>
       <c r="F274" s="14"/>
@@ -8186,7 +8114,7 @@
         <v>86</v>
       </c>
       <c r="D275" s="87" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="E275" s="9"/>
       <c r="F275" s="14"/>
@@ -8204,7 +8132,7 @@
         <v>86</v>
       </c>
       <c r="D276" s="87" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E276" s="9"/>
       <c r="F276" s="14"/>
@@ -8238,7 +8166,7 @@
         <v>86</v>
       </c>
       <c r="D278" s="87" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="E278" s="9"/>
       <c r="F278" s="14"/>
@@ -8440,7 +8368,7 @@
         <v>86</v>
       </c>
       <c r="D291" s="87" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="E291" s="9"/>
       <c r="F291" s="14"/>
@@ -8474,7 +8402,7 @@
         <v>86</v>
       </c>
       <c r="D293" s="87" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E293" s="9"/>
       <c r="F293" s="14"/>
@@ -8508,7 +8436,7 @@
         <v>86</v>
       </c>
       <c r="D295" s="87" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="E295" s="9"/>
       <c r="F295" s="14"/>
@@ -8526,7 +8454,7 @@
         <v>86</v>
       </c>
       <c r="D296" s="87" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="E296" s="9"/>
       <c r="F296" s="14"/>
@@ -8558,7 +8486,7 @@
         <v>86</v>
       </c>
       <c r="D298" s="87" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="E298" s="9"/>
       <c r="F298" s="14"/>
@@ -8688,7 +8616,7 @@
         <v>86</v>
       </c>
       <c r="D306" s="87" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E306" s="9"/>
       <c r="F306" s="14"/>
@@ -8706,7 +8634,7 @@
         <v>86</v>
       </c>
       <c r="D307" s="87" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="E307" s="9"/>
       <c r="F307" s="14"/>
@@ -8738,7 +8666,7 @@
         <v>86</v>
       </c>
       <c r="D309" s="87" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="14"/>
@@ -8910,7 +8838,7 @@
         <v>86</v>
       </c>
       <c r="D320" s="87" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E320" s="9"/>
       <c r="F320" s="14"/>
@@ -8976,7 +8904,7 @@
         <v>86</v>
       </c>
       <c r="D324" s="87" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="E324" s="9"/>
       <c r="F324" s="14"/>
@@ -9088,7 +9016,7 @@
         <v>86</v>
       </c>
       <c r="D331" s="87" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="E331" s="8"/>
       <c r="F331" s="14"/>
@@ -9184,7 +9112,7 @@
         <v>86</v>
       </c>
       <c r="D337" s="87" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E337" s="9"/>
       <c r="F337" s="14"/>
@@ -9202,7 +9130,7 @@
         <v>86</v>
       </c>
       <c r="D338" s="87" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E338" s="9"/>
       <c r="F338" s="14"/>
@@ -9314,7 +9242,7 @@
         <v>86</v>
       </c>
       <c r="D345" s="87" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E345" s="9"/>
       <c r="F345" s="14"/>
@@ -9484,7 +9412,7 @@
         <v>86</v>
       </c>
       <c r="D356" s="87" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E356" s="9"/>
       <c r="F356" s="14"/>
@@ -9502,7 +9430,7 @@
         <v>86</v>
       </c>
       <c r="D357" s="87" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="E357" s="9"/>
       <c r="F357" s="14"/>
@@ -9596,7 +9524,7 @@
         <v>86</v>
       </c>
       <c r="D363" s="87" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E363" s="9"/>
       <c r="F363" s="14"/>
@@ -9646,7 +9574,7 @@
         <v>86</v>
       </c>
       <c r="D366" s="87" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E366" s="9"/>
       <c r="F366" s="14"/>
@@ -9680,7 +9608,7 @@
         <v>86</v>
       </c>
       <c r="D368" s="87" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E368" s="9"/>
       <c r="F368" s="14"/>
@@ -9868,7 +9796,7 @@
         <v>86</v>
       </c>
       <c r="D380" s="87" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="E380" s="9"/>
       <c r="F380" s="14"/>
@@ -10028,7 +9956,7 @@
         <v>86</v>
       </c>
       <c r="D390" s="87" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E390" s="9"/>
       <c r="F390" s="14"/>
@@ -10076,7 +10004,7 @@
         <v>86</v>
       </c>
       <c r="D393" s="87" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E393" s="9"/>
       <c r="F393" s="14"/>
@@ -10094,7 +10022,7 @@
         <v>86</v>
       </c>
       <c r="D394" s="87" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E394" s="9"/>
       <c r="F394" s="14"/>
@@ -10126,7 +10054,7 @@
         <v>86</v>
       </c>
       <c r="D396" s="87" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E396" s="9"/>
       <c r="F396" s="14"/>
@@ -10221,7 +10149,7 @@
         <v>86</v>
       </c>
       <c r="D402" s="87" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E402" s="9"/>
       <c r="F402" s="14"/>
@@ -10255,7 +10183,7 @@
         <v>86</v>
       </c>
       <c r="D404" s="87" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E404" s="9"/>
       <c r="F404" s="14"/>
@@ -10289,7 +10217,7 @@
         <v>86</v>
       </c>
       <c r="D406" s="87" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="E406" s="9"/>
       <c r="F406" s="14"/>
@@ -10507,7 +10435,7 @@
         <v>86</v>
       </c>
       <c r="D420" s="87" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="E420" s="9"/>
       <c r="F420" s="14"/>
@@ -10525,7 +10453,7 @@
         <v>86</v>
       </c>
       <c r="D421" s="87" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="E421" s="9"/>
       <c r="F421" s="14"/>
@@ -10603,7 +10531,7 @@
         <v>86</v>
       </c>
       <c r="D426" s="87" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E426" s="9"/>
       <c r="F426" s="14"/>
@@ -10621,7 +10549,7 @@
         <v>86</v>
       </c>
       <c r="D427" s="87" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="E427" s="9"/>
       <c r="F427" s="14"/>
@@ -12314,12 +12242,12 @@
       <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
       <c r="G2" s="54" t="s">
         <v>543</v>
       </c>
@@ -12343,14 +12271,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="117" t="s">
         <v>488</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
       <c r="G3" s="32"/>
       <c r="H3" s="28"/>
       <c r="I3" s="29" t="s">
@@ -12361,12 +12289,12 @@
       <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" s="37" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -12393,16 +12321,16 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="91" t="s">
         <v>491</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="91" t="s">
         <v>492</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="106" t="s">
         <v>547</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -12424,18 +12352,18 @@
       <c r="K6" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="103" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="102" t="s">
+      <c r="M6" s="103" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="106"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="46" t="s">
         <v>498</v>
       </c>
@@ -12457,22 +12385,22 @@
       <c r="K7" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="90" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="91" t="s">
         <v>501</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="94" t="s">
         <v>553</v>
       </c>
       <c r="G8" s="83"/>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="97" t="s">
         <v>554</v>
       </c>
       <c r="I8" s="55" t="s">
@@ -12484,18 +12412,18 @@
       <c r="K8" s="48" t="s">
         <v>508</v>
       </c>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="94"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="84"/>
-      <c r="H9" s="97"/>
+      <c r="H9" s="98"/>
       <c r="I9" s="55" t="s">
         <v>556</v>
       </c>
@@ -12503,41 +12431,41 @@
       <c r="K9" s="56" t="s">
         <v>557</v>
       </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1" ht="19" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="95"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="H10" s="98"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="55" t="s">
         <v>558</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="57"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="90" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="91" t="s">
         <v>503</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="94" t="s">
         <v>559</v>
       </c>
       <c r="G11" s="83"/>
-      <c r="H11" s="89"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="58" t="s">
         <v>560</v>
       </c>
@@ -12545,20 +12473,20 @@
       <c r="K11" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="85" t="s">
         <v>624</v>
       </c>
-      <c r="H12" s="113"/>
+      <c r="H12" s="114"/>
       <c r="I12" s="59" t="s">
         <v>562</v>
       </c>
@@ -12566,16 +12494,16 @@
       <c r="K12" s="61" t="s">
         <v>563</v>
       </c>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91" t="s">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92" t="s">
         <v>504</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="107" t="s">
         <v>564</v>
       </c>
       <c r="E13" s="62" t="s">
@@ -12597,14 +12525,14 @@
       <c r="K13" s="56" t="s">
         <v>568</v>
       </c>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="106"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="46" t="s">
         <v>506</v>
       </c>
@@ -12624,14 +12552,14 @@
       <c r="K14" s="48" t="s">
         <v>572</v>
       </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
     </row>
     <row r="15" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="106"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="46" t="s">
         <v>507</v>
       </c>
@@ -12651,56 +12579,56 @@
       <c r="K15" s="48" t="s">
         <v>576</v>
       </c>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
     </row>
     <row r="16" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="90" t="s">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="91" t="s">
         <v>509</v>
       </c>
-      <c r="F16" s="93" t="s">
+      <c r="F16" s="94" t="s">
         <v>577</v>
       </c>
       <c r="G16" s="83"/>
-      <c r="H16" s="114"/>
+      <c r="H16" s="115"/>
       <c r="I16" s="68" t="s">
         <v>578</v>
       </c>
       <c r="J16" s="51"/>
       <c r="K16" s="48"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
     </row>
     <row r="17" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="94"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="84"/>
-      <c r="H17" s="114"/>
+      <c r="H17" s="115"/>
       <c r="I17" s="68" t="s">
         <v>579</v>
       </c>
       <c r="J17" s="51"/>
       <c r="K17" s="48"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
     </row>
     <row r="18" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="94"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="84"/>
-      <c r="H18" s="114"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="48" t="s">
         <v>580</v>
       </c>
@@ -12708,18 +12636,18 @@
       <c r="K18" s="68" t="s">
         <v>581</v>
       </c>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
     </row>
     <row r="19" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="94"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="84"/>
-      <c r="H19" s="114"/>
+      <c r="H19" s="115"/>
       <c r="I19" s="48" t="s">
         <v>582</v>
       </c>
@@ -12727,18 +12655,18 @@
       <c r="K19" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
     </row>
     <row r="20" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="94"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="84"/>
-      <c r="H20" s="114"/>
+      <c r="H20" s="115"/>
       <c r="I20" s="48" t="s">
         <v>584</v>
       </c>
@@ -12746,44 +12674,44 @@
       <c r="K20" s="68" t="s">
         <v>585</v>
       </c>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
     </row>
     <row r="21" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="91"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="94"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="84"/>
-      <c r="H21" s="114"/>
+      <c r="H21" s="115"/>
       <c r="I21" s="50" t="s">
         <v>526</v>
       </c>
       <c r="J21" s="51"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
     </row>
     <row r="22" spans="1:14" s="23" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="95"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="96"/>
       <c r="G22" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="H22" s="114"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="48" t="s">
         <v>586</v>
       </c>
       <c r="J22" s="51"/>
       <c r="K22" s="49"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
     </row>
     <row r="23" spans="1:14" s="23" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="69"/>
@@ -12801,26 +12729,26 @@
       <c r="M23" s="74"/>
     </row>
     <row r="24" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="91" t="s">
         <v>510</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="109" t="s">
         <v>511</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="91" t="s">
         <v>512</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="106" t="s">
         <v>587</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="91" t="s">
         <v>513</v>
       </c>
-      <c r="F24" s="93" t="s">
+      <c r="F24" s="94" t="s">
         <v>588</v>
       </c>
       <c r="G24" s="83"/>
-      <c r="H24" s="96" t="s">
+      <c r="H24" s="97" t="s">
         <v>589</v>
       </c>
       <c r="I24" s="49" t="s">
@@ -12832,47 +12760,47 @@
       <c r="K24" s="48" t="s">
         <v>590</v>
       </c>
-      <c r="L24" s="102" t="s">
+      <c r="L24" s="103" t="s">
         <v>549</v>
       </c>
-      <c r="M24" s="89" t="s">
+      <c r="M24" s="90" t="s">
         <v>516</v>
       </c>
       <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="91"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="95"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="96"/>
       <c r="G25" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="H25" s="98"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="49" t="s">
         <v>591</v>
       </c>
       <c r="J25" s="50"/>
       <c r="K25" s="48"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="89"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="90"/>
       <c r="N25" s="52"/>
     </row>
     <row r="26" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="91"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="90" t="s">
+      <c r="A26" s="92"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="91" t="s">
         <v>517</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="94" t="s">
         <v>592</v>
       </c>
       <c r="G26" s="83"/>
-      <c r="H26" s="96" t="s">
+      <c r="H26" s="97" t="s">
         <v>593</v>
       </c>
       <c r="I26" s="49" t="s">
@@ -12884,21 +12812,21 @@
       <c r="K26" s="48" t="s">
         <v>595</v>
       </c>
-      <c r="L26" s="103"/>
-      <c r="M26" s="89"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="90"/>
       <c r="N26" s="52"/>
     </row>
     <row r="27" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="91"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="95"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="96"/>
       <c r="G27" s="63" t="s">
         <v>625</v>
       </c>
-      <c r="H27" s="98"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="49" t="s">
         <v>525</v>
       </c>
@@ -12906,15 +12834,15 @@
         <v>521</v>
       </c>
       <c r="K27" s="48"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="89"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="90"/>
       <c r="N27" s="52"/>
     </row>
     <row r="28" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="91"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="106"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="107"/>
       <c r="E28" s="46" t="s">
         <v>519</v>
       </c>
@@ -12933,15 +12861,15 @@
       <c r="K28" s="48" t="s">
         <v>598</v>
       </c>
-      <c r="L28" s="103"/>
-      <c r="M28" s="89"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="90"/>
       <c r="N28" s="52"/>
     </row>
     <row r="29" spans="1:14" s="23" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="92"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="107"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="108"/>
       <c r="E29" s="46" t="s">
         <v>522</v>
       </c>
@@ -12963,8 +12891,8 @@
       <c r="K29" s="48" t="s">
         <v>601</v>
       </c>
-      <c r="L29" s="104"/>
-      <c r="M29" s="89"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="90"/>
       <c r="N29" s="52"/>
     </row>
     <row r="30" spans="1:14" s="23" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
@@ -12983,26 +12911,26 @@
       <c r="M30" s="74"/>
     </row>
     <row r="31" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="91" t="s">
         <v>527</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="91" t="s">
         <v>528</v>
       </c>
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="D31" s="105" t="s">
+      <c r="D31" s="106" t="s">
         <v>602</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="E31" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="F31" s="93" t="s">
+      <c r="F31" s="94" t="s">
         <v>603</v>
       </c>
       <c r="G31" s="83"/>
-      <c r="H31" s="96" t="s">
+      <c r="H31" s="97" t="s">
         <v>604</v>
       </c>
       <c r="I31" s="81" t="s">
@@ -13014,22 +12942,22 @@
       <c r="K31" s="48" t="s">
         <v>606</v>
       </c>
-      <c r="L31" s="89" t="s">
+      <c r="L31" s="90" t="s">
         <v>532</v>
       </c>
-      <c r="M31" s="89" t="s">
+      <c r="M31" s="90" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="94"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="95"/>
       <c r="G32" s="84"/>
-      <c r="H32" s="97"/>
+      <c r="H32" s="98"/>
       <c r="I32" s="56" t="s">
         <v>607</v>
       </c>
@@ -13037,79 +12965,79 @@
       <c r="K32" s="48" t="s">
         <v>608</v>
       </c>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
     </row>
     <row r="33" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="91"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="95"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="96"/>
       <c r="G33" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="H33" s="98"/>
+      <c r="H33" s="99"/>
       <c r="I33" s="56" t="s">
         <v>542</v>
       </c>
       <c r="J33" s="49"/>
       <c r="K33" s="48"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
     </row>
     <row r="34" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="90" t="s">
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="91" t="s">
         <v>534</v>
       </c>
-      <c r="F34" s="93" t="s">
+      <c r="F34" s="94" t="s">
         <v>609</v>
       </c>
       <c r="G34" s="83"/>
-      <c r="H34" s="96" t="s">
+      <c r="H34" s="97" t="s">
         <v>610</v>
       </c>
       <c r="I34" s="49" t="s">
         <v>611</v>
       </c>
       <c r="J34" s="49"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
     </row>
     <row r="35" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="94"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="95"/>
       <c r="G35" s="84"/>
-      <c r="H35" s="97"/>
+      <c r="H35" s="98"/>
       <c r="I35" s="49" t="s">
         <v>538</v>
       </c>
       <c r="J35" s="49"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
     </row>
     <row r="36" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="95"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="96"/>
       <c r="G36" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="H36" s="98"/>
+      <c r="H36" s="99"/>
       <c r="I36" s="49" t="s">
         <v>612</v>
       </c>
@@ -13119,68 +13047,68 @@
       <c r="K36" s="48" t="s">
         <v>536</v>
       </c>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
     </row>
     <row r="37" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="91"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="90" t="s">
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="91" t="s">
         <v>537</v>
       </c>
-      <c r="F37" s="93" t="s">
+      <c r="F37" s="94" t="s">
         <v>613</v>
       </c>
       <c r="G37" s="83"/>
-      <c r="H37" s="100" t="s">
+      <c r="H37" s="101" t="s">
         <v>614</v>
       </c>
       <c r="I37" s="49" t="s">
         <v>615</v>
       </c>
-      <c r="J37" s="101" t="s">
+      <c r="J37" s="102" t="s">
         <v>539</v>
       </c>
-      <c r="K37" s="100" t="s">
+      <c r="K37" s="101" t="s">
         <v>541</v>
       </c>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
     </row>
     <row r="38" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="91"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="94"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="84" t="s">
         <v>624</v>
       </c>
-      <c r="H38" s="100"/>
+      <c r="H38" s="101"/>
       <c r="I38" s="68" t="s">
         <v>616</v>
       </c>
-      <c r="J38" s="101"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
     </row>
     <row r="39" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="91"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="91" t="s">
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="92" t="s">
         <v>540</v>
       </c>
-      <c r="F39" s="94" t="s">
+      <c r="F39" s="95" t="s">
         <v>617</v>
       </c>
       <c r="G39" s="84"/>
-      <c r="H39" s="100" t="s">
+      <c r="H39" s="101" t="s">
         <v>618</v>
       </c>
       <c r="I39" s="68" t="s">
@@ -13190,18 +13118,18 @@
       <c r="K39" s="56" t="s">
         <v>620</v>
       </c>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
     </row>
     <row r="40" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="94"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="95"/>
       <c r="G40" s="84"/>
-      <c r="H40" s="100"/>
+      <c r="H40" s="101"/>
       <c r="I40" s="68" t="s">
         <v>621</v>
       </c>
@@ -13209,27 +13137,27 @@
       <c r="K40" s="56" t="s">
         <v>622</v>
       </c>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
     </row>
     <row r="41" spans="1:13" s="23" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="95"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="96"/>
       <c r="G41" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="H41" s="100"/>
+      <c r="H41" s="101"/>
       <c r="I41" s="68" t="s">
         <v>623</v>
       </c>
       <c r="J41" s="51"/>
       <c r="K41" s="48"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="K42" s="82"/>

--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25204952-CF77-2648-8BE1-955D8A309D31}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB8FB0-A87B-A140-A117-5105EA0FFC90}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4540" yWindow="1300" windowWidth="31600" windowHeight="18860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="674">
   <si>
     <t>3-node architecture</t>
   </si>
@@ -68,6 +68,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Nova</t>
     </r>
@@ -76,6 +77,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -84,6 +86,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Compute</t>
     </r>
@@ -92,6 +95,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ manages pools of computer resources ] ) </t>
     </r>
@@ -100,6 +104,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Hypervisor</t>
     </r>
@@ -140,6 +145,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Neutron</t>
     </r>
@@ -148,6 +154,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -156,6 +163,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>networking</t>
     </r>
@@ -164,6 +172,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ networking and addressing]) </t>
     </r>
@@ -172,6 +181,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>module layer 2 (ml2) plug-in</t>
     </r>
@@ -182,6 +192,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Neutron</t>
     </r>
@@ -190,6 +201,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -198,6 +210,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>networking</t>
     </r>
@@ -206,6 +219,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ networking and addressing]) </t>
     </r>
@@ -214,6 +228,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Layer 2 agent</t>
     </r>
@@ -227,6 +242,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ceilometer</t>
     </r>
@@ -235,6 +251,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -243,6 +260,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>telemetry</t>
     </r>
@@ -251,6 +269,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ counter-based tracking used for billing ] ) </t>
     </r>
@@ -259,6 +278,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Agent</t>
     </r>
@@ -278,6 +298,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Keystone</t>
     </r>
@@ -286,6 +307,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -294,6 +316,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Identity</t>
     </r>
@@ -302,6 +325,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ authentication ] )</t>
     </r>
@@ -318,6 +342,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Glance</t>
     </r>
@@ -326,6 +351,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -334,6 +360,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Image</t>
     </r>
@@ -342,6 +369,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ manages disk and server images ] )</t>
     </r>
@@ -355,6 +383,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Nova</t>
     </r>
@@ -363,6 +392,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -371,6 +401,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Compute</t>
     </r>
@@ -379,6 +410,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ manages pools of computer resources ] ) </t>
     </r>
@@ -387,6 +419,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Management</t>
     </r>
@@ -403,6 +436,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Neutron</t>
     </r>
@@ -411,6 +445,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -419,6 +454,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>networking</t>
     </r>
@@ -427,6 +463,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ networking and addressing]) </t>
     </r>
@@ -435,6 +472,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Server</t>
     </r>
@@ -448,6 +486,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Neutron</t>
     </r>
@@ -456,6 +495,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -464,6 +504,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>networking</t>
     </r>
@@ -472,6 +513,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ networking and addressing]) </t>
     </r>
@@ -480,6 +522,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>module layer 2 (ml2) plug-in</t>
     </r>
@@ -493,6 +536,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Horizon </t>
     </r>
@@ -501,6 +545,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -509,6 +554,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Dashboard</t>
     </r>
@@ -517,6 +563,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ GUI ] )</t>
     </r>
@@ -530,6 +577,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cinder </t>
     </r>
@@ -538,6 +586,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -546,6 +595,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Block Storage</t>
     </r>
@@ -554,6 +604,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ manages block-level storage devices ] )</t>
     </r>
@@ -570,6 +621,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Swift </t>
     </r>
@@ -578,6 +630,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -586,6 +639,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Object Storage</t>
     </r>
@@ -594,6 +648,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ manages redundant storage systems ] )</t>
     </r>
@@ -610,6 +665,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ceilometer</t>
     </r>
@@ -618,6 +674,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -626,6 +683,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>telemetry</t>
     </r>
@@ -634,6 +692,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ counter-based tracking used for billing ] ) </t>
     </r>
@@ -642,6 +701,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Core</t>
     </r>
@@ -664,6 +724,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Neutron</t>
     </r>
@@ -672,6 +733,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -680,6 +742,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>networking</t>
     </r>
@@ -688,6 +751,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ networking and addressing]) </t>
     </r>
@@ -696,6 +760,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>module layer 2 (ml2) plug-in</t>
     </r>
@@ -709,6 +774,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Neutron</t>
     </r>
@@ -717,6 +783,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -725,6 +792,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>networking</t>
     </r>
@@ -733,6 +801,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ networking and addressing]) </t>
     </r>
@@ -741,6 +810,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>layer 2 agent</t>
     </r>
@@ -757,6 +827,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Neutron</t>
     </r>
@@ -765,6 +836,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -773,6 +845,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>networking</t>
     </r>
@@ -781,6 +854,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ networking and addressing]) </t>
     </r>
@@ -789,6 +863,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>layer 3 agent</t>
     </r>
@@ -802,6 +877,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Neutron</t>
     </r>
@@ -810,6 +886,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -818,6 +895,7 @@
         <sz val="10"/>
         <color rgb="FF9900FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>networking</t>
     </r>
@@ -826,6 +904,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [ networking and addressing]) </t>
     </r>
@@ -834,6 +913,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DHCP agent</t>
     </r>
@@ -2545,24 +2625,6 @@
     <t>criteria</t>
   </si>
   <si>
-    <t>dr, bdr</t>
-  </si>
-  <si>
-    <t>also hashing</t>
-  </si>
-  <si>
-    <t>timers</t>
-  </si>
-  <si>
-    <t>practice! Ip route 10.0.0.0/x</t>
-  </si>
-  <si>
-    <t>route exchanges with stub</t>
-  </si>
-  <si>
-    <t>peer behaviors</t>
-  </si>
-  <si>
     <t>connections, broadcasts domains, split horizon</t>
   </si>
   <si>
@@ -2593,9 +2655,6 @@
     <t>NAT-PT</t>
   </si>
   <si>
-    <t>timers, summay addresses</t>
-  </si>
-  <si>
     <t>mitigate DoS attacks</t>
   </si>
   <si>
@@ -2623,36 +2682,15 @@
     <t>address composition</t>
   </si>
   <si>
-    <t>use cases</t>
-  </si>
-  <si>
-    <t>information carred in packets</t>
-  </si>
-  <si>
-    <t>commands used</t>
-  </si>
-  <si>
     <t>what required to support?</t>
   </si>
   <si>
     <t>practice needed with acl, etc</t>
   </si>
   <si>
-    <t>describe and distinguish all types</t>
-  </si>
-  <si>
-    <t>key selection</t>
-  </si>
-  <si>
-    <t>command syntax, variations</t>
-  </si>
-  <si>
     <t>show ip eigrp topology outputs</t>
   </si>
   <si>
-    <t>frr configurations</t>
-  </si>
-  <si>
     <t>function of type 4, flooding, v3 differences</t>
   </si>
   <si>
@@ -2662,45 +2700,15 @@
     <t>configurations, addresses</t>
   </si>
   <si>
-    <t>running multiple instances, redistribution between</t>
-  </si>
-  <si>
-    <t>review numbers, transitioning, etc</t>
-  </si>
-  <si>
-    <t>memorization and meaning of each</t>
-  </si>
-  <si>
-    <t>review options, chart?</t>
-  </si>
-  <si>
     <t>filtering options</t>
   </si>
   <si>
     <t>review community types</t>
   </si>
   <si>
-    <t>state scenarios, pros and cons</t>
-  </si>
-  <si>
-    <t>new attributes and modifications</t>
-  </si>
-  <si>
     <t>regexp practice</t>
   </si>
   <si>
-    <t>effect of enabling</t>
-  </si>
-  <si>
-    <t>function, updates</t>
-  </si>
-  <si>
-    <t>review function</t>
-  </si>
-  <si>
-    <t>review metrics</t>
-  </si>
-  <si>
     <t>review OTP configuration</t>
   </si>
   <si>
@@ -2738,6 +2746,18 @@
   </si>
   <si>
     <t>dev-ops stages, SVN</t>
+  </si>
+  <si>
+    <t>bit changes for BGP, OSPF, etc.</t>
+  </si>
+  <si>
+    <t>request packet and CR bit</t>
+  </si>
+  <si>
+    <t>practice, chart</t>
+  </si>
+  <si>
+    <t>configuration?</t>
   </si>
 </sst>
 </file>
@@ -2764,76 +2784,90 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFD966"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF00FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF9900FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3714,15 +3748,15 @@
   </sheetPr>
   <dimension ref="A1:H892"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="99.83203125" customWidth="1"/>
+    <col min="2" max="2" width="91.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
@@ -3749,7 +3783,7 @@
       </c>
       <c r="F1" s="13">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>23</v>
@@ -4597,7 +4631,7 @@
         <v>86</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="14"/>
@@ -5386,7 +5420,7 @@
         <v>151</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D106" s="87"/>
       <c r="E106" s="9"/>
@@ -5468,11 +5502,9 @@
         <v>156</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D111" s="87" t="s">
-        <v>660</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D111" s="87"/>
       <c r="E111" s="9"/>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
@@ -5486,7 +5518,7 @@
         <v>157</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D112" s="87"/>
       <c r="E112" s="9"/>
@@ -5530,11 +5562,9 @@
         <v>161</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D115" s="87" t="s">
-        <v>632</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D115" s="87"/>
       <c r="E115" s="9"/>
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
@@ -5612,7 +5642,7 @@
         <v>166</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D120" s="87"/>
       <c r="E120" s="9"/>
@@ -5739,9 +5769,7 @@
       <c r="B128" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="C128" s="10"/>
       <c r="D128" s="88"/>
       <c r="E128" s="9"/>
       <c r="F128" s="14"/>
@@ -5788,7 +5816,7 @@
         <v>177</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D131" s="87"/>
       <c r="E131" s="9"/>
@@ -5836,7 +5864,7 @@
         <v>180</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D134" s="87"/>
       <c r="E134" s="9"/>
@@ -5852,7 +5880,7 @@
         <v>181</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D135" s="87"/>
       <c r="E135" s="9"/>
@@ -5884,11 +5912,9 @@
         <v>183</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D137" s="87" t="s">
-        <v>630</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D137" s="87"/>
       <c r="E137" s="9"/>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
@@ -5902,7 +5928,7 @@
         <v>184</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D138" s="87"/>
       <c r="E138" s="9"/>
@@ -5918,7 +5944,7 @@
         <v>185</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D139" s="87"/>
       <c r="E139" s="9"/>
@@ -5934,11 +5960,9 @@
         <v>186</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D140" s="87" t="s">
-        <v>634</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D140" s="87"/>
       <c r="E140" s="9"/>
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
@@ -5952,11 +5976,9 @@
         <v>187</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D141" s="87" t="s">
-        <v>655</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D141" s="87"/>
       <c r="E141" s="9"/>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
@@ -5986,7 +6008,7 @@
         <v>189</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D143" s="87"/>
       <c r="E143" s="9"/>
@@ -6002,7 +6024,7 @@
         <v>190</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D144" s="87"/>
       <c r="E144" s="9"/>
@@ -6162,7 +6184,9 @@
       <c r="C154" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D154" s="87"/>
+      <c r="D154" s="89" t="s">
+        <v>670</v>
+      </c>
       <c r="E154" s="9"/>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
@@ -6208,9 +6232,9 @@
         <v>203</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D157" s="87"/>
+        <v>35</v>
+      </c>
+      <c r="D157" s="89"/>
       <c r="E157" s="9"/>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -6333,9 +6357,7 @@
       <c r="B165" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="C165" s="10"/>
       <c r="D165" s="88"/>
       <c r="E165" s="9"/>
       <c r="F165" s="14"/>
@@ -6366,11 +6388,9 @@
         <v>213</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D167" s="87" t="s">
-        <v>661</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D167" s="87"/>
       <c r="E167" s="9"/>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
@@ -6384,7 +6404,7 @@
         <v>214</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D168" s="87"/>
       <c r="E168" s="9"/>
@@ -6400,7 +6420,7 @@
         <v>215</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D169" s="87"/>
       <c r="E169" s="9"/>
@@ -6416,11 +6436,9 @@
         <v>216</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D170" s="87" t="s">
-        <v>662</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D170" s="87"/>
       <c r="E170" s="9"/>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -6448,11 +6466,9 @@
         <v>218</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D172" s="87" t="s">
-        <v>645</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D172" s="87"/>
       <c r="E172" s="9"/>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
@@ -6482,11 +6498,9 @@
         <v>220</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D174" s="88" t="s">
-        <v>631</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D174" s="88"/>
       <c r="E174" s="9"/>
       <c r="F174" s="14"/>
       <c r="G174" s="14"/>
@@ -6499,9 +6513,7 @@
       <c r="B175" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="C175" s="8"/>
       <c r="D175" s="87"/>
       <c r="E175" s="9"/>
       <c r="F175" s="14"/>
@@ -6516,11 +6528,9 @@
         <v>222</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D176" s="87" t="s">
-        <v>656</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D176" s="87"/>
       <c r="E176" s="9"/>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
@@ -6553,7 +6563,7 @@
         <v>86</v>
       </c>
       <c r="D178" s="87" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="14"/>
@@ -6584,7 +6594,7 @@
         <v>226</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D180" s="87"/>
       <c r="E180" s="9"/>
@@ -6600,7 +6610,7 @@
         <v>227</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D181" s="87"/>
       <c r="E181" s="9"/>
@@ -6616,7 +6626,7 @@
         <v>228</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D182" s="87"/>
       <c r="E182" s="9"/>
@@ -6728,9 +6738,11 @@
         <v>235</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D189" s="87"/>
+        <v>86</v>
+      </c>
+      <c r="D189" s="89" t="s">
+        <v>671</v>
+      </c>
       <c r="E189" s="9"/>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -6792,11 +6804,9 @@
         <v>239</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D193" s="87" t="s">
-        <v>633</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D193" s="87"/>
       <c r="E193" s="9"/>
       <c r="F193" s="14"/>
       <c r="G193" s="14"/>
@@ -6872,7 +6882,7 @@
         <v>244</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D198" s="87"/>
       <c r="E198" s="9"/>
@@ -6996,11 +7006,9 @@
         <v>252</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D206" s="87" t="s">
-        <v>664</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D206" s="87"/>
       <c r="E206" s="9"/>
       <c r="F206" s="14"/>
       <c r="G206" s="14"/>
@@ -7079,7 +7087,7 @@
         <v>86</v>
       </c>
       <c r="D211" s="87" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="14"/>
@@ -7110,10 +7118,10 @@
         <v>259</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D213" s="87" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="E213" s="9"/>
       <c r="F213" s="14"/>
@@ -7160,7 +7168,7 @@
         <v>35</v>
       </c>
       <c r="D216" s="87" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="14"/>
@@ -7189,11 +7197,9 @@
         <v>264</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D218" s="87" t="s">
-        <v>629</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D218" s="87"/>
       <c r="E218" s="9"/>
       <c r="F218" s="14"/>
       <c r="G218" s="14"/>
@@ -7255,11 +7261,9 @@
         <v>268</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D222" s="87" t="s">
-        <v>668</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D222" s="87"/>
       <c r="E222" s="9"/>
       <c r="F222" s="14"/>
       <c r="G222" s="14"/>
@@ -7305,11 +7309,9 @@
         <v>271</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D225" s="87" t="s">
-        <v>657</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D225" s="87"/>
       <c r="E225" s="9"/>
       <c r="F225" s="14"/>
       <c r="G225" s="14"/>
@@ -7323,7 +7325,7 @@
         <v>272</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D226" s="87"/>
       <c r="E226" s="9"/>
@@ -7369,9 +7371,9 @@
         <v>275</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D229" s="87"/>
+        <v>35</v>
+      </c>
+      <c r="D229" s="89"/>
       <c r="E229" s="9"/>
       <c r="F229" s="14"/>
       <c r="G229" s="14"/>
@@ -7385,7 +7387,7 @@
         <v>276</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D230" s="87"/>
       <c r="E230" s="9"/>
@@ -7433,7 +7435,7 @@
         <v>279</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D233" s="87"/>
       <c r="E233" s="9"/>
@@ -7525,7 +7527,7 @@
         <v>285</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D239" s="87"/>
       <c r="E239" s="9"/>
@@ -7571,11 +7573,9 @@
         <v>288</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D242" s="87" t="s">
-        <v>669</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D242" s="87"/>
       <c r="E242" s="9"/>
       <c r="F242" s="14"/>
       <c r="G242" s="14"/>
@@ -7589,7 +7589,7 @@
         <v>289</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D243" s="87"/>
       <c r="E243" s="9"/>
@@ -7605,11 +7605,9 @@
         <v>290</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D244" s="87" t="s">
-        <v>670</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D244" s="87"/>
       <c r="E244" s="9"/>
       <c r="F244" s="14"/>
       <c r="G244" s="14"/>
@@ -7655,8 +7653,8 @@
       <c r="C247" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D247" s="87" t="s">
-        <v>671</v>
+      <c r="D247" s="89" t="s">
+        <v>672</v>
       </c>
       <c r="E247" s="9"/>
       <c r="F247" s="14"/>
@@ -7671,10 +7669,10 @@
         <v>294</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D248" s="87" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="E248" s="9"/>
       <c r="F248" s="14"/>
@@ -7689,10 +7687,10 @@
         <v>295</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D249" s="87" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="E249" s="9"/>
       <c r="F249" s="14"/>
@@ -7707,11 +7705,9 @@
         <v>296</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D250" s="87" t="s">
-        <v>674</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D250" s="87"/>
       <c r="E250" s="9"/>
       <c r="F250" s="14"/>
       <c r="G250" s="14"/>
@@ -7741,9 +7737,7 @@
       <c r="C252" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D252" s="87" t="s">
-        <v>675</v>
-      </c>
+      <c r="D252" s="87"/>
       <c r="E252" s="9"/>
       <c r="F252" s="14"/>
       <c r="G252" s="14"/>
@@ -7773,7 +7767,7 @@
         <v>300</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D254" s="87"/>
       <c r="E254" s="9"/>
@@ -7819,7 +7813,7 @@
         <v>303</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D257" s="87"/>
       <c r="E257" s="9"/>
@@ -7870,7 +7864,7 @@
         <v>86</v>
       </c>
       <c r="D260" s="87" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="14"/>
@@ -7902,7 +7896,7 @@
         <v>86</v>
       </c>
       <c r="D262" s="87" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="E262" s="9"/>
       <c r="F262" s="14"/>
@@ -7917,11 +7911,9 @@
         <v>309</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D263" s="87" t="s">
-        <v>677</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D263" s="87"/>
       <c r="E263" s="9"/>
       <c r="F263" s="14"/>
       <c r="G263" s="14"/>
@@ -7983,8 +7975,8 @@
       <c r="C267" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D267" s="87" t="s">
-        <v>678</v>
+      <c r="D267" s="89" t="s">
+        <v>673</v>
       </c>
       <c r="E267" s="9"/>
       <c r="F267" s="14"/>
@@ -8061,7 +8053,7 @@
         <v>318</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D272" s="87"/>
       <c r="E272" s="9"/>
@@ -8077,7 +8069,7 @@
         <v>319</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D273" s="87"/>
       <c r="E273" s="9"/>
@@ -8096,7 +8088,7 @@
         <v>86</v>
       </c>
       <c r="D274" s="87" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E274" s="9"/>
       <c r="F274" s="14"/>
@@ -8111,11 +8103,9 @@
         <v>321</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D275" s="87" t="s">
-        <v>679</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D275" s="87"/>
       <c r="E275" s="9"/>
       <c r="F275" s="14"/>
       <c r="G275" s="14"/>
@@ -8129,10 +8119,10 @@
         <v>322</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D276" s="87" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E276" s="9"/>
       <c r="F276" s="14"/>
@@ -8163,11 +8153,9 @@
         <v>324</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D278" s="87" t="s">
-        <v>680</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D278" s="87"/>
       <c r="E278" s="9"/>
       <c r="F278" s="14"/>
       <c r="G278" s="14"/>
@@ -8368,7 +8356,7 @@
         <v>86</v>
       </c>
       <c r="D291" s="87" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="E291" s="9"/>
       <c r="F291" s="14"/>
@@ -8402,7 +8390,7 @@
         <v>86</v>
       </c>
       <c r="D293" s="87" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E293" s="9"/>
       <c r="F293" s="14"/>
@@ -8436,7 +8424,7 @@
         <v>86</v>
       </c>
       <c r="D295" s="87" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="E295" s="9"/>
       <c r="F295" s="14"/>
@@ -8454,7 +8442,7 @@
         <v>86</v>
       </c>
       <c r="D296" s="87" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="E296" s="9"/>
       <c r="F296" s="14"/>
@@ -8486,7 +8474,7 @@
         <v>86</v>
       </c>
       <c r="D298" s="87" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="E298" s="9"/>
       <c r="F298" s="14"/>
@@ -8616,7 +8604,7 @@
         <v>86</v>
       </c>
       <c r="D306" s="87" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E306" s="9"/>
       <c r="F306" s="14"/>
@@ -8634,7 +8622,7 @@
         <v>86</v>
       </c>
       <c r="D307" s="87" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="E307" s="9"/>
       <c r="F307" s="14"/>
@@ -8666,7 +8654,7 @@
         <v>86</v>
       </c>
       <c r="D309" s="87" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="14"/>
@@ -8838,7 +8826,7 @@
         <v>86</v>
       </c>
       <c r="D320" s="87" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E320" s="9"/>
       <c r="F320" s="14"/>
@@ -8904,7 +8892,7 @@
         <v>86</v>
       </c>
       <c r="D324" s="87" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="E324" s="9"/>
       <c r="F324" s="14"/>
@@ -9016,7 +9004,7 @@
         <v>86</v>
       </c>
       <c r="D331" s="87" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="E331" s="8"/>
       <c r="F331" s="14"/>
@@ -9112,7 +9100,7 @@
         <v>86</v>
       </c>
       <c r="D337" s="87" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E337" s="9"/>
       <c r="F337" s="14"/>
@@ -9130,7 +9118,7 @@
         <v>86</v>
       </c>
       <c r="D338" s="87" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E338" s="9"/>
       <c r="F338" s="14"/>
@@ -9242,7 +9230,7 @@
         <v>86</v>
       </c>
       <c r="D345" s="87" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E345" s="9"/>
       <c r="F345" s="14"/>
@@ -9412,7 +9400,7 @@
         <v>86</v>
       </c>
       <c r="D356" s="87" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="E356" s="9"/>
       <c r="F356" s="14"/>
@@ -9430,7 +9418,7 @@
         <v>86</v>
       </c>
       <c r="D357" s="87" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="E357" s="9"/>
       <c r="F357" s="14"/>
@@ -9524,7 +9512,7 @@
         <v>86</v>
       </c>
       <c r="D363" s="87" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E363" s="9"/>
       <c r="F363" s="14"/>
@@ -9574,7 +9562,7 @@
         <v>86</v>
       </c>
       <c r="D366" s="87" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E366" s="9"/>
       <c r="F366" s="14"/>
@@ -9608,7 +9596,7 @@
         <v>86</v>
       </c>
       <c r="D368" s="87" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E368" s="9"/>
       <c r="F368" s="14"/>
@@ -9796,7 +9784,7 @@
         <v>86</v>
       </c>
       <c r="D380" s="87" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="E380" s="9"/>
       <c r="F380" s="14"/>
@@ -9956,7 +9944,7 @@
         <v>86</v>
       </c>
       <c r="D390" s="87" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E390" s="9"/>
       <c r="F390" s="14"/>
@@ -10004,7 +9992,7 @@
         <v>86</v>
       </c>
       <c r="D393" s="87" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="E393" s="9"/>
       <c r="F393" s="14"/>
@@ -10022,7 +10010,7 @@
         <v>86</v>
       </c>
       <c r="D394" s="87" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E394" s="9"/>
       <c r="F394" s="14"/>
@@ -10054,7 +10042,7 @@
         <v>86</v>
       </c>
       <c r="D396" s="87" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E396" s="9"/>
       <c r="F396" s="14"/>
@@ -10149,7 +10137,7 @@
         <v>86</v>
       </c>
       <c r="D402" s="87" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E402" s="9"/>
       <c r="F402" s="14"/>
@@ -10183,7 +10171,7 @@
         <v>86</v>
       </c>
       <c r="D404" s="87" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E404" s="9"/>
       <c r="F404" s="14"/>
@@ -10217,7 +10205,7 @@
         <v>86</v>
       </c>
       <c r="D406" s="87" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="E406" s="9"/>
       <c r="F406" s="14"/>
@@ -10435,7 +10423,7 @@
         <v>86</v>
       </c>
       <c r="D420" s="87" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="E420" s="9"/>
       <c r="F420" s="14"/>
@@ -10453,7 +10441,7 @@
         <v>86</v>
       </c>
       <c r="D421" s="87" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="E421" s="9"/>
       <c r="F421" s="14"/>
@@ -10531,7 +10519,7 @@
         <v>86</v>
       </c>
       <c r="D426" s="87" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="E426" s="9"/>
       <c r="F426" s="14"/>
@@ -10549,7 +10537,7 @@
         <v>86</v>
       </c>
       <c r="D427" s="87" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="E427" s="9"/>
       <c r="F427" s="14"/>

--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED3FA73-ED92-8544-B426-9C72757D2D63}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF43C6-FD5E-F24B-9BE7-6B0014E438EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76800" yWindow="1240" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-76800" yWindow="780" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="662">
   <si>
     <t>3-node architecture</t>
   </si>
@@ -422,9 +422,6 @@
     <t>1.1.a Describe basic software architecture differences between IOS and IOS XE</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -707,9 +704,6 @@
     <t>1.1.c Explain general network challenges</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>1.1.c [i] Unicast flooding</t>
   </si>
   <si>
@@ -988,9 +982,6 @@
     <t>1.2.a [vi] Evaluate impact of new traffic on existing QoS design</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>1.3 Network troubleshooting</t>
   </si>
   <si>
@@ -2616,9 +2607,6 @@
     <t>criteria</t>
   </si>
   <si>
-    <t>strict vs loose</t>
-  </si>
-  <si>
     <t>dependencies</t>
   </si>
   <si>
@@ -2643,15 +2631,9 @@
     <t>NAT-PT</t>
   </si>
   <si>
-    <t>mitigate DoS attacks</t>
-  </si>
-  <si>
     <t>nx-api, securing, cisco virtual topology</t>
   </si>
   <si>
-    <t>implicit acl</t>
-  </si>
-  <si>
     <t>encapsulation</t>
   </si>
   <si>
@@ -2679,12 +2661,6 @@
     <t>regexp practice</t>
   </si>
   <si>
-    <t>RADIUS 'combines' function</t>
-  </si>
-  <si>
-    <t>uses on switch vs router</t>
-  </si>
-  <si>
     <t>message type differences</t>
   </si>
   <si>
@@ -2740,6 +2716,12 @@
   </si>
   <si>
     <t>tunnel vs transport</t>
+  </si>
+  <si>
+    <t>command-level customization</t>
+  </si>
+  <si>
+    <t>option 82 feature</t>
   </si>
 </sst>
 </file>
@@ -3787,9 +3769,9 @@
   </sheetPr>
   <dimension ref="A1:I892"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E310" sqref="E310"/>
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3813,20 +3795,20 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="13">
         <f ca="1">(TODAY()-I1)*-1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>22</v>
@@ -3883,7 +3865,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3898,7 +3880,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3913,7 +3895,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -3928,7 +3910,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3943,7 +3925,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3958,7 +3940,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -3973,7 +3955,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3988,7 +3970,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -4003,7 +3985,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="86"/>
       <c r="D13" s="9"/>
@@ -4018,7 +4000,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -4033,7 +4015,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -4048,7 +4030,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="86"/>
       <c r="D16" s="9"/>
@@ -4063,7 +4045,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
@@ -4078,7 +4060,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -4093,7 +4075,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="86"/>
       <c r="D19" s="9"/>
@@ -4108,7 +4090,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="86"/>
       <c r="D20" s="9"/>
@@ -4123,7 +4105,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -4138,7 +4120,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="86"/>
       <c r="D22" s="9"/>
@@ -4153,7 +4135,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
@@ -4168,7 +4150,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="86"/>
       <c r="D24" s="9"/>
@@ -4183,7 +4165,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="86"/>
       <c r="D25" s="9"/>
@@ -4198,7 +4180,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -4213,7 +4195,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -4228,7 +4210,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="86"/>
       <c r="D28" s="9"/>
@@ -4243,7 +4225,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -4258,7 +4240,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="86"/>
       <c r="D30" s="9"/>
@@ -4273,7 +4255,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="86"/>
       <c r="D31" s="9"/>
@@ -4288,7 +4270,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -4303,7 +4285,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -4318,7 +4300,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -4333,7 +4315,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
@@ -4348,7 +4330,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="9"/>
@@ -4363,7 +4345,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -4378,7 +4360,7 @@
         <v>24</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -4393,7 +4375,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -4408,7 +4390,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -4423,7 +4405,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -4438,7 +4420,7 @@
         <v>24</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="86"/>
       <c r="D42" s="9"/>
@@ -4453,7 +4435,7 @@
         <v>24</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="9"/>
@@ -4468,7 +4450,7 @@
         <v>24</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="9"/>
@@ -4483,7 +4465,7 @@
         <v>24</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -4498,7 +4480,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -4513,7 +4495,7 @@
         <v>24</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -4528,7 +4510,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C48" s="86"/>
       <c r="D48" s="9"/>
@@ -4543,7 +4525,7 @@
         <v>24</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="9"/>
@@ -4558,7 +4540,7 @@
         <v>24</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -4573,7 +4555,7 @@
         <v>24</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -4588,7 +4570,7 @@
         <v>24</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -4603,7 +4585,7 @@
         <v>24</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="9"/>
@@ -4618,7 +4600,7 @@
         <v>24</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -4633,14 +4615,14 @@
         <v>24</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E55" s="87" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="14"/>
@@ -4650,7 +4632,7 @@
     <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -4662,10 +4644,10 @@
     </row>
     <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="9"/>
@@ -4677,10 +4659,10 @@
     </row>
     <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="9"/>
@@ -4692,10 +4674,10 @@
     </row>
     <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="C59" s="86"/>
       <c r="D59" s="9"/>
@@ -4707,10 +4689,10 @@
     </row>
     <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -4722,10 +4704,10 @@
     </row>
     <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C61" s="86"/>
       <c r="D61" s="9"/>
@@ -4737,10 +4719,10 @@
     </row>
     <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="9"/>
@@ -4752,10 +4734,10 @@
     </row>
     <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C63" s="86"/>
       <c r="D63" s="9"/>
@@ -4767,10 +4749,10 @@
     </row>
     <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
@@ -4782,10 +4764,10 @@
     </row>
     <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="9"/>
@@ -4797,10 +4779,10 @@
     </row>
     <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -4812,10 +4794,10 @@
     </row>
     <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -4827,10 +4809,10 @@
     </row>
     <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C68" s="86"/>
       <c r="D68" s="9"/>
@@ -4842,10 +4824,10 @@
     </row>
     <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="9"/>
@@ -4857,10 +4839,10 @@
     </row>
     <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C70" s="86"/>
       <c r="D70" s="9"/>
@@ -4872,10 +4854,10 @@
     </row>
     <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
@@ -4887,10 +4869,10 @@
     </row>
     <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
@@ -4902,10 +4884,10 @@
     </row>
     <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
@@ -4917,10 +4899,10 @@
     </row>
     <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="9"/>
@@ -4932,10 +4914,10 @@
     </row>
     <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
@@ -4947,10 +4929,10 @@
     </row>
     <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C76" s="86"/>
       <c r="D76" s="9"/>
@@ -4962,10 +4944,10 @@
     </row>
     <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C77" s="86"/>
       <c r="D77" s="9"/>
@@ -4977,10 +4959,10 @@
     </row>
     <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C78" s="86"/>
       <c r="D78" s="9"/>
@@ -4992,10 +4974,10 @@
     </row>
     <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="9"/>
@@ -5007,17 +4989,17 @@
     </row>
     <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C80" s="86"/>
       <c r="D80" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E80" s="90" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="14"/>
@@ -5026,10 +5008,10 @@
     </row>
     <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
@@ -5041,10 +5023,10 @@
     </row>
     <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C82" s="86"/>
       <c r="D82" s="9"/>
@@ -5056,10 +5038,10 @@
     </row>
     <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C83" s="86"/>
       <c r="D83" s="9"/>
@@ -5071,10 +5053,10 @@
     </row>
     <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="9"/>
@@ -5086,10 +5068,10 @@
     </row>
     <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
@@ -5101,10 +5083,10 @@
     </row>
     <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="9"/>
@@ -5116,10 +5098,10 @@
     </row>
     <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="9"/>
@@ -5131,10 +5113,10 @@
     </row>
     <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
@@ -5146,10 +5128,10 @@
     </row>
     <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="9"/>
@@ -5161,10 +5143,10 @@
     </row>
     <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C90" s="86"/>
       <c r="D90" s="9"/>
@@ -5176,10 +5158,10 @@
     </row>
     <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="9"/>
@@ -5191,10 +5173,10 @@
     </row>
     <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="9"/>
@@ -5206,10 +5188,10 @@
     </row>
     <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C93" s="86"/>
       <c r="D93" s="9"/>
@@ -5221,10 +5203,10 @@
     </row>
     <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C94" s="86"/>
       <c r="D94" s="9"/>
@@ -5236,10 +5218,10 @@
     </row>
     <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="9"/>
@@ -5251,10 +5233,10 @@
     </row>
     <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="9"/>
@@ -5266,10 +5248,10 @@
     </row>
     <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="9"/>
@@ -5281,10 +5263,10 @@
     </row>
     <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="9"/>
@@ -5296,10 +5278,10 @@
     </row>
     <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="9"/>
@@ -5311,10 +5293,10 @@
     </row>
     <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C100" s="86"/>
       <c r="D100" s="9"/>
@@ -5326,10 +5308,10 @@
     </row>
     <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C101" s="86"/>
       <c r="D101" s="9"/>
@@ -5341,10 +5323,10 @@
     </row>
     <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C102" s="86"/>
       <c r="D102" s="9"/>
@@ -5356,10 +5338,10 @@
     </row>
     <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="9"/>
@@ -5371,10 +5353,10 @@
     </row>
     <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="9"/>
@@ -5386,10 +5368,10 @@
     </row>
     <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="9"/>
@@ -5401,10 +5383,10 @@
     </row>
     <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="9"/>
@@ -5416,10 +5398,10 @@
     </row>
     <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="9"/>
@@ -5431,10 +5413,10 @@
     </row>
     <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="9"/>
@@ -5446,17 +5428,17 @@
     </row>
     <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E109" s="87" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="14"/>
@@ -5465,10 +5447,10 @@
     </row>
     <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="9"/>
@@ -5480,10 +5462,10 @@
     </row>
     <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="9"/>
@@ -5495,10 +5477,10 @@
     </row>
     <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="9"/>
@@ -5511,7 +5493,7 @@
     <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -5523,10 +5505,10 @@
     </row>
     <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="9"/>
@@ -5538,10 +5520,10 @@
     </row>
     <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="9"/>
@@ -5553,10 +5535,10 @@
     </row>
     <row r="116" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="9"/>
@@ -5568,10 +5550,10 @@
     </row>
     <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="9"/>
@@ -5583,10 +5565,10 @@
     </row>
     <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="9"/>
@@ -5598,10 +5580,10 @@
     </row>
     <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="9"/>
@@ -5613,10 +5595,10 @@
     </row>
     <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="9"/>
@@ -5628,10 +5610,10 @@
     </row>
     <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="9"/>
@@ -5643,10 +5625,10 @@
     </row>
     <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="9"/>
@@ -5658,10 +5640,10 @@
     </row>
     <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="9"/>
@@ -5673,10 +5655,10 @@
     </row>
     <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="9"/>
@@ -5688,10 +5670,10 @@
     </row>
     <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="9"/>
@@ -5703,10 +5685,10 @@
     </row>
     <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="9"/>
@@ -5718,10 +5700,10 @@
     </row>
     <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="9"/>
@@ -5733,10 +5715,10 @@
     </row>
     <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="9"/>
@@ -5748,10 +5730,10 @@
     </row>
     <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="9"/>
@@ -5763,10 +5745,10 @@
     </row>
     <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="9"/>
@@ -5778,10 +5760,10 @@
     </row>
     <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="9"/>
@@ -5793,10 +5775,10 @@
     </row>
     <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="9"/>
@@ -5808,10 +5790,10 @@
     </row>
     <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="9"/>
@@ -5823,10 +5805,10 @@
     </row>
     <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="9"/>
@@ -5838,10 +5820,10 @@
     </row>
     <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="9"/>
@@ -5853,10 +5835,10 @@
     </row>
     <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="9"/>
@@ -5868,10 +5850,10 @@
     </row>
     <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="9"/>
@@ -5883,10 +5865,10 @@
     </row>
     <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="9"/>
@@ -5898,10 +5880,10 @@
     </row>
     <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="9"/>
@@ -5913,10 +5895,10 @@
     </row>
     <row r="140" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="9"/>
@@ -5928,10 +5910,10 @@
     </row>
     <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="9"/>
@@ -5943,10 +5925,10 @@
     </row>
     <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="9"/>
@@ -5958,10 +5940,10 @@
     </row>
     <row r="143" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="9"/>
@@ -5973,10 +5955,10 @@
     </row>
     <row r="144" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="9"/>
@@ -5988,10 +5970,10 @@
     </row>
     <row r="145" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="9"/>
@@ -6003,10 +5985,10 @@
     </row>
     <row r="146" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="9"/>
@@ -6018,10 +6000,10 @@
     </row>
     <row r="147" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="9"/>
@@ -6033,10 +6015,10 @@
     </row>
     <row r="148" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="9"/>
@@ -6048,10 +6030,10 @@
     </row>
     <row r="149" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="9"/>
@@ -6063,10 +6045,10 @@
     </row>
     <row r="150" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="9"/>
@@ -6078,10 +6060,10 @@
     </row>
     <row r="151" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="9"/>
@@ -6093,10 +6075,10 @@
     </row>
     <row r="152" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="9"/>
@@ -6108,10 +6090,10 @@
     </row>
     <row r="153" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="9"/>
@@ -6123,17 +6105,17 @@
     </row>
     <row r="154" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E154" s="89" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F154" s="9"/>
       <c r="G154" s="14"/>
@@ -6142,10 +6124,10 @@
     </row>
     <row r="155" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="9"/>
@@ -6157,10 +6139,10 @@
     </row>
     <row r="156" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="9"/>
@@ -6172,10 +6154,10 @@
     </row>
     <row r="157" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="9"/>
@@ -6187,10 +6169,10 @@
     </row>
     <row r="158" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="9"/>
@@ -6202,10 +6184,10 @@
     </row>
     <row r="159" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="9"/>
@@ -6217,10 +6199,10 @@
     </row>
     <row r="160" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="9"/>
@@ -6232,10 +6214,10 @@
     </row>
     <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="9"/>
@@ -6247,10 +6229,10 @@
     </row>
     <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="9"/>
@@ -6262,10 +6244,10 @@
     </row>
     <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="9"/>
@@ -6277,10 +6259,10 @@
     </row>
     <row r="164" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="9"/>
@@ -6292,10 +6274,10 @@
     </row>
     <row r="165" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="9"/>
@@ -6307,10 +6289,10 @@
     </row>
     <row r="166" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="9"/>
@@ -6322,10 +6304,10 @@
     </row>
     <row r="167" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="9"/>
@@ -6337,10 +6319,10 @@
     </row>
     <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C168" s="8"/>
       <c r="D168" s="9"/>
@@ -6352,10 +6334,10 @@
     </row>
     <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="9"/>
@@ -6367,10 +6349,10 @@
     </row>
     <row r="170" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="9"/>
@@ -6382,10 +6364,10 @@
     </row>
     <row r="171" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="9"/>
@@ -6397,10 +6379,10 @@
     </row>
     <row r="172" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="9"/>
@@ -6412,10 +6394,10 @@
     </row>
     <row r="173" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="9"/>
@@ -6427,10 +6409,10 @@
     </row>
     <row r="174" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="9"/>
@@ -6442,10 +6424,10 @@
     </row>
     <row r="175" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="9"/>
@@ -6457,10 +6439,10 @@
     </row>
     <row r="176" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="9"/>
@@ -6472,10 +6454,10 @@
     </row>
     <row r="177" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="9"/>
@@ -6487,17 +6469,17 @@
     </row>
     <row r="178" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E178" s="87" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="14"/>
@@ -6506,10 +6488,10 @@
     </row>
     <row r="179" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C179" s="8"/>
       <c r="D179" s="9"/>
@@ -6521,10 +6503,10 @@
     </row>
     <row r="180" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="9"/>
@@ -6536,10 +6518,10 @@
     </row>
     <row r="181" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="9"/>
@@ -6551,10 +6533,10 @@
     </row>
     <row r="182" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="9"/>
@@ -6566,10 +6548,10 @@
     </row>
     <row r="183" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C183" s="8"/>
       <c r="D183" s="9"/>
@@ -6581,10 +6563,10 @@
     </row>
     <row r="184" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C184" s="8"/>
       <c r="D184" s="9"/>
@@ -6596,10 +6578,10 @@
     </row>
     <row r="185" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="9"/>
@@ -6611,10 +6593,10 @@
     </row>
     <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C186" s="8"/>
       <c r="D186" s="9"/>
@@ -6626,10 +6608,10 @@
     </row>
     <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="9"/>
@@ -6641,10 +6623,10 @@
     </row>
     <row r="188" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C188" s="8"/>
       <c r="D188" s="9"/>
@@ -6656,17 +6638,17 @@
     </row>
     <row r="189" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E189" s="89" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="F189" s="9"/>
       <c r="G189" s="14"/>
@@ -6675,10 +6657,10 @@
     </row>
     <row r="190" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C190" s="8"/>
       <c r="D190" s="9"/>
@@ -6690,10 +6672,10 @@
     </row>
     <row r="191" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C191" s="8"/>
       <c r="D191" s="9"/>
@@ -6705,10 +6687,10 @@
     </row>
     <row r="192" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="9"/>
@@ -6720,10 +6702,10 @@
     </row>
     <row r="193" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C193" s="8"/>
       <c r="D193" s="9"/>
@@ -6735,10 +6717,10 @@
     </row>
     <row r="194" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C194" s="8"/>
       <c r="D194" s="9"/>
@@ -6750,10 +6732,10 @@
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C195" s="8"/>
       <c r="D195" s="9"/>
@@ -6765,10 +6747,10 @@
     </row>
     <row r="196" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C196" s="8"/>
       <c r="D196" s="9"/>
@@ -6780,10 +6762,10 @@
     </row>
     <row r="197" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C197" s="8"/>
       <c r="D197" s="9"/>
@@ -6795,10 +6777,10 @@
     </row>
     <row r="198" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="9"/>
@@ -6810,10 +6792,10 @@
     </row>
     <row r="199" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C199" s="8"/>
       <c r="D199" s="9"/>
@@ -6825,10 +6807,10 @@
     </row>
     <row r="200" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C200" s="8"/>
       <c r="D200" s="9"/>
@@ -6840,10 +6822,10 @@
     </row>
     <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C201" s="8"/>
       <c r="D201" s="9"/>
@@ -6855,10 +6837,10 @@
     </row>
     <row r="202" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C202" s="8"/>
       <c r="D202" s="9"/>
@@ -6870,10 +6852,10 @@
     </row>
     <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C203" s="87"/>
       <c r="D203" s="9"/>
@@ -6885,10 +6867,10 @@
     </row>
     <row r="204" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C204" s="8"/>
       <c r="D204" s="9"/>
@@ -6900,10 +6882,10 @@
     </row>
     <row r="205" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C205" s="8"/>
       <c r="D205" s="9"/>
@@ -6915,10 +6897,10 @@
     </row>
     <row r="206" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C206" s="8"/>
       <c r="D206" s="9"/>
@@ -6930,10 +6912,10 @@
     </row>
     <row r="207" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C207" s="8"/>
       <c r="D207" s="9"/>
@@ -6945,10 +6927,10 @@
     </row>
     <row r="208" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C208" s="8"/>
       <c r="D208" s="9"/>
@@ -6960,10 +6942,10 @@
     </row>
     <row r="209" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="9"/>
@@ -6975,10 +6957,10 @@
     </row>
     <row r="210" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C210" s="8"/>
       <c r="D210" s="9"/>
@@ -6990,17 +6972,17 @@
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C211" s="8"/>
       <c r="D211" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E211" s="87" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F211" s="9"/>
       <c r="G211" s="14"/>
@@ -7009,10 +6991,10 @@
     </row>
     <row r="212" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C212" s="8"/>
       <c r="D212" s="9"/>
@@ -7024,10 +7006,10 @@
     </row>
     <row r="213" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C213" s="8"/>
       <c r="D213" s="9"/>
@@ -7039,10 +7021,10 @@
     </row>
     <row r="214" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C214" s="87"/>
       <c r="D214" s="9"/>
@@ -7053,10 +7035,10 @@
     </row>
     <row r="215" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C215" s="8"/>
       <c r="D215" s="9"/>
@@ -7068,10 +7050,10 @@
     </row>
     <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C216" s="8"/>
       <c r="D216" s="9"/>
@@ -7083,10 +7065,10 @@
     </row>
     <row r="217" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C217" s="8"/>
       <c r="D217" s="9"/>
@@ -7098,10 +7080,10 @@
     </row>
     <row r="218" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C218" s="8"/>
       <c r="D218" s="9"/>
@@ -7113,10 +7095,10 @@
     </row>
     <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C219" s="8"/>
       <c r="D219" s="9"/>
@@ -7128,10 +7110,10 @@
     </row>
     <row r="220" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="9"/>
@@ -7143,10 +7125,10 @@
     </row>
     <row r="221" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C221" s="8"/>
       <c r="D221" s="9"/>
@@ -7158,10 +7140,10 @@
     </row>
     <row r="222" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C222" s="8"/>
       <c r="D222" s="9"/>
@@ -7173,10 +7155,10 @@
     </row>
     <row r="223" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C223" s="8"/>
       <c r="D223" s="9"/>
@@ -7188,10 +7170,10 @@
     </row>
     <row r="224" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C224" s="8"/>
       <c r="D224" s="9"/>
@@ -7203,10 +7185,10 @@
     </row>
     <row r="225" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C225" s="8"/>
       <c r="D225" s="9"/>
@@ -7218,10 +7200,10 @@
     </row>
     <row r="226" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C226" s="8"/>
       <c r="D226" s="9"/>
@@ -7233,10 +7215,10 @@
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C227" s="8"/>
       <c r="D227" s="9"/>
@@ -7248,10 +7230,10 @@
     </row>
     <row r="228" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C228" s="8"/>
       <c r="D228" s="9"/>
@@ -7263,10 +7245,10 @@
     </row>
     <row r="229" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C229" s="8"/>
       <c r="D229" s="9"/>
@@ -7278,10 +7260,10 @@
     </row>
     <row r="230" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C230" s="8"/>
       <c r="D230" s="9"/>
@@ -7293,17 +7275,17 @@
     </row>
     <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E231" s="90" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="14"/>
@@ -7312,17 +7294,17 @@
     </row>
     <row r="232" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E232" s="90" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="14"/>
@@ -7331,10 +7313,10 @@
     </row>
     <row r="233" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C233" s="8"/>
       <c r="D233" s="9"/>
@@ -7346,10 +7328,10 @@
     </row>
     <row r="234" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="9"/>
@@ -7361,10 +7343,10 @@
     </row>
     <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C235" s="8"/>
       <c r="D235" s="9"/>
@@ -7376,10 +7358,10 @@
     </row>
     <row r="236" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C236" s="8"/>
       <c r="D236" s="9"/>
@@ -7391,10 +7373,10 @@
     </row>
     <row r="237" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C237" s="8"/>
       <c r="D237" s="9"/>
@@ -7406,10 +7388,10 @@
     </row>
     <row r="238" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C238" s="8"/>
       <c r="D238" s="9"/>
@@ -7421,10 +7403,10 @@
     </row>
     <row r="239" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C239" s="8"/>
       <c r="D239" s="9"/>
@@ -7436,10 +7418,10 @@
     </row>
     <row r="240" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C240" s="8"/>
       <c r="D240" s="9"/>
@@ -7451,10 +7433,10 @@
     </row>
     <row r="241" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="9"/>
@@ -7466,10 +7448,10 @@
     </row>
     <row r="242" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C242" s="8"/>
       <c r="D242" s="9"/>
@@ -7481,10 +7463,10 @@
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C243" s="8"/>
       <c r="D243" s="9"/>
@@ -7496,10 +7478,10 @@
     </row>
     <row r="244" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C244" s="8"/>
       <c r="D244" s="9"/>
@@ -7511,10 +7493,10 @@
     </row>
     <row r="245" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C245" s="8"/>
       <c r="D245" s="9"/>
@@ -7526,10 +7508,10 @@
     </row>
     <row r="246" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C246" s="8"/>
       <c r="D246" s="9"/>
@@ -7541,17 +7523,17 @@
     </row>
     <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C247" s="8"/>
       <c r="D247" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E247" s="89" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="14"/>
@@ -7560,17 +7542,17 @@
     </row>
     <row r="248" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E248" s="87" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="14"/>
@@ -7579,17 +7561,17 @@
     </row>
     <row r="249" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C249" s="8"/>
       <c r="D249" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E249" s="90" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="14"/>
@@ -7598,10 +7580,10 @@
     </row>
     <row r="250" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C250" s="8"/>
       <c r="D250" s="9"/>
@@ -7613,10 +7595,10 @@
     </row>
     <row r="251" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C251" s="8"/>
       <c r="D251" s="9"/>
@@ -7628,10 +7610,10 @@
     </row>
     <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C252" s="8"/>
       <c r="D252" s="9"/>
@@ -7643,10 +7625,10 @@
     </row>
     <row r="253" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C253" s="8"/>
       <c r="D253" s="9"/>
@@ -7658,10 +7640,10 @@
     </row>
     <row r="254" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C254" s="8"/>
       <c r="D254" s="9"/>
@@ -7673,10 +7655,10 @@
     </row>
     <row r="255" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C255" s="8"/>
       <c r="D255" s="9"/>
@@ -7688,10 +7670,10 @@
     </row>
     <row r="256" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C256" s="8"/>
       <c r="D256" s="9"/>
@@ -7703,10 +7685,10 @@
     </row>
     <row r="257" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C257" s="8"/>
       <c r="D257" s="9"/>
@@ -7718,10 +7700,10 @@
     </row>
     <row r="258" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C258" s="8"/>
       <c r="D258" s="9"/>
@@ -7733,10 +7715,10 @@
     </row>
     <row r="259" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C259" s="8"/>
       <c r="D259" s="9"/>
@@ -7748,17 +7730,17 @@
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C260" s="8"/>
       <c r="D260" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E260" s="87" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F260" s="9"/>
       <c r="G260" s="14"/>
@@ -7767,10 +7749,10 @@
     </row>
     <row r="261" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C261" s="8"/>
       <c r="D261" s="9"/>
@@ -7782,17 +7764,17 @@
     </row>
     <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E262" s="87" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F262" s="9"/>
       <c r="G262" s="14"/>
@@ -7801,10 +7783,10 @@
     </row>
     <row r="263" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C263" s="8"/>
       <c r="D263" s="9"/>
@@ -7816,10 +7798,10 @@
     </row>
     <row r="264" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C264" s="8"/>
       <c r="D264" s="9"/>
@@ -7831,10 +7813,10 @@
     </row>
     <row r="265" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C265" s="8"/>
       <c r="D265" s="9"/>
@@ -7846,10 +7828,10 @@
     </row>
     <row r="266" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C266" s="8"/>
       <c r="D266" s="9"/>
@@ -7861,17 +7843,17 @@
     </row>
     <row r="267" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C267" s="8"/>
       <c r="D267" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E267" s="89" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F267" s="9"/>
       <c r="G267" s="14"/>
@@ -7880,10 +7862,10 @@
     </row>
     <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C268" s="8"/>
       <c r="D268" s="9"/>
@@ -7895,10 +7877,10 @@
     </row>
     <row r="269" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C269" s="8"/>
       <c r="D269" s="9"/>
@@ -7910,10 +7892,10 @@
     </row>
     <row r="270" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C270" s="8"/>
       <c r="D270" s="9"/>
@@ -7925,10 +7907,10 @@
     </row>
     <row r="271" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C271" s="8"/>
       <c r="D271" s="9"/>
@@ -7940,10 +7922,10 @@
     </row>
     <row r="272" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C272" s="8"/>
       <c r="D272" s="9"/>
@@ -7955,10 +7937,10 @@
     </row>
     <row r="273" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C273" s="8"/>
       <c r="D273" s="9"/>
@@ -7970,17 +7952,17 @@
     </row>
     <row r="274" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C274" s="8"/>
       <c r="D274" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E274" s="87" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F274" s="9"/>
       <c r="G274" s="14"/>
@@ -7989,10 +7971,10 @@
     </row>
     <row r="275" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C275" s="8"/>
       <c r="D275" s="9"/>
@@ -8004,10 +7986,10 @@
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C276" s="8"/>
       <c r="D276" s="9"/>
@@ -8019,10 +8001,10 @@
     </row>
     <row r="277" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C277" s="8"/>
       <c r="D277" s="9"/>
@@ -8034,10 +8016,10 @@
     </row>
     <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C278" s="8"/>
       <c r="D278" s="9"/>
@@ -8050,7 +8032,7 @@
     <row r="279" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="7"/>
       <c r="B279" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
@@ -8062,10 +8044,10 @@
     </row>
     <row r="280" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C280" s="10"/>
       <c r="D280" s="9"/>
@@ -8077,10 +8059,10 @@
     </row>
     <row r="281" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B281" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="C281" s="8"/>
       <c r="D281" s="9"/>
@@ -8092,10 +8074,10 @@
     </row>
     <row r="282" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C282" s="8"/>
       <c r="D282" s="9"/>
@@ -8107,10 +8089,10 @@
     </row>
     <row r="283" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C283" s="8"/>
       <c r="D283" s="9"/>
@@ -8122,10 +8104,10 @@
     </row>
     <row r="284" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C284" s="8"/>
       <c r="D284" s="9"/>
@@ -8137,10 +8119,10 @@
     </row>
     <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C285" s="8"/>
       <c r="D285" s="9"/>
@@ -8152,10 +8134,10 @@
     </row>
     <row r="286" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C286" s="8"/>
       <c r="D286" s="9"/>
@@ -8167,10 +8149,10 @@
     </row>
     <row r="287" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C287" s="8"/>
       <c r="D287" s="9"/>
@@ -8182,10 +8164,10 @@
     </row>
     <row r="288" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C288" s="8"/>
       <c r="D288" s="9"/>
@@ -8197,10 +8179,10 @@
     </row>
     <row r="289" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C289" s="8"/>
       <c r="D289" s="9"/>
@@ -8212,10 +8194,10 @@
     </row>
     <row r="290" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C290" s="8"/>
       <c r="D290" s="9"/>
@@ -8227,10 +8209,10 @@
     </row>
     <row r="291" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C291" s="8"/>
       <c r="D291" s="9"/>
@@ -8242,10 +8224,10 @@
     </row>
     <row r="292" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C292" s="8"/>
       <c r="D292" s="9"/>
@@ -8257,10 +8239,10 @@
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C293" s="8"/>
       <c r="D293" s="9"/>
@@ -8272,10 +8254,10 @@
     </row>
     <row r="294" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C294" s="8"/>
       <c r="D294" s="9"/>
@@ -8287,17 +8269,17 @@
     </row>
     <row r="295" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C295" s="8"/>
       <c r="D295" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E295" s="90" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="F295" s="9"/>
       <c r="G295" s="14"/>
@@ -8306,17 +8288,17 @@
     </row>
     <row r="296" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C296" s="8"/>
       <c r="D296" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E296" s="87" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F296" s="9"/>
       <c r="G296" s="14"/>
@@ -8325,10 +8307,10 @@
     </row>
     <row r="297" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C297" s="87"/>
       <c r="D297" s="9"/>
@@ -8340,17 +8322,17 @@
     </row>
     <row r="298" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C298" s="8"/>
       <c r="D298" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E298" s="87" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F298" s="9"/>
       <c r="G298" s="14"/>
@@ -8359,10 +8341,10 @@
     </row>
     <row r="299" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C299" s="8"/>
       <c r="D299" s="9"/>
@@ -8374,10 +8356,10 @@
     </row>
     <row r="300" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C300" s="8"/>
       <c r="D300" s="9"/>
@@ -8389,10 +8371,10 @@
     </row>
     <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C301" s="8"/>
       <c r="D301" s="9"/>
@@ -8404,10 +8386,10 @@
     </row>
     <row r="302" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C302" s="8"/>
       <c r="D302" s="9"/>
@@ -8419,10 +8401,10 @@
     </row>
     <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C303" s="8"/>
       <c r="D303" s="9"/>
@@ -8434,17 +8416,17 @@
     </row>
     <row r="304" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E304" s="90" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="F304" s="9"/>
       <c r="G304" s="14"/>
@@ -8453,10 +8435,10 @@
     </row>
     <row r="305" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C305" s="8"/>
       <c r="D305" s="9"/>
@@ -8468,10 +8450,10 @@
     </row>
     <row r="306" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C306" s="8"/>
       <c r="D306" s="9"/>
@@ -8483,14 +8465,14 @@
     </row>
     <row r="307" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C307" s="8"/>
       <c r="D307" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E307" s="87"/>
       <c r="F307" s="9"/>
@@ -8500,10 +8482,10 @@
     </row>
     <row r="308" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="9"/>
@@ -8515,17 +8497,17 @@
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C309" s="8"/>
       <c r="D309" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E309" s="90" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F309" s="9"/>
       <c r="G309" s="14"/>
@@ -8534,10 +8516,10 @@
     </row>
     <row r="310" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C310" s="8"/>
       <c r="D310" s="9"/>
@@ -8549,10 +8531,10 @@
     </row>
     <row r="311" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C311" s="8"/>
       <c r="D311" s="9"/>
@@ -8564,10 +8546,10 @@
     </row>
     <row r="312" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C312" s="8"/>
       <c r="D312" s="9"/>
@@ -8579,10 +8561,10 @@
     </row>
     <row r="313" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C313" s="8"/>
       <c r="D313" s="9"/>
@@ -8595,7 +8577,7 @@
     <row r="314" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>
       <c r="B314" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
@@ -8607,10 +8589,10 @@
     </row>
     <row r="315" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C315" s="10"/>
       <c r="D315" s="9"/>
@@ -8622,14 +8604,12 @@
     </row>
     <row r="316" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C316" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C316" s="8"/>
       <c r="D316" s="9"/>
       <c r="E316" s="87"/>
       <c r="F316" s="9"/>
@@ -8639,14 +8619,12 @@
     </row>
     <row r="317" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B317" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B317" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C317" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="C317" s="8"/>
       <c r="D317" s="9"/>
       <c r="E317" s="87"/>
       <c r="F317" s="9"/>
@@ -8656,14 +8634,12 @@
     </row>
     <row r="318" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C318" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C318" s="8"/>
       <c r="D318" s="9"/>
       <c r="E318" s="87"/>
       <c r="F318" s="9"/>
@@ -8673,14 +8649,12 @@
     </row>
     <row r="319" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C319" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C319" s="8"/>
       <c r="D319" s="9"/>
       <c r="E319" s="87"/>
       <c r="F319" s="9"/>
@@ -8690,18 +8664,14 @@
     </row>
     <row r="320" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C320" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C320" s="8"/>
       <c r="D320" s="9"/>
-      <c r="E320" s="87" t="s">
-        <v>635</v>
-      </c>
+      <c r="E320" s="87"/>
       <c r="F320" s="9"/>
       <c r="G320" s="14"/>
       <c r="H320" s="14"/>
@@ -8709,14 +8679,12 @@
     </row>
     <row r="321" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C321" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C321" s="8"/>
       <c r="D321" s="9"/>
       <c r="E321" s="87"/>
       <c r="F321" s="9"/>
@@ -8726,14 +8694,12 @@
     </row>
     <row r="322" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C322" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C322" s="8"/>
       <c r="D322" s="9"/>
       <c r="E322" s="87"/>
       <c r="F322" s="9"/>
@@ -8743,14 +8709,12 @@
     </row>
     <row r="323" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C323" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C323" s="8"/>
       <c r="D323" s="9"/>
       <c r="E323" s="87"/>
       <c r="F323" s="9"/>
@@ -8760,17 +8724,17 @@
     </row>
     <row r="324" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C324" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D324" s="9"/>
-      <c r="E324" s="87" t="s">
-        <v>647</v>
+        <v>366</v>
+      </c>
+      <c r="C324" s="8"/>
+      <c r="D324" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="E324" s="90" t="s">
+        <v>660</v>
       </c>
       <c r="F324" s="9"/>
       <c r="G324" s="14"/>
@@ -8779,14 +8743,12 @@
     </row>
     <row r="325" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C325" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C325" s="8"/>
       <c r="D325" s="9"/>
       <c r="E325" s="87"/>
       <c r="F325" s="9"/>
@@ -8796,10 +8758,10 @@
     </row>
     <row r="326" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C326" s="10"/>
       <c r="D326" s="9"/>
@@ -8811,14 +8773,12 @@
     </row>
     <row r="327" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C327" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C327" s="8"/>
       <c r="D327" s="9"/>
       <c r="E327" s="87"/>
       <c r="F327" s="9"/>
@@ -8828,14 +8788,12 @@
     </row>
     <row r="328" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C328" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C328" s="8"/>
       <c r="D328" s="9"/>
       <c r="E328" s="87"/>
       <c r="F328" s="9"/>
@@ -8845,14 +8803,12 @@
     </row>
     <row r="329" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C329" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C329" s="9"/>
       <c r="D329" s="9"/>
       <c r="E329" s="87"/>
       <c r="F329" s="9"/>
@@ -8862,16 +8818,18 @@
     </row>
     <row r="330" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C330" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D330" s="9"/>
-      <c r="E330" s="87"/>
+        <v>372</v>
+      </c>
+      <c r="C330" s="8"/>
+      <c r="D330" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="E330" s="90" t="s">
+        <v>661</v>
+      </c>
       <c r="F330" s="9"/>
       <c r="G330" s="14"/>
       <c r="H330" s="14"/>
@@ -8879,18 +8837,14 @@
     </row>
     <row r="331" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C331" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C331" s="8"/>
       <c r="D331" s="9"/>
-      <c r="E331" s="87" t="s">
-        <v>648</v>
-      </c>
+      <c r="E331" s="87"/>
       <c r="F331" s="8"/>
       <c r="G331" s="14"/>
       <c r="H331" s="14"/>
@@ -8898,14 +8852,12 @@
     </row>
     <row r="332" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C332" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C332" s="8"/>
       <c r="D332" s="9"/>
       <c r="E332" s="87"/>
       <c r="F332" s="9"/>
@@ -8915,14 +8867,12 @@
     </row>
     <row r="333" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C333" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C333" s="8"/>
       <c r="D333" s="9"/>
       <c r="E333" s="87"/>
       <c r="F333" s="9"/>
@@ -8932,14 +8882,12 @@
     </row>
     <row r="334" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C334" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C334" s="8"/>
       <c r="D334" s="9"/>
       <c r="E334" s="87"/>
       <c r="F334" s="9"/>
@@ -8949,10 +8897,10 @@
     </row>
     <row r="335" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C335" s="8"/>
       <c r="D335" s="9"/>
@@ -8964,14 +8912,12 @@
     </row>
     <row r="336" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C336" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C336" s="8"/>
       <c r="D336" s="9"/>
       <c r="E336" s="87"/>
       <c r="F336" s="9"/>
@@ -8981,18 +8927,14 @@
     </row>
     <row r="337" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C337" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C337" s="8"/>
       <c r="D337" s="9"/>
-      <c r="E337" s="87" t="s">
-        <v>637</v>
-      </c>
+      <c r="E337" s="87"/>
       <c r="F337" s="9"/>
       <c r="G337" s="14"/>
       <c r="H337" s="14"/>
@@ -9000,18 +8942,14 @@
     </row>
     <row r="338" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C338" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C338" s="8"/>
       <c r="D338" s="9"/>
-      <c r="E338" s="87" t="s">
-        <v>626</v>
-      </c>
+      <c r="E338" s="87"/>
       <c r="F338" s="9"/>
       <c r="G338" s="14"/>
       <c r="H338" s="14"/>
@@ -9019,10 +8957,10 @@
     </row>
     <row r="339" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C339" s="87"/>
       <c r="D339" s="9"/>
@@ -9034,14 +8972,12 @@
     </row>
     <row r="340" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C340" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C340" s="8"/>
       <c r="D340" s="9"/>
       <c r="E340" s="87"/>
       <c r="F340" s="9"/>
@@ -9051,14 +8987,12 @@
     </row>
     <row r="341" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C341" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C341" s="8"/>
       <c r="D341" s="9"/>
       <c r="E341" s="87"/>
       <c r="F341" s="9"/>
@@ -9068,14 +9002,12 @@
     </row>
     <row r="342" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C342" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C342" s="8"/>
       <c r="D342" s="9"/>
       <c r="E342" s="87"/>
       <c r="F342" s="9"/>
@@ -9085,14 +9017,12 @@
     </row>
     <row r="343" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C343" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C343" s="8"/>
       <c r="D343" s="9"/>
       <c r="E343" s="87"/>
       <c r="F343" s="9"/>
@@ -9102,14 +9032,12 @@
     </row>
     <row r="344" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C344" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C344" s="8"/>
       <c r="D344" s="9"/>
       <c r="E344" s="87"/>
       <c r="F344" s="9"/>
@@ -9119,17 +9047,17 @@
     </row>
     <row r="345" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D345" s="9"/>
       <c r="E345" s="87" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F345" s="9"/>
       <c r="G345" s="14"/>
@@ -9138,14 +9066,12 @@
     </row>
     <row r="346" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C346" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C346" s="8"/>
       <c r="D346" s="9"/>
       <c r="E346" s="87"/>
       <c r="F346" s="9"/>
@@ -9155,14 +9081,12 @@
     </row>
     <row r="347" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C347" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="C347" s="8"/>
       <c r="D347" s="9"/>
       <c r="E347" s="87"/>
       <c r="F347" s="9"/>
@@ -9172,14 +9096,12 @@
     </row>
     <row r="348" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C348" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C348" s="8"/>
       <c r="D348" s="9"/>
       <c r="E348" s="87"/>
       <c r="F348" s="9"/>
@@ -9189,13 +9111,13 @@
     </row>
     <row r="349" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D349" s="9"/>
       <c r="E349" s="87"/>
@@ -9207,7 +9129,7 @@
     <row r="350" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="11"/>
       <c r="B350" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
@@ -9219,10 +9141,10 @@
     </row>
     <row r="351" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C351" s="10"/>
       <c r="D351" s="9"/>
@@ -9234,10 +9156,10 @@
     </row>
     <row r="352" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C352" s="10"/>
       <c r="D352" s="9"/>
@@ -9249,14 +9171,12 @@
     </row>
     <row r="353" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B353" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B353" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C353" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="C353" s="8"/>
       <c r="D353" s="9"/>
       <c r="E353" s="87"/>
       <c r="F353" s="9"/>
@@ -9266,14 +9186,12 @@
     </row>
     <row r="354" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C354" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C354" s="8"/>
       <c r="D354" s="9"/>
       <c r="E354" s="87"/>
       <c r="F354" s="9"/>
@@ -9283,14 +9201,12 @@
     </row>
     <row r="355" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C355" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C355" s="8"/>
       <c r="D355" s="9"/>
       <c r="E355" s="87"/>
       <c r="F355" s="9"/>
@@ -9300,17 +9216,17 @@
     </row>
     <row r="356" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D356" s="9"/>
       <c r="E356" s="87" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F356" s="9"/>
       <c r="G356" s="14"/>
@@ -9319,17 +9235,17 @@
     </row>
     <row r="357" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D357" s="9"/>
       <c r="E357" s="87" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F357" s="9"/>
       <c r="G357" s="14"/>
@@ -9338,14 +9254,12 @@
     </row>
     <row r="358" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C358" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C358" s="8"/>
       <c r="D358" s="9"/>
       <c r="E358" s="87"/>
       <c r="F358" s="9"/>
@@ -9355,14 +9269,12 @@
     </row>
     <row r="359" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C359" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C359" s="8"/>
       <c r="D359" s="9"/>
       <c r="E359" s="87"/>
       <c r="F359" s="9"/>
@@ -9372,14 +9284,12 @@
     </row>
     <row r="360" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C360" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C360" s="8"/>
       <c r="D360" s="9"/>
       <c r="E360" s="87"/>
       <c r="F360" s="9"/>
@@ -9389,10 +9299,10 @@
     </row>
     <row r="361" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C361" s="87"/>
       <c r="D361" s="9"/>
@@ -9404,10 +9314,10 @@
     </row>
     <row r="362" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C362" s="87"/>
       <c r="D362" s="9"/>
@@ -9419,17 +9329,17 @@
     </row>
     <row r="363" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D363" s="9"/>
       <c r="E363" s="87" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F363" s="9"/>
       <c r="G363" s="14"/>
@@ -9438,13 +9348,13 @@
     </row>
     <row r="364" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D364" s="9"/>
       <c r="E364" s="87"/>
@@ -9455,13 +9365,13 @@
     </row>
     <row r="365" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D365" s="9"/>
       <c r="E365" s="87"/>
@@ -9472,17 +9382,17 @@
     </row>
     <row r="366" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D366" s="9"/>
       <c r="E366" s="87" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F366" s="9"/>
       <c r="G366" s="14"/>
@@ -9491,14 +9401,12 @@
     </row>
     <row r="367" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C367" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C367" s="8"/>
       <c r="D367" s="9"/>
       <c r="E367" s="87"/>
       <c r="F367" s="9"/>
@@ -9508,17 +9416,17 @@
     </row>
     <row r="368" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D368" s="9"/>
       <c r="E368" s="87" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F368" s="9"/>
       <c r="G368" s="14"/>
@@ -9527,13 +9435,13 @@
     </row>
     <row r="369" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D369" s="9"/>
       <c r="E369" s="87"/>
@@ -9544,13 +9452,13 @@
     </row>
     <row r="370" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D370" s="9"/>
       <c r="E370" s="87"/>
@@ -9561,13 +9469,13 @@
     </row>
     <row r="371" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D371" s="9"/>
       <c r="E371" s="87"/>
@@ -9578,10 +9486,10 @@
     </row>
     <row r="372" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C372" s="87"/>
       <c r="D372" s="9"/>
@@ -9593,13 +9501,13 @@
     </row>
     <row r="373" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D373" s="9"/>
       <c r="E373" s="87"/>
@@ -9610,13 +9518,13 @@
     </row>
     <row r="374" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D374" s="9"/>
       <c r="E374" s="87"/>
@@ -9627,10 +9535,10 @@
     </row>
     <row r="375" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="9"/>
@@ -9642,14 +9550,12 @@
     </row>
     <row r="376" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C376" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C376" s="8"/>
       <c r="D376" s="9"/>
       <c r="E376" s="87"/>
       <c r="F376" s="9"/>
@@ -9659,14 +9565,12 @@
     </row>
     <row r="377" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C377" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C377" s="8"/>
       <c r="D377" s="9"/>
       <c r="E377" s="87"/>
       <c r="F377" s="9"/>
@@ -9676,14 +9580,12 @@
     </row>
     <row r="378" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C378" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C378" s="8"/>
       <c r="D378" s="9"/>
       <c r="E378" s="87"/>
       <c r="F378" s="9"/>
@@ -9693,10 +9595,10 @@
     </row>
     <row r="379" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C379" s="8"/>
       <c r="D379" s="9"/>
@@ -9708,17 +9610,17 @@
     </row>
     <row r="380" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D380" s="9"/>
       <c r="E380" s="87" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F380" s="9"/>
       <c r="G380" s="14"/>
@@ -9727,13 +9629,13 @@
     </row>
     <row r="381" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D381" s="9"/>
       <c r="E381" s="87"/>
@@ -9744,10 +9646,10 @@
     </row>
     <row r="382" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C382" s="8"/>
       <c r="D382" s="9"/>
@@ -9759,14 +9661,12 @@
     </row>
     <row r="383" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C383" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="C383" s="8"/>
       <c r="D383" s="9"/>
       <c r="E383" s="87"/>
       <c r="F383" s="9"/>
@@ -9776,14 +9676,12 @@
     </row>
     <row r="384" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C384" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="C384" s="8"/>
       <c r="D384" s="9"/>
       <c r="E384" s="87"/>
       <c r="F384" s="9"/>
@@ -9793,14 +9691,12 @@
     </row>
     <row r="385" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C385" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C385" s="8"/>
       <c r="D385" s="9"/>
       <c r="E385" s="87"/>
       <c r="F385" s="9"/>
@@ -9810,13 +9706,13 @@
     </row>
     <row r="386" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D386" s="9"/>
       <c r="E386" s="87"/>
@@ -9827,13 +9723,13 @@
     </row>
     <row r="387" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D387" s="9"/>
       <c r="E387" s="87"/>
@@ -9844,13 +9740,13 @@
     </row>
     <row r="388" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D388" s="9"/>
       <c r="E388" s="87"/>
@@ -9861,14 +9757,12 @@
     </row>
     <row r="389" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C389" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C389" s="8"/>
       <c r="D389" s="9"/>
       <c r="E389" s="87"/>
       <c r="F389" s="9"/>
@@ -9878,17 +9772,17 @@
     </row>
     <row r="390" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D390" s="9"/>
       <c r="E390" s="87" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F390" s="9"/>
       <c r="G390" s="14"/>
@@ -9897,14 +9791,12 @@
     </row>
     <row r="391" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C391" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C391" s="9"/>
       <c r="D391" s="9"/>
       <c r="E391" s="87"/>
       <c r="F391" s="9"/>
@@ -9914,10 +9806,10 @@
     </row>
     <row r="392" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C392" s="87"/>
       <c r="D392" s="9"/>
@@ -9929,17 +9821,17 @@
     </row>
     <row r="393" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D393" s="9"/>
       <c r="E393" s="87" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F393" s="9"/>
       <c r="G393" s="14"/>
@@ -9948,17 +9840,17 @@
     </row>
     <row r="394" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C394" s="86" t="s">
-        <v>84</v>
+        <v>437</v>
+      </c>
+      <c r="C394" s="9" t="s">
+        <v>652</v>
       </c>
       <c r="D394" s="9"/>
       <c r="E394" s="87" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F394" s="9"/>
       <c r="G394" s="14"/>
@@ -9967,10 +9859,10 @@
     </row>
     <row r="395" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C395" s="10"/>
       <c r="D395" s="9"/>
@@ -9982,17 +9874,17 @@
     </row>
     <row r="396" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D396" s="9"/>
       <c r="E396" s="87" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F396" s="9"/>
       <c r="G396" s="14"/>
@@ -10001,13 +9893,13 @@
     </row>
     <row r="397" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D397" s="9"/>
       <c r="E397" s="87"/>
@@ -10017,14 +9909,12 @@
     </row>
     <row r="398" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C398" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="C398" s="8"/>
       <c r="D398" s="9"/>
       <c r="E398" s="87"/>
       <c r="F398" s="9"/>
@@ -10034,14 +9924,12 @@
     </row>
     <row r="399" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C399" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="C399" s="8"/>
       <c r="D399" s="9"/>
       <c r="E399" s="87"/>
       <c r="F399" s="9"/>
@@ -10051,14 +9939,12 @@
     </row>
     <row r="400" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C400" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C400" s="8"/>
       <c r="D400" s="9"/>
       <c r="E400" s="87"/>
       <c r="F400" s="9"/>
@@ -10068,10 +9954,10 @@
     </row>
     <row r="401" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C401" s="10"/>
       <c r="D401" s="9"/>
@@ -10083,17 +9969,17 @@
     </row>
     <row r="402" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D402" s="9"/>
       <c r="E402" s="87" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F402" s="9"/>
       <c r="G402" s="14"/>
@@ -10102,14 +9988,12 @@
     </row>
     <row r="403" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="C403" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C403" s="8"/>
       <c r="D403" s="9"/>
       <c r="E403" s="87"/>
       <c r="F403" s="9"/>
@@ -10119,17 +10003,17 @@
     </row>
     <row r="404" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D404" s="9"/>
       <c r="E404" s="87" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F404" s="9"/>
       <c r="G404" s="14"/>
@@ -10138,14 +10022,12 @@
     </row>
     <row r="405" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C405" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="C405" s="8"/>
       <c r="D405" s="9"/>
       <c r="E405" s="87"/>
       <c r="F405" s="9"/>
@@ -10155,17 +10037,17 @@
     </row>
     <row r="406" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D406" s="9"/>
       <c r="E406" s="87" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F406" s="9"/>
       <c r="G406" s="14"/>
@@ -10174,10 +10056,10 @@
     </row>
     <row r="407" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C407" s="8"/>
       <c r="D407" s="9"/>
@@ -10189,14 +10071,12 @@
     </row>
     <row r="408" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C408" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C408" s="8"/>
       <c r="D408" s="9"/>
       <c r="E408" s="87"/>
       <c r="F408" s="9"/>
@@ -10206,14 +10086,12 @@
     </row>
     <row r="409" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="C409" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C409" s="8"/>
       <c r="D409" s="9"/>
       <c r="E409" s="87"/>
       <c r="F409" s="9"/>
@@ -10224,7 +10102,7 @@
     <row r="410" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="11"/>
       <c r="B410" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
@@ -10236,10 +10114,10 @@
     </row>
     <row r="411" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C411" s="8"/>
       <c r="D411" s="9"/>
@@ -10251,14 +10129,12 @@
     </row>
     <row r="412" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C412" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C412" s="8"/>
       <c r="D412" s="9"/>
       <c r="E412" s="87"/>
       <c r="F412" s="9"/>
@@ -10268,14 +10144,12 @@
     </row>
     <row r="413" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B413" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B413" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C413" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="C413" s="8"/>
       <c r="D413" s="9"/>
       <c r="E413" s="87"/>
       <c r="F413" s="9"/>
@@ -10285,14 +10159,12 @@
     </row>
     <row r="414" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C414" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C414" s="8"/>
       <c r="D414" s="9"/>
       <c r="E414" s="87"/>
       <c r="F414" s="9"/>
@@ -10302,14 +10174,12 @@
     </row>
     <row r="415" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="C415" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C415" s="8"/>
       <c r="D415" s="9"/>
       <c r="E415" s="87"/>
       <c r="F415" s="9"/>
@@ -10319,14 +10189,12 @@
     </row>
     <row r="416" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C416" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C416" s="9"/>
       <c r="D416" s="9"/>
       <c r="E416" s="87"/>
       <c r="F416" s="9"/>
@@ -10336,10 +10204,10 @@
     </row>
     <row r="417" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C417" s="8"/>
       <c r="D417" s="9"/>
@@ -10351,14 +10219,12 @@
     </row>
     <row r="418" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C418" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C418" s="8"/>
       <c r="D418" s="9"/>
       <c r="E418" s="87"/>
       <c r="F418" s="9"/>
@@ -10368,14 +10234,12 @@
     </row>
     <row r="419" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="C419" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C419" s="8"/>
       <c r="D419" s="9"/>
       <c r="E419" s="87"/>
       <c r="F419" s="9"/>
@@ -10385,17 +10249,17 @@
     </row>
     <row r="420" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D420" s="9"/>
       <c r="E420" s="87" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="F420" s="9"/>
       <c r="G420" s="14"/>
@@ -10404,17 +10268,17 @@
     </row>
     <row r="421" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D421" s="9"/>
       <c r="E421" s="87" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F421" s="9"/>
       <c r="G421" s="14"/>
@@ -10423,10 +10287,10 @@
     </row>
     <row r="422" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C422" s="8"/>
       <c r="D422" s="9"/>
@@ -10438,10 +10302,10 @@
     </row>
     <row r="423" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C423" s="8"/>
       <c r="D423" s="9"/>
@@ -10453,14 +10317,12 @@
     </row>
     <row r="424" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="C424" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C424" s="8"/>
       <c r="D424" s="9"/>
       <c r="E424" s="87"/>
       <c r="F424" s="9"/>
@@ -10470,14 +10332,12 @@
     </row>
     <row r="425" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C425" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C425" s="8"/>
       <c r="D425" s="9"/>
       <c r="E425" s="87"/>
       <c r="F425" s="9"/>
@@ -10487,17 +10347,17 @@
     </row>
     <row r="426" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D426" s="9"/>
       <c r="E426" s="87" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F426" s="9"/>
       <c r="G426" s="14"/>
@@ -10506,17 +10366,17 @@
     </row>
     <row r="427" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="D427" s="9"/>
       <c r="E427" s="87" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="F427" s="9"/>
       <c r="G427" s="14"/>
@@ -10525,10 +10385,10 @@
     </row>
     <row r="428" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C428" s="8"/>
       <c r="D428" s="9"/>
@@ -10540,10 +10400,10 @@
     </row>
     <row r="429" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C429" s="8"/>
       <c r="D429" s="9"/>
@@ -10555,14 +10415,12 @@
     </row>
     <row r="430" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C430" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C430" s="8"/>
       <c r="D430" s="9"/>
       <c r="E430" s="87"/>
       <c r="F430" s="9"/>
@@ -10572,14 +10430,12 @@
     </row>
     <row r="431" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="C431" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C431" s="8"/>
       <c r="D431" s="9"/>
       <c r="E431" s="87"/>
       <c r="F431" s="9"/>
@@ -10589,14 +10445,12 @@
     </row>
     <row r="432" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C432" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C432" s="8"/>
       <c r="D432" s="9"/>
       <c r="E432" s="87"/>
       <c r="F432" s="9"/>
@@ -11986,7 +11840,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:I892" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C204:D213 C363:D371 C373:D391 C2:D55 D56 C57:D202 C215:D296 C298:D338 C340:D360 C393:D432 E231:E232 E249 E80 E295 E304 E309">
+  <conditionalFormatting sqref="C204:D213 C363:D371 C373:D391 C2:D55 D56 C57:D202 C215:D296 C298:D338 C340:D360 C393:D432 E231:E232 E249 E80 E295 E304 E309 E324 E330">
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C2)))</formula>
     </cfRule>
@@ -12190,7 +12044,7 @@
         <v>43467</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E5">
         <f>_xlfn.DAYS(A5,A4)</f>
@@ -12256,30 +12110,30 @@
       <c r="E2" s="117"/>
       <c r="F2" s="117"/>
       <c r="G2" s="54" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H2" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>480</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="M2" s="27" t="s">
         <v>481</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="118" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B3" s="119"/>
       <c r="C3" s="119"/>
@@ -12289,7 +12143,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="28"/>
       <c r="I3" s="29" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J3" s="28"/>
       <c r="L3" s="30"/>
@@ -12307,7 +12161,7 @@
       <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="34" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="36"/>
@@ -12329,41 +12183,41 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="92" t="s">
+        <v>484</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>541</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="F6" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="H6" s="49" t="s">
         <v>488</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>489</v>
-      </c>
-      <c r="D6" s="107" t="s">
-        <v>544</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>491</v>
       </c>
       <c r="I6" s="49"/>
       <c r="J6" s="49" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L6" s="104" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M6" s="104" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -12372,25 +12226,25 @@
       <c r="C7" s="93"/>
       <c r="D7" s="108"/>
       <c r="E7" s="46" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J7" s="49" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L7" s="105"/>
       <c r="M7" s="105"/>
@@ -12401,23 +12255,23 @@
       <c r="C8" s="93"/>
       <c r="D8" s="108"/>
       <c r="E8" s="92" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F8" s="95" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="98" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J8" s="49" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L8" s="105"/>
       <c r="M8" s="105"/>
@@ -12432,11 +12286,11 @@
       <c r="G9" s="84"/>
       <c r="H9" s="99"/>
       <c r="I9" s="55" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="56" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L9" s="105"/>
       <c r="M9" s="105"/>
@@ -12449,11 +12303,11 @@
       <c r="E10" s="94"/>
       <c r="F10" s="97"/>
       <c r="G10" s="63" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H10" s="100"/>
       <c r="I10" s="55" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="57"/>
@@ -12466,19 +12320,19 @@
       <c r="C11" s="93"/>
       <c r="D11" s="108"/>
       <c r="E11" s="92" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F11" s="95" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G11" s="83"/>
       <c r="H11" s="91"/>
       <c r="I11" s="58" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="48" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L11" s="105"/>
       <c r="M11" s="105"/>
@@ -12491,15 +12345,15 @@
       <c r="E12" s="113"/>
       <c r="F12" s="114"/>
       <c r="G12" s="85" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H12" s="115"/>
       <c r="I12" s="59" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J12" s="60"/>
       <c r="K12" s="61" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L12" s="105"/>
       <c r="M12" s="105"/>
@@ -12508,29 +12362,29 @@
       <c r="A13" s="93"/>
       <c r="B13" s="93"/>
       <c r="C13" s="93" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D13" s="108" t="s">
+        <v>558</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>499</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>559</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>618</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="I13" s="65" t="s">
         <v>561</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>502</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>562</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>621</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>563</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>564</v>
       </c>
       <c r="J13" s="66"/>
       <c r="K13" s="56" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L13" s="105"/>
       <c r="M13" s="105"/>
@@ -12541,23 +12395,23 @@
       <c r="C14" s="93"/>
       <c r="D14" s="108"/>
       <c r="E14" s="46" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H14" s="67" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J14" s="51"/>
       <c r="K14" s="48" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L14" s="105"/>
       <c r="M14" s="105"/>
@@ -12568,23 +12422,23 @@
       <c r="C15" s="93"/>
       <c r="D15" s="108"/>
       <c r="E15" s="46" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H15" s="67" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="J15" s="51"/>
       <c r="K15" s="48" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L15" s="105"/>
       <c r="M15" s="105"/>
@@ -12595,15 +12449,15 @@
       <c r="C16" s="93"/>
       <c r="D16" s="108"/>
       <c r="E16" s="92" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F16" s="95" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G16" s="83"/>
       <c r="H16" s="116"/>
       <c r="I16" s="68" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J16" s="51"/>
       <c r="K16" s="48"/>
@@ -12620,7 +12474,7 @@
       <c r="G17" s="84"/>
       <c r="H17" s="116"/>
       <c r="I17" s="68" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="J17" s="51"/>
       <c r="K17" s="48"/>
@@ -12637,11 +12491,11 @@
       <c r="G18" s="84"/>
       <c r="H18" s="116"/>
       <c r="I18" s="48" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J18" s="51"/>
       <c r="K18" s="68" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L18" s="105"/>
       <c r="M18" s="105"/>
@@ -12656,11 +12510,11 @@
       <c r="G19" s="84"/>
       <c r="H19" s="116"/>
       <c r="I19" s="48" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="J19" s="51"/>
       <c r="K19" s="68" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L19" s="105"/>
       <c r="M19" s="105"/>
@@ -12675,11 +12529,11 @@
       <c r="G20" s="84"/>
       <c r="H20" s="116"/>
       <c r="I20" s="48" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J20" s="51"/>
       <c r="K20" s="68" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L20" s="105"/>
       <c r="M20" s="105"/>
@@ -12694,7 +12548,7 @@
       <c r="G21" s="84"/>
       <c r="H21" s="116"/>
       <c r="I21" s="50" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J21" s="51"/>
       <c r="K21" s="68"/>
@@ -12709,11 +12563,11 @@
       <c r="E22" s="94"/>
       <c r="F22" s="97"/>
       <c r="G22" s="63" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H22" s="116"/>
       <c r="I22" s="48" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="J22" s="51"/>
       <c r="K22" s="49"/>
@@ -12737,41 +12591,41 @@
     </row>
     <row r="24" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="B24" s="110" t="s">
+        <v>505</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>506</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>581</v>
+      </c>
+      <c r="E24" s="92" t="s">
         <v>507</v>
       </c>
-      <c r="B24" s="110" t="s">
-        <v>508</v>
-      </c>
-      <c r="C24" s="92" t="s">
-        <v>509</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>584</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>510</v>
-      </c>
       <c r="F24" s="95" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G24" s="83"/>
       <c r="H24" s="98" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K24" s="48" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="L24" s="104" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M24" s="91" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="N24" s="52"/>
     </row>
@@ -12783,11 +12637,11 @@
       <c r="E25" s="94"/>
       <c r="F25" s="97"/>
       <c r="G25" s="63" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H25" s="100"/>
       <c r="I25" s="49" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="J25" s="50"/>
       <c r="K25" s="48"/>
@@ -12801,23 +12655,23 @@
       <c r="C26" s="93"/>
       <c r="D26" s="108"/>
       <c r="E26" s="92" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F26" s="95" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="98" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K26" s="48" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="L26" s="105"/>
       <c r="M26" s="91"/>
@@ -12831,14 +12685,14 @@
       <c r="E27" s="94"/>
       <c r="F27" s="97"/>
       <c r="G27" s="63" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H27" s="100"/>
       <c r="I27" s="49" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="105"/>
@@ -12851,22 +12705,22 @@
       <c r="C28" s="93"/>
       <c r="D28" s="108"/>
       <c r="E28" s="46" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G28" s="47" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H28" s="48" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K28" s="48" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="L28" s="105"/>
       <c r="M28" s="91"/>
@@ -12878,25 +12732,25 @@
       <c r="C29" s="94"/>
       <c r="D29" s="109"/>
       <c r="E29" s="46" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F29" s="76" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G29" s="76" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H29" s="48" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I29" s="49" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J29" s="50" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L29" s="106"/>
       <c r="M29" s="91"/>
@@ -12919,41 +12773,41 @@
     </row>
     <row r="31" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="B31" s="92" t="s">
+        <v>522</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>523</v>
+      </c>
+      <c r="D31" s="107" t="s">
+        <v>596</v>
+      </c>
+      <c r="E31" s="92" t="s">
         <v>524</v>
       </c>
-      <c r="B31" s="92" t="s">
-        <v>525</v>
-      </c>
-      <c r="C31" s="92" t="s">
-        <v>526</v>
-      </c>
-      <c r="D31" s="107" t="s">
-        <v>599</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>527</v>
-      </c>
       <c r="F31" s="95" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G31" s="83"/>
       <c r="H31" s="98" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I31" s="81" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="J31" s="49" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K31" s="48" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L31" s="91" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M31" s="91" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -12966,11 +12820,11 @@
       <c r="G32" s="84"/>
       <c r="H32" s="99"/>
       <c r="I32" s="56" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="48" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="L32" s="91"/>
       <c r="M32" s="91"/>
@@ -12983,11 +12837,11 @@
       <c r="E33" s="94"/>
       <c r="F33" s="97"/>
       <c r="G33" s="63" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H33" s="100"/>
       <c r="I33" s="56" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J33" s="49"/>
       <c r="K33" s="48"/>
@@ -13000,17 +12854,17 @@
       <c r="C34" s="93"/>
       <c r="D34" s="108"/>
       <c r="E34" s="92" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F34" s="95" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="98" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I34" s="49" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J34" s="49"/>
       <c r="K34" s="101"/>
@@ -13027,7 +12881,7 @@
       <c r="G35" s="84"/>
       <c r="H35" s="99"/>
       <c r="I35" s="49" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J35" s="49"/>
       <c r="K35" s="101"/>
@@ -13042,17 +12896,17 @@
       <c r="E36" s="94"/>
       <c r="F36" s="97"/>
       <c r="G36" s="63" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H36" s="100"/>
       <c r="I36" s="49" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K36" s="48" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L36" s="91"/>
       <c r="M36" s="91"/>
@@ -13063,23 +12917,23 @@
       <c r="C37" s="93"/>
       <c r="D37" s="108"/>
       <c r="E37" s="92" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F37" s="95" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G37" s="83"/>
       <c r="H37" s="102" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I37" s="49" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="J37" s="103" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K37" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L37" s="91"/>
       <c r="M37" s="91"/>
@@ -13092,11 +12946,11 @@
       <c r="E38" s="93"/>
       <c r="F38" s="96"/>
       <c r="G38" s="84" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H38" s="102"/>
       <c r="I38" s="68" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J38" s="103"/>
       <c r="K38" s="102"/>
@@ -13109,21 +12963,21 @@
       <c r="C39" s="93"/>
       <c r="D39" s="108"/>
       <c r="E39" s="93" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F39" s="96" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G39" s="84"/>
       <c r="H39" s="102" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I39" s="68" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J39" s="58"/>
       <c r="K39" s="56" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="L39" s="91"/>
       <c r="M39" s="91"/>
@@ -13138,11 +12992,11 @@
       <c r="G40" s="84"/>
       <c r="H40" s="102"/>
       <c r="I40" s="68" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J40" s="58"/>
       <c r="K40" s="56" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="L40" s="91"/>
       <c r="M40" s="91"/>
@@ -13155,11 +13009,11 @@
       <c r="E41" s="94"/>
       <c r="F41" s="97"/>
       <c r="G41" s="63" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H41" s="102"/>
       <c r="I41" s="68" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J41" s="51"/>
       <c r="K41" s="48"/>
@@ -13400,57 +13254,57 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF43C6-FD5E-F24B-9BE7-6B0014E438EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9942E11-01AA-9344-9D25-27729C986B67}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76800" yWindow="780" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36960" yWindow="1120" windowWidth="36080" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="662">
   <si>
     <t>3-node architecture</t>
   </si>
@@ -3268,7 +3268,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3278,6 +3284,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3298,32 +3328,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3334,29 +3349,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3770,8 +3770,8 @@
   <dimension ref="A1:I892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B324" sqref="B324"/>
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="G1" s="13">
         <f ca="1">(TODAY()-I1)*-1</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>22</v>
@@ -5826,7 +5826,9 @@
         <v>175</v>
       </c>
       <c r="C135" s="8"/>
-      <c r="D135" s="9"/>
+      <c r="D135" s="9" t="s">
+        <v>652</v>
+      </c>
       <c r="E135" s="87"/>
       <c r="F135" s="9"/>
       <c r="G135" s="14"/>
@@ -12103,12 +12105,12 @@
       <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="54" t="s">
         <v>537</v>
       </c>
@@ -12132,14 +12134,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="92" t="s">
         <v>482</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="32"/>
       <c r="H3" s="28"/>
       <c r="I3" s="29" t="s">
@@ -12150,12 +12152,12 @@
       <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" s="37" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -12182,16 +12184,16 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>484</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="94" t="s">
         <v>485</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="94" t="s">
         <v>486</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="98" t="s">
         <v>541</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -12213,18 +12215,18 @@
       <c r="K6" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="L6" s="104" t="s">
+      <c r="L6" s="102" t="s">
         <v>543</v>
       </c>
-      <c r="M6" s="104" t="s">
+      <c r="M6" s="102" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="108"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="99"/>
       <c r="E7" s="46" t="s">
         <v>492</v>
       </c>
@@ -12246,22 +12248,22 @@
       <c r="K7" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="92" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="94" t="s">
         <v>495</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="105" t="s">
         <v>547</v>
       </c>
       <c r="G8" s="83"/>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="108" t="s">
         <v>548</v>
       </c>
       <c r="I8" s="55" t="s">
@@ -12273,18 +12275,18 @@
       <c r="K8" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="96"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="84"/>
-      <c r="H9" s="99"/>
+      <c r="H9" s="109"/>
       <c r="I9" s="55" t="s">
         <v>550</v>
       </c>
@@ -12292,41 +12294,41 @@
       <c r="K9" s="56" t="s">
         <v>551</v>
       </c>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1" ht="19" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="97"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="107"/>
       <c r="G10" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H10" s="100"/>
+      <c r="H10" s="110"/>
       <c r="I10" s="55" t="s">
         <v>552</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="57"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="92" t="s">
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="94" t="s">
         <v>497</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="F11" s="105" t="s">
         <v>553</v>
       </c>
       <c r="G11" s="83"/>
-      <c r="H11" s="91"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="58" t="s">
         <v>554</v>
       </c>
@@ -12334,20 +12336,20 @@
       <c r="K11" s="48" t="s">
         <v>555</v>
       </c>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="85" t="s">
         <v>618</v>
       </c>
-      <c r="H12" s="115"/>
+      <c r="H12" s="113"/>
       <c r="I12" s="59" t="s">
         <v>556</v>
       </c>
@@ -12355,16 +12357,16 @@
       <c r="K12" s="61" t="s">
         <v>557</v>
       </c>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93" t="s">
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95" t="s">
         <v>498</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="99" t="s">
         <v>558</v>
       </c>
       <c r="E13" s="62" t="s">
@@ -12386,14 +12388,14 @@
       <c r="K13" s="56" t="s">
         <v>562</v>
       </c>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="108"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="46" t="s">
         <v>500</v>
       </c>
@@ -12413,14 +12415,14 @@
       <c r="K14" s="48" t="s">
         <v>566</v>
       </c>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
     </row>
     <row r="15" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="108"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="46" t="s">
         <v>501</v>
       </c>
@@ -12440,56 +12442,56 @@
       <c r="K15" s="48" t="s">
         <v>570</v>
       </c>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
     </row>
     <row r="16" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="92" t="s">
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="94" t="s">
         <v>503</v>
       </c>
-      <c r="F16" s="95" t="s">
+      <c r="F16" s="105" t="s">
         <v>571</v>
       </c>
       <c r="G16" s="83"/>
-      <c r="H16" s="116"/>
+      <c r="H16" s="114"/>
       <c r="I16" s="68" t="s">
         <v>572</v>
       </c>
       <c r="J16" s="51"/>
       <c r="K16" s="48"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
     </row>
     <row r="17" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="96"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="84"/>
-      <c r="H17" s="116"/>
+      <c r="H17" s="114"/>
       <c r="I17" s="68" t="s">
         <v>573</v>
       </c>
       <c r="J17" s="51"/>
       <c r="K17" s="48"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
     </row>
     <row r="18" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="96"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="84"/>
-      <c r="H18" s="116"/>
+      <c r="H18" s="114"/>
       <c r="I18" s="48" t="s">
         <v>574</v>
       </c>
@@ -12497,18 +12499,18 @@
       <c r="K18" s="68" t="s">
         <v>575</v>
       </c>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
     </row>
     <row r="19" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="96"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="106"/>
       <c r="G19" s="84"/>
-      <c r="H19" s="116"/>
+      <c r="H19" s="114"/>
       <c r="I19" s="48" t="s">
         <v>576</v>
       </c>
@@ -12516,18 +12518,18 @@
       <c r="K19" s="68" t="s">
         <v>577</v>
       </c>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
     </row>
     <row r="20" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="96"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="84"/>
-      <c r="H20" s="116"/>
+      <c r="H20" s="114"/>
       <c r="I20" s="48" t="s">
         <v>578</v>
       </c>
@@ -12535,44 +12537,44 @@
       <c r="K20" s="68" t="s">
         <v>579</v>
       </c>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
     </row>
     <row r="21" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="96"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="84"/>
-      <c r="H21" s="116"/>
+      <c r="H21" s="114"/>
       <c r="I21" s="50" t="s">
         <v>520</v>
       </c>
       <c r="J21" s="51"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
     </row>
     <row r="22" spans="1:14" s="23" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="97"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="107"/>
       <c r="G22" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H22" s="116"/>
+      <c r="H22" s="114"/>
       <c r="I22" s="48" t="s">
         <v>580</v>
       </c>
       <c r="J22" s="51"/>
       <c r="K22" s="49"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
     </row>
     <row r="23" spans="1:14" s="23" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="69"/>
@@ -12590,26 +12592,26 @@
       <c r="M23" s="74"/>
     </row>
     <row r="24" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="94" t="s">
         <v>504</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="115" t="s">
         <v>505</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="94" t="s">
         <v>506</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="98" t="s">
         <v>581</v>
       </c>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="94" t="s">
         <v>507</v>
       </c>
-      <c r="F24" s="95" t="s">
+      <c r="F24" s="105" t="s">
         <v>582</v>
       </c>
       <c r="G24" s="83"/>
-      <c r="H24" s="98" t="s">
+      <c r="H24" s="108" t="s">
         <v>583</v>
       </c>
       <c r="I24" s="49" t="s">
@@ -12621,47 +12623,47 @@
       <c r="K24" s="48" t="s">
         <v>584</v>
       </c>
-      <c r="L24" s="104" t="s">
+      <c r="L24" s="102" t="s">
         <v>543</v>
       </c>
-      <c r="M24" s="91" t="s">
+      <c r="M24" s="112" t="s">
         <v>510</v>
       </c>
       <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="93"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="97"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="107"/>
       <c r="G25" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H25" s="100"/>
+      <c r="H25" s="110"/>
       <c r="I25" s="49" t="s">
         <v>585</v>
       </c>
       <c r="J25" s="50"/>
       <c r="K25" s="48"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="91"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="112"/>
       <c r="N25" s="52"/>
     </row>
     <row r="26" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="93"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="92" t="s">
+      <c r="A26" s="95"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="94" t="s">
         <v>511</v>
       </c>
-      <c r="F26" s="95" t="s">
+      <c r="F26" s="105" t="s">
         <v>586</v>
       </c>
       <c r="G26" s="83"/>
-      <c r="H26" s="98" t="s">
+      <c r="H26" s="108" t="s">
         <v>587</v>
       </c>
       <c r="I26" s="49" t="s">
@@ -12673,21 +12675,21 @@
       <c r="K26" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="L26" s="105"/>
-      <c r="M26" s="91"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="112"/>
       <c r="N26" s="52"/>
     </row>
     <row r="27" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="93"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="97"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="H27" s="100"/>
+      <c r="H27" s="110"/>
       <c r="I27" s="49" t="s">
         <v>519</v>
       </c>
@@ -12695,15 +12697,15 @@
         <v>515</v>
       </c>
       <c r="K27" s="48"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="91"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="112"/>
       <c r="N27" s="52"/>
     </row>
     <row r="28" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="93"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="108"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="46" t="s">
         <v>513</v>
       </c>
@@ -12722,15 +12724,15 @@
       <c r="K28" s="48" t="s">
         <v>592</v>
       </c>
-      <c r="L28" s="105"/>
-      <c r="M28" s="91"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="112"/>
       <c r="N28" s="52"/>
     </row>
     <row r="29" spans="1:14" s="23" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="94"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="109"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="46" t="s">
         <v>516</v>
       </c>
@@ -12752,8 +12754,8 @@
       <c r="K29" s="48" t="s">
         <v>595</v>
       </c>
-      <c r="L29" s="106"/>
-      <c r="M29" s="91"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="112"/>
       <c r="N29" s="52"/>
     </row>
     <row r="30" spans="1:14" s="23" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
@@ -12772,26 +12774,26 @@
       <c r="M30" s="74"/>
     </row>
     <row r="31" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="94" t="s">
         <v>521</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="94" t="s">
         <v>522</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="94" t="s">
         <v>523</v>
       </c>
-      <c r="D31" s="107" t="s">
+      <c r="D31" s="98" t="s">
         <v>596</v>
       </c>
-      <c r="E31" s="92" t="s">
+      <c r="E31" s="94" t="s">
         <v>524</v>
       </c>
-      <c r="F31" s="95" t="s">
+      <c r="F31" s="105" t="s">
         <v>597</v>
       </c>
       <c r="G31" s="83"/>
-      <c r="H31" s="98" t="s">
+      <c r="H31" s="108" t="s">
         <v>598</v>
       </c>
       <c r="I31" s="81" t="s">
@@ -12803,22 +12805,22 @@
       <c r="K31" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="L31" s="91" t="s">
+      <c r="L31" s="112" t="s">
         <v>526</v>
       </c>
-      <c r="M31" s="91" t="s">
+      <c r="M31" s="112" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="93"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="96"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="106"/>
       <c r="G32" s="84"/>
-      <c r="H32" s="99"/>
+      <c r="H32" s="109"/>
       <c r="I32" s="56" t="s">
         <v>601</v>
       </c>
@@ -12826,79 +12828,79 @@
       <c r="K32" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
     </row>
     <row r="33" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="93"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="97"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H33" s="100"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="56" t="s">
         <v>536</v>
       </c>
       <c r="J33" s="49"/>
       <c r="K33" s="48"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
     </row>
     <row r="34" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="92" t="s">
+      <c r="A34" s="95"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="94" t="s">
         <v>528</v>
       </c>
-      <c r="F34" s="95" t="s">
+      <c r="F34" s="105" t="s">
         <v>603</v>
       </c>
       <c r="G34" s="83"/>
-      <c r="H34" s="98" t="s">
+      <c r="H34" s="108" t="s">
         <v>604</v>
       </c>
       <c r="I34" s="49" t="s">
         <v>605</v>
       </c>
       <c r="J34" s="49"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
     </row>
     <row r="35" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="96"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="106"/>
       <c r="G35" s="84"/>
-      <c r="H35" s="99"/>
+      <c r="H35" s="109"/>
       <c r="I35" s="49" t="s">
         <v>532</v>
       </c>
       <c r="J35" s="49"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
     </row>
     <row r="36" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="97"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="107"/>
       <c r="G36" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H36" s="100"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="49" t="s">
         <v>606</v>
       </c>
@@ -12908,68 +12910,68 @@
       <c r="K36" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="112"/>
     </row>
     <row r="37" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="92" t="s">
+      <c r="A37" s="95"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="94" t="s">
         <v>531</v>
       </c>
-      <c r="F37" s="95" t="s">
+      <c r="F37" s="105" t="s">
         <v>607</v>
       </c>
       <c r="G37" s="83"/>
-      <c r="H37" s="102" t="s">
+      <c r="H37" s="119" t="s">
         <v>608</v>
       </c>
       <c r="I37" s="49" t="s">
         <v>609</v>
       </c>
-      <c r="J37" s="103" t="s">
+      <c r="J37" s="120" t="s">
         <v>533</v>
       </c>
-      <c r="K37" s="102" t="s">
+      <c r="K37" s="119" t="s">
         <v>535</v>
       </c>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
     </row>
     <row r="38" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="96"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="106"/>
       <c r="G38" s="84" t="s">
         <v>618</v>
       </c>
-      <c r="H38" s="102"/>
+      <c r="H38" s="119"/>
       <c r="I38" s="68" t="s">
         <v>610</v>
       </c>
-      <c r="J38" s="103"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="112"/>
     </row>
     <row r="39" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="93" t="s">
+      <c r="A39" s="95"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="95" t="s">
         <v>534</v>
       </c>
-      <c r="F39" s="96" t="s">
+      <c r="F39" s="106" t="s">
         <v>611</v>
       </c>
       <c r="G39" s="84"/>
-      <c r="H39" s="102" t="s">
+      <c r="H39" s="119" t="s">
         <v>612</v>
       </c>
       <c r="I39" s="68" t="s">
@@ -12979,18 +12981,18 @@
       <c r="K39" s="56" t="s">
         <v>614</v>
       </c>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
     </row>
     <row r="40" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="96"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="106"/>
       <c r="G40" s="84"/>
-      <c r="H40" s="102"/>
+      <c r="H40" s="119"/>
       <c r="I40" s="68" t="s">
         <v>615</v>
       </c>
@@ -12998,27 +13000,27 @@
       <c r="K40" s="56" t="s">
         <v>616</v>
       </c>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
     </row>
     <row r="41" spans="1:13" s="23" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="97"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H41" s="102"/>
+      <c r="H41" s="119"/>
       <c r="I41" s="68" t="s">
         <v>617</v>
       </c>
       <c r="J41" s="51"/>
       <c r="K41" s="48"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="K42" s="82"/>
@@ -13026,42 +13028,6 @@
     <row r="43" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="L6:L22"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="D31:D41"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
     <mergeCell ref="L31:L41"/>
     <mergeCell ref="M31:M41"/>
     <mergeCell ref="E34:E36"/>
@@ -13078,6 +13044,42 @@
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="H31:H33"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9942E11-01AA-9344-9D25-27729C986B67}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA99A49A-DD80-1C45-BD84-21717C369228}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36960" yWindow="1120" windowWidth="36080" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-74220" yWindow="700" windowWidth="26220" windowHeight="18780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="659">
   <si>
     <t>3-node architecture</t>
   </si>
@@ -2610,9 +2610,6 @@
     <t>dependencies</t>
   </si>
   <si>
-    <t>tos, cos, dscp</t>
-  </si>
-  <si>
     <t>buckets and colors</t>
   </si>
   <si>
@@ -2622,9 +2619,6 @@
     <t>schedule, life commands</t>
   </si>
   <si>
-    <t>traffic types supported, direction</t>
-  </si>
-  <si>
     <t>how it works, end-to-end reachability, transport headers, state, diff nat66</t>
   </si>
   <si>
@@ -2640,9 +2634,6 @@
     <t>options</t>
   </si>
   <si>
-    <t>message types, solicited vs. unsolicited</t>
-  </si>
-  <si>
     <t>address composition</t>
   </si>
   <si>
@@ -2661,9 +2652,6 @@
     <t>regexp practice</t>
   </si>
   <si>
-    <t>message type differences</t>
-  </si>
-  <si>
     <t>ntp commands, version differences</t>
   </si>
   <si>
@@ -2722,6 +2710,9 @@
   </si>
   <si>
     <t>option 82 feature</t>
+  </si>
+  <si>
+    <t>srr configurations</t>
   </si>
 </sst>
 </file>
@@ -3769,9 +3760,9 @@
   </sheetPr>
   <dimension ref="A1:I892"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3795,10 +3786,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>621</v>
@@ -4619,10 +4610,10 @@
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E55" s="87" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="14"/>
@@ -4996,10 +4987,10 @@
       </c>
       <c r="C80" s="86"/>
       <c r="D80" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E80" s="90" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="14"/>
@@ -5435,7 +5426,7 @@
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E109" s="87" t="s">
         <v>622</v>
@@ -5827,7 +5818,7 @@
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E135" s="87"/>
       <c r="F135" s="9"/>
@@ -6114,10 +6105,10 @@
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E154" s="89" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F154" s="9"/>
       <c r="G154" s="14"/>
@@ -6478,10 +6469,10 @@
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E178" s="87" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="14"/>
@@ -6647,10 +6638,10 @@
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E189" s="89" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F189" s="9"/>
       <c r="G189" s="14"/>
@@ -6981,10 +6972,10 @@
       </c>
       <c r="C211" s="8"/>
       <c r="D211" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E211" s="87" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F211" s="9"/>
       <c r="G211" s="14"/>
@@ -7284,10 +7275,10 @@
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E231" s="90" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="14"/>
@@ -7303,10 +7294,10 @@
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E232" s="90" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="14"/>
@@ -7532,10 +7523,10 @@
       </c>
       <c r="C247" s="8"/>
       <c r="D247" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E247" s="89" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="14"/>
@@ -7551,10 +7542,10 @@
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E248" s="87" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="14"/>
@@ -7570,10 +7561,10 @@
       </c>
       <c r="C249" s="8"/>
       <c r="D249" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E249" s="90" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="14"/>
@@ -7739,10 +7730,10 @@
       </c>
       <c r="C260" s="8"/>
       <c r="D260" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E260" s="87" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F260" s="9"/>
       <c r="G260" s="14"/>
@@ -7773,10 +7764,10 @@
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E262" s="87" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F262" s="9"/>
       <c r="G262" s="14"/>
@@ -7852,10 +7843,10 @@
       </c>
       <c r="C267" s="8"/>
       <c r="D267" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E267" s="89" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F267" s="9"/>
       <c r="G267" s="14"/>
@@ -7961,10 +7952,10 @@
       </c>
       <c r="C274" s="8"/>
       <c r="D274" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E274" s="87" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F274" s="9"/>
       <c r="G274" s="14"/>
@@ -8278,10 +8269,10 @@
       </c>
       <c r="C295" s="8"/>
       <c r="D295" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="E295" s="90" t="s">
         <v>652</v>
-      </c>
-      <c r="E295" s="90" t="s">
-        <v>656</v>
       </c>
       <c r="F295" s="9"/>
       <c r="G295" s="14"/>
@@ -8297,10 +8288,10 @@
       </c>
       <c r="C296" s="8"/>
       <c r="D296" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E296" s="87" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F296" s="9"/>
       <c r="G296" s="14"/>
@@ -8331,10 +8322,10 @@
       </c>
       <c r="C298" s="8"/>
       <c r="D298" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E298" s="87" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F298" s="9"/>
       <c r="G298" s="14"/>
@@ -8425,10 +8416,10 @@
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E304" s="90" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F304" s="9"/>
       <c r="G304" s="14"/>
@@ -8474,7 +8465,7 @@
       </c>
       <c r="C307" s="8"/>
       <c r="D307" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E307" s="87"/>
       <c r="F307" s="9"/>
@@ -8506,10 +8497,10 @@
       </c>
       <c r="C309" s="8"/>
       <c r="D309" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E309" s="90" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F309" s="9"/>
       <c r="G309" s="14"/>
@@ -8733,10 +8724,10 @@
       </c>
       <c r="C324" s="8"/>
       <c r="D324" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E324" s="90" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F324" s="9"/>
       <c r="G324" s="14"/>
@@ -8827,10 +8818,10 @@
       </c>
       <c r="C330" s="8"/>
       <c r="D330" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E330" s="90" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F330" s="9"/>
       <c r="G330" s="14"/>
@@ -9055,7 +9046,7 @@
         <v>387</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D345" s="9"/>
       <c r="E345" s="87" t="s">
@@ -9119,7 +9110,7 @@
         <v>391</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D349" s="9"/>
       <c r="E349" s="87"/>
@@ -9223,13 +9214,9 @@
       <c r="B356" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C356" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="C356" s="8"/>
       <c r="D356" s="9"/>
-      <c r="E356" s="87" t="s">
-        <v>634</v>
-      </c>
+      <c r="E356" s="87"/>
       <c r="F356" s="9"/>
       <c r="G356" s="14"/>
       <c r="H356" s="14"/>
@@ -9242,13 +9229,9 @@
       <c r="B357" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C357" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="C357" s="8"/>
       <c r="D357" s="9"/>
-      <c r="E357" s="87" t="s">
-        <v>641</v>
-      </c>
+      <c r="E357" s="87"/>
       <c r="F357" s="9"/>
       <c r="G357" s="14"/>
       <c r="H357" s="14"/>
@@ -9336,13 +9319,9 @@
       <c r="B363" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C363" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="C363" s="8"/>
       <c r="D363" s="9"/>
-      <c r="E363" s="87" t="s">
-        <v>624</v>
-      </c>
+      <c r="E363" s="87"/>
       <c r="F363" s="9"/>
       <c r="G363" s="14"/>
       <c r="H363" s="14"/>
@@ -9355,9 +9334,7 @@
       <c r="B364" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C364" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="C364" s="8"/>
       <c r="D364" s="9"/>
       <c r="E364" s="87"/>
       <c r="F364" s="9"/>
@@ -9372,9 +9349,7 @@
       <c r="B365" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C365" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="C365" s="8"/>
       <c r="D365" s="9"/>
       <c r="E365" s="87"/>
       <c r="F365" s="9"/>
@@ -9389,13 +9364,9 @@
       <c r="B366" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C366" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="C366" s="8"/>
       <c r="D366" s="9"/>
-      <c r="E366" s="87" t="s">
-        <v>628</v>
-      </c>
+      <c r="E366" s="87"/>
       <c r="F366" s="9"/>
       <c r="G366" s="14"/>
       <c r="H366" s="14"/>
@@ -9423,12 +9394,12 @@
       <c r="B368" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C368" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="D368" s="9"/>
+      <c r="C368" s="8"/>
+      <c r="D368" s="9" t="s">
+        <v>648</v>
+      </c>
       <c r="E368" s="87" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F368" s="9"/>
       <c r="G368" s="14"/>
@@ -9442,11 +9413,7 @@
       <c r="B369" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C369" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="D369" s="9"/>
-      <c r="E369" s="87"/>
+      <c r="C369" s="8"/>
       <c r="F369" s="9"/>
       <c r="G369" s="14"/>
       <c r="H369" s="14"/>
@@ -9460,7 +9427,7 @@
         <v>413</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D370" s="9"/>
       <c r="E370" s="87"/>
@@ -9476,9 +9443,7 @@
       <c r="B371" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C371" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="C371" s="8"/>
       <c r="D371" s="9"/>
       <c r="E371" s="87"/>
       <c r="F371" s="9"/>
@@ -9508,11 +9473,13 @@
       <c r="B373" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C373" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="D373" s="9"/>
-      <c r="E373" s="87"/>
+      <c r="C373" s="8"/>
+      <c r="D373" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="E373" s="90" t="s">
+        <v>658</v>
+      </c>
       <c r="F373" s="9"/>
       <c r="G373" s="14"/>
       <c r="H373" s="14"/>
@@ -9525,9 +9492,7 @@
       <c r="B374" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C374" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="C374" s="8"/>
       <c r="D374" s="9"/>
       <c r="E374" s="87"/>
       <c r="F374" s="9"/>
@@ -9618,11 +9583,11 @@
         <v>423</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D380" s="9"/>
       <c r="E380" s="87" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F380" s="9"/>
       <c r="G380" s="14"/>
@@ -9637,7 +9602,7 @@
         <v>424</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D381" s="9"/>
       <c r="E381" s="87"/>
@@ -9714,7 +9679,7 @@
         <v>429</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D386" s="9"/>
       <c r="E386" s="87"/>
@@ -9731,7 +9696,7 @@
         <v>430</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D387" s="9"/>
       <c r="E387" s="87"/>
@@ -9748,7 +9713,7 @@
         <v>431</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D388" s="9"/>
       <c r="E388" s="87"/>
@@ -9780,11 +9745,11 @@
         <v>433</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D390" s="9"/>
       <c r="E390" s="87" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F390" s="9"/>
       <c r="G390" s="14"/>
@@ -9829,11 +9794,11 @@
         <v>436</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D393" s="9"/>
       <c r="E393" s="87" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F393" s="9"/>
       <c r="G393" s="14"/>
@@ -9848,11 +9813,11 @@
         <v>437</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D394" s="9"/>
       <c r="E394" s="87" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F394" s="9"/>
       <c r="G394" s="14"/>
@@ -9882,11 +9847,11 @@
         <v>439</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D396" s="9"/>
       <c r="E396" s="87" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F396" s="9"/>
       <c r="G396" s="14"/>
@@ -9901,7 +9866,7 @@
         <v>440</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D397" s="9"/>
       <c r="E397" s="87"/>
@@ -9977,11 +9942,11 @@
         <v>445</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D402" s="9"/>
       <c r="E402" s="87" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F402" s="9"/>
       <c r="G402" s="14"/>
@@ -10011,11 +9976,11 @@
         <v>447</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D404" s="9"/>
       <c r="E404" s="87" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F404" s="9"/>
       <c r="G404" s="14"/>
@@ -10045,11 +10010,11 @@
         <v>449</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D406" s="9"/>
       <c r="E406" s="87" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F406" s="9"/>
       <c r="G406" s="14"/>
@@ -10257,11 +10222,11 @@
         <v>464</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D420" s="9"/>
       <c r="E420" s="87" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F420" s="9"/>
       <c r="G420" s="14"/>
@@ -10276,11 +10241,11 @@
         <v>465</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D421" s="9"/>
       <c r="E421" s="87" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F421" s="9"/>
       <c r="G421" s="14"/>
@@ -10355,11 +10320,11 @@
         <v>470</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D426" s="9"/>
       <c r="E426" s="87" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F426" s="9"/>
       <c r="G426" s="14"/>
@@ -10374,11 +10339,11 @@
         <v>471</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D427" s="9"/>
       <c r="E427" s="87" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F427" s="9"/>
       <c r="G427" s="14"/>
@@ -11842,7 +11807,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:I892" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C204:D213 C363:D371 C373:D391 C2:D55 D56 C57:D202 C215:D296 C298:D338 C340:D360 C393:D432 E231:E232 E249 E80 E295 E304 E309 E324 E330">
+  <conditionalFormatting sqref="C204:D213 C373:D391 C2:D55 D56 C57:D202 C215:D296 C298:D338 C340:D360 C393:D432 E231:E232 E249 E80 E295 E304 E309 E324 E330 C363:D368 C370:D371 C369 D373:E373">
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C2)))</formula>
     </cfRule>
@@ -11900,7 +11865,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA99A49A-DD80-1C45-BD84-21717C369228}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B9550-41B4-B048-A501-B9535C4A4445}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-74220" yWindow="700" windowWidth="26220" windowHeight="18780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="651">
   <si>
     <t>3-node architecture</t>
   </si>
@@ -2613,27 +2613,12 @@
     <t>buckets and colors</t>
   </si>
   <si>
-    <t>version differences</t>
-  </si>
-  <si>
-    <t>schedule, life commands</t>
-  </si>
-  <si>
-    <t>how it works, end-to-end reachability, transport headers, state, diff nat66</t>
-  </si>
-  <si>
     <t>NAT-PT</t>
   </si>
   <si>
     <t>nx-api, securing, cisco virtual topology</t>
   </si>
   <si>
-    <t>encapsulation</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
     <t>address composition</t>
   </si>
   <si>
@@ -2650,15 +2635,6 @@
   </si>
   <si>
     <t>regexp practice</t>
-  </si>
-  <si>
-    <t>ntp commands, version differences</t>
-  </si>
-  <si>
-    <t>review examples</t>
-  </si>
-  <si>
-    <t>review different components</t>
   </si>
   <si>
     <t>review cisco product functionality</t>
@@ -3761,8 +3737,8 @@
   <dimension ref="A1:I892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A424" sqref="A424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3786,10 +3762,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>621</v>
@@ -3799,7 +3775,7 @@
       </c>
       <c r="G1" s="13">
         <f ca="1">(TODAY()-I1)*-1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>22</v>
@@ -4610,10 +4586,10 @@
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E55" s="87" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="14"/>
@@ -4987,10 +4963,10 @@
       </c>
       <c r="C80" s="86"/>
       <c r="D80" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E80" s="90" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="14"/>
@@ -5426,7 +5402,7 @@
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E109" s="87" t="s">
         <v>622</v>
@@ -5818,7 +5794,7 @@
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E135" s="87"/>
       <c r="F135" s="9"/>
@@ -6105,10 +6081,10 @@
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E154" s="89" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F154" s="9"/>
       <c r="G154" s="14"/>
@@ -6469,10 +6445,10 @@
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E178" s="87" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="14"/>
@@ -6638,10 +6614,10 @@
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E189" s="89" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="F189" s="9"/>
       <c r="G189" s="14"/>
@@ -6972,10 +6948,10 @@
       </c>
       <c r="C211" s="8"/>
       <c r="D211" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E211" s="87" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F211" s="9"/>
       <c r="G211" s="14"/>
@@ -7275,10 +7251,10 @@
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E231" s="90" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="14"/>
@@ -7294,10 +7270,10 @@
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E232" s="90" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="14"/>
@@ -7523,10 +7499,10 @@
       </c>
       <c r="C247" s="8"/>
       <c r="D247" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E247" s="89" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="14"/>
@@ -7542,10 +7518,10 @@
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E248" s="87" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="14"/>
@@ -7561,10 +7537,10 @@
       </c>
       <c r="C249" s="8"/>
       <c r="D249" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E249" s="90" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="14"/>
@@ -7730,10 +7706,10 @@
       </c>
       <c r="C260" s="8"/>
       <c r="D260" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E260" s="87" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F260" s="9"/>
       <c r="G260" s="14"/>
@@ -7764,10 +7740,10 @@
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E262" s="87" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F262" s="9"/>
       <c r="G262" s="14"/>
@@ -7843,10 +7819,10 @@
       </c>
       <c r="C267" s="8"/>
       <c r="D267" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E267" s="89" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F267" s="9"/>
       <c r="G267" s="14"/>
@@ -7952,10 +7928,10 @@
       </c>
       <c r="C274" s="8"/>
       <c r="D274" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E274" s="87" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F274" s="9"/>
       <c r="G274" s="14"/>
@@ -8269,10 +8245,10 @@
       </c>
       <c r="C295" s="8"/>
       <c r="D295" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E295" s="90" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="F295" s="9"/>
       <c r="G295" s="14"/>
@@ -8288,10 +8264,10 @@
       </c>
       <c r="C296" s="8"/>
       <c r="D296" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E296" s="87" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F296" s="9"/>
       <c r="G296" s="14"/>
@@ -8322,10 +8298,10 @@
       </c>
       <c r="C298" s="8"/>
       <c r="D298" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E298" s="87" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F298" s="9"/>
       <c r="G298" s="14"/>
@@ -8416,10 +8392,10 @@
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E304" s="90" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="F304" s="9"/>
       <c r="G304" s="14"/>
@@ -8465,7 +8441,7 @@
       </c>
       <c r="C307" s="8"/>
       <c r="D307" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E307" s="87"/>
       <c r="F307" s="9"/>
@@ -8497,10 +8473,10 @@
       </c>
       <c r="C309" s="8"/>
       <c r="D309" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E309" s="90" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F309" s="9"/>
       <c r="G309" s="14"/>
@@ -8724,10 +8700,10 @@
       </c>
       <c r="C324" s="8"/>
       <c r="D324" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E324" s="90" t="s">
         <v>648</v>
-      </c>
-      <c r="E324" s="90" t="s">
-        <v>656</v>
       </c>
       <c r="F324" s="9"/>
       <c r="G324" s="14"/>
@@ -8818,10 +8794,10 @@
       </c>
       <c r="C330" s="8"/>
       <c r="D330" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E330" s="90" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F330" s="9"/>
       <c r="G330" s="14"/>
@@ -9046,7 +9022,7 @@
         <v>387</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D345" s="9"/>
       <c r="E345" s="87" t="s">
@@ -9110,7 +9086,7 @@
         <v>391</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D349" s="9"/>
       <c r="E349" s="87"/>
@@ -9396,7 +9372,7 @@
       </c>
       <c r="C368" s="8"/>
       <c r="D368" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E368" s="87" t="s">
         <v>624</v>
@@ -9426,9 +9402,7 @@
       <c r="B370" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C370" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C370" s="8"/>
       <c r="D370" s="9"/>
       <c r="E370" s="87"/>
       <c r="F370" s="9"/>
@@ -9475,10 +9449,10 @@
       </c>
       <c r="C373" s="8"/>
       <c r="D373" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E373" s="90" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="F373" s="9"/>
       <c r="G373" s="14"/>
@@ -9582,13 +9556,9 @@
       <c r="B380" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C380" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C380" s="8"/>
       <c r="D380" s="9"/>
-      <c r="E380" s="87" t="s">
-        <v>638</v>
-      </c>
+      <c r="E380" s="87"/>
       <c r="F380" s="9"/>
       <c r="G380" s="14"/>
       <c r="H380" s="14"/>
@@ -9601,9 +9571,7 @@
       <c r="B381" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C381" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C381" s="8"/>
       <c r="D381" s="9"/>
       <c r="E381" s="87"/>
       <c r="F381" s="9"/>
@@ -9678,9 +9646,7 @@
       <c r="B386" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C386" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C386" s="8"/>
       <c r="D386" s="9"/>
       <c r="E386" s="87"/>
       <c r="F386" s="9"/>
@@ -9695,9 +9661,7 @@
       <c r="B387" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C387" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C387" s="8"/>
       <c r="D387" s="9"/>
       <c r="E387" s="87"/>
       <c r="F387" s="9"/>
@@ -9712,9 +9676,7 @@
       <c r="B388" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C388" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C388" s="8"/>
       <c r="D388" s="9"/>
       <c r="E388" s="87"/>
       <c r="F388" s="9"/>
@@ -9744,12 +9706,12 @@
       <c r="B390" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C390" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="D390" s="9"/>
+      <c r="C390" s="8"/>
+      <c r="D390" s="9" t="s">
+        <v>640</v>
+      </c>
       <c r="E390" s="87" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F390" s="9"/>
       <c r="G390" s="14"/>
@@ -9793,13 +9755,9 @@
       <c r="B393" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C393" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C393" s="8"/>
       <c r="D393" s="9"/>
-      <c r="E393" s="87" t="s">
-        <v>630</v>
-      </c>
+      <c r="E393" s="87"/>
       <c r="F393" s="9"/>
       <c r="G393" s="14"/>
       <c r="H393" s="14"/>
@@ -9812,13 +9770,9 @@
       <c r="B394" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C394" s="9" t="s">
-        <v>648</v>
-      </c>
+      <c r="C394" s="9"/>
       <c r="D394" s="9"/>
-      <c r="E394" s="87" t="s">
-        <v>627</v>
-      </c>
+      <c r="E394" s="87"/>
       <c r="F394" s="9"/>
       <c r="G394" s="14"/>
       <c r="H394" s="14"/>
@@ -9846,13 +9800,9 @@
       <c r="B396" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C396" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C396" s="8"/>
       <c r="D396" s="9"/>
-      <c r="E396" s="87" t="s">
-        <v>626</v>
-      </c>
+      <c r="E396" s="87"/>
       <c r="F396" s="9"/>
       <c r="G396" s="14"/>
       <c r="H396" s="14"/>
@@ -9865,9 +9815,7 @@
       <c r="B397" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C397" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C397" s="8"/>
       <c r="D397" s="9"/>
       <c r="E397" s="87"/>
       <c r="G397" s="14"/>
@@ -9941,13 +9889,9 @@
       <c r="B402" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C402" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C402" s="8"/>
       <c r="D402" s="9"/>
-      <c r="E402" s="87" t="s">
-        <v>625</v>
-      </c>
+      <c r="E402" s="87"/>
       <c r="F402" s="9"/>
       <c r="G402" s="14"/>
       <c r="H402" s="14"/>
@@ -9975,13 +9919,9 @@
       <c r="B404" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C404" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C404" s="8"/>
       <c r="D404" s="9"/>
-      <c r="E404" s="87" t="s">
-        <v>631</v>
-      </c>
+      <c r="E404" s="87"/>
       <c r="F404" s="9"/>
       <c r="G404" s="14"/>
       <c r="H404" s="14"/>
@@ -10009,13 +9949,9 @@
       <c r="B406" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C406" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C406" s="8"/>
       <c r="D406" s="9"/>
-      <c r="E406" s="87" t="s">
-        <v>639</v>
-      </c>
+      <c r="E406" s="87"/>
       <c r="F406" s="9"/>
       <c r="G406" s="14"/>
       <c r="H406" s="14"/>
@@ -10221,13 +10157,9 @@
       <c r="B420" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="C420" s="8" t="s">
-        <v>648</v>
-      </c>
+      <c r="C420" s="8"/>
       <c r="D420" s="9"/>
-      <c r="E420" s="87" t="s">
-        <v>640</v>
-      </c>
+      <c r="E420" s="87"/>
       <c r="F420" s="9"/>
       <c r="G420" s="14"/>
       <c r="H420" s="14"/>
@@ -10240,12 +10172,12 @@
       <c r="B421" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C421" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="D421" s="9"/>
+      <c r="C421" s="8"/>
+      <c r="D421" s="9" t="s">
+        <v>640</v>
+      </c>
       <c r="E421" s="87" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F421" s="9"/>
       <c r="G421" s="14"/>
@@ -10319,12 +10251,12 @@
       <c r="B426" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C426" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="D426" s="9"/>
+      <c r="C426" s="8"/>
+      <c r="D426" s="9" t="s">
+        <v>640</v>
+      </c>
       <c r="E426" s="87" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F426" s="9"/>
       <c r="G426" s="14"/>
@@ -10339,11 +10271,11 @@
         <v>471</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D427" s="9"/>
       <c r="E427" s="87" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F427" s="9"/>
       <c r="G427" s="14"/>

--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B9550-41B4-B048-A501-B9535C4A4445}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E348B8-0A6A-8A4E-8844-7800E450DA91}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="520" windowWidth="29180" windowHeight="20460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="648">
   <si>
     <t>3-node architecture</t>
   </si>
@@ -2613,9 +2613,6 @@
     <t>buckets and colors</t>
   </si>
   <si>
-    <t>NAT-PT</t>
-  </si>
-  <si>
     <t>nx-api, securing, cisco virtual topology</t>
   </si>
   <si>
@@ -2631,18 +2628,12 @@
     <t>show ip eigrp topology outputs</t>
   </si>
   <si>
-    <t>function of type 4, flooding, v3 differences</t>
-  </si>
-  <si>
     <t>regexp practice</t>
   </si>
   <si>
     <t>review cisco product functionality</t>
   </si>
   <si>
-    <t>dev-ops stages, SVN</t>
-  </si>
-  <si>
     <t>bit changes for BGP, OSPF, etc.</t>
   </si>
   <si>
@@ -2688,7 +2679,7 @@
     <t>option 82 feature</t>
   </si>
   <si>
-    <t>srr configurations</t>
+    <t>FA scenario</t>
   </si>
 </sst>
 </file>
@@ -3737,8 +3728,8 @@
   <dimension ref="A1:I892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A424" sqref="A424"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3762,10 +3753,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>621</v>
@@ -3775,7 +3766,7 @@
       </c>
       <c r="G1" s="13">
         <f ca="1">(TODAY()-I1)*-1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>22</v>
@@ -4586,10 +4577,10 @@
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E55" s="87" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="14"/>
@@ -4963,10 +4954,10 @@
       </c>
       <c r="C80" s="86"/>
       <c r="D80" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="E80" s="90" t="s">
         <v>640</v>
-      </c>
-      <c r="E80" s="90" t="s">
-        <v>643</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="14"/>
@@ -5402,7 +5393,7 @@
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E109" s="87" t="s">
         <v>622</v>
@@ -5794,7 +5785,7 @@
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E135" s="87"/>
       <c r="F135" s="9"/>
@@ -6081,10 +6072,10 @@
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E154" s="89" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F154" s="9"/>
       <c r="G154" s="14"/>
@@ -6445,10 +6436,10 @@
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E178" s="87" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="14"/>
@@ -6508,7 +6499,9 @@
         <v>222</v>
       </c>
       <c r="C182" s="8"/>
-      <c r="D182" s="9"/>
+      <c r="D182" s="9" t="s">
+        <v>637</v>
+      </c>
       <c r="E182" s="87"/>
       <c r="F182" s="9"/>
       <c r="G182" s="14"/>
@@ -6614,10 +6607,10 @@
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E189" s="89" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F189" s="9"/>
       <c r="G189" s="14"/>
@@ -6948,10 +6941,10 @@
       </c>
       <c r="C211" s="8"/>
       <c r="D211" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="E211" s="87" t="s">
-        <v>631</v>
+        <v>637</v>
+      </c>
+      <c r="E211" s="90" t="s">
+        <v>647</v>
       </c>
       <c r="F211" s="9"/>
       <c r="G211" s="14"/>
@@ -7251,10 +7244,10 @@
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E231" s="90" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="14"/>
@@ -7270,10 +7263,10 @@
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E232" s="90" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="14"/>
@@ -7499,10 +7492,10 @@
       </c>
       <c r="C247" s="8"/>
       <c r="D247" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E247" s="89" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="14"/>
@@ -7518,10 +7511,10 @@
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E248" s="87" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="14"/>
@@ -7537,10 +7530,10 @@
       </c>
       <c r="C249" s="8"/>
       <c r="D249" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E249" s="90" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="14"/>
@@ -7706,10 +7699,10 @@
       </c>
       <c r="C260" s="8"/>
       <c r="D260" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E260" s="87" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F260" s="9"/>
       <c r="G260" s="14"/>
@@ -7740,10 +7733,10 @@
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E262" s="87" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F262" s="9"/>
       <c r="G262" s="14"/>
@@ -7819,10 +7812,10 @@
       </c>
       <c r="C267" s="8"/>
       <c r="D267" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E267" s="89" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F267" s="9"/>
       <c r="G267" s="14"/>
@@ -7928,10 +7921,10 @@
       </c>
       <c r="C274" s="8"/>
       <c r="D274" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E274" s="87" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F274" s="9"/>
       <c r="G274" s="14"/>
@@ -8245,10 +8238,10 @@
       </c>
       <c r="C295" s="8"/>
       <c r="D295" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E295" s="90" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F295" s="9"/>
       <c r="G295" s="14"/>
@@ -8264,10 +8257,10 @@
       </c>
       <c r="C296" s="8"/>
       <c r="D296" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E296" s="87" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F296" s="9"/>
       <c r="G296" s="14"/>
@@ -8298,10 +8291,10 @@
       </c>
       <c r="C298" s="8"/>
       <c r="D298" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E298" s="87" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F298" s="9"/>
       <c r="G298" s="14"/>
@@ -8392,10 +8385,10 @@
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E304" s="90" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F304" s="9"/>
       <c r="G304" s="14"/>
@@ -8441,7 +8434,7 @@
       </c>
       <c r="C307" s="8"/>
       <c r="D307" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E307" s="87"/>
       <c r="F307" s="9"/>
@@ -8473,10 +8466,10 @@
       </c>
       <c r="C309" s="8"/>
       <c r="D309" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E309" s="90" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F309" s="9"/>
       <c r="G309" s="14"/>
@@ -8700,10 +8693,10 @@
       </c>
       <c r="C324" s="8"/>
       <c r="D324" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E324" s="90" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F324" s="9"/>
       <c r="G324" s="14"/>
@@ -8794,10 +8787,10 @@
       </c>
       <c r="C330" s="8"/>
       <c r="D330" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E330" s="90" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F330" s="9"/>
       <c r="G330" s="14"/>
@@ -9021,10 +9014,10 @@
       <c r="B345" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C345" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="D345" s="9"/>
+      <c r="C345" s="8"/>
+      <c r="D345" s="9" t="s">
+        <v>637</v>
+      </c>
       <c r="E345" s="87" t="s">
         <v>623</v>
       </c>
@@ -9085,10 +9078,10 @@
       <c r="B349" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C349" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="D349" s="9"/>
+      <c r="C349" s="8"/>
+      <c r="D349" s="9" t="s">
+        <v>637</v>
+      </c>
       <c r="E349" s="87"/>
       <c r="F349" s="9"/>
       <c r="G349" s="14"/>
@@ -9372,7 +9365,7 @@
       </c>
       <c r="C368" s="8"/>
       <c r="D368" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E368" s="87" t="s">
         <v>624</v>
@@ -9449,11 +9442,9 @@
       </c>
       <c r="C373" s="8"/>
       <c r="D373" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="E373" s="90" t="s">
-        <v>650</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="E373" s="90"/>
       <c r="F373" s="9"/>
       <c r="G373" s="14"/>
       <c r="H373" s="14"/>
@@ -9707,12 +9698,8 @@
         <v>433</v>
       </c>
       <c r="C390" s="8"/>
-      <c r="D390" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="E390" s="87" t="s">
-        <v>625</v>
-      </c>
+      <c r="D390" s="9"/>
+      <c r="E390" s="87"/>
       <c r="F390" s="9"/>
       <c r="G390" s="14"/>
       <c r="H390" s="14"/>
@@ -10173,11 +10160,9 @@
         <v>465</v>
       </c>
       <c r="C421" s="8"/>
-      <c r="D421" s="9" t="s">
-        <v>640</v>
-      </c>
+      <c r="D421" s="9"/>
       <c r="E421" s="87" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F421" s="9"/>
       <c r="G421" s="14"/>
@@ -10253,10 +10238,10 @@
       </c>
       <c r="C426" s="8"/>
       <c r="D426" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E426" s="87" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F426" s="9"/>
       <c r="G426" s="14"/>
@@ -10270,13 +10255,11 @@
       <c r="B427" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C427" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="D427" s="9"/>
-      <c r="E427" s="87" t="s">
-        <v>634</v>
-      </c>
+      <c r="C427" s="8"/>
+      <c r="D427" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="E427" s="87"/>
       <c r="F427" s="9"/>
       <c r="G427" s="14"/>
       <c r="H427" s="14"/>
@@ -11739,7 +11722,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:I892" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C204:D213 C373:D391 C2:D55 D56 C57:D202 C215:D296 C298:D338 C340:D360 C393:D432 E231:E232 E249 E80 E295 E304 E309 E324 E330 C363:D368 C370:D371 C369 D373:E373">
+  <conditionalFormatting sqref="C204:D213 C373:D391 C2:D55 D56 C57:D202 C215:D296 C298:D338 C340:D360 C393:D432 E231:E232 E249 E80 E295 E304 E309 E324 E330 C363:D368 C370:D371 C369 D373:E373 E211">
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C2)))</formula>
     </cfRule>

--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\admin\git\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E348B8-0A6A-8A4E-8844-7800E450DA91}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="520" windowWidth="29180" windowHeight="20460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="525" windowWidth="29175" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">topics!$B$1:$I$892</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="633">
   <si>
     <t>3-node architecture</t>
   </si>
@@ -2604,45 +2603,12 @@
     <t>notes</t>
   </si>
   <si>
-    <t>criteria</t>
-  </si>
-  <si>
-    <t>dependencies</t>
-  </si>
-  <si>
-    <t>buckets and colors</t>
-  </si>
-  <si>
-    <t>nx-api, securing, cisco virtual topology</t>
-  </si>
-  <si>
-    <t>address composition</t>
-  </si>
-  <si>
-    <t>what required to support?</t>
-  </si>
-  <si>
     <t>practice needed with acl, etc</t>
   </si>
   <si>
-    <t>show ip eigrp topology outputs</t>
-  </si>
-  <si>
-    <t>regexp practice</t>
-  </si>
-  <si>
-    <t>review cisco product functionality</t>
-  </si>
-  <si>
-    <t>bit changes for BGP, OSPF, etc.</t>
-  </si>
-  <si>
     <t>request packet and CR bit</t>
   </si>
   <si>
-    <t>practice, chart</t>
-  </si>
-  <si>
     <t>review</t>
   </si>
   <si>
@@ -2658,9 +2624,6 @@
     <t>built-in community types</t>
   </si>
   <si>
-    <t>TCN and TC mechanisms at RSTP and STP boundary</t>
-  </si>
-  <si>
     <t>profiling restrictions for DMVPN</t>
   </si>
   <si>
@@ -2671,21 +2634,12 @@
   </si>
   <si>
     <t>tunnel vs transport</t>
-  </si>
-  <si>
-    <t>command-level customization</t>
-  </si>
-  <si>
-    <t>option 82 feature</t>
-  </si>
-  <si>
-    <t>FA scenario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
@@ -3226,13 +3180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3242,30 +3190,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3286,17 +3210,32 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3307,14 +3246,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3322,7 +3276,151 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3721,31 +3819,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B182" sqref="B182"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D429" sqref="D429"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="91.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3753,10 +3851,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>621</v>
@@ -3766,7 +3864,7 @@
       </c>
       <c r="G1" s="13">
         <f ca="1">(TODAY()-I1)*-1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>22</v>
@@ -3775,7 +3873,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>26</v>
@@ -3788,7 +3886,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -3803,7 +3901,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -3818,7 +3916,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
@@ -3833,7 +3931,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -3848,7 +3946,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -3863,7 +3961,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -3878,7 +3976,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -3893,7 +3991,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -3908,7 +4006,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -3923,7 +4021,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -3938,7 +4036,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -3953,7 +4051,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -3968,7 +4066,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -3983,7 +4081,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -3998,7 +4096,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -4013,7 +4111,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -4028,7 +4126,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -4043,7 +4141,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -4058,7 +4156,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -4073,7 +4171,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -4088,7 +4186,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -4103,7 +4201,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -4118,7 +4216,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -4133,7 +4231,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -4148,7 +4246,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
@@ -4163,7 +4261,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
@@ -4178,7 +4276,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -4193,7 +4291,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>24</v>
       </c>
@@ -4208,7 +4306,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -4223,7 +4321,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
@@ -4238,7 +4336,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>24</v>
       </c>
@@ -4253,7 +4351,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
@@ -4268,7 +4366,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>24</v>
       </c>
@@ -4283,7 +4381,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
@@ -4298,7 +4396,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>24</v>
       </c>
@@ -4313,7 +4411,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>24</v>
       </c>
@@ -4328,7 +4426,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>24</v>
       </c>
@@ -4343,7 +4441,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>24</v>
       </c>
@@ -4358,7 +4456,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>24</v>
       </c>
@@ -4373,7 +4471,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>24</v>
       </c>
@@ -4388,7 +4486,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>24</v>
       </c>
@@ -4403,7 +4501,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>24</v>
       </c>
@@ -4418,7 +4516,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>24</v>
       </c>
@@ -4433,7 +4531,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>24</v>
       </c>
@@ -4448,7 +4546,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>24</v>
       </c>
@@ -4463,7 +4561,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
     </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>24</v>
       </c>
@@ -4478,7 +4576,7 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>24</v>
       </c>
@@ -4493,7 +4591,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>24</v>
       </c>
@@ -4508,7 +4606,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>24</v>
       </c>
@@ -4523,7 +4621,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>24</v>
       </c>
@@ -4538,7 +4636,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
-    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>24</v>
       </c>
@@ -4553,7 +4651,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>24</v>
       </c>
@@ -4568,7 +4666,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>24</v>
       </c>
@@ -4576,18 +4674,16 @@
         <v>94</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="9" t="s">
-        <v>637</v>
-      </c>
+      <c r="D55" s="9"/>
       <c r="E55" s="87" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
         <v>95</v>
@@ -4600,7 +4696,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>95</v>
       </c>
@@ -4615,7 +4711,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>95</v>
       </c>
@@ -4630,7 +4726,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>95</v>
       </c>
@@ -4645,7 +4741,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
     </row>
-    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>95</v>
       </c>
@@ -4660,7 +4756,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
     </row>
-    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>95</v>
       </c>
@@ -4675,7 +4771,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
-    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>95</v>
       </c>
@@ -4690,7 +4786,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
     </row>
-    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>95</v>
       </c>
@@ -4705,7 +4801,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>95</v>
       </c>
@@ -4720,7 +4816,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>95</v>
       </c>
@@ -4735,7 +4831,7 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>95</v>
       </c>
@@ -4750,7 +4846,7 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>95</v>
       </c>
@@ -4765,7 +4861,7 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>95</v>
       </c>
@@ -4780,7 +4876,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>95</v>
       </c>
@@ -4795,7 +4891,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>95</v>
       </c>
@@ -4810,7 +4906,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>95</v>
       </c>
@@ -4825,7 +4921,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>95</v>
       </c>
@@ -4840,7 +4936,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>95</v>
       </c>
@@ -4855,7 +4951,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>95</v>
       </c>
@@ -4870,7 +4966,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>95</v>
       </c>
@@ -4885,7 +4981,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>95</v>
       </c>
@@ -4900,7 +4996,7 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>95</v>
       </c>
@@ -4915,7 +5011,7 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>95</v>
       </c>
@@ -4930,7 +5026,7 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>95</v>
       </c>
@@ -4945,7 +5041,7 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>95</v>
       </c>
@@ -4953,18 +5049,14 @@
         <v>119</v>
       </c>
       <c r="C80" s="86"/>
-      <c r="D80" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E80" s="90" t="s">
-        <v>640</v>
-      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="90"/>
       <c r="F80" s="9"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
     </row>
-    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>95</v>
       </c>
@@ -4979,7 +5071,7 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
     </row>
-    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>95</v>
       </c>
@@ -4994,7 +5086,7 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>95</v>
       </c>
@@ -5009,7 +5101,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>95</v>
       </c>
@@ -5024,7 +5116,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>95</v>
       </c>
@@ -5039,7 +5131,7 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
     </row>
-    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>95</v>
       </c>
@@ -5054,7 +5146,7 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>95</v>
       </c>
@@ -5069,7 +5161,7 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>95</v>
       </c>
@@ -5084,7 +5176,7 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>95</v>
       </c>
@@ -5099,7 +5191,7 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
     </row>
-    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>95</v>
       </c>
@@ -5114,7 +5206,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>95</v>
       </c>
@@ -5129,7 +5221,7 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
     </row>
-    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>95</v>
       </c>
@@ -5144,7 +5236,7 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
     </row>
-    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>95</v>
       </c>
@@ -5159,7 +5251,7 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
     </row>
-    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>95</v>
       </c>
@@ -5174,7 +5266,7 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>95</v>
       </c>
@@ -5189,7 +5281,7 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>95</v>
       </c>
@@ -5204,7 +5296,7 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
@@ -5219,7 +5311,7 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>95</v>
       </c>
@@ -5234,7 +5326,7 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>95</v>
       </c>
@@ -5249,7 +5341,7 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
     </row>
-    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>95</v>
       </c>
@@ -5264,7 +5356,7 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>95</v>
       </c>
@@ -5279,7 +5371,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>95</v>
       </c>
@@ -5294,7 +5386,7 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
     </row>
-    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>95</v>
       </c>
@@ -5309,7 +5401,7 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
     </row>
-    <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>95</v>
       </c>
@@ -5324,7 +5416,7 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
     </row>
-    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>95</v>
       </c>
@@ -5339,7 +5431,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
     </row>
-    <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>95</v>
       </c>
@@ -5354,7 +5446,7 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
     </row>
-    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>95</v>
       </c>
@@ -5369,7 +5461,7 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
     </row>
-    <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>95</v>
       </c>
@@ -5384,7 +5476,7 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
     </row>
-    <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>95</v>
       </c>
@@ -5392,18 +5484,14 @@
         <v>148</v>
       </c>
       <c r="C109" s="8"/>
-      <c r="D109" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E109" s="87" t="s">
-        <v>622</v>
-      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="87"/>
       <c r="F109" s="9"/>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
     </row>
-    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>95</v>
       </c>
@@ -5418,7 +5506,7 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
     </row>
-    <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>95</v>
       </c>
@@ -5433,7 +5521,7 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
     </row>
-    <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>95</v>
       </c>
@@ -5448,7 +5536,7 @@
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
     </row>
-    <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
         <v>153</v>
@@ -5461,7 +5549,7 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
     </row>
-    <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>152</v>
       </c>
@@ -5476,7 +5564,7 @@
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
     </row>
-    <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>152</v>
       </c>
@@ -5491,7 +5579,7 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
     </row>
-    <row r="116" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>152</v>
       </c>
@@ -5506,7 +5594,7 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
     </row>
-    <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>152</v>
       </c>
@@ -5521,7 +5609,7 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
     </row>
-    <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>152</v>
       </c>
@@ -5536,7 +5624,7 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
     </row>
-    <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>152</v>
       </c>
@@ -5551,7 +5639,7 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
     </row>
-    <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>152</v>
       </c>
@@ -5566,7 +5654,7 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
     </row>
-    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>152</v>
       </c>
@@ -5581,7 +5669,7 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
     </row>
-    <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>152</v>
       </c>
@@ -5596,7 +5684,7 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
     </row>
-    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>152</v>
       </c>
@@ -5611,7 +5699,7 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
     </row>
-    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>152</v>
       </c>
@@ -5626,7 +5714,7 @@
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
     </row>
-    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>152</v>
       </c>
@@ -5641,7 +5729,7 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
     </row>
-    <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>152</v>
       </c>
@@ -5656,7 +5744,7 @@
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
     </row>
-    <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>152</v>
       </c>
@@ -5671,7 +5759,7 @@
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
     </row>
-    <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>152</v>
       </c>
@@ -5686,7 +5774,7 @@
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
     </row>
-    <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>152</v>
       </c>
@@ -5701,7 +5789,7 @@
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
     </row>
-    <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>152</v>
       </c>
@@ -5716,7 +5804,7 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
     </row>
-    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>152</v>
       </c>
@@ -5731,7 +5819,7 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
     </row>
-    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>152</v>
       </c>
@@ -5746,7 +5834,7 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
     </row>
-    <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>152</v>
       </c>
@@ -5761,7 +5849,7 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
     </row>
-    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>152</v>
       </c>
@@ -5776,7 +5864,7 @@
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
     </row>
-    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>152</v>
       </c>
@@ -5785,7 +5873,7 @@
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E135" s="87"/>
       <c r="F135" s="9"/>
@@ -5793,7 +5881,7 @@
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
     </row>
-    <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>152</v>
       </c>
@@ -5808,7 +5896,7 @@
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
     </row>
-    <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>152</v>
       </c>
@@ -5823,7 +5911,7 @@
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
     </row>
-    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>152</v>
       </c>
@@ -5838,7 +5926,7 @@
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
     </row>
-    <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>152</v>
       </c>
@@ -5853,7 +5941,7 @@
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
     </row>
-    <row r="140" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>152</v>
       </c>
@@ -5868,7 +5956,7 @@
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
     </row>
-    <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>152</v>
       </c>
@@ -5883,7 +5971,7 @@
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
     </row>
-    <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>152</v>
       </c>
@@ -5898,7 +5986,7 @@
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
     </row>
-    <row r="143" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>152</v>
       </c>
@@ -5913,7 +6001,7 @@
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
     </row>
-    <row r="144" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>152</v>
       </c>
@@ -5928,7 +6016,7 @@
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
     </row>
-    <row r="145" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>152</v>
       </c>
@@ -5943,7 +6031,7 @@
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
     </row>
-    <row r="146" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>152</v>
       </c>
@@ -5958,7 +6046,7 @@
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
     </row>
-    <row r="147" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>152</v>
       </c>
@@ -5973,7 +6061,7 @@
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
     </row>
-    <row r="148" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>152</v>
       </c>
@@ -5988,7 +6076,7 @@
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
     </row>
-    <row r="149" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>152</v>
       </c>
@@ -6003,7 +6091,7 @@
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
     </row>
-    <row r="150" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>152</v>
       </c>
@@ -6018,7 +6106,7 @@
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
     </row>
-    <row r="151" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>152</v>
       </c>
@@ -6033,7 +6121,7 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
     </row>
-    <row r="152" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>152</v>
       </c>
@@ -6048,7 +6136,7 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
     </row>
-    <row r="153" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -6063,7 +6151,7 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
     </row>
-    <row r="154" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>152</v>
       </c>
@@ -6071,18 +6159,14 @@
         <v>194</v>
       </c>
       <c r="C154" s="8"/>
-      <c r="D154" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E154" s="89" t="s">
-        <v>632</v>
-      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="89"/>
       <c r="F154" s="9"/>
       <c r="G154" s="14"/>
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
     </row>
-    <row r="155" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>152</v>
       </c>
@@ -6097,7 +6181,7 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
     </row>
-    <row r="156" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>152</v>
       </c>
@@ -6112,7 +6196,7 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
     </row>
-    <row r="157" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>152</v>
       </c>
@@ -6127,7 +6211,7 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
     </row>
-    <row r="158" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>152</v>
       </c>
@@ -6142,7 +6226,7 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
     </row>
-    <row r="159" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>152</v>
       </c>
@@ -6157,7 +6241,7 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
     </row>
-    <row r="160" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>152</v>
       </c>
@@ -6172,7 +6256,7 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
     </row>
-    <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>152</v>
       </c>
@@ -6187,7 +6271,7 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
     </row>
-    <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>152</v>
       </c>
@@ -6202,7 +6286,7 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
     </row>
-    <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>152</v>
       </c>
@@ -6217,7 +6301,7 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
     </row>
-    <row r="164" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>152</v>
       </c>
@@ -6232,7 +6316,7 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
     </row>
-    <row r="165" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>152</v>
       </c>
@@ -6247,7 +6331,7 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
     </row>
-    <row r="166" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>152</v>
       </c>
@@ -6262,7 +6346,7 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
     </row>
-    <row r="167" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>152</v>
       </c>
@@ -6277,7 +6361,7 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
     </row>
-    <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>152</v>
       </c>
@@ -6292,7 +6376,7 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>152</v>
       </c>
@@ -6307,7 +6391,7 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
-    <row r="170" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>152</v>
       </c>
@@ -6322,7 +6406,7 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
     </row>
-    <row r="171" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>152</v>
       </c>
@@ -6337,7 +6421,7 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>152</v>
       </c>
@@ -6352,7 +6436,7 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
     </row>
-    <row r="173" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>152</v>
       </c>
@@ -6367,7 +6451,7 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
     </row>
-    <row r="174" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>152</v>
       </c>
@@ -6382,7 +6466,7 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
     </row>
-    <row r="175" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>152</v>
       </c>
@@ -6397,7 +6481,7 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
     </row>
-    <row r="176" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>152</v>
       </c>
@@ -6412,7 +6496,7 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
     </row>
-    <row r="177" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>152</v>
       </c>
@@ -6427,7 +6511,7 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
     </row>
-    <row r="178" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>152</v>
       </c>
@@ -6436,17 +6520,15 @@
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E178" s="87" t="s">
-        <v>629</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="E178" s="87"/>
       <c r="F178" s="9"/>
       <c r="G178" s="14"/>
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
     </row>
-    <row r="179" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>152</v>
       </c>
@@ -6461,7 +6543,7 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
     </row>
-    <row r="180" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>152</v>
       </c>
@@ -6476,7 +6558,7 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>152</v>
       </c>
@@ -6491,7 +6573,7 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
     </row>
-    <row r="182" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>152</v>
       </c>
@@ -6500,7 +6582,7 @@
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E182" s="87"/>
       <c r="F182" s="9"/>
@@ -6508,7 +6590,7 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
     </row>
-    <row r="183" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>152</v>
       </c>
@@ -6523,7 +6605,7 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
     </row>
-    <row r="184" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>152</v>
       </c>
@@ -6538,7 +6620,7 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
     </row>
-    <row r="185" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>152</v>
       </c>
@@ -6553,7 +6635,7 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
     </row>
-    <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>152</v>
       </c>
@@ -6568,7 +6650,7 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
     </row>
-    <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>152</v>
       </c>
@@ -6583,7 +6665,7 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
     </row>
-    <row r="188" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>152</v>
       </c>
@@ -6598,7 +6680,7 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
     </row>
-    <row r="189" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>152</v>
       </c>
@@ -6607,17 +6689,17 @@
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E189" s="89" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F189" s="9"/>
       <c r="G189" s="14"/>
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
     </row>
-    <row r="190" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>152</v>
       </c>
@@ -6632,7 +6714,7 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
     </row>
-    <row r="191" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>152</v>
       </c>
@@ -6647,7 +6729,7 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>152</v>
       </c>
@@ -6662,7 +6744,7 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
     </row>
-    <row r="193" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>152</v>
       </c>
@@ -6677,7 +6759,7 @@
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>152</v>
       </c>
@@ -6692,7 +6774,7 @@
       <c r="H194" s="14"/>
       <c r="I194" s="14"/>
     </row>
-    <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>152</v>
       </c>
@@ -6707,7 +6789,7 @@
       <c r="H195" s="14"/>
       <c r="I195" s="14"/>
     </row>
-    <row r="196" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>152</v>
       </c>
@@ -6722,7 +6804,7 @@
       <c r="H196" s="14"/>
       <c r="I196" s="14"/>
     </row>
-    <row r="197" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>152</v>
       </c>
@@ -6737,7 +6819,7 @@
       <c r="H197" s="14"/>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>152</v>
       </c>
@@ -6752,7 +6834,7 @@
       <c r="H198" s="14"/>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>152</v>
       </c>
@@ -6767,7 +6849,7 @@
       <c r="H199" s="14"/>
       <c r="I199" s="14"/>
     </row>
-    <row r="200" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>152</v>
       </c>
@@ -6782,7 +6864,7 @@
       <c r="H200" s="14"/>
       <c r="I200" s="14"/>
     </row>
-    <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>152</v>
       </c>
@@ -6797,7 +6879,7 @@
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
     </row>
-    <row r="202" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>152</v>
       </c>
@@ -6812,7 +6894,7 @@
       <c r="H202" s="14"/>
       <c r="I202" s="14"/>
     </row>
-    <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>152</v>
       </c>
@@ -6827,7 +6909,7 @@
       <c r="H203" s="14"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>152</v>
       </c>
@@ -6842,7 +6924,7 @@
       <c r="H204" s="14"/>
       <c r="I204" s="14"/>
     </row>
-    <row r="205" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>152</v>
       </c>
@@ -6857,7 +6939,7 @@
       <c r="H205" s="14"/>
       <c r="I205" s="14"/>
     </row>
-    <row r="206" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>152</v>
       </c>
@@ -6872,7 +6954,7 @@
       <c r="H206" s="14"/>
       <c r="I206" s="14"/>
     </row>
-    <row r="207" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>152</v>
       </c>
@@ -6887,7 +6969,7 @@
       <c r="H207" s="14"/>
       <c r="I207" s="14"/>
     </row>
-    <row r="208" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>152</v>
       </c>
@@ -6902,7 +6984,7 @@
       <c r="H208" s="14"/>
       <c r="I208" s="14"/>
     </row>
-    <row r="209" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>152</v>
       </c>
@@ -6917,7 +6999,7 @@
       <c r="H209" s="14"/>
       <c r="I209" s="14"/>
     </row>
-    <row r="210" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>152</v>
       </c>
@@ -6932,7 +7014,7 @@
       <c r="H210" s="14"/>
       <c r="I210" s="14"/>
     </row>
-    <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>152</v>
       </c>
@@ -6940,18 +7022,14 @@
         <v>251</v>
       </c>
       <c r="C211" s="8"/>
-      <c r="D211" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E211" s="90" t="s">
-        <v>647</v>
-      </c>
+      <c r="D211" s="9"/>
+      <c r="E211" s="90"/>
       <c r="F211" s="9"/>
       <c r="G211" s="14"/>
       <c r="H211" s="14"/>
       <c r="I211" s="14"/>
     </row>
-    <row r="212" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>152</v>
       </c>
@@ -6966,7 +7044,7 @@
       <c r="H212" s="14"/>
       <c r="I212" s="14"/>
     </row>
-    <row r="213" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>152</v>
       </c>
@@ -6981,7 +7059,7 @@
       <c r="H213" s="14"/>
       <c r="I213" s="14"/>
     </row>
-    <row r="214" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>152</v>
       </c>
@@ -6995,7 +7073,7 @@
       <c r="H214" s="14"/>
       <c r="I214" s="14"/>
     </row>
-    <row r="215" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>152</v>
       </c>
@@ -7010,7 +7088,7 @@
       <c r="H215" s="14"/>
       <c r="I215" s="14"/>
     </row>
-    <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>152</v>
       </c>
@@ -7025,7 +7103,7 @@
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
     </row>
-    <row r="217" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>152</v>
       </c>
@@ -7040,7 +7118,7 @@
       <c r="H217" s="14"/>
       <c r="I217" s="14"/>
     </row>
-    <row r="218" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>152</v>
       </c>
@@ -7055,7 +7133,7 @@
       <c r="H218" s="14"/>
       <c r="I218" s="14"/>
     </row>
-    <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>152</v>
       </c>
@@ -7070,7 +7148,7 @@
       <c r="H219" s="14"/>
       <c r="I219" s="14"/>
     </row>
-    <row r="220" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>152</v>
       </c>
@@ -7085,7 +7163,7 @@
       <c r="H220" s="14"/>
       <c r="I220" s="14"/>
     </row>
-    <row r="221" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>152</v>
       </c>
@@ -7100,7 +7178,7 @@
       <c r="H221" s="14"/>
       <c r="I221" s="14"/>
     </row>
-    <row r="222" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>152</v>
       </c>
@@ -7115,7 +7193,7 @@
       <c r="H222" s="14"/>
       <c r="I222" s="14"/>
     </row>
-    <row r="223" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>152</v>
       </c>
@@ -7130,7 +7208,7 @@
       <c r="H223" s="14"/>
       <c r="I223" s="14"/>
     </row>
-    <row r="224" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>152</v>
       </c>
@@ -7145,7 +7223,7 @@
       <c r="H224" s="14"/>
       <c r="I224" s="14"/>
     </row>
-    <row r="225" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>152</v>
       </c>
@@ -7160,7 +7238,7 @@
       <c r="H225" s="14"/>
       <c r="I225" s="14"/>
     </row>
-    <row r="226" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>152</v>
       </c>
@@ -7175,7 +7253,7 @@
       <c r="H226" s="14"/>
       <c r="I226" s="14"/>
     </row>
-    <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>152</v>
       </c>
@@ -7190,7 +7268,7 @@
       <c r="H227" s="14"/>
       <c r="I227" s="14"/>
     </row>
-    <row r="228" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>152</v>
       </c>
@@ -7205,7 +7283,7 @@
       <c r="H228" s="14"/>
       <c r="I228" s="14"/>
     </row>
-    <row r="229" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>152</v>
       </c>
@@ -7220,7 +7298,7 @@
       <c r="H229" s="14"/>
       <c r="I229" s="14"/>
     </row>
-    <row r="230" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>152</v>
       </c>
@@ -7235,7 +7313,7 @@
       <c r="H230" s="14"/>
       <c r="I230" s="14"/>
     </row>
-    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>152</v>
       </c>
@@ -7244,17 +7322,17 @@
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E231" s="90" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="14"/>
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
     </row>
-    <row r="232" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>152</v>
       </c>
@@ -7263,17 +7341,17 @@
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E232" s="90" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="14"/>
       <c r="H232" s="14"/>
       <c r="I232" s="14"/>
     </row>
-    <row r="233" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>152</v>
       </c>
@@ -7288,7 +7366,7 @@
       <c r="H233" s="14"/>
       <c r="I233" s="14"/>
     </row>
-    <row r="234" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>152</v>
       </c>
@@ -7303,7 +7381,7 @@
       <c r="H234" s="14"/>
       <c r="I234" s="14"/>
     </row>
-    <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>152</v>
       </c>
@@ -7318,7 +7396,7 @@
       <c r="H235" s="14"/>
       <c r="I235" s="14"/>
     </row>
-    <row r="236" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>152</v>
       </c>
@@ -7333,7 +7411,7 @@
       <c r="H236" s="14"/>
       <c r="I236" s="14"/>
     </row>
-    <row r="237" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>152</v>
       </c>
@@ -7348,7 +7426,7 @@
       <c r="H237" s="14"/>
       <c r="I237" s="14"/>
     </row>
-    <row r="238" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>152</v>
       </c>
@@ -7363,7 +7441,7 @@
       <c r="H238" s="14"/>
       <c r="I238" s="14"/>
     </row>
-    <row r="239" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>152</v>
       </c>
@@ -7378,7 +7456,7 @@
       <c r="H239" s="14"/>
       <c r="I239" s="14"/>
     </row>
-    <row r="240" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>152</v>
       </c>
@@ -7393,7 +7471,7 @@
       <c r="H240" s="14"/>
       <c r="I240" s="14"/>
     </row>
-    <row r="241" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>152</v>
       </c>
@@ -7408,7 +7486,7 @@
       <c r="H241" s="14"/>
       <c r="I241" s="14"/>
     </row>
-    <row r="242" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>152</v>
       </c>
@@ -7423,7 +7501,7 @@
       <c r="H242" s="14"/>
       <c r="I242" s="14"/>
     </row>
-    <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>152</v>
       </c>
@@ -7438,7 +7516,7 @@
       <c r="H243" s="14"/>
       <c r="I243" s="14"/>
     </row>
-    <row r="244" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>152</v>
       </c>
@@ -7453,7 +7531,7 @@
       <c r="H244" s="14"/>
       <c r="I244" s="14"/>
     </row>
-    <row r="245" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>152</v>
       </c>
@@ -7468,7 +7546,7 @@
       <c r="H245" s="14"/>
       <c r="I245" s="14"/>
     </row>
-    <row r="246" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>152</v>
       </c>
@@ -7483,7 +7561,7 @@
       <c r="H246" s="14"/>
       <c r="I246" s="14"/>
     </row>
-    <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>152</v>
       </c>
@@ -7491,18 +7569,14 @@
         <v>287</v>
       </c>
       <c r="C247" s="8"/>
-      <c r="D247" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E247" s="89" t="s">
-        <v>634</v>
-      </c>
+      <c r="D247" s="9"/>
+      <c r="E247" s="89"/>
       <c r="F247" s="9"/>
       <c r="G247" s="14"/>
       <c r="H247" s="14"/>
       <c r="I247" s="14"/>
     </row>
-    <row r="248" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>152</v>
       </c>
@@ -7511,17 +7585,17 @@
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E248" s="87" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="14"/>
       <c r="H248" s="14"/>
       <c r="I248" s="14"/>
     </row>
-    <row r="249" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>152</v>
       </c>
@@ -7530,17 +7604,17 @@
       </c>
       <c r="C249" s="8"/>
       <c r="D249" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E249" s="90" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="14"/>
       <c r="H249" s="14"/>
       <c r="I249" s="14"/>
     </row>
-    <row r="250" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>152</v>
       </c>
@@ -7555,7 +7629,7 @@
       <c r="H250" s="14"/>
       <c r="I250" s="14"/>
     </row>
-    <row r="251" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>152</v>
       </c>
@@ -7570,7 +7644,7 @@
       <c r="H251" s="14"/>
       <c r="I251" s="14"/>
     </row>
-    <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>152</v>
       </c>
@@ -7585,7 +7659,7 @@
       <c r="H252" s="14"/>
       <c r="I252" s="14"/>
     </row>
-    <row r="253" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>152</v>
       </c>
@@ -7600,7 +7674,7 @@
       <c r="H253" s="14"/>
       <c r="I253" s="14"/>
     </row>
-    <row r="254" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>152</v>
       </c>
@@ -7615,7 +7689,7 @@
       <c r="H254" s="14"/>
       <c r="I254" s="14"/>
     </row>
-    <row r="255" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>152</v>
       </c>
@@ -7630,7 +7704,7 @@
       <c r="H255" s="14"/>
       <c r="I255" s="14"/>
     </row>
-    <row r="256" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>152</v>
       </c>
@@ -7645,7 +7719,7 @@
       <c r="H256" s="14"/>
       <c r="I256" s="14"/>
     </row>
-    <row r="257" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>152</v>
       </c>
@@ -7660,7 +7734,7 @@
       <c r="H257" s="14"/>
       <c r="I257" s="14"/>
     </row>
-    <row r="258" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>152</v>
       </c>
@@ -7675,7 +7749,7 @@
       <c r="H258" s="14"/>
       <c r="I258" s="14"/>
     </row>
-    <row r="259" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>152</v>
       </c>
@@ -7690,7 +7764,7 @@
       <c r="H259" s="14"/>
       <c r="I259" s="14"/>
     </row>
-    <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>152</v>
       </c>
@@ -7698,18 +7772,14 @@
         <v>300</v>
       </c>
       <c r="C260" s="8"/>
-      <c r="D260" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E260" s="87" t="s">
-        <v>630</v>
-      </c>
+      <c r="D260" s="9"/>
+      <c r="E260" s="87"/>
       <c r="F260" s="9"/>
       <c r="G260" s="14"/>
       <c r="H260" s="14"/>
       <c r="I260" s="14"/>
     </row>
-    <row r="261" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>152</v>
       </c>
@@ -7724,7 +7794,7 @@
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
     </row>
-    <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>152</v>
       </c>
@@ -7732,18 +7802,14 @@
         <v>302</v>
       </c>
       <c r="C262" s="8"/>
-      <c r="D262" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E262" s="87" t="s">
-        <v>627</v>
-      </c>
+      <c r="D262" s="9"/>
+      <c r="E262" s="87"/>
       <c r="F262" s="9"/>
       <c r="G262" s="14"/>
       <c r="H262" s="14"/>
       <c r="I262" s="14"/>
     </row>
-    <row r="263" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>152</v>
       </c>
@@ -7758,7 +7824,7 @@
       <c r="H263" s="14"/>
       <c r="I263" s="14"/>
     </row>
-    <row r="264" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>152</v>
       </c>
@@ -7773,7 +7839,7 @@
       <c r="H264" s="14"/>
       <c r="I264" s="14"/>
     </row>
-    <row r="265" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>152</v>
       </c>
@@ -7788,7 +7854,7 @@
       <c r="H265" s="14"/>
       <c r="I265" s="14"/>
     </row>
-    <row r="266" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>152</v>
       </c>
@@ -7803,7 +7869,7 @@
       <c r="H266" s="14"/>
       <c r="I266" s="14"/>
     </row>
-    <row r="267" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>152</v>
       </c>
@@ -7811,18 +7877,14 @@
         <v>307</v>
       </c>
       <c r="C267" s="8"/>
-      <c r="D267" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E267" s="89" t="s">
-        <v>638</v>
-      </c>
+      <c r="D267" s="9"/>
+      <c r="E267" s="89"/>
       <c r="F267" s="9"/>
       <c r="G267" s="14"/>
       <c r="H267" s="14"/>
       <c r="I267" s="14"/>
     </row>
-    <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>152</v>
       </c>
@@ -7837,7 +7899,7 @@
       <c r="H268" s="14"/>
       <c r="I268" s="14"/>
     </row>
-    <row r="269" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>152</v>
       </c>
@@ -7852,7 +7914,7 @@
       <c r="H269" s="14"/>
       <c r="I269" s="14"/>
     </row>
-    <row r="270" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>152</v>
       </c>
@@ -7867,7 +7929,7 @@
       <c r="H270" s="14"/>
       <c r="I270" s="14"/>
     </row>
-    <row r="271" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>152</v>
       </c>
@@ -7882,7 +7944,7 @@
       <c r="H271" s="14"/>
       <c r="I271" s="14"/>
     </row>
-    <row r="272" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>152</v>
       </c>
@@ -7897,7 +7959,7 @@
       <c r="H272" s="14"/>
       <c r="I272" s="14"/>
     </row>
-    <row r="273" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>152</v>
       </c>
@@ -7912,7 +7974,7 @@
       <c r="H273" s="14"/>
       <c r="I273" s="14"/>
     </row>
-    <row r="274" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>152</v>
       </c>
@@ -7920,18 +7982,14 @@
         <v>314</v>
       </c>
       <c r="C274" s="8"/>
-      <c r="D274" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E274" s="87" t="s">
-        <v>626</v>
-      </c>
+      <c r="D274" s="9"/>
+      <c r="E274" s="87"/>
       <c r="F274" s="9"/>
       <c r="G274" s="14"/>
       <c r="H274" s="14"/>
       <c r="I274" s="14"/>
     </row>
-    <row r="275" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>152</v>
       </c>
@@ -7946,7 +8004,7 @@
       <c r="H275" s="14"/>
       <c r="I275" s="14"/>
     </row>
-    <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
         <v>152</v>
       </c>
@@ -7961,7 +8019,7 @@
       <c r="H276" s="14"/>
       <c r="I276" s="14"/>
     </row>
-    <row r="277" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>152</v>
       </c>
@@ -7976,7 +8034,7 @@
       <c r="H277" s="14"/>
       <c r="I277" s="14"/>
     </row>
-    <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>152</v>
       </c>
@@ -7991,7 +8049,7 @@
       <c r="H278" s="14"/>
       <c r="I278" s="14"/>
     </row>
-    <row r="279" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
       <c r="B279" s="7" t="s">
         <v>320</v>
@@ -8004,7 +8062,7 @@
       <c r="H279" s="14"/>
       <c r="I279" s="14"/>
     </row>
-    <row r="280" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>319</v>
       </c>
@@ -8019,7 +8077,7 @@
       <c r="H280" s="14"/>
       <c r="I280" s="14"/>
     </row>
-    <row r="281" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>319</v>
       </c>
@@ -8034,7 +8092,7 @@
       <c r="H281" s="14"/>
       <c r="I281" s="14"/>
     </row>
-    <row r="282" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>319</v>
       </c>
@@ -8049,7 +8107,7 @@
       <c r="H282" s="14"/>
       <c r="I282" s="14"/>
     </row>
-    <row r="283" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>319</v>
       </c>
@@ -8064,7 +8122,7 @@
       <c r="H283" s="14"/>
       <c r="I283" s="14"/>
     </row>
-    <row r="284" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>319</v>
       </c>
@@ -8079,7 +8137,7 @@
       <c r="H284" s="14"/>
       <c r="I284" s="14"/>
     </row>
-    <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>319</v>
       </c>
@@ -8094,7 +8152,7 @@
       <c r="H285" s="14"/>
       <c r="I285" s="14"/>
     </row>
-    <row r="286" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>319</v>
       </c>
@@ -8109,7 +8167,7 @@
       <c r="H286" s="14"/>
       <c r="I286" s="14"/>
     </row>
-    <row r="287" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>319</v>
       </c>
@@ -8124,7 +8182,7 @@
       <c r="H287" s="14"/>
       <c r="I287" s="14"/>
     </row>
-    <row r="288" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
         <v>319</v>
       </c>
@@ -8139,7 +8197,7 @@
       <c r="H288" s="14"/>
       <c r="I288" s="14"/>
     </row>
-    <row r="289" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>319</v>
       </c>
@@ -8154,7 +8212,7 @@
       <c r="H289" s="14"/>
       <c r="I289" s="14"/>
     </row>
-    <row r="290" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
         <v>319</v>
       </c>
@@ -8169,7 +8227,7 @@
       <c r="H290" s="14"/>
       <c r="I290" s="14"/>
     </row>
-    <row r="291" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
         <v>319</v>
       </c>
@@ -8184,7 +8242,7 @@
       <c r="H291" s="14"/>
       <c r="I291" s="14"/>
     </row>
-    <row r="292" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
         <v>319</v>
       </c>
@@ -8199,7 +8257,7 @@
       <c r="H292" s="14"/>
       <c r="I292" s="14"/>
     </row>
-    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>319</v>
       </c>
@@ -8214,7 +8272,7 @@
       <c r="H293" s="14"/>
       <c r="I293" s="14"/>
     </row>
-    <row r="294" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
         <v>319</v>
       </c>
@@ -8229,7 +8287,7 @@
       <c r="H294" s="14"/>
       <c r="I294" s="14"/>
     </row>
-    <row r="295" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
         <v>319</v>
       </c>
@@ -8238,17 +8296,17 @@
       </c>
       <c r="C295" s="8"/>
       <c r="D295" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E295" s="90" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F295" s="9"/>
       <c r="G295" s="14"/>
       <c r="H295" s="14"/>
       <c r="I295" s="14"/>
     </row>
-    <row r="296" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
         <v>319</v>
       </c>
@@ -8256,18 +8314,14 @@
         <v>337</v>
       </c>
       <c r="C296" s="8"/>
-      <c r="D296" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E296" s="87" t="s">
-        <v>638</v>
-      </c>
+      <c r="D296" s="87"/>
+      <c r="E296" s="87"/>
       <c r="F296" s="9"/>
       <c r="G296" s="14"/>
       <c r="H296" s="14"/>
       <c r="I296" s="14"/>
     </row>
-    <row r="297" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -8282,7 +8336,7 @@
       <c r="H297" s="14"/>
       <c r="I297" s="14"/>
     </row>
-    <row r="298" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>319</v>
       </c>
@@ -8291,17 +8345,17 @@
       </c>
       <c r="C298" s="8"/>
       <c r="D298" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E298" s="87" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F298" s="9"/>
       <c r="G298" s="14"/>
       <c r="H298" s="14"/>
       <c r="I298" s="14"/>
     </row>
-    <row r="299" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
         <v>319</v>
       </c>
@@ -8316,7 +8370,7 @@
       <c r="H299" s="14"/>
       <c r="I299" s="14"/>
     </row>
-    <row r="300" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
         <v>319</v>
       </c>
@@ -8331,7 +8385,7 @@
       <c r="H300" s="14"/>
       <c r="I300" s="14"/>
     </row>
-    <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
         <v>319</v>
       </c>
@@ -8346,7 +8400,7 @@
       <c r="H301" s="14"/>
       <c r="I301" s="14"/>
     </row>
-    <row r="302" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
         <v>319</v>
       </c>
@@ -8361,7 +8415,7 @@
       <c r="H302" s="14"/>
       <c r="I302" s="14"/>
     </row>
-    <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>319</v>
       </c>
@@ -8376,7 +8430,7 @@
       <c r="H303" s="14"/>
       <c r="I303" s="14"/>
     </row>
-    <row r="304" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>319</v>
       </c>
@@ -8385,17 +8439,17 @@
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E304" s="90" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F304" s="9"/>
       <c r="G304" s="14"/>
       <c r="H304" s="14"/>
       <c r="I304" s="14"/>
     </row>
-    <row r="305" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>319</v>
       </c>
@@ -8410,7 +8464,7 @@
       <c r="H305" s="14"/>
       <c r="I305" s="14"/>
     </row>
-    <row r="306" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
         <v>319</v>
       </c>
@@ -8425,7 +8479,7 @@
       <c r="H306" s="14"/>
       <c r="I306" s="14"/>
     </row>
-    <row r="307" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>319</v>
       </c>
@@ -8433,16 +8487,14 @@
         <v>348</v>
       </c>
       <c r="C307" s="8"/>
-      <c r="D307" s="9" t="s">
-        <v>637</v>
-      </c>
+      <c r="D307" s="9"/>
       <c r="E307" s="87"/>
       <c r="F307" s="9"/>
       <c r="G307" s="14"/>
       <c r="H307" s="14"/>
       <c r="I307" s="14"/>
     </row>
-    <row r="308" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>319</v>
       </c>
@@ -8457,7 +8509,7 @@
       <c r="H308" s="14"/>
       <c r="I308" s="14"/>
     </row>
-    <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>319</v>
       </c>
@@ -8466,17 +8518,17 @@
       </c>
       <c r="C309" s="8"/>
       <c r="D309" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E309" s="90" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="F309" s="9"/>
       <c r="G309" s="14"/>
       <c r="H309" s="14"/>
       <c r="I309" s="14"/>
     </row>
-    <row r="310" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>319</v>
       </c>
@@ -8491,7 +8543,7 @@
       <c r="H310" s="14"/>
       <c r="I310" s="14"/>
     </row>
-    <row r="311" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>319</v>
       </c>
@@ -8506,7 +8558,7 @@
       <c r="H311" s="14"/>
       <c r="I311" s="14"/>
     </row>
-    <row r="312" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
         <v>319</v>
       </c>
@@ -8521,7 +8573,7 @@
       <c r="H312" s="14"/>
       <c r="I312" s="14"/>
     </row>
-    <row r="313" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>319</v>
       </c>
@@ -8536,7 +8588,7 @@
       <c r="H313" s="14"/>
       <c r="I313" s="14"/>
     </row>
-    <row r="314" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="7"/>
       <c r="B314" s="7" t="s">
         <v>355</v>
@@ -8549,7 +8601,7 @@
       <c r="H314" s="14"/>
       <c r="I314" s="14"/>
     </row>
-    <row r="315" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>356</v>
       </c>
@@ -8564,7 +8616,7 @@
       <c r="H315" s="14"/>
       <c r="I315" s="14"/>
     </row>
-    <row r="316" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>356</v>
       </c>
@@ -8579,7 +8631,7 @@
       <c r="H316" s="14"/>
       <c r="I316" s="14"/>
     </row>
-    <row r="317" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>356</v>
       </c>
@@ -8594,7 +8646,7 @@
       <c r="H317" s="14"/>
       <c r="I317" s="14"/>
     </row>
-    <row r="318" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>356</v>
       </c>
@@ -8609,7 +8661,7 @@
       <c r="H318" s="14"/>
       <c r="I318" s="14"/>
     </row>
-    <row r="319" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>356</v>
       </c>
@@ -8624,7 +8676,7 @@
       <c r="H319" s="14"/>
       <c r="I319" s="14"/>
     </row>
-    <row r="320" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>356</v>
       </c>
@@ -8639,7 +8691,7 @@
       <c r="H320" s="14"/>
       <c r="I320" s="14"/>
     </row>
-    <row r="321" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>356</v>
       </c>
@@ -8654,7 +8706,7 @@
       <c r="H321" s="14"/>
       <c r="I321" s="14"/>
     </row>
-    <row r="322" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>356</v>
       </c>
@@ -8669,7 +8721,7 @@
       <c r="H322" s="14"/>
       <c r="I322" s="14"/>
     </row>
-    <row r="323" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>356</v>
       </c>
@@ -8684,7 +8736,7 @@
       <c r="H323" s="14"/>
       <c r="I323" s="14"/>
     </row>
-    <row r="324" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>356</v>
       </c>
@@ -8692,18 +8744,14 @@
         <v>366</v>
       </c>
       <c r="C324" s="8"/>
-      <c r="D324" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E324" s="90" t="s">
-        <v>645</v>
-      </c>
+      <c r="D324" s="9"/>
+      <c r="E324" s="90"/>
       <c r="F324" s="9"/>
       <c r="G324" s="14"/>
       <c r="H324" s="14"/>
       <c r="I324" s="14"/>
     </row>
-    <row r="325" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>356</v>
       </c>
@@ -8718,7 +8766,7 @@
       <c r="H325" s="14"/>
       <c r="I325" s="14"/>
     </row>
-    <row r="326" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>356</v>
       </c>
@@ -8733,7 +8781,7 @@
       <c r="H326" s="14"/>
       <c r="I326" s="14"/>
     </row>
-    <row r="327" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
         <v>356</v>
       </c>
@@ -8748,7 +8796,7 @@
       <c r="H327" s="14"/>
       <c r="I327" s="14"/>
     </row>
-    <row r="328" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
         <v>356</v>
       </c>
@@ -8763,7 +8811,7 @@
       <c r="H328" s="14"/>
       <c r="I328" s="14"/>
     </row>
-    <row r="329" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
         <v>356</v>
       </c>
@@ -8778,7 +8826,7 @@
       <c r="H329" s="14"/>
       <c r="I329" s="14"/>
     </row>
-    <row r="330" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
         <v>356</v>
       </c>
@@ -8786,18 +8834,14 @@
         <v>372</v>
       </c>
       <c r="C330" s="8"/>
-      <c r="D330" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E330" s="90" t="s">
-        <v>646</v>
-      </c>
+      <c r="D330" s="9"/>
+      <c r="E330" s="90"/>
       <c r="F330" s="9"/>
       <c r="G330" s="14"/>
       <c r="H330" s="14"/>
       <c r="I330" s="14"/>
     </row>
-    <row r="331" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
         <v>356</v>
       </c>
@@ -8812,7 +8856,7 @@
       <c r="H331" s="14"/>
       <c r="I331" s="14"/>
     </row>
-    <row r="332" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
         <v>356</v>
       </c>
@@ -8827,7 +8871,7 @@
       <c r="H332" s="14"/>
       <c r="I332" s="14"/>
     </row>
-    <row r="333" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
         <v>356</v>
       </c>
@@ -8842,7 +8886,7 @@
       <c r="H333" s="14"/>
       <c r="I333" s="14"/>
     </row>
-    <row r="334" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
         <v>356</v>
       </c>
@@ -8857,7 +8901,7 @@
       <c r="H334" s="14"/>
       <c r="I334" s="14"/>
     </row>
-    <row r="335" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
         <v>356</v>
       </c>
@@ -8872,7 +8916,7 @@
       <c r="H335" s="14"/>
       <c r="I335" s="14"/>
     </row>
-    <row r="336" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
         <v>356</v>
       </c>
@@ -8887,7 +8931,7 @@
       <c r="H336" s="14"/>
       <c r="I336" s="14"/>
     </row>
-    <row r="337" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>356</v>
       </c>
@@ -8902,7 +8946,7 @@
       <c r="H337" s="14"/>
       <c r="I337" s="14"/>
     </row>
-    <row r="338" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>356</v>
       </c>
@@ -8917,7 +8961,7 @@
       <c r="H338" s="14"/>
       <c r="I338" s="14"/>
     </row>
-    <row r="339" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
         <v>356</v>
       </c>
@@ -8932,7 +8976,7 @@
       <c r="H339" s="14"/>
       <c r="I339" s="14"/>
     </row>
-    <row r="340" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
         <v>356</v>
       </c>
@@ -8947,7 +8991,7 @@
       <c r="H340" s="14"/>
       <c r="I340" s="14"/>
     </row>
-    <row r="341" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>356</v>
       </c>
@@ -8962,7 +9006,7 @@
       <c r="H341" s="14"/>
       <c r="I341" s="14"/>
     </row>
-    <row r="342" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>356</v>
       </c>
@@ -8977,7 +9021,7 @@
       <c r="H342" s="14"/>
       <c r="I342" s="14"/>
     </row>
-    <row r="343" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>356</v>
       </c>
@@ -8992,7 +9036,7 @@
       <c r="H343" s="14"/>
       <c r="I343" s="14"/>
     </row>
-    <row r="344" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>356</v>
       </c>
@@ -9007,7 +9051,7 @@
       <c r="H344" s="14"/>
       <c r="I344" s="14"/>
     </row>
-    <row r="345" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
         <v>356</v>
       </c>
@@ -9015,18 +9059,14 @@
         <v>387</v>
       </c>
       <c r="C345" s="8"/>
-      <c r="D345" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E345" s="87" t="s">
-        <v>623</v>
-      </c>
+      <c r="D345" s="9"/>
+      <c r="E345" s="87"/>
       <c r="F345" s="9"/>
       <c r="G345" s="14"/>
       <c r="H345" s="14"/>
       <c r="I345" s="14"/>
     </row>
-    <row r="346" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
         <v>356</v>
       </c>
@@ -9041,7 +9081,7 @@
       <c r="H346" s="14"/>
       <c r="I346" s="14"/>
     </row>
-    <row r="347" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>356</v>
       </c>
@@ -9056,7 +9096,7 @@
       <c r="H347" s="14"/>
       <c r="I347" s="14"/>
     </row>
-    <row r="348" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>356</v>
       </c>
@@ -9071,7 +9111,7 @@
       <c r="H348" s="14"/>
       <c r="I348" s="14"/>
     </row>
-    <row r="349" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>356</v>
       </c>
@@ -9080,7 +9120,7 @@
       </c>
       <c r="C349" s="8"/>
       <c r="D349" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E349" s="87"/>
       <c r="F349" s="9"/>
@@ -9088,7 +9128,7 @@
       <c r="H349" s="14"/>
       <c r="I349" s="14"/>
     </row>
-    <row r="350" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="11"/>
       <c r="B350" s="7" t="s">
         <v>392</v>
@@ -9101,7 +9141,7 @@
       <c r="H350" s="14"/>
       <c r="I350" s="14"/>
     </row>
-    <row r="351" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>393</v>
       </c>
@@ -9116,7 +9156,7 @@
       <c r="H351" s="14"/>
       <c r="I351" s="14"/>
     </row>
-    <row r="352" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>393</v>
       </c>
@@ -9131,7 +9171,7 @@
       <c r="H352" s="14"/>
       <c r="I352" s="14"/>
     </row>
-    <row r="353" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>393</v>
       </c>
@@ -9146,7 +9186,7 @@
       <c r="H353" s="14"/>
       <c r="I353" s="14"/>
     </row>
-    <row r="354" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>393</v>
       </c>
@@ -9161,7 +9201,7 @@
       <c r="H354" s="14"/>
       <c r="I354" s="14"/>
     </row>
-    <row r="355" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>393</v>
       </c>
@@ -9176,7 +9216,7 @@
       <c r="H355" s="14"/>
       <c r="I355" s="14"/>
     </row>
-    <row r="356" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
         <v>393</v>
       </c>
@@ -9191,7 +9231,7 @@
       <c r="H356" s="14"/>
       <c r="I356" s="14"/>
     </row>
-    <row r="357" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
         <v>393</v>
       </c>
@@ -9206,7 +9246,7 @@
       <c r="H357" s="14"/>
       <c r="I357" s="14"/>
     </row>
-    <row r="358" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>393</v>
       </c>
@@ -9221,7 +9261,7 @@
       <c r="H358" s="14"/>
       <c r="I358" s="14"/>
     </row>
-    <row r="359" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>393</v>
       </c>
@@ -9236,7 +9276,7 @@
       <c r="H359" s="14"/>
       <c r="I359" s="14"/>
     </row>
-    <row r="360" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>393</v>
       </c>
@@ -9251,7 +9291,7 @@
       <c r="H360" s="14"/>
       <c r="I360" s="14"/>
     </row>
-    <row r="361" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>393</v>
       </c>
@@ -9266,7 +9306,7 @@
       <c r="H361" s="14"/>
       <c r="I361" s="14"/>
     </row>
-    <row r="362" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>393</v>
       </c>
@@ -9281,7 +9321,7 @@
       <c r="H362" s="14"/>
       <c r="I362" s="14"/>
     </row>
-    <row r="363" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>393</v>
       </c>
@@ -9296,7 +9336,7 @@
       <c r="H363" s="14"/>
       <c r="I363" s="14"/>
     </row>
-    <row r="364" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>393</v>
       </c>
@@ -9311,7 +9351,7 @@
       <c r="H364" s="14"/>
       <c r="I364" s="14"/>
     </row>
-    <row r="365" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>393</v>
       </c>
@@ -9326,7 +9366,7 @@
       <c r="H365" s="14"/>
       <c r="I365" s="14"/>
     </row>
-    <row r="366" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>393</v>
       </c>
@@ -9341,7 +9381,7 @@
       <c r="H366" s="14"/>
       <c r="I366" s="14"/>
     </row>
-    <row r="367" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>393</v>
       </c>
@@ -9356,7 +9396,7 @@
       <c r="H367" s="14"/>
       <c r="I367" s="14"/>
     </row>
-    <row r="368" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>393</v>
       </c>
@@ -9364,18 +9404,14 @@
         <v>411</v>
       </c>
       <c r="C368" s="8"/>
-      <c r="D368" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E368" s="87" t="s">
-        <v>624</v>
-      </c>
+      <c r="D368" s="9"/>
+      <c r="E368" s="87"/>
       <c r="F368" s="9"/>
       <c r="G368" s="14"/>
       <c r="H368" s="14"/>
       <c r="I368" s="14"/>
     </row>
-    <row r="369" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
         <v>393</v>
       </c>
@@ -9388,7 +9424,7 @@
       <c r="H369" s="14"/>
       <c r="I369" s="14"/>
     </row>
-    <row r="370" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>393</v>
       </c>
@@ -9403,7 +9439,7 @@
       <c r="H370" s="14"/>
       <c r="I370" s="14"/>
     </row>
-    <row r="371" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>393</v>
       </c>
@@ -9418,7 +9454,7 @@
       <c r="H371" s="14"/>
       <c r="I371" s="14"/>
     </row>
-    <row r="372" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>393</v>
       </c>
@@ -9433,7 +9469,7 @@
       <c r="H372" s="14"/>
       <c r="I372" s="14"/>
     </row>
-    <row r="373" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>393</v>
       </c>
@@ -9441,16 +9477,14 @@
         <v>416</v>
       </c>
       <c r="C373" s="8"/>
-      <c r="D373" s="9" t="s">
-        <v>637</v>
-      </c>
+      <c r="D373" s="9"/>
       <c r="E373" s="90"/>
       <c r="F373" s="9"/>
       <c r="G373" s="14"/>
       <c r="H373" s="14"/>
       <c r="I373" s="14"/>
     </row>
-    <row r="374" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>393</v>
       </c>
@@ -9465,7 +9499,7 @@
       <c r="H374" s="14"/>
       <c r="I374" s="14"/>
     </row>
-    <row r="375" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
         <v>393</v>
       </c>
@@ -9480,7 +9514,7 @@
       <c r="H375" s="14"/>
       <c r="I375" s="14"/>
     </row>
-    <row r="376" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
         <v>393</v>
       </c>
@@ -9495,7 +9529,7 @@
       <c r="H376" s="14"/>
       <c r="I376" s="14"/>
     </row>
-    <row r="377" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
         <v>393</v>
       </c>
@@ -9510,7 +9544,7 @@
       <c r="H377" s="14"/>
       <c r="I377" s="14"/>
     </row>
-    <row r="378" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
         <v>393</v>
       </c>
@@ -9525,7 +9559,7 @@
       <c r="H378" s="14"/>
       <c r="I378" s="14"/>
     </row>
-    <row r="379" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>393</v>
       </c>
@@ -9540,7 +9574,7 @@
       <c r="H379" s="14"/>
       <c r="I379" s="14"/>
     </row>
-    <row r="380" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
         <v>393</v>
       </c>
@@ -9555,7 +9589,7 @@
       <c r="H380" s="14"/>
       <c r="I380" s="14"/>
     </row>
-    <row r="381" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
         <v>393</v>
       </c>
@@ -9570,7 +9604,7 @@
       <c r="H381" s="14"/>
       <c r="I381" s="14"/>
     </row>
-    <row r="382" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
         <v>393</v>
       </c>
@@ -9585,7 +9619,7 @@
       <c r="H382" s="14"/>
       <c r="I382" s="14"/>
     </row>
-    <row r="383" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
         <v>393</v>
       </c>
@@ -9600,7 +9634,7 @@
       <c r="H383" s="14"/>
       <c r="I383" s="14"/>
     </row>
-    <row r="384" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>393</v>
       </c>
@@ -9615,7 +9649,7 @@
       <c r="H384" s="14"/>
       <c r="I384" s="14"/>
     </row>
-    <row r="385" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>393</v>
       </c>
@@ -9630,7 +9664,7 @@
       <c r="H385" s="14"/>
       <c r="I385" s="14"/>
     </row>
-    <row r="386" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>393</v>
       </c>
@@ -9645,7 +9679,7 @@
       <c r="H386" s="14"/>
       <c r="I386" s="14"/>
     </row>
-    <row r="387" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
         <v>393</v>
       </c>
@@ -9660,7 +9694,7 @@
       <c r="H387" s="14"/>
       <c r="I387" s="14"/>
     </row>
-    <row r="388" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>393</v>
       </c>
@@ -9675,7 +9709,7 @@
       <c r="H388" s="14"/>
       <c r="I388" s="14"/>
     </row>
-    <row r="389" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>393</v>
       </c>
@@ -9690,7 +9724,7 @@
       <c r="H389" s="14"/>
       <c r="I389" s="14"/>
     </row>
-    <row r="390" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>393</v>
       </c>
@@ -9705,7 +9739,7 @@
       <c r="H390" s="14"/>
       <c r="I390" s="14"/>
     </row>
-    <row r="391" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
         <v>393</v>
       </c>
@@ -9720,7 +9754,7 @@
       <c r="H391" s="14"/>
       <c r="I391" s="14"/>
     </row>
-    <row r="392" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
         <v>393</v>
       </c>
@@ -9735,7 +9769,7 @@
       <c r="H392" s="14"/>
       <c r="I392" s="14"/>
     </row>
-    <row r="393" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
         <v>393</v>
       </c>
@@ -9750,7 +9784,7 @@
       <c r="H393" s="14"/>
       <c r="I393" s="14"/>
     </row>
-    <row r="394" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
         <v>393</v>
       </c>
@@ -9765,7 +9799,7 @@
       <c r="H394" s="14"/>
       <c r="I394" s="14"/>
     </row>
-    <row r="395" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
         <v>393</v>
       </c>
@@ -9780,7 +9814,7 @@
       <c r="H395" s="14"/>
       <c r="I395" s="14"/>
     </row>
-    <row r="396" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
         <v>393</v>
       </c>
@@ -9795,7 +9829,7 @@
       <c r="H396" s="14"/>
       <c r="I396" s="14"/>
     </row>
-    <row r="397" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>393</v>
       </c>
@@ -9809,7 +9843,7 @@
       <c r="H397" s="14"/>
       <c r="I397" s="14"/>
     </row>
-    <row r="398" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
         <v>393</v>
       </c>
@@ -9824,7 +9858,7 @@
       <c r="H398" s="14"/>
       <c r="I398" s="14"/>
     </row>
-    <row r="399" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
         <v>393</v>
       </c>
@@ -9839,7 +9873,7 @@
       <c r="H399" s="14"/>
       <c r="I399" s="14"/>
     </row>
-    <row r="400" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
         <v>393</v>
       </c>
@@ -9854,7 +9888,7 @@
       <c r="H400" s="14"/>
       <c r="I400" s="14"/>
     </row>
-    <row r="401" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
         <v>393</v>
       </c>
@@ -9869,7 +9903,7 @@
       <c r="H401" s="14"/>
       <c r="I401" s="14"/>
     </row>
-    <row r="402" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
         <v>393</v>
       </c>
@@ -9884,7 +9918,7 @@
       <c r="H402" s="14"/>
       <c r="I402" s="14"/>
     </row>
-    <row r="403" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
         <v>393</v>
       </c>
@@ -9899,7 +9933,7 @@
       <c r="H403" s="14"/>
       <c r="I403" s="14"/>
     </row>
-    <row r="404" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
         <v>393</v>
       </c>
@@ -9914,7 +9948,7 @@
       <c r="H404" s="14"/>
       <c r="I404" s="14"/>
     </row>
-    <row r="405" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
         <v>393</v>
       </c>
@@ -9929,7 +9963,7 @@
       <c r="H405" s="14"/>
       <c r="I405" s="14"/>
     </row>
-    <row r="406" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
         <v>393</v>
       </c>
@@ -9944,7 +9978,7 @@
       <c r="H406" s="14"/>
       <c r="I406" s="14"/>
     </row>
-    <row r="407" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
         <v>393</v>
       </c>
@@ -9959,7 +9993,7 @@
       <c r="H407" s="14"/>
       <c r="I407" s="14"/>
     </row>
-    <row r="408" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
         <v>393</v>
       </c>
@@ -9974,7 +10008,7 @@
       <c r="H408" s="14"/>
       <c r="I408" s="14"/>
     </row>
-    <row r="409" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
         <v>393</v>
       </c>
@@ -9989,7 +10023,7 @@
       <c r="H409" s="14"/>
       <c r="I409" s="14"/>
     </row>
-    <row r="410" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="11"/>
       <c r="B410" s="7" t="s">
         <v>453</v>
@@ -10002,7 +10036,7 @@
       <c r="H410" s="14"/>
       <c r="I410" s="14"/>
     </row>
-    <row r="411" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>454</v>
       </c>
@@ -10017,7 +10051,7 @@
       <c r="H411" s="14"/>
       <c r="I411" s="14"/>
     </row>
-    <row r="412" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
         <v>454</v>
       </c>
@@ -10032,7 +10066,7 @@
       <c r="H412" s="14"/>
       <c r="I412" s="14"/>
     </row>
-    <row r="413" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>454</v>
       </c>
@@ -10047,7 +10081,7 @@
       <c r="H413" s="14"/>
       <c r="I413" s="14"/>
     </row>
-    <row r="414" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>454</v>
       </c>
@@ -10062,7 +10096,7 @@
       <c r="H414" s="14"/>
       <c r="I414" s="14"/>
     </row>
-    <row r="415" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>454</v>
       </c>
@@ -10077,7 +10111,7 @@
       <c r="H415" s="14"/>
       <c r="I415" s="14"/>
     </row>
-    <row r="416" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>454</v>
       </c>
@@ -10092,7 +10126,7 @@
       <c r="H416" s="14"/>
       <c r="I416" s="14"/>
     </row>
-    <row r="417" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
         <v>454</v>
       </c>
@@ -10107,7 +10141,7 @@
       <c r="H417" s="14"/>
       <c r="I417" s="14"/>
     </row>
-    <row r="418" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
         <v>454</v>
       </c>
@@ -10122,7 +10156,7 @@
       <c r="H418" s="14"/>
       <c r="I418" s="14"/>
     </row>
-    <row r="419" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
         <v>454</v>
       </c>
@@ -10137,7 +10171,7 @@
       <c r="H419" s="14"/>
       <c r="I419" s="14"/>
     </row>
-    <row r="420" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
         <v>454</v>
       </c>
@@ -10152,7 +10186,7 @@
       <c r="H420" s="14"/>
       <c r="I420" s="14"/>
     </row>
-    <row r="421" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
         <v>454</v>
       </c>
@@ -10161,15 +10195,13 @@
       </c>
       <c r="C421" s="8"/>
       <c r="D421" s="9"/>
-      <c r="E421" s="87" t="s">
-        <v>631</v>
-      </c>
+      <c r="E421" s="87"/>
       <c r="F421" s="9"/>
       <c r="G421" s="14"/>
       <c r="H421" s="14"/>
       <c r="I421" s="14"/>
     </row>
-    <row r="422" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>454</v>
       </c>
@@ -10184,7 +10216,7 @@
       <c r="H422" s="14"/>
       <c r="I422" s="14"/>
     </row>
-    <row r="423" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
         <v>454</v>
       </c>
@@ -10199,7 +10231,7 @@
       <c r="H423" s="14"/>
       <c r="I423" s="14"/>
     </row>
-    <row r="424" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
         <v>454</v>
       </c>
@@ -10214,7 +10246,7 @@
       <c r="H424" s="14"/>
       <c r="I424" s="14"/>
     </row>
-    <row r="425" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
         <v>454</v>
       </c>
@@ -10229,7 +10261,7 @@
       <c r="H425" s="14"/>
       <c r="I425" s="14"/>
     </row>
-    <row r="426" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
         <v>454</v>
       </c>
@@ -10237,18 +10269,14 @@
         <v>470</v>
       </c>
       <c r="C426" s="8"/>
-      <c r="D426" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E426" s="87" t="s">
-        <v>625</v>
-      </c>
+      <c r="D426" s="9"/>
+      <c r="E426" s="87"/>
       <c r="F426" s="9"/>
       <c r="G426" s="14"/>
       <c r="H426" s="14"/>
       <c r="I426" s="14"/>
     </row>
-    <row r="427" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
         <v>454</v>
       </c>
@@ -10256,16 +10284,14 @@
         <v>471</v>
       </c>
       <c r="C427" s="8"/>
-      <c r="D427" s="9" t="s">
-        <v>637</v>
-      </c>
+      <c r="D427" s="9"/>
       <c r="E427" s="87"/>
       <c r="F427" s="9"/>
       <c r="G427" s="14"/>
       <c r="H427" s="14"/>
       <c r="I427" s="14"/>
     </row>
-    <row r="428" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
         <v>454</v>
       </c>
@@ -10280,7 +10306,7 @@
       <c r="H428" s="14"/>
       <c r="I428" s="14"/>
     </row>
-    <row r="429" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
         <v>454</v>
       </c>
@@ -10295,7 +10321,7 @@
       <c r="H429" s="14"/>
       <c r="I429" s="14"/>
     </row>
-    <row r="430" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
         <v>454</v>
       </c>
@@ -10310,7 +10336,7 @@
       <c r="H430" s="14"/>
       <c r="I430" s="14"/>
     </row>
-    <row r="431" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
         <v>454</v>
       </c>
@@ -10325,7 +10351,7 @@
       <c r="H431" s="14"/>
       <c r="I431" s="14"/>
     </row>
-    <row r="432" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
         <v>454</v>
       </c>
@@ -10340,1425 +10366,1425 @@
       <c r="H432" s="14"/>
       <c r="I432" s="14"/>
     </row>
-    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="12"/>
     </row>
-    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="12"/>
     </row>
-    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="12"/>
     </row>
-    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="12"/>
     </row>
-    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="12"/>
     </row>
-    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="12"/>
     </row>
-    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="12"/>
     </row>
-    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="12"/>
     </row>
-    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="12"/>
     </row>
-    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="12"/>
     </row>
-    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="12"/>
     </row>
-    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="12"/>
     </row>
-    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="12"/>
     </row>
-    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="12"/>
     </row>
-    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="12"/>
     </row>
-    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="12"/>
     </row>
-    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="12"/>
     </row>
-    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="12"/>
     </row>
-    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="12"/>
     </row>
-    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="12"/>
     </row>
-    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="12"/>
     </row>
-    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="12"/>
     </row>
-    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="12"/>
     </row>
-    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="12"/>
     </row>
-    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="12"/>
     </row>
-    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="12"/>
     </row>
-    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="12"/>
     </row>
-    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="12"/>
     </row>
-    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="12"/>
     </row>
-    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="12"/>
     </row>
-    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="12"/>
     </row>
-    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="12"/>
     </row>
-    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="12"/>
     </row>
-    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="12"/>
     </row>
-    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="12"/>
     </row>
-    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="12"/>
     </row>
-    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="12"/>
     </row>
-    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="12"/>
     </row>
-    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="12"/>
     </row>
-    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="12"/>
     </row>
-    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="12"/>
     </row>
-    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="12"/>
     </row>
-    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="12"/>
     </row>
-    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="12"/>
     </row>
-    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="12"/>
     </row>
-    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="12"/>
     </row>
-    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="12"/>
     </row>
-    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="12"/>
     </row>
-    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="12"/>
     </row>
-    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="12"/>
     </row>
-    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="12"/>
     </row>
-    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="12"/>
     </row>
-    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="12"/>
     </row>
-    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="12"/>
     </row>
-    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="12"/>
     </row>
-    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="12"/>
     </row>
-    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="12"/>
     </row>
-    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="12"/>
     </row>
-    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="12"/>
     </row>
-    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="12"/>
     </row>
-    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="12"/>
     </row>
-    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="12"/>
     </row>
-    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="12"/>
     </row>
-    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="12"/>
     </row>
-    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="12"/>
     </row>
-    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="12"/>
     </row>
-    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="12"/>
     </row>
-    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="12"/>
     </row>
-    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="12"/>
     </row>
-    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="12"/>
     </row>
-    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="12"/>
     </row>
-    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="12"/>
     </row>
-    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="12"/>
     </row>
-    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="12"/>
     </row>
-    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="12"/>
     </row>
-    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="12"/>
     </row>
-    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="12"/>
     </row>
-    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="12"/>
     </row>
-    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="12"/>
     </row>
-    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="12"/>
     </row>
-    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="12"/>
     </row>
-    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="12"/>
     </row>
-    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="12"/>
     </row>
-    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="12"/>
     </row>
-    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="12"/>
     </row>
-    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="12"/>
     </row>
-    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="12"/>
     </row>
-    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="12"/>
     </row>
-    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="12"/>
     </row>
-    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="12"/>
     </row>
-    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="12"/>
     </row>
-    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="12"/>
     </row>
-    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="12"/>
     </row>
-    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="12"/>
     </row>
-    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="12"/>
     </row>
-    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="12"/>
     </row>
-    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="12"/>
     </row>
-    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="12"/>
     </row>
-    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="12"/>
     </row>
-    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="12"/>
     </row>
-    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="12"/>
     </row>
-    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="12"/>
     </row>
-    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="12"/>
     </row>
-    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="12"/>
     </row>
-    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="12"/>
     </row>
-    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="12"/>
     </row>
-    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="12"/>
     </row>
-    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="12"/>
     </row>
-    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="12"/>
     </row>
-    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="12"/>
     </row>
-    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="12"/>
     </row>
-    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="12"/>
     </row>
-    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="12"/>
     </row>
-    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="12"/>
     </row>
-    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="12"/>
     </row>
-    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="12"/>
     </row>
-    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="12"/>
     </row>
-    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="12"/>
     </row>
-    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="12"/>
     </row>
-    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="12"/>
     </row>
-    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="12"/>
     </row>
-    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="12"/>
     </row>
-    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="12"/>
     </row>
-    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="12"/>
     </row>
-    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="12"/>
     </row>
-    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="12"/>
     </row>
-    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="12"/>
     </row>
-    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="12"/>
     </row>
-    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="12"/>
     </row>
-    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="12"/>
     </row>
-    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="12"/>
     </row>
-    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="12"/>
     </row>
-    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="12"/>
     </row>
-    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="12"/>
     </row>
-    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="12"/>
     </row>
-    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="12"/>
     </row>
-    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="12"/>
     </row>
-    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="12"/>
     </row>
-    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="12"/>
     </row>
-    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="12"/>
     </row>
-    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="12"/>
     </row>
-    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="12"/>
     </row>
-    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="12"/>
     </row>
-    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="12"/>
     </row>
-    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="12"/>
     </row>
-    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="12"/>
     </row>
-    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="12"/>
     </row>
-    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="12"/>
     </row>
-    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="12"/>
     </row>
-    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="12"/>
     </row>
-    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="12"/>
     </row>
-    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="12"/>
     </row>
-    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="12"/>
     </row>
-    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="12"/>
     </row>
-    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="12"/>
     </row>
-    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="12"/>
     </row>
-    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="12"/>
     </row>
-    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="12"/>
     </row>
-    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="12"/>
     </row>
-    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="12"/>
     </row>
-    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="12"/>
     </row>
-    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="12"/>
     </row>
-    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="12"/>
     </row>
-    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="12"/>
     </row>
-    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="12"/>
     </row>
-    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="12"/>
     </row>
-    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="12"/>
     </row>
-    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="12"/>
     </row>
-    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="12"/>
     </row>
-    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="12"/>
     </row>
-    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="12"/>
     </row>
-    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="12"/>
     </row>
-    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="12"/>
     </row>
-    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="12"/>
     </row>
-    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="12"/>
     </row>
-    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="12"/>
     </row>
-    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="12"/>
     </row>
-    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="12"/>
     </row>
-    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="12"/>
     </row>
-    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="12"/>
     </row>
-    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="12"/>
     </row>
-    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="12"/>
     </row>
-    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="12"/>
     </row>
-    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="12"/>
     </row>
-    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="12"/>
     </row>
-    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="12"/>
     </row>
-    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="12"/>
     </row>
-    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="12"/>
     </row>
-    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="12"/>
     </row>
-    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="12"/>
     </row>
-    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="12"/>
     </row>
-    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="12"/>
     </row>
-    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="12"/>
     </row>
-    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="12"/>
     </row>
-    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="12"/>
     </row>
-    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="12"/>
     </row>
-    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="12"/>
     </row>
-    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="12"/>
     </row>
-    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="12"/>
     </row>
-    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="12"/>
     </row>
-    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="12"/>
     </row>
-    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="12"/>
     </row>
-    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="12"/>
     </row>
-    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="12"/>
     </row>
-    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="12"/>
     </row>
-    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="12"/>
     </row>
-    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="12"/>
     </row>
-    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="12"/>
     </row>
-    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="12"/>
     </row>
-    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="12"/>
     </row>
-    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="12"/>
     </row>
-    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="12"/>
     </row>
-    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="12"/>
     </row>
-    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="12"/>
     </row>
-    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="12"/>
     </row>
-    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="12"/>
     </row>
-    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="12"/>
     </row>
-    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="12"/>
     </row>
-    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="12"/>
     </row>
-    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="12"/>
     </row>
-    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="12"/>
     </row>
-    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="12"/>
     </row>
-    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="12"/>
     </row>
-    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="12"/>
     </row>
-    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="12"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="12"/>
     </row>
-    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="12"/>
     </row>
-    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="12"/>
     </row>
-    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="12"/>
     </row>
-    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="12"/>
     </row>
-    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="12"/>
     </row>
-    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="12"/>
     </row>
-    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="12"/>
     </row>
-    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="12"/>
     </row>
-    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="12"/>
     </row>
-    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="12"/>
     </row>
-    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="12"/>
     </row>
-    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="12"/>
     </row>
-    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="12"/>
     </row>
-    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="12"/>
     </row>
-    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="12"/>
     </row>
-    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="12"/>
     </row>
-    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="12"/>
     </row>
-    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="12"/>
     </row>
-    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="12"/>
     </row>
-    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="12"/>
     </row>
-    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="12"/>
     </row>
-    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="12"/>
     </row>
-    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="12"/>
     </row>
-    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="12"/>
     </row>
-    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="12"/>
     </row>
-    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="12"/>
     </row>
-    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="12"/>
     </row>
-    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="12"/>
     </row>
-    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="12"/>
     </row>
-    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="12"/>
     </row>
-    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="12"/>
     </row>
-    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="12"/>
     </row>
-    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="12"/>
     </row>
-    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="12"/>
     </row>
-    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="12"/>
     </row>
-    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="12"/>
     </row>
-    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="12"/>
     </row>
-    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="12"/>
     </row>
-    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="12"/>
     </row>
-    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="12"/>
     </row>
-    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="12"/>
     </row>
-    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="12"/>
     </row>
-    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="12"/>
     </row>
-    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="12"/>
     </row>
-    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="12"/>
     </row>
-    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="12"/>
     </row>
-    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="12"/>
     </row>
-    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="12"/>
     </row>
-    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="12"/>
     </row>
-    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="12"/>
     </row>
-    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="12"/>
     </row>
-    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="12"/>
     </row>
-    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="12"/>
     </row>
-    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="12"/>
     </row>
-    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="12"/>
     </row>
-    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="12"/>
     </row>
-    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="12"/>
     </row>
-    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="12"/>
     </row>
-    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="12"/>
     </row>
-    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="12"/>
     </row>
-    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="12"/>
     </row>
-    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="12"/>
     </row>
-    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="12"/>
     </row>
-    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="12"/>
     </row>
-    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="12"/>
     </row>
-    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="12"/>
     </row>
-    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="12"/>
     </row>
-    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="12"/>
     </row>
-    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="12"/>
     </row>
-    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="12"/>
     </row>
-    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="12"/>
     </row>
-    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="12"/>
     </row>
-    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="12"/>
     </row>
-    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="12"/>
     </row>
-    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="12"/>
     </row>
-    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="12"/>
     </row>
-    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="12"/>
     </row>
-    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="12"/>
     </row>
-    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="12"/>
     </row>
-    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="12"/>
     </row>
-    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="12"/>
     </row>
-    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="12"/>
     </row>
-    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="12"/>
     </row>
-    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="12"/>
     </row>
-    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="12"/>
     </row>
-    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="12"/>
     </row>
-    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="12"/>
     </row>
-    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="12"/>
     </row>
-    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="12"/>
     </row>
-    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="12"/>
     </row>
-    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="12"/>
     </row>
-    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="12"/>
     </row>
-    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="12"/>
     </row>
-    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="12"/>
     </row>
-    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="12"/>
     </row>
-    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="12"/>
     </row>
-    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="12"/>
     </row>
-    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="12"/>
     </row>
-    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="12"/>
     </row>
-    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="12"/>
     </row>
-    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="12"/>
     </row>
-    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="12"/>
     </row>
-    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="12"/>
     </row>
-    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="12"/>
     </row>
-    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="12"/>
     </row>
-    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="12"/>
     </row>
-    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="12"/>
     </row>
-    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="12"/>
     </row>
-    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="12"/>
     </row>
-    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="12"/>
     </row>
-    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="12"/>
     </row>
-    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="12"/>
     </row>
-    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="12"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="12"/>
     </row>
-    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="12"/>
     </row>
-    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="12"/>
     </row>
-    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="12"/>
     </row>
-    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="12"/>
     </row>
-    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="12"/>
     </row>
-    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="12"/>
     </row>
-    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="12"/>
     </row>
-    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="12"/>
     </row>
-    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="12"/>
     </row>
-    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="12"/>
     </row>
-    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="12"/>
     </row>
-    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="12"/>
     </row>
-    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="12"/>
     </row>
-    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="12"/>
     </row>
-    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="12"/>
     </row>
-    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="12"/>
     </row>
-    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="12"/>
     </row>
-    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="12"/>
     </row>
-    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="12"/>
     </row>
-    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="12"/>
     </row>
-    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="12"/>
     </row>
-    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="12"/>
     </row>
-    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="12"/>
     </row>
-    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="12"/>
     </row>
-    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="12"/>
     </row>
-    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="12"/>
     </row>
-    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="12"/>
     </row>
-    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="12"/>
     </row>
-    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="12"/>
     </row>
-    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="12"/>
     </row>
-    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="12"/>
     </row>
-    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="12"/>
     </row>
-    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="12"/>
     </row>
-    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="12"/>
     </row>
-    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="12"/>
     </row>
-    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="12"/>
     </row>
-    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="12"/>
     </row>
-    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="12"/>
     </row>
-    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="12"/>
     </row>
-    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="12"/>
     </row>
-    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="12"/>
     </row>
-    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="12"/>
     </row>
-    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="12"/>
     </row>
-    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="12"/>
     </row>
-    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="12"/>
     </row>
-    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="12"/>
     </row>
-    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="12"/>
     </row>
-    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="12"/>
     </row>
-    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="12"/>
     </row>
-    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="12"/>
     </row>
-    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="12"/>
     </row>
-    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="12"/>
     </row>
-    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="12"/>
     </row>
-    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="12"/>
     </row>
-    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="12"/>
     </row>
-    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="12"/>
     </row>
-    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="12"/>
     </row>
-    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="12"/>
     </row>
-    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="12"/>
     </row>
-    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="12"/>
     </row>
-    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="12"/>
     </row>
-    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="12"/>
     </row>
-    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="12"/>
     </row>
-    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="12"/>
     </row>
-    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="12"/>
     </row>
-    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="12"/>
     </row>
-    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="12"/>
     </row>
-    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="12"/>
     </row>
-    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="12"/>
     </row>
-    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="12"/>
     </row>
-    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="12"/>
     </row>
-    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="12"/>
     </row>
-    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="12"/>
     </row>
-    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="12"/>
     </row>
-    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="12"/>
     </row>
-    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="12"/>
     </row>
-    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="12"/>
     </row>
-    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="12"/>
     </row>
-    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="12"/>
     </row>
-    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="12"/>
     </row>
-    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="12"/>
     </row>
-    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="12"/>
     </row>
-    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="12"/>
     </row>
-    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="12"/>
     </row>
-    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="12"/>
     </row>
-    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="12"/>
     </row>
-    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="12"/>
     </row>
-    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="12"/>
     </row>
-    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="12"/>
     </row>
-    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="12"/>
     </row>
-    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="12"/>
     </row>
-    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="12"/>
     </row>
-    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="12"/>
     </row>
-    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="12"/>
     </row>
-    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="12"/>
     </row>
-    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="12"/>
     </row>
-    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="12"/>
     </row>
-    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="12"/>
     </row>
-    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="12"/>
     </row>
-    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="12"/>
     </row>
-    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="12"/>
     </row>
-    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="12"/>
     </row>
-    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="12"/>
     </row>
-    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="12"/>
     </row>
-    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="12"/>
     </row>
-    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="12"/>
     </row>
-    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="12"/>
     </row>
-    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="12"/>
     </row>
-    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="12"/>
     </row>
-    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="12"/>
     </row>
-    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="12"/>
     </row>
-    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="12"/>
     </row>
-    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="12"/>
     </row>
-    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="12"/>
     </row>
-    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="12"/>
     </row>
-    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="12"/>
     </row>
-    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="12"/>
     </row>
-    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="12"/>
     </row>
-    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="12"/>
     </row>
-    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I892" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C204:D213 C373:D391 C2:D55 D56 C57:D202 C215:D296 C298:D338 C340:D360 C393:D432 E231:E232 E249 E80 E295 E304 E309 E324 E330 C363:D368 C370:D371 C369 D373:E373 E211">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="x">
+  <autoFilter ref="B1:I892"/>
+  <conditionalFormatting sqref="C204:D213 C373:D391 C2:D55 E231:E232 E249 E295 E304 E309 E324 E330 C370:D371 C369 D80:E80 D55:D56 C57:D202 D211:E211 C215:D295 C296 C298:D338 C340:D360 C363:D368 D373:E373 C393:D432">
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A314">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A314)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11773,7 +11799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11783,21 +11809,21 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="8" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="8" width="3.140625" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -11812,7 +11838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>43132</v>
       </c>
@@ -11841,7 +11867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43261</v>
       </c>
@@ -11881,7 +11907,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43304</v>
       </c>
@@ -11921,7 +11947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43467</v>
       </c>
@@ -11944,32 +11970,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="52" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="53" customWidth="1"/>
-    <col min="6" max="6" width="87.6640625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="74.5" style="37" customWidth="1"/>
-    <col min="9" max="9" width="104.5" style="52" customWidth="1"/>
-    <col min="10" max="10" width="68.33203125" style="52" customWidth="1"/>
-    <col min="11" max="11" width="52.83203125" style="52" customWidth="1"/>
-    <col min="12" max="12" width="26.5" style="52" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="52" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="52"/>
+    <col min="1" max="1" width="4.7109375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="80.85546875" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="52" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="52" customWidth="1"/>
+    <col min="8" max="8" width="74.42578125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="104.42578125" style="52" customWidth="1"/>
+    <col min="10" max="10" width="68.28515625" style="52" customWidth="1"/>
+    <col min="11" max="11" width="52.85546875" style="52" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="52" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -11984,13 +12010,13 @@
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:13" s="23" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+    <row r="2" spans="1:13" s="23" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="54" t="s">
         <v>537</v>
       </c>
@@ -12013,15 +12039,15 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+    <row r="3" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="118" t="s">
         <v>482</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
       <c r="G3" s="32"/>
       <c r="H3" s="28"/>
       <c r="I3" s="29" t="s">
@@ -12031,13 +12057,13 @@
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" s="37" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+    <row r="4" spans="1:13" s="37" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -12048,7 +12074,7 @@
       <c r="L4" s="35"/>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="23" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -12063,17 +12089,17 @@
       <c r="L5" s="45"/>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="92" t="s">
         <v>484</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="92" t="s">
         <v>485</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="92" t="s">
         <v>486</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="107" t="s">
         <v>541</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -12095,18 +12121,18 @@
       <c r="K6" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="104" t="s">
         <v>543</v>
       </c>
-      <c r="M6" s="102" t="s">
+      <c r="M6" s="104" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="99"/>
+    <row r="7" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="46" t="s">
         <v>492</v>
       </c>
@@ -12128,22 +12154,22 @@
       <c r="K7" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-    </row>
-    <row r="8" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="94" t="s">
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+    </row>
+    <row r="8" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="92" t="s">
         <v>495</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="95" t="s">
         <v>547</v>
       </c>
       <c r="G8" s="83"/>
-      <c r="H8" s="108" t="s">
+      <c r="H8" s="98" t="s">
         <v>548</v>
       </c>
       <c r="I8" s="55" t="s">
@@ -12155,18 +12181,18 @@
       <c r="K8" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-    </row>
-    <row r="9" spans="1:13" s="23" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="106"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+    </row>
+    <row r="9" spans="1:13" s="23" customFormat="1" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="96"/>
       <c r="G9" s="84"/>
-      <c r="H9" s="109"/>
+      <c r="H9" s="99"/>
       <c r="I9" s="55" t="s">
         <v>550</v>
       </c>
@@ -12174,41 +12200,41 @@
       <c r="K9" s="56" t="s">
         <v>551</v>
       </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-    </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" ht="19" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="107"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+    </row>
+    <row r="10" spans="1:13" s="23" customFormat="1" ht="18.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="97"/>
       <c r="G10" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H10" s="110"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="55" t="s">
         <v>552</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="57"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-    </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="94" t="s">
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+    </row>
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="92" t="s">
         <v>497</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="95" t="s">
         <v>553</v>
       </c>
       <c r="G11" s="83"/>
-      <c r="H11" s="112"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="58" t="s">
         <v>554</v>
       </c>
@@ -12216,20 +12242,20 @@
       <c r="K11" s="48" t="s">
         <v>555</v>
       </c>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="111"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
       <c r="G12" s="85" t="s">
         <v>618</v>
       </c>
-      <c r="H12" s="113"/>
+      <c r="H12" s="115"/>
       <c r="I12" s="59" t="s">
         <v>556</v>
       </c>
@@ -12237,16 +12263,16 @@
       <c r="K12" s="61" t="s">
         <v>557</v>
       </c>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-    </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95" t="s">
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+    </row>
+    <row r="13" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93" t="s">
         <v>498</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="108" t="s">
         <v>558</v>
       </c>
       <c r="E13" s="62" t="s">
@@ -12268,14 +12294,14 @@
       <c r="K13" s="56" t="s">
         <v>562</v>
       </c>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="99"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="46" t="s">
         <v>500</v>
       </c>
@@ -12295,14 +12321,14 @@
       <c r="K14" s="48" t="s">
         <v>566</v>
       </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-    </row>
-    <row r="15" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="99"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+    </row>
+    <row r="15" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="46" t="s">
         <v>501</v>
       </c>
@@ -12322,56 +12348,56 @@
       <c r="K15" s="48" t="s">
         <v>570</v>
       </c>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-    </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="94" t="s">
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+    </row>
+    <row r="16" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="92" t="s">
         <v>503</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="95" t="s">
         <v>571</v>
       </c>
       <c r="G16" s="83"/>
-      <c r="H16" s="114"/>
+      <c r="H16" s="116"/>
       <c r="I16" s="68" t="s">
         <v>572</v>
       </c>
       <c r="J16" s="51"/>
       <c r="K16" s="48"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-    </row>
-    <row r="17" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="106"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+    </row>
+    <row r="17" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="96"/>
       <c r="G17" s="84"/>
-      <c r="H17" s="114"/>
+      <c r="H17" s="116"/>
       <c r="I17" s="68" t="s">
         <v>573</v>
       </c>
       <c r="J17" s="51"/>
       <c r="K17" s="48"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-    </row>
-    <row r="18" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="106"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+    </row>
+    <row r="18" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="84"/>
-      <c r="H18" s="114"/>
+      <c r="H18" s="116"/>
       <c r="I18" s="48" t="s">
         <v>574</v>
       </c>
@@ -12379,18 +12405,18 @@
       <c r="K18" s="68" t="s">
         <v>575</v>
       </c>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-    </row>
-    <row r="19" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="106"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+    </row>
+    <row r="19" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="96"/>
       <c r="G19" s="84"/>
-      <c r="H19" s="114"/>
+      <c r="H19" s="116"/>
       <c r="I19" s="48" t="s">
         <v>576</v>
       </c>
@@ -12398,18 +12424,18 @@
       <c r="K19" s="68" t="s">
         <v>577</v>
       </c>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-    </row>
-    <row r="20" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="106"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+    </row>
+    <row r="20" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="96"/>
       <c r="G20" s="84"/>
-      <c r="H20" s="114"/>
+      <c r="H20" s="116"/>
       <c r="I20" s="48" t="s">
         <v>578</v>
       </c>
@@ -12417,46 +12443,46 @@
       <c r="K20" s="68" t="s">
         <v>579</v>
       </c>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-    </row>
-    <row r="21" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="106"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+    </row>
+    <row r="21" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="96"/>
       <c r="G21" s="84"/>
-      <c r="H21" s="114"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="50" t="s">
         <v>520</v>
       </c>
       <c r="J21" s="51"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-    </row>
-    <row r="22" spans="1:14" s="23" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="96"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="107"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+    </row>
+    <row r="22" spans="1:14" s="23" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H22" s="114"/>
+      <c r="H22" s="116"/>
       <c r="I22" s="48" t="s">
         <v>580</v>
       </c>
       <c r="J22" s="51"/>
       <c r="K22" s="49"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-    </row>
-    <row r="23" spans="1:14" s="23" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+    </row>
+    <row r="23" spans="1:14" s="23" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="69"/>
       <c r="B23" s="69"/>
       <c r="C23" s="69"/>
@@ -12471,27 +12497,27 @@
       <c r="L23" s="75"/>
       <c r="M23" s="74"/>
     </row>
-    <row r="24" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="94" t="s">
+    <row r="24" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="92" t="s">
         <v>504</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="110" t="s">
         <v>505</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="92" t="s">
         <v>506</v>
       </c>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="107" t="s">
         <v>581</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="92" t="s">
         <v>507</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="95" t="s">
         <v>582</v>
       </c>
       <c r="G24" s="83"/>
-      <c r="H24" s="108" t="s">
+      <c r="H24" s="98" t="s">
         <v>583</v>
       </c>
       <c r="I24" s="49" t="s">
@@ -12503,47 +12529,47 @@
       <c r="K24" s="48" t="s">
         <v>584</v>
       </c>
-      <c r="L24" s="102" t="s">
+      <c r="L24" s="104" t="s">
         <v>543</v>
       </c>
-      <c r="M24" s="112" t="s">
+      <c r="M24" s="91" t="s">
         <v>510</v>
       </c>
       <c r="N24" s="52"/>
     </row>
-    <row r="25" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="95"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="107"/>
+    <row r="25" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="93"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H25" s="110"/>
+      <c r="H25" s="100"/>
       <c r="I25" s="49" t="s">
         <v>585</v>
       </c>
       <c r="J25" s="50"/>
       <c r="K25" s="48"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="112"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="91"/>
       <c r="N25" s="52"/>
     </row>
-    <row r="26" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="95"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="94" t="s">
+    <row r="26" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="93"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="92" t="s">
         <v>511</v>
       </c>
-      <c r="F26" s="105" t="s">
+      <c r="F26" s="95" t="s">
         <v>586</v>
       </c>
       <c r="G26" s="83"/>
-      <c r="H26" s="108" t="s">
+      <c r="H26" s="98" t="s">
         <v>587</v>
       </c>
       <c r="I26" s="49" t="s">
@@ -12555,21 +12581,21 @@
       <c r="K26" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="L26" s="103"/>
-      <c r="M26" s="112"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="91"/>
       <c r="N26" s="52"/>
     </row>
-    <row r="27" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="95"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="107"/>
+    <row r="27" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="93"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="97"/>
       <c r="G27" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="H27" s="110"/>
+      <c r="H27" s="100"/>
       <c r="I27" s="49" t="s">
         <v>519</v>
       </c>
@@ -12577,15 +12603,15 @@
         <v>515</v>
       </c>
       <c r="K27" s="48"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="112"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="91"/>
       <c r="N27" s="52"/>
     </row>
-    <row r="28" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="95"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="99"/>
+    <row r="28" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="93"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="108"/>
       <c r="E28" s="46" t="s">
         <v>513</v>
       </c>
@@ -12604,15 +12630,15 @@
       <c r="K28" s="48" t="s">
         <v>592</v>
       </c>
-      <c r="L28" s="103"/>
-      <c r="M28" s="112"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="91"/>
       <c r="N28" s="52"/>
     </row>
-    <row r="29" spans="1:14" s="23" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="96"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="101"/>
+    <row r="29" spans="1:14" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="94"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="109"/>
       <c r="E29" s="46" t="s">
         <v>516</v>
       </c>
@@ -12634,11 +12660,11 @@
       <c r="K29" s="48" t="s">
         <v>595</v>
       </c>
-      <c r="L29" s="104"/>
-      <c r="M29" s="112"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="91"/>
       <c r="N29" s="52"/>
     </row>
-    <row r="30" spans="1:14" s="23" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" s="23" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="77"/>
       <c r="B30" s="77"/>
       <c r="C30" s="77"/>
@@ -12653,27 +12679,27 @@
       <c r="L30" s="74"/>
       <c r="M30" s="74"/>
     </row>
-    <row r="31" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="94" t="s">
+    <row r="31" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="92" t="s">
         <v>521</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="92" t="s">
         <v>522</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="92" t="s">
         <v>523</v>
       </c>
-      <c r="D31" s="98" t="s">
+      <c r="D31" s="107" t="s">
         <v>596</v>
       </c>
-      <c r="E31" s="94" t="s">
+      <c r="E31" s="92" t="s">
         <v>524</v>
       </c>
-      <c r="F31" s="105" t="s">
+      <c r="F31" s="95" t="s">
         <v>597</v>
       </c>
       <c r="G31" s="83"/>
-      <c r="H31" s="108" t="s">
+      <c r="H31" s="98" t="s">
         <v>598</v>
       </c>
       <c r="I31" s="81" t="s">
@@ -12685,22 +12711,22 @@
       <c r="K31" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="L31" s="112" t="s">
+      <c r="L31" s="91" t="s">
         <v>526</v>
       </c>
-      <c r="M31" s="112" t="s">
+      <c r="M31" s="91" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="95"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="106"/>
+    <row r="32" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="93"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="96"/>
       <c r="G32" s="84"/>
-      <c r="H32" s="109"/>
+      <c r="H32" s="99"/>
       <c r="I32" s="56" t="s">
         <v>601</v>
       </c>
@@ -12708,79 +12734,79 @@
       <c r="K32" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-    </row>
-    <row r="33" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="95"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="107"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+    </row>
+    <row r="33" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="97"/>
       <c r="G33" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H33" s="110"/>
+      <c r="H33" s="100"/>
       <c r="I33" s="56" t="s">
         <v>536</v>
       </c>
       <c r="J33" s="49"/>
       <c r="K33" s="48"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-    </row>
-    <row r="34" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="95"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="94" t="s">
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+    </row>
+    <row r="34" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="92" t="s">
         <v>528</v>
       </c>
-      <c r="F34" s="105" t="s">
+      <c r="F34" s="95" t="s">
         <v>603</v>
       </c>
       <c r="G34" s="83"/>
-      <c r="H34" s="108" t="s">
+      <c r="H34" s="98" t="s">
         <v>604</v>
       </c>
       <c r="I34" s="49" t="s">
         <v>605</v>
       </c>
       <c r="J34" s="49"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-    </row>
-    <row r="35" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="95"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="106"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+    </row>
+    <row r="35" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="96"/>
       <c r="G35" s="84"/>
-      <c r="H35" s="109"/>
+      <c r="H35" s="99"/>
       <c r="I35" s="49" t="s">
         <v>532</v>
       </c>
       <c r="J35" s="49"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-    </row>
-    <row r="36" spans="1:13" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="95"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="107"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+    </row>
+    <row r="36" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="97"/>
       <c r="G36" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H36" s="110"/>
+      <c r="H36" s="100"/>
       <c r="I36" s="49" t="s">
         <v>606</v>
       </c>
@@ -12790,68 +12816,68 @@
       <c r="K36" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-    </row>
-    <row r="37" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="95"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="94" t="s">
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+    </row>
+    <row r="37" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="93"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="92" t="s">
         <v>531</v>
       </c>
-      <c r="F37" s="105" t="s">
+      <c r="F37" s="95" t="s">
         <v>607</v>
       </c>
       <c r="G37" s="83"/>
-      <c r="H37" s="119" t="s">
+      <c r="H37" s="102" t="s">
         <v>608</v>
       </c>
       <c r="I37" s="49" t="s">
         <v>609</v>
       </c>
-      <c r="J37" s="120" t="s">
+      <c r="J37" s="103" t="s">
         <v>533</v>
       </c>
-      <c r="K37" s="119" t="s">
+      <c r="K37" s="102" t="s">
         <v>535</v>
       </c>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-    </row>
-    <row r="38" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="95"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="106"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+    </row>
+    <row r="38" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="93"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="96"/>
       <c r="G38" s="84" t="s">
         <v>618</v>
       </c>
-      <c r="H38" s="119"/>
+      <c r="H38" s="102"/>
       <c r="I38" s="68" t="s">
         <v>610</v>
       </c>
-      <c r="J38" s="120"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-    </row>
-    <row r="39" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="95"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="95" t="s">
+      <c r="J38" s="103"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+    </row>
+    <row r="39" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="93"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="93" t="s">
         <v>534</v>
       </c>
-      <c r="F39" s="106" t="s">
+      <c r="F39" s="96" t="s">
         <v>611</v>
       </c>
       <c r="G39" s="84"/>
-      <c r="H39" s="119" t="s">
+      <c r="H39" s="102" t="s">
         <v>612</v>
       </c>
       <c r="I39" s="68" t="s">
@@ -12861,18 +12887,18 @@
       <c r="K39" s="56" t="s">
         <v>614</v>
       </c>
-      <c r="L39" s="112"/>
-      <c r="M39" s="112"/>
-    </row>
-    <row r="40" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="106"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+    </row>
+    <row r="40" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="93"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="96"/>
       <c r="G40" s="84"/>
-      <c r="H40" s="119"/>
+      <c r="H40" s="102"/>
       <c r="I40" s="68" t="s">
         <v>615</v>
       </c>
@@ -12880,34 +12906,70 @@
       <c r="K40" s="56" t="s">
         <v>616</v>
       </c>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
-    </row>
-    <row r="41" spans="1:13" s="23" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="96"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="107"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+    </row>
+    <row r="41" spans="1:13" s="23" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="94"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="97"/>
       <c r="G41" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H41" s="119"/>
+      <c r="H41" s="102"/>
       <c r="I41" s="68" t="s">
         <v>617</v>
       </c>
       <c r="J41" s="51"/>
       <c r="K41" s="48"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K42" s="82"/>
     </row>
-    <row r="43" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="L31:L41"/>
     <mergeCell ref="M31:M41"/>
     <mergeCell ref="E34:E36"/>
@@ -12924,151 +12986,115 @@
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="D31:D41"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="L6:L22"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H8" r:id="rId3" display="Understanding Cisco Cloud Fundamentals Video Lessons" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="K6" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="K7" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="K11" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="K8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="H28" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="H24" r:id="rId11" display="Introduction to Software Defined Networking (SDN) Live Lessons (ISBN-10: 0-7897-5381-2) " xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="I24" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="I26" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="I28" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="I29" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="J27" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="J29" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="K24" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="K26" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="K28" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="K29" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="J31" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="K36" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="L31" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="L36" r:id="rId25" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="L41" r:id="rId26" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="M31" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="M36" r:id="rId28" display="https://developer.cisco.com/site/iot/" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="M41" r:id="rId29" display="https://developer.cisco.com/site/iot/" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="L24" r:id="rId30" display="CCIE Technical webinars " xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="L6" r:id="rId31" display="CCIE Technical webinars " xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="M24" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="M26" r:id="rId33" display="https://developer.cisco.com/site/networking/" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="M28" r:id="rId34" display="https://developer.cisco.com/site/networking/" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="M29" r:id="rId35" display="https://developer.cisco.com/site/networking/" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="M6" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="H31" r:id="rId37" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="I7" r:id="rId38" location="/video/1509464085M66129455a" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="J24:J26" r:id="rId39" display="Designing and Implementing Cisco Network Programmability (NPDESI)" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="J36" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="K4" r:id="rId41" display="Evolving Technologies Study Guide - By: Nicholas J. Russo CCIE #42518 (RS/SP)" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="I3" r:id="rId42" display="BRKCCIE-3352 - The Next Generation CCIE" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="H34" r:id="rId43" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="H39" r:id="rId44" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="H26" r:id="rId45" display="Programming and Automating Cisco Networks (ISBN-10: 0-13-443678-4) " xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="H29" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="I12" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="J8" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="I10" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="I9" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="I8" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="I25" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="K31" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="K12" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="I11" r:id="rId55" display="BRKCLD-2008 - Multi-Cloud and Application Centric Modeling, Deployment and Management with Cisco CloudCenter " xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="I13" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="K15" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="I18" r:id="rId58" display="Deploy a Hybrid, Multi-Cloud Container Environment in Less than an Hour - BRKCLD-2235" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="I22" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="I15" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="H13" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="H14" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="H15" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="I19" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="K19" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="I20" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="I14" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="K14" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="I16" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="K9" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="K20" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="K13" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="K18" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="I21" r:id="rId74" location="/video/1509464085I780fb5aec" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="I27" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="I17" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="I37" r:id="rId77" location="/video/1509464085H9c9ccc747" display="SOLSEC-1004 - Securing the IoT" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="I36" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="I38" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="I34" r:id="rId80" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="J37" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="K37" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="I31" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="I35" r:id="rId84" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
-    <hyperlink ref="I33" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
-    <hyperlink ref="I41" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
-    <hyperlink ref="I32" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
-    <hyperlink ref="I39" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
-    <hyperlink ref="I40" r:id="rId89" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
-    <hyperlink ref="K39" r:id="rId90" location="~stickynav=3" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
-    <hyperlink ref="K32" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
-    <hyperlink ref="K40" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
-    <hyperlink ref="M6:M22" r:id="rId93" display="Cloud Dev Center" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="J26" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="H37:H38" r:id="rId95" display="IoT Fundamentals - Chapter 8" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
-    <hyperlink ref="H31:H33" r:id="rId96" display="IoT Fundamentals - Chapters 1, 2, 3, 5, and 6" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
-    <hyperlink ref="H26:H27" r:id="rId97" display="Programming and Automating Cisco Networks - Chapters 7 and 8" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
-    <hyperlink ref="H24:H25" r:id="rId98" display="Introduction to Software Defined Networking (SDN) - LiveLessons " xr:uid="{00000000-0004-0000-0200-000061000000}"/>
-    <hyperlink ref="H8:H10" r:id="rId99" display="Understanding Cisco Cloud Fundamentals - LiveLessons" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
-    <hyperlink ref="K24:L29" r:id="rId100" display="Simplify and Automate the Virtualized Environment - White Paper" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId3" display="Understanding Cisco Cloud Fundamentals Video Lessons"/>
+    <hyperlink ref="J6" r:id="rId4"/>
+    <hyperlink ref="J7" r:id="rId5"/>
+    <hyperlink ref="K6" r:id="rId6"/>
+    <hyperlink ref="K7" r:id="rId7"/>
+    <hyperlink ref="K11" r:id="rId8"/>
+    <hyperlink ref="K8" r:id="rId9"/>
+    <hyperlink ref="H28" r:id="rId10"/>
+    <hyperlink ref="H24" r:id="rId11" display="Introduction to Software Defined Networking (SDN) Live Lessons (ISBN-10: 0-7897-5381-2) "/>
+    <hyperlink ref="I24" r:id="rId12"/>
+    <hyperlink ref="I26" r:id="rId13"/>
+    <hyperlink ref="I28" r:id="rId14"/>
+    <hyperlink ref="I29" r:id="rId15"/>
+    <hyperlink ref="J27" r:id="rId16"/>
+    <hyperlink ref="J29" r:id="rId17"/>
+    <hyperlink ref="K24" r:id="rId18"/>
+    <hyperlink ref="K26" r:id="rId19"/>
+    <hyperlink ref="K28" r:id="rId20"/>
+    <hyperlink ref="K29" r:id="rId21"/>
+    <hyperlink ref="J31" r:id="rId22"/>
+    <hyperlink ref="K36" r:id="rId23"/>
+    <hyperlink ref="L31" r:id="rId24"/>
+    <hyperlink ref="L36" r:id="rId25" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series"/>
+    <hyperlink ref="L41" r:id="rId26" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series"/>
+    <hyperlink ref="M31" r:id="rId27"/>
+    <hyperlink ref="M36" r:id="rId28" display="https://developer.cisco.com/site/iot/"/>
+    <hyperlink ref="M41" r:id="rId29" display="https://developer.cisco.com/site/iot/"/>
+    <hyperlink ref="L24" r:id="rId30" display="CCIE Technical webinars "/>
+    <hyperlink ref="L6" r:id="rId31" display="CCIE Technical webinars "/>
+    <hyperlink ref="M24" r:id="rId32"/>
+    <hyperlink ref="M26" r:id="rId33" display="https://developer.cisco.com/site/networking/"/>
+    <hyperlink ref="M28" r:id="rId34" display="https://developer.cisco.com/site/networking/"/>
+    <hyperlink ref="M29" r:id="rId35" display="https://developer.cisco.com/site/networking/"/>
+    <hyperlink ref="M6" r:id="rId36"/>
+    <hyperlink ref="H31" r:id="rId37" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8"/>
+    <hyperlink ref="I7" r:id="rId38" location="/video/1509464085M66129455a"/>
+    <hyperlink ref="J24:J26" r:id="rId39" display="Designing and Implementing Cisco Network Programmability (NPDESI)"/>
+    <hyperlink ref="J36" r:id="rId40"/>
+    <hyperlink ref="K4" r:id="rId41" display="Evolving Technologies Study Guide - By: Nicholas J. Russo CCIE #42518 (RS/SP)"/>
+    <hyperlink ref="I3" r:id="rId42" display="BRKCCIE-3352 - The Next Generation CCIE"/>
+    <hyperlink ref="H34" r:id="rId43" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8"/>
+    <hyperlink ref="H39" r:id="rId44" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8"/>
+    <hyperlink ref="H26" r:id="rId45" display="Programming and Automating Cisco Networks (ISBN-10: 0-13-443678-4) "/>
+    <hyperlink ref="H29" r:id="rId46"/>
+    <hyperlink ref="I12" r:id="rId47"/>
+    <hyperlink ref="J8" r:id="rId48"/>
+    <hyperlink ref="I10" r:id="rId49"/>
+    <hyperlink ref="I9" r:id="rId50"/>
+    <hyperlink ref="I8" r:id="rId51"/>
+    <hyperlink ref="I25" r:id="rId52"/>
+    <hyperlink ref="K31" r:id="rId53"/>
+    <hyperlink ref="K12" r:id="rId54"/>
+    <hyperlink ref="I11" r:id="rId55" display="BRKCLD-2008 - Multi-Cloud and Application Centric Modeling, Deployment and Management with Cisco CloudCenter "/>
+    <hyperlink ref="I13" r:id="rId56"/>
+    <hyperlink ref="K15" r:id="rId57"/>
+    <hyperlink ref="I18" r:id="rId58" display="Deploy a Hybrid, Multi-Cloud Container Environment in Less than an Hour - BRKCLD-2235"/>
+    <hyperlink ref="I22" r:id="rId59"/>
+    <hyperlink ref="I15" r:id="rId60"/>
+    <hyperlink ref="H13" r:id="rId61"/>
+    <hyperlink ref="H14" r:id="rId62"/>
+    <hyperlink ref="H15" r:id="rId63"/>
+    <hyperlink ref="I19" r:id="rId64"/>
+    <hyperlink ref="K19" r:id="rId65"/>
+    <hyperlink ref="I20" r:id="rId66"/>
+    <hyperlink ref="I14" r:id="rId67"/>
+    <hyperlink ref="K14" r:id="rId68"/>
+    <hyperlink ref="I16" r:id="rId69"/>
+    <hyperlink ref="K9" r:id="rId70"/>
+    <hyperlink ref="K20" r:id="rId71"/>
+    <hyperlink ref="K13" r:id="rId72"/>
+    <hyperlink ref="K18" r:id="rId73"/>
+    <hyperlink ref="I21" r:id="rId74" location="/video/1509464085I780fb5aec"/>
+    <hyperlink ref="I27" r:id="rId75"/>
+    <hyperlink ref="I17" r:id="rId76"/>
+    <hyperlink ref="I37" r:id="rId77" location="/video/1509464085H9c9ccc747" display="SOLSEC-1004 - Securing the IoT"/>
+    <hyperlink ref="I36" r:id="rId78"/>
+    <hyperlink ref="I38" r:id="rId79"/>
+    <hyperlink ref="I34" r:id="rId80"/>
+    <hyperlink ref="J37" r:id="rId81"/>
+    <hyperlink ref="K37" r:id="rId82"/>
+    <hyperlink ref="I31" r:id="rId83"/>
+    <hyperlink ref="I35" r:id="rId84"/>
+    <hyperlink ref="I33" r:id="rId85"/>
+    <hyperlink ref="I41" r:id="rId86"/>
+    <hyperlink ref="I32" r:id="rId87"/>
+    <hyperlink ref="I39" r:id="rId88"/>
+    <hyperlink ref="I40" r:id="rId89"/>
+    <hyperlink ref="K39" r:id="rId90" location="~stickynav=3"/>
+    <hyperlink ref="K32" r:id="rId91"/>
+    <hyperlink ref="K40" r:id="rId92"/>
+    <hyperlink ref="M6:M22" r:id="rId93" display="Cloud Dev Center"/>
+    <hyperlink ref="J26" r:id="rId94"/>
+    <hyperlink ref="H37:H38" r:id="rId95" display="IoT Fundamentals - Chapter 8"/>
+    <hyperlink ref="H31:H33" r:id="rId96" display="IoT Fundamentals - Chapters 1, 2, 3, 5, and 6"/>
+    <hyperlink ref="H26:H27" r:id="rId97" display="Programming and Automating Cisco Networks - Chapters 7 and 8"/>
+    <hyperlink ref="H24:H25" r:id="rId98" display="Introduction to Software Defined Networking (SDN) - LiveLessons "/>
+    <hyperlink ref="H8:H10" r:id="rId99" display="Understanding Cisco Cloud Fundamentals - LiveLessons"/>
+    <hyperlink ref="K24:L29" r:id="rId100" display="Simplify and Automate the Virtualized Environment - White Paper"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -13076,115 +13102,115 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>

--- a/written-blueprint-checklist.xlsx
+++ b/written-blueprint-checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="525" windowWidth="29175" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="4095" yWindow="525" windowWidth="29175" windowHeight="20460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -109,25 +109,10 @@
     <t>written exam study start date</t>
   </si>
   <si>
-    <t>Principles</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
     <t>L3</t>
-  </si>
-  <si>
-    <t>VPN</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Svcs</t>
-  </si>
-  <si>
-    <t>Evolving</t>
   </si>
   <si>
     <t>KVM or QEMU</t>
@@ -2634,6 +2619,21 @@
   </si>
   <si>
     <t>tunnel vs transport</t>
+  </si>
+  <si>
+    <t>svcs</t>
+  </si>
+  <si>
+    <t>evolving</t>
+  </si>
+  <si>
+    <t>net princ</t>
+  </si>
+  <si>
+    <t>vpn</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
 </sst>
 </file>
@@ -3180,7 +3180,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3190,6 +3196,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3210,32 +3240,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3246,29 +3261,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3276,151 +3276,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3825,7 +3681,7 @@
   </sheetPr>
   <dimension ref="A1:I892"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D429" sqref="D429"/>
     </sheetView>
@@ -3851,23 +3707,23 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="13">
         <f ca="1">(TODAY()-I1)*-1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I1" s="17">
         <v>43467</v>
@@ -3876,7 +3732,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -3888,10 +3744,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="9"/>
@@ -3903,10 +3759,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -3918,10 +3774,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3933,10 +3789,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3948,10 +3804,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -3963,10 +3819,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3978,10 +3834,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3993,10 +3849,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -4008,10 +3864,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4023,10 +3879,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -4038,10 +3894,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13" s="86"/>
       <c r="D13" s="9"/>
@@ -4053,10 +3909,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -4068,10 +3924,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -4083,10 +3939,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C16" s="86"/>
       <c r="D16" s="9"/>
@@ -4098,10 +3954,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
@@ -4113,10 +3969,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -4128,10 +3984,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C19" s="86"/>
       <c r="D19" s="9"/>
@@ -4143,10 +3999,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="86"/>
       <c r="D20" s="9"/>
@@ -4158,10 +4014,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -4173,10 +4029,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C22" s="86"/>
       <c r="D22" s="9"/>
@@ -4188,10 +4044,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
@@ -4203,10 +4059,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C24" s="86"/>
       <c r="D24" s="9"/>
@@ -4218,10 +4074,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C25" s="86"/>
       <c r="D25" s="9"/>
@@ -4233,10 +4089,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -4248,10 +4104,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -4263,10 +4119,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C28" s="86"/>
       <c r="D28" s="9"/>
@@ -4278,10 +4134,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -4293,10 +4149,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C30" s="86"/>
       <c r="D30" s="9"/>
@@ -4308,10 +4164,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C31" s="86"/>
       <c r="D31" s="9"/>
@@ -4323,10 +4179,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -4338,10 +4194,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -4353,10 +4209,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -4368,10 +4224,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
@@ -4383,10 +4239,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="9"/>
@@ -4398,10 +4254,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -4413,10 +4269,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -4428,10 +4284,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -4443,10 +4299,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -4458,10 +4314,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -4473,10 +4329,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C42" s="86"/>
       <c r="D42" s="9"/>
@@ -4488,10 +4344,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="9"/>
@@ -4503,10 +4359,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="9"/>
@@ -4518,10 +4374,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -4533,10 +4389,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -4548,10 +4404,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -4563,10 +4419,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C48" s="86"/>
       <c r="D48" s="9"/>
@@ -4578,10 +4434,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="9"/>
@@ -4593,10 +4449,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -4608,10 +4464,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -4623,10 +4479,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -4638,10 +4494,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="9"/>
@@ -4653,10 +4509,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -4668,15 +4524,15 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
       <c r="E55" s="87" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="14"/>
@@ -4686,7 +4542,7 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -4698,10 +4554,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="9"/>
@@ -4713,10 +4569,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="9"/>
@@ -4728,10 +4584,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C59" s="86"/>
       <c r="D59" s="9"/>
@@ -4743,10 +4599,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -4758,10 +4614,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="C61" s="86"/>
       <c r="D61" s="9"/>
@@ -4773,10 +4629,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="9"/>
@@ -4788,10 +4644,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C63" s="86"/>
       <c r="D63" s="9"/>
@@ -4803,10 +4659,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
@@ -4818,10 +4674,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="9"/>
@@ -4833,10 +4689,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -4848,10 +4704,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -4863,10 +4719,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C68" s="86"/>
       <c r="D68" s="9"/>
@@ -4878,10 +4734,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="9"/>
@@ -4893,10 +4749,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C70" s="86"/>
       <c r="D70" s="9"/>
@@ -4908,10 +4764,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
@@ -4923,10 +4779,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
@@ -4938,10 +4794,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
@@ -4953,10 +4809,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="9"/>
@@ -4968,10 +4824,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
@@ -4983,10 +4839,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C76" s="86"/>
       <c r="D76" s="9"/>
@@ -4998,10 +4854,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C77" s="86"/>
       <c r="D77" s="9"/>
@@ -5013,10 +4869,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C78" s="86"/>
       <c r="D78" s="9"/>
@@ -5028,10 +4884,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="9"/>
@@ -5043,10 +4899,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C80" s="86"/>
       <c r="D80" s="9"/>
@@ -5058,10 +4914,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
@@ -5073,10 +4929,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C82" s="86"/>
       <c r="D82" s="9"/>
@@ -5088,10 +4944,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C83" s="86"/>
       <c r="D83" s="9"/>
@@ -5103,10 +4959,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="9"/>
@@ -5118,10 +4974,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
@@ -5133,10 +4989,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="9"/>
@@ -5148,10 +5004,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="9"/>
@@ -5163,10 +5019,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
@@ -5178,10 +5034,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="9"/>
@@ -5193,10 +5049,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C90" s="86"/>
       <c r="D90" s="9"/>
@@ -5208,10 +5064,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="9"/>
@@ -5223,10 +5079,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="9"/>
@@ -5238,10 +5094,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C93" s="86"/>
       <c r="D93" s="9"/>
@@ -5253,10 +5109,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C94" s="86"/>
       <c r="D94" s="9"/>
@@ -5268,10 +5124,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="9"/>
@@ -5283,10 +5139,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="9"/>
@@ -5298,10 +5154,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="9"/>
@@ -5313,10 +5169,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="9"/>
@@ -5328,10 +5184,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="9"/>
@@ -5343,10 +5199,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C100" s="86"/>
       <c r="D100" s="9"/>
@@ -5358,10 +5214,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C101" s="86"/>
       <c r="D101" s="9"/>
@@ -5373,10 +5229,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C102" s="86"/>
       <c r="D102" s="9"/>
@@ -5388,10 +5244,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="9"/>
@@ -5403,10 +5259,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="9"/>
@@ -5418,10 +5274,10 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="9"/>
@@ -5433,10 +5289,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="9"/>
@@ -5448,10 +5304,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="9"/>
@@ -5463,10 +5319,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="9"/>
@@ -5478,10 +5334,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="9"/>
@@ -5493,10 +5349,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="9"/>
@@ -5508,10 +5364,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="9"/>
@@ -5523,10 +5379,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="9"/>
@@ -5539,7 +5395,7 @@
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -5551,10 +5407,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="9"/>
@@ -5566,10 +5422,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="9"/>
@@ -5581,10 +5437,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="9"/>
@@ -5596,10 +5452,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="9"/>
@@ -5611,10 +5467,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="9"/>
@@ -5626,10 +5482,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="9"/>
@@ -5641,10 +5497,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="9"/>
@@ -5656,10 +5512,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="9"/>
@@ -5671,10 +5527,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="9"/>
@@ -5686,10 +5542,10 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="9"/>
@@ -5701,10 +5557,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="9"/>
@@ -5716,10 +5572,10 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="9"/>
@@ -5731,10 +5587,10 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="9"/>
@@ -5746,10 +5602,10 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="9"/>
@@ -5761,10 +5617,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="9"/>
@@ -5776,10 +5632,10 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="9"/>
@@ -5791,10 +5647,10 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="9"/>
@@ -5806,10 +5662,10 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="9"/>
@@ -5821,10 +5677,10 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="9"/>
@@ -5836,10 +5692,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="9"/>
@@ -5851,10 +5707,10 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="9"/>
@@ -5866,14 +5722,14 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E135" s="87"/>
       <c r="F135" s="9"/>
@@ -5883,10 +5739,10 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="9"/>
@@ -5898,10 +5754,10 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="9"/>
@@ -5913,10 +5769,10 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="9"/>
@@ -5928,10 +5784,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="9"/>
@@ -5943,10 +5799,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="9"/>
@@ -5958,10 +5814,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="9"/>
@@ -5973,10 +5829,10 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="9"/>
@@ -5988,10 +5844,10 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="9"/>
@@ -6003,10 +5859,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="9"/>
@@ -6018,10 +5874,10 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="9"/>
@@ -6033,10 +5889,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="9"/>
@@ -6048,10 +5904,10 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="9"/>
@@ -6063,10 +5919,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="9"/>
@@ -6078,10 +5934,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="9"/>
@@ -6093,10 +5949,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="9"/>
@@ -6108,10 +5964,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="9"/>
@@ -6123,10 +5979,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="9"/>
@@ -6138,10 +5994,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="9"/>
@@ -6153,10 +6009,10 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="9"/>
@@ -6168,10 +6024,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="9"/>
@@ -6183,10 +6039,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="9"/>
@@ -6198,10 +6054,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="9"/>
@@ -6213,10 +6069,10 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="9"/>
@@ -6228,10 +6084,10 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="9"/>
@@ -6243,10 +6099,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="9"/>
@@ -6258,10 +6114,10 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="9"/>
@@ -6273,10 +6129,10 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="9"/>
@@ -6288,10 +6144,10 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="9"/>
@@ -6303,10 +6159,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="9"/>
@@ -6318,10 +6174,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="9"/>
@@ -6333,10 +6189,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="9"/>
@@ -6348,10 +6204,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="9"/>
@@ -6363,10 +6219,10 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C168" s="8"/>
       <c r="D168" s="9"/>
@@ -6378,10 +6234,10 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="9"/>
@@ -6393,10 +6249,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="9"/>
@@ -6408,10 +6264,10 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="9"/>
@@ -6423,10 +6279,10 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="9"/>
@@ -6438,10 +6294,10 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="9"/>
@@ -6453,10 +6309,10 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="9"/>
@@ -6468,10 +6324,10 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="9"/>
@@ -6483,10 +6339,10 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="9"/>
@@ -6498,10 +6354,10 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="9"/>
@@ -6513,14 +6369,14 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E178" s="87"/>
       <c r="F178" s="9"/>
@@ -6530,10 +6386,10 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C179" s="8"/>
       <c r="D179" s="9"/>
@@ -6545,10 +6401,10 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="9"/>
@@ -6560,10 +6416,10 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="9"/>
@@ -6575,14 +6431,14 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E182" s="87"/>
       <c r="F182" s="9"/>
@@ -6592,10 +6448,10 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C183" s="8"/>
       <c r="D183" s="9"/>
@@ -6607,10 +6463,10 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C184" s="8"/>
       <c r="D184" s="9"/>
@@ -6622,10 +6478,10 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="9"/>
@@ -6637,10 +6493,10 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C186" s="8"/>
       <c r="D186" s="9"/>
@@ -6652,10 +6508,10 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="9"/>
@@ -6667,10 +6523,10 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C188" s="8"/>
       <c r="D188" s="9"/>
@@ -6682,17 +6538,17 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E189" s="89" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F189" s="9"/>
       <c r="G189" s="14"/>
@@ -6701,10 +6557,10 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C190" s="8"/>
       <c r="D190" s="9"/>
@@ -6716,10 +6572,10 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C191" s="8"/>
       <c r="D191" s="9"/>
@@ -6731,10 +6587,10 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="9"/>
@@ -6746,10 +6602,10 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C193" s="8"/>
       <c r="D193" s="9"/>
@@ -6761,10 +6617,10 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C194" s="8"/>
       <c r="D194" s="9"/>
@@ -6776,10 +6632,10 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C195" s="8"/>
       <c r="D195" s="9"/>
@@ -6791,10 +6647,10 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C196" s="8"/>
       <c r="D196" s="9"/>
@@ -6806,10 +6662,10 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C197" s="8"/>
       <c r="D197" s="9"/>
@@ -6821,10 +6677,10 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="9"/>
@@ -6836,10 +6692,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C199" s="8"/>
       <c r="D199" s="9"/>
@@ -6851,10 +6707,10 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C200" s="8"/>
       <c r="D200" s="9"/>
@@ -6866,10 +6722,10 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C201" s="8"/>
       <c r="D201" s="9"/>
@@ -6881,10 +6737,10 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C202" s="8"/>
       <c r="D202" s="9"/>
@@ -6896,10 +6752,10 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C203" s="87"/>
       <c r="D203" s="9"/>
@@ -6911,10 +6767,10 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C204" s="8"/>
       <c r="D204" s="9"/>
@@ -6926,10 +6782,10 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C205" s="8"/>
       <c r="D205" s="9"/>
@@ -6941,10 +6797,10 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C206" s="8"/>
       <c r="D206" s="9"/>
@@ -6956,10 +6812,10 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C207" s="8"/>
       <c r="D207" s="9"/>
@@ -6971,10 +6827,10 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C208" s="8"/>
       <c r="D208" s="9"/>
@@ -6986,10 +6842,10 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="9"/>
@@ -7001,10 +6857,10 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C210" s="8"/>
       <c r="D210" s="9"/>
@@ -7016,10 +6872,10 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C211" s="8"/>
       <c r="D211" s="9"/>
@@ -7031,10 +6887,10 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C212" s="8"/>
       <c r="D212" s="9"/>
@@ -7046,10 +6902,10 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C213" s="8"/>
       <c r="D213" s="9"/>
@@ -7061,10 +6917,10 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C214" s="87"/>
       <c r="D214" s="9"/>
@@ -7075,10 +6931,10 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C215" s="8"/>
       <c r="D215" s="9"/>
@@ -7090,10 +6946,10 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C216" s="8"/>
       <c r="D216" s="9"/>
@@ -7105,10 +6961,10 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C217" s="8"/>
       <c r="D217" s="9"/>
@@ -7120,10 +6976,10 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C218" s="8"/>
       <c r="D218" s="9"/>
@@ -7135,10 +6991,10 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C219" s="8"/>
       <c r="D219" s="9"/>
@@ -7150,10 +7006,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="9"/>
@@ -7165,10 +7021,10 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C221" s="8"/>
       <c r="D221" s="9"/>
@@ -7180,10 +7036,10 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C222" s="8"/>
       <c r="D222" s="9"/>
@@ -7195,10 +7051,10 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C223" s="8"/>
       <c r="D223" s="9"/>
@@ -7210,10 +7066,10 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C224" s="8"/>
       <c r="D224" s="9"/>
@@ -7225,10 +7081,10 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C225" s="8"/>
       <c r="D225" s="9"/>
@@ -7240,10 +7096,10 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C226" s="8"/>
       <c r="D226" s="9"/>
@@ -7255,10 +7111,10 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C227" s="8"/>
       <c r="D227" s="9"/>
@@ -7270,10 +7126,10 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C228" s="8"/>
       <c r="D228" s="9"/>
@@ -7285,10 +7141,10 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C229" s="8"/>
       <c r="D229" s="9"/>
@@ -7300,10 +7156,10 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C230" s="8"/>
       <c r="D230" s="9"/>
@@ -7315,17 +7171,17 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E231" s="90" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="14"/>
@@ -7334,17 +7190,17 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E232" s="90" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="14"/>
@@ -7353,10 +7209,10 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C233" s="8"/>
       <c r="D233" s="9"/>
@@ -7368,10 +7224,10 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="9"/>
@@ -7383,10 +7239,10 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C235" s="8"/>
       <c r="D235" s="9"/>
@@ -7398,10 +7254,10 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C236" s="8"/>
       <c r="D236" s="9"/>
@@ -7413,10 +7269,10 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C237" s="8"/>
       <c r="D237" s="9"/>
@@ -7428,10 +7284,10 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C238" s="8"/>
       <c r="D238" s="9"/>
@@ -7443,10 +7299,10 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C239" s="8"/>
       <c r="D239" s="9"/>
@@ -7458,10 +7314,10 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C240" s="8"/>
       <c r="D240" s="9"/>
@@ -7473,10 +7329,10 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="9"/>
@@ -7488,10 +7344,10 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C242" s="8"/>
       <c r="D242" s="9"/>
@@ -7503,10 +7359,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C243" s="8"/>
       <c r="D243" s="9"/>
@@ -7518,10 +7374,10 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C244" s="8"/>
       <c r="D244" s="9"/>
@@ -7533,10 +7389,10 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C245" s="8"/>
       <c r="D245" s="9"/>
@@ -7548,10 +7404,10 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C246" s="8"/>
       <c r="D246" s="9"/>
@@ -7563,10 +7419,10 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C247" s="8"/>
       <c r="D247" s="9"/>
@@ -7578,17 +7434,17 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E248" s="87" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="14"/>
@@ -7597,17 +7453,17 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C249" s="8"/>
       <c r="D249" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E249" s="90" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="14"/>
@@ -7616,10 +7472,10 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C250" s="8"/>
       <c r="D250" s="9"/>
@@ -7631,10 +7487,10 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C251" s="8"/>
       <c r="D251" s="9"/>
@@ -7646,10 +7502,10 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C252" s="8"/>
       <c r="D252" s="9"/>
@@ -7661,10 +7517,10 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C253" s="8"/>
       <c r="D253" s="9"/>
@@ -7676,10 +7532,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C254" s="8"/>
       <c r="D254" s="9"/>
@@ -7691,10 +7547,10 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C255" s="8"/>
       <c r="D255" s="9"/>
@@ -7706,10 +7562,10 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C256" s="8"/>
       <c r="D256" s="9"/>
@@ -7721,10 +7577,10 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C257" s="8"/>
       <c r="D257" s="9"/>
@@ -7736,10 +7592,10 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C258" s="8"/>
       <c r="D258" s="9"/>
@@ -7751,10 +7607,10 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C259" s="8"/>
       <c r="D259" s="9"/>
@@ -7766,10 +7622,10 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C260" s="8"/>
       <c r="D260" s="9"/>
@@ -7781,10 +7637,10 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C261" s="8"/>
       <c r="D261" s="9"/>
@@ -7796,10 +7652,10 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="9"/>
@@ -7811,10 +7667,10 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C263" s="8"/>
       <c r="D263" s="9"/>
@@ -7826,10 +7682,10 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C264" s="8"/>
       <c r="D264" s="9"/>
@@ -7841,10 +7697,10 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C265" s="8"/>
       <c r="D265" s="9"/>
@@ -7856,10 +7712,10 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C266" s="8"/>
       <c r="D266" s="9"/>
@@ -7871,10 +7727,10 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C267" s="8"/>
       <c r="D267" s="9"/>
@@ -7886,10 +7742,10 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C268" s="8"/>
       <c r="D268" s="9"/>
@@ -7901,10 +7757,10 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C269" s="8"/>
       <c r="D269" s="9"/>
@@ -7916,10 +7772,10 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C270" s="8"/>
       <c r="D270" s="9"/>
@@ -7931,10 +7787,10 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C271" s="8"/>
       <c r="D271" s="9"/>
@@ -7946,10 +7802,10 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C272" s="8"/>
       <c r="D272" s="9"/>
@@ -7961,10 +7817,10 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C273" s="8"/>
       <c r="D273" s="9"/>
@@ -7976,10 +7832,10 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C274" s="8"/>
       <c r="D274" s="9"/>
@@ -7991,10 +7847,10 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C275" s="8"/>
       <c r="D275" s="9"/>
@@ -8006,10 +7862,10 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C276" s="8"/>
       <c r="D276" s="9"/>
@@ -8021,10 +7877,10 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C277" s="8"/>
       <c r="D277" s="9"/>
@@ -8036,10 +7892,10 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C278" s="8"/>
       <c r="D278" s="9"/>
@@ -8052,7 +7908,7 @@
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
       <c r="B279" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
@@ -8064,10 +7920,10 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C280" s="10"/>
       <c r="D280" s="9"/>
@@ -8079,10 +7935,10 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C281" s="8"/>
       <c r="D281" s="9"/>
@@ -8094,10 +7950,10 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C282" s="8"/>
       <c r="D282" s="9"/>
@@ -8109,10 +7965,10 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B283" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="C283" s="8"/>
       <c r="D283" s="9"/>
@@ -8124,10 +7980,10 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C284" s="8"/>
       <c r="D284" s="9"/>
@@ -8139,10 +7995,10 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C285" s="8"/>
       <c r="D285" s="9"/>
@@ -8154,10 +8010,10 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C286" s="8"/>
       <c r="D286" s="9"/>
@@ -8169,10 +8025,10 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C287" s="8"/>
       <c r="D287" s="9"/>
@@ -8184,10 +8040,10 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C288" s="8"/>
       <c r="D288" s="9"/>
@@ -8199,10 +8055,10 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C289" s="8"/>
       <c r="D289" s="9"/>
@@ -8214,10 +8070,10 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C290" s="8"/>
       <c r="D290" s="9"/>
@@ -8229,10 +8085,10 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C291" s="8"/>
       <c r="D291" s="9"/>
@@ -8244,10 +8100,10 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C292" s="8"/>
       <c r="D292" s="9"/>
@@ -8259,10 +8115,10 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C293" s="8"/>
       <c r="D293" s="9"/>
@@ -8274,10 +8130,10 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C294" s="8"/>
       <c r="D294" s="9"/>
@@ -8289,17 +8145,17 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C295" s="8"/>
       <c r="D295" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E295" s="90" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F295" s="9"/>
       <c r="G295" s="14"/>
@@ -8308,10 +8164,10 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C296" s="8"/>
       <c r="D296" s="87"/>
@@ -8323,10 +8179,10 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C297" s="87"/>
       <c r="D297" s="9"/>
@@ -8338,17 +8194,17 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C298" s="8"/>
       <c r="D298" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E298" s="87" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F298" s="9"/>
       <c r="G298" s="14"/>
@@ -8357,10 +8213,10 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C299" s="8"/>
       <c r="D299" s="9"/>
@@ -8372,10 +8228,10 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C300" s="8"/>
       <c r="D300" s="9"/>
@@ -8387,10 +8243,10 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C301" s="8"/>
       <c r="D301" s="9"/>
@@ -8402,10 +8258,10 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C302" s="8"/>
       <c r="D302" s="9"/>
@@ -8417,10 +8273,10 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C303" s="8"/>
       <c r="D303" s="9"/>
@@ -8432,17 +8288,17 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E304" s="90" t="s">
         <v>626</v>
-      </c>
-      <c r="E304" s="90" t="s">
-        <v>631</v>
       </c>
       <c r="F304" s="9"/>
       <c r="G304" s="14"/>
@@ -8451,10 +8307,10 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C305" s="8"/>
       <c r="D305" s="9"/>
@@ -8466,10 +8322,10 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C306" s="8"/>
       <c r="D306" s="9"/>
@@ -8481,10 +8337,10 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C307" s="8"/>
       <c r="D307" s="9"/>
@@ -8496,10 +8352,10 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="9"/>
@@ -8511,17 +8367,17 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C309" s="8"/>
       <c r="D309" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E309" s="90" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F309" s="9"/>
       <c r="G309" s="14"/>
@@ -8530,10 +8386,10 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C310" s="8"/>
       <c r="D310" s="9"/>
@@ -8545,10 +8401,10 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C311" s="8"/>
       <c r="D311" s="9"/>
@@ -8560,10 +8416,10 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C312" s="8"/>
       <c r="D312" s="9"/>
@@ -8575,10 +8431,10 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C313" s="8"/>
       <c r="D313" s="9"/>
@@ -8591,7 +8447,7 @@
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="7"/>
       <c r="B314" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
@@ -8603,10 +8459,10 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C315" s="10"/>
       <c r="D315" s="9"/>
@@ -8618,10 +8474,10 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C316" s="8"/>
       <c r="D316" s="9"/>
@@ -8633,10 +8489,10 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C317" s="8"/>
       <c r="D317" s="9"/>
@@ -8648,10 +8504,10 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C318" s="8"/>
       <c r="D318" s="9"/>
@@ -8663,10 +8519,10 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B319" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="B319" s="8" t="s">
-        <v>361</v>
       </c>
       <c r="C319" s="8"/>
       <c r="D319" s="9"/>
@@ -8678,10 +8534,10 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C320" s="8"/>
       <c r="D320" s="9"/>
@@ -8693,10 +8549,10 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C321" s="8"/>
       <c r="D321" s="9"/>
@@ -8708,10 +8564,10 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C322" s="8"/>
       <c r="D322" s="9"/>
@@ -8723,10 +8579,10 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C323" s="8"/>
       <c r="D323" s="9"/>
@@ -8738,10 +8594,10 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C324" s="8"/>
       <c r="D324" s="9"/>
@@ -8753,10 +8609,10 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C325" s="8"/>
       <c r="D325" s="9"/>
@@ -8768,10 +8624,10 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C326" s="10"/>
       <c r="D326" s="9"/>
@@ -8783,10 +8639,10 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C327" s="8"/>
       <c r="D327" s="9"/>
@@ -8798,10 +8654,10 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C328" s="8"/>
       <c r="D328" s="9"/>
@@ -8813,10 +8669,10 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
@@ -8828,10 +8684,10 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C330" s="8"/>
       <c r="D330" s="9"/>
@@ -8843,10 +8699,10 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C331" s="8"/>
       <c r="D331" s="9"/>
@@ -8858,10 +8714,10 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C332" s="8"/>
       <c r="D332" s="9"/>
@@ -8873,10 +8729,10 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C333" s="8"/>
       <c r="D333" s="9"/>
@@ -8888,10 +8744,10 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C334" s="8"/>
       <c r="D334" s="9"/>
@@ -8903,10 +8759,10 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C335" s="8"/>
       <c r="D335" s="9"/>
@@ -8918,10 +8774,10 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C336" s="8"/>
       <c r="D336" s="9"/>
@@ -8933,10 +8789,10 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C337" s="8"/>
       <c r="D337" s="9"/>
@@ -8948,10 +8804,10 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C338" s="8"/>
       <c r="D338" s="9"/>
@@ -8963,10 +8819,10 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C339" s="87"/>
       <c r="D339" s="9"/>
@@ -8978,10 +8834,10 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C340" s="8"/>
       <c r="D340" s="9"/>
@@ -8993,10 +8849,10 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C341" s="8"/>
       <c r="D341" s="9"/>
@@ -9008,10 +8864,10 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C342" s="8"/>
       <c r="D342" s="9"/>
@@ -9023,10 +8879,10 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C343" s="8"/>
       <c r="D343" s="9"/>
@@ -9038,10 +8894,10 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C344" s="8"/>
       <c r="D344" s="9"/>
@@ -9053,10 +8909,10 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C345" s="8"/>
       <c r="D345" s="9"/>
@@ -9068,10 +8924,10 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C346" s="8"/>
       <c r="D346" s="9"/>
@@ -9083,10 +8939,10 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C347" s="8"/>
       <c r="D347" s="9"/>
@@ -9098,10 +8954,10 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C348" s="8"/>
       <c r="D348" s="9"/>
@@ -9113,14 +8969,14 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C349" s="8"/>
       <c r="D349" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E349" s="87"/>
       <c r="F349" s="9"/>
@@ -9131,7 +8987,7 @@
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="11"/>
       <c r="B350" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
@@ -9143,10 +8999,10 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C351" s="10"/>
       <c r="D351" s="9"/>
@@ -9158,10 +9014,10 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C352" s="10"/>
       <c r="D352" s="9"/>
@@ -9173,10 +9029,10 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C353" s="8"/>
       <c r="D353" s="9"/>
@@ -9188,10 +9044,10 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C354" s="8"/>
       <c r="D354" s="9"/>
@@ -9203,10 +9059,10 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B355" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>398</v>
       </c>
       <c r="C355" s="8"/>
       <c r="D355" s="9"/>
@@ -9218,10 +9074,10 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C356" s="8"/>
       <c r="D356" s="9"/>
@@ -9233,10 +9089,10 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C357" s="8"/>
       <c r="D357" s="9"/>
@@ -9248,10 +9104,10 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C358" s="8"/>
       <c r="D358" s="9"/>
@@ -9263,10 +9119,10 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C359" s="8"/>
       <c r="D359" s="9"/>
@@ -9278,10 +9134,10 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C360" s="8"/>
       <c r="D360" s="9"/>
@@ -9293,10 +9149,10 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C361" s="87"/>
       <c r="D361" s="9"/>
@@ -9308,10 +9164,10 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C362" s="87"/>
       <c r="D362" s="9"/>
@@ -9323,10 +9179,10 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C363" s="8"/>
       <c r="D363" s="9"/>
@@ -9338,10 +9194,10 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C364" s="8"/>
       <c r="D364" s="9"/>
@@ -9353,10 +9209,10 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C365" s="8"/>
       <c r="D365" s="9"/>
@@ -9368,10 +9224,10 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C366" s="8"/>
       <c r="D366" s="9"/>
@@ -9383,10 +9239,10 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C367" s="8"/>
       <c r="D367" s="9"/>
@@ -9398,10 +9254,10 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C368" s="8"/>
       <c r="D368" s="9"/>
@@ -9413,10 +9269,10 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C369" s="8"/>
       <c r="F369" s="9"/>
@@ -9426,10 +9282,10 @@
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C370" s="8"/>
       <c r="D370" s="9"/>
@@ -9441,10 +9297,10 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C371" s="8"/>
       <c r="D371" s="9"/>
@@ -9456,10 +9312,10 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C372" s="87"/>
       <c r="D372" s="9"/>
@@ -9471,10 +9327,10 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C373" s="8"/>
       <c r="D373" s="9"/>
@@ -9486,10 +9342,10 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C374" s="8"/>
       <c r="D374" s="9"/>
@@ -9501,10 +9357,10 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="9"/>
@@ -9516,10 +9372,10 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C376" s="8"/>
       <c r="D376" s="9"/>
@@ -9531,10 +9387,10 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C377" s="8"/>
       <c r="D377" s="9"/>
@@ -9546,10 +9402,10 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C378" s="8"/>
       <c r="D378" s="9"/>
@@ -9561,10 +9417,10 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C379" s="8"/>
       <c r="D379" s="9"/>
@@ -9576,10 +9432,10 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C380" s="8"/>
       <c r="D380" s="9"/>
@@ -9591,10 +9447,10 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C381" s="8"/>
       <c r="D381" s="9"/>
@@ -9606,10 +9462,10 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C382" s="8"/>
       <c r="D382" s="9"/>
@@ -9621,10 +9477,10 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C383" s="8"/>
       <c r="D383" s="9"/>
@@ -9636,10 +9492,10 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C384" s="8"/>
       <c r="D384" s="9"/>
@@ -9651,10 +9507,10 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C385" s="8"/>
       <c r="D385" s="9"/>
@@ -9666,10 +9522,10 @@
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C386" s="8"/>
       <c r="D386" s="9"/>
@@ -9681,10 +9537,10 @@
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C387" s="8"/>
       <c r="D387" s="9"/>
@@ -9696,10 +9552,10 @@
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C388" s="8"/>
       <c r="D388" s="9"/>
@@ -9711,10 +9567,10 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C389" s="8"/>
       <c r="D389" s="9"/>
@@ -9726,10 +9582,10 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C390" s="8"/>
       <c r="D390" s="9"/>
@@ -9741,10 +9597,10 @@
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C391" s="9"/>
       <c r="D391" s="9"/>
@@ -9756,10 +9612,10 @@
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C392" s="87"/>
       <c r="D392" s="9"/>
@@ -9771,10 +9627,10 @@
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C393" s="8"/>
       <c r="D393" s="9"/>
@@ -9786,10 +9642,10 @@
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C394" s="9"/>
       <c r="D394" s="9"/>
@@ -9801,10 +9657,10 @@
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C395" s="10"/>
       <c r="D395" s="9"/>
@@ -9816,10 +9672,10 @@
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C396" s="8"/>
       <c r="D396" s="9"/>
@@ -9831,10 +9687,10 @@
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C397" s="8"/>
       <c r="D397" s="9"/>
@@ -9845,10 +9701,10 @@
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C398" s="8"/>
       <c r="D398" s="9"/>
@@ -9860,10 +9716,10 @@
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C399" s="8"/>
       <c r="D399" s="9"/>
@@ -9875,10 +9731,10 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C400" s="8"/>
       <c r="D400" s="9"/>
@@ -9890,10 +9746,10 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C401" s="10"/>
       <c r="D401" s="9"/>
@@ -9905,10 +9761,10 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C402" s="8"/>
       <c r="D402" s="9"/>
@@ -9920,10 +9776,10 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C403" s="8"/>
       <c r="D403" s="9"/>
@@ -9935,10 +9791,10 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C404" s="8"/>
       <c r="D404" s="9"/>
@@ -9950,10 +9806,10 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C405" s="8"/>
       <c r="D405" s="9"/>
@@ -9965,10 +9821,10 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C406" s="8"/>
       <c r="D406" s="9"/>
@@ -9980,10 +9836,10 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C407" s="8"/>
       <c r="D407" s="9"/>
@@ -9995,10 +9851,10 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C408" s="8"/>
       <c r="D408" s="9"/>
@@ -10010,10 +9866,10 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C409" s="8"/>
       <c r="D409" s="9"/>
@@ -10026,7 +9882,7 @@
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="11"/>
       <c r="B410" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
@@ -10038,10 +9894,10 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C411" s="8"/>
       <c r="D411" s="9"/>
@@ -10053,10 +9909,10 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C412" s="8"/>
       <c r="D412" s="9"/>
@@ -10068,10 +9924,10 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C413" s="8"/>
       <c r="D413" s="9"/>
@@ -10083,10 +9939,10 @@
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C414" s="8"/>
       <c r="D414" s="9"/>
@@ -10098,10 +9954,10 @@
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B415" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="B415" s="8" t="s">
-        <v>459</v>
       </c>
       <c r="C415" s="8"/>
       <c r="D415" s="9"/>
@@ -10113,10 +9969,10 @@
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C416" s="9"/>
       <c r="D416" s="9"/>
@@ -10128,10 +9984,10 @@
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C417" s="8"/>
       <c r="D417" s="9"/>
@@ -10143,10 +9999,10 @@
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C418" s="8"/>
       <c r="D418" s="9"/>
@@ -10158,10 +10014,10 @@
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C419" s="8"/>
       <c r="D419" s="9"/>
@@ -10173,10 +10029,10 @@
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C420" s="8"/>
       <c r="D420" s="9"/>
@@ -10188,10 +10044,10 @@
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C421" s="8"/>
       <c r="D421" s="9"/>
@@ -10203,10 +10059,10 @@
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C422" s="8"/>
       <c r="D422" s="9"/>
@@ -10218,10 +10074,10 @@
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C423" s="8"/>
       <c r="D423" s="9"/>
@@ -10233,10 +10089,10 @@
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C424" s="8"/>
       <c r="D424" s="9"/>
@@ -10248,10 +10104,10 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C425" s="8"/>
       <c r="D425" s="9"/>
@@ -10263,10 +10119,10 @@
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C426" s="8"/>
       <c r="D426" s="9"/>
@@ -10278,10 +10134,10 @@
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C427" s="8"/>
       <c r="D427" s="9"/>
@@ -10293,10 +10149,10 @@
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C428" s="8"/>
       <c r="D428" s="9"/>
@@ -10308,10 +10164,10 @@
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C429" s="8"/>
       <c r="D429" s="9"/>
@@ -10323,10 +10179,10 @@
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C430" s="8"/>
       <c r="D430" s="9"/>
@@ -10338,10 +10194,10 @@
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C431" s="8"/>
       <c r="D431" s="9"/>
@@ -10353,10 +10209,10 @@
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C432" s="8"/>
       <c r="D432" s="9"/>
@@ -11749,42 +11605,42 @@
   </sheetData>
   <autoFilter ref="B1:I892"/>
   <conditionalFormatting sqref="C204:D213 C373:D391 C2:D55 E231:E232 E249 E295 E304 E309 E324 E330 C370:D371 C369 D80:E80 D55:D56 C57:D202 D211:E211 C215:D295 C296 C298:D338 C340:D360 C363:D368 D373:E373 C393:D432">
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A314">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A314)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11805,13 +11661,13 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
@@ -11846,25 +11702,25 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>631</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>632</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>628</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11872,13 +11728,13 @@
         <v>43261</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>756</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D4" si="0">C3-804</f>
+        <f t="shared" ref="D3:D5" si="0">C3-804</f>
         <v>-48</v>
       </c>
       <c r="E3">
@@ -11912,7 +11768,7 @@
         <v>43304</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>734</v>
@@ -11952,11 +11808,39 @@
         <v>43467</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
+      </c>
+      <c r="C5">
+        <v>806</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E5">
         <f>_xlfn.DAYS(A5,A4)</f>
         <v>163</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>55</v>
+      </c>
+      <c r="J5">
+        <v>75</v>
+      </c>
+      <c r="K5">
+        <v>64</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -12011,65 +11895,65 @@
       <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="54" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H2" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>480</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118" t="s">
-        <v>482</v>
-      </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="32"/>
       <c r="H3" s="28"/>
       <c r="I3" s="29" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="J3" s="28"/>
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" s="37" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="34" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="36"/>
@@ -12090,397 +11974,397 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
-        <v>484</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>485</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>486</v>
-      </c>
-      <c r="D6" s="107" t="s">
-        <v>541</v>
+      <c r="A6" s="94" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>481</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>536</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I6" s="49"/>
       <c r="J6" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="L6" s="102" t="s">
+        <v>538</v>
+      </c>
+      <c r="M6" s="102" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>613</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="K7" s="48" t="s">
         <v>489</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="94" t="s">
         <v>490</v>
       </c>
-      <c r="L6" s="104" t="s">
+      <c r="F8" s="105" t="s">
+        <v>542</v>
+      </c>
+      <c r="G8" s="83"/>
+      <c r="H8" s="108" t="s">
         <v>543</v>
       </c>
-      <c r="M6" s="104" t="s">
+      <c r="I8" s="55" t="s">
+        <v>544</v>
+      </c>
+      <c r="J8" s="49" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="H7" s="48" t="s">
+      <c r="K8" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:13" s="23" customFormat="1" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="55" t="s">
         <v>545</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>493</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>546</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-    </row>
-    <row r="8" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="92" t="s">
-        <v>495</v>
-      </c>
-      <c r="F8" s="95" t="s">
-        <v>547</v>
-      </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="98" t="s">
-        <v>548</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>549</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>496</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>502</v>
-      </c>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-    </row>
-    <row r="9" spans="1:13" s="23" customFormat="1" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="55" t="s">
-        <v>550</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="56" t="s">
-        <v>551</v>
-      </c>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
+        <v>546</v>
+      </c>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1" ht="18.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="97"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="107"/>
       <c r="G10" s="63" t="s">
-        <v>618</v>
-      </c>
-      <c r="H10" s="100"/>
+        <v>613</v>
+      </c>
+      <c r="H10" s="110"/>
       <c r="I10" s="55" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="57"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="92" t="s">
-        <v>497</v>
-      </c>
-      <c r="F11" s="95" t="s">
-        <v>553</v>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="94" t="s">
+        <v>492</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>548</v>
       </c>
       <c r="G11" s="83"/>
-      <c r="H11" s="91"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="58" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="48" t="s">
-        <v>555</v>
-      </c>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
+        <v>550</v>
+      </c>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="85" t="s">
-        <v>618</v>
-      </c>
-      <c r="H12" s="115"/>
+        <v>613</v>
+      </c>
+      <c r="H12" s="113"/>
       <c r="I12" s="59" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="J12" s="60"/>
       <c r="K12" s="61" t="s">
-        <v>557</v>
-      </c>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
+        <v>552</v>
+      </c>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93" t="s">
-        <v>498</v>
-      </c>
-      <c r="D13" s="108" t="s">
-        <v>558</v>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>553</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I13" s="65" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J13" s="66"/>
       <c r="K13" s="56" t="s">
-        <v>562</v>
-      </c>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
+        <v>557</v>
+      </c>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="108"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="46" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H14" s="67" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="J14" s="51"/>
       <c r="K14" s="48" t="s">
-        <v>566</v>
-      </c>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
+        <v>561</v>
+      </c>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
     </row>
     <row r="15" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="108"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="46" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H15" s="67" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="J15" s="51"/>
       <c r="K15" s="48" t="s">
-        <v>570</v>
-      </c>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
+        <v>565</v>
+      </c>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
     </row>
     <row r="16" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="92" t="s">
-        <v>503</v>
-      </c>
-      <c r="F16" s="95" t="s">
-        <v>571</v>
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="94" t="s">
+        <v>498</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>566</v>
       </c>
       <c r="G16" s="83"/>
-      <c r="H16" s="116"/>
+      <c r="H16" s="114"/>
       <c r="I16" s="68" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="J16" s="51"/>
       <c r="K16" s="48"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
     </row>
     <row r="17" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="96"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="84"/>
-      <c r="H17" s="116"/>
+      <c r="H17" s="114"/>
       <c r="I17" s="68" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="J17" s="51"/>
       <c r="K17" s="48"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
     </row>
     <row r="18" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="96"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="84"/>
-      <c r="H18" s="116"/>
+      <c r="H18" s="114"/>
       <c r="I18" s="48" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="J18" s="51"/>
       <c r="K18" s="68" t="s">
-        <v>575</v>
-      </c>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
+        <v>570</v>
+      </c>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
     </row>
     <row r="19" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="96"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="106"/>
       <c r="G19" s="84"/>
-      <c r="H19" s="116"/>
+      <c r="H19" s="114"/>
       <c r="I19" s="48" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="J19" s="51"/>
       <c r="K19" s="68" t="s">
-        <v>577</v>
-      </c>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
+        <v>572</v>
+      </c>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
     </row>
     <row r="20" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="96"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="84"/>
-      <c r="H20" s="116"/>
+      <c r="H20" s="114"/>
       <c r="I20" s="48" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="J20" s="51"/>
       <c r="K20" s="68" t="s">
-        <v>579</v>
-      </c>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
+        <v>574</v>
+      </c>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
     </row>
     <row r="21" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="96"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="84"/>
-      <c r="H21" s="116"/>
+      <c r="H21" s="114"/>
       <c r="I21" s="50" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J21" s="51"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
     </row>
     <row r="22" spans="1:14" s="23" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="97"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="107"/>
       <c r="G22" s="63" t="s">
-        <v>618</v>
-      </c>
-      <c r="H22" s="116"/>
+        <v>613</v>
+      </c>
+      <c r="H22" s="114"/>
       <c r="I22" s="48" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="J22" s="51"/>
       <c r="K22" s="49"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
     </row>
     <row r="23" spans="1:14" s="23" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="69"/>
@@ -12498,170 +12382,170 @@
       <c r="M23" s="74"/>
     </row>
     <row r="24" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="94" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>501</v>
+      </c>
+      <c r="D24" s="98" t="s">
+        <v>576</v>
+      </c>
+      <c r="E24" s="94" t="s">
+        <v>502</v>
+      </c>
+      <c r="F24" s="105" t="s">
+        <v>577</v>
+      </c>
+      <c r="G24" s="83"/>
+      <c r="H24" s="108" t="s">
+        <v>578</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>503</v>
+      </c>
+      <c r="J24" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="K24" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="L24" s="102" t="s">
+        <v>538</v>
+      </c>
+      <c r="M24" s="112" t="s">
         <v>505</v>
       </c>
-      <c r="C24" s="92" t="s">
-        <v>506</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>581</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>507</v>
-      </c>
-      <c r="F24" s="95" t="s">
-        <v>582</v>
-      </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="98" t="s">
-        <v>583</v>
-      </c>
-      <c r="I24" s="49" t="s">
-        <v>508</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>509</v>
-      </c>
-      <c r="K24" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="L24" s="104" t="s">
-        <v>543</v>
-      </c>
-      <c r="M24" s="91" t="s">
-        <v>510</v>
-      </c>
       <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="93"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="97"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="107"/>
       <c r="G25" s="63" t="s">
-        <v>618</v>
-      </c>
-      <c r="H25" s="100"/>
+        <v>613</v>
+      </c>
+      <c r="H25" s="110"/>
       <c r="I25" s="49" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="J25" s="50"/>
       <c r="K25" s="48"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="91"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="112"/>
       <c r="N25" s="52"/>
     </row>
     <row r="26" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="93"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="92" t="s">
+      <c r="A26" s="95"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="94" t="s">
+        <v>506</v>
+      </c>
+      <c r="F26" s="105" t="s">
+        <v>581</v>
+      </c>
+      <c r="G26" s="83"/>
+      <c r="H26" s="108" t="s">
+        <v>582</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="L26" s="103"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="52"/>
+    </row>
+    <row r="27" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="95"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="63" t="s">
+        <v>614</v>
+      </c>
+      <c r="H27" s="110"/>
+      <c r="I27" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="K27" s="48"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="52"/>
+    </row>
+    <row r="28" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="95"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>585</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>613</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>509</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>587</v>
+      </c>
+      <c r="L28" s="103"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="52"/>
+    </row>
+    <row r="29" spans="1:14" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="96"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="F26" s="95" t="s">
-        <v>586</v>
-      </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="98" t="s">
-        <v>587</v>
-      </c>
-      <c r="I26" s="49" t="s">
+      <c r="F29" s="76" t="s">
         <v>588</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="G29" s="76" t="s">
+        <v>613</v>
+      </c>
+      <c r="H29" s="48" t="s">
+        <v>589</v>
+      </c>
+      <c r="I29" s="49" t="s">
         <v>512</v>
       </c>
-      <c r="K26" s="48" t="s">
-        <v>589</v>
-      </c>
-      <c r="L26" s="105"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="52"/>
-    </row>
-    <row r="27" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="93"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="63" t="s">
-        <v>619</v>
-      </c>
-      <c r="H27" s="100"/>
-      <c r="I27" s="49" t="s">
-        <v>519</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>515</v>
-      </c>
-      <c r="K27" s="48"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="52"/>
-    </row>
-    <row r="28" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="93"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="46" t="s">
+      <c r="J29" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="K29" s="48" t="s">
         <v>590</v>
       </c>
-      <c r="G28" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>591</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>514</v>
-      </c>
-      <c r="K28" s="48" t="s">
-        <v>592</v>
-      </c>
-      <c r="L28" s="105"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="52"/>
-    </row>
-    <row r="29" spans="1:14" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="94"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="46" t="s">
-        <v>516</v>
-      </c>
-      <c r="F29" s="76" t="s">
-        <v>593</v>
-      </c>
-      <c r="G29" s="76" t="s">
-        <v>618</v>
-      </c>
-      <c r="H29" s="48" t="s">
-        <v>594</v>
-      </c>
-      <c r="I29" s="49" t="s">
-        <v>517</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="K29" s="48" t="s">
-        <v>595</v>
-      </c>
-      <c r="L29" s="106"/>
-      <c r="M29" s="91"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="112"/>
       <c r="N29" s="52"/>
     </row>
     <row r="30" spans="1:14" s="23" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12680,253 +12564,253 @@
       <c r="M30" s="74"/>
     </row>
     <row r="31" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="94" t="s">
+        <v>516</v>
+      </c>
+      <c r="B31" s="94" t="s">
+        <v>517</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>518</v>
+      </c>
+      <c r="D31" s="98" t="s">
+        <v>591</v>
+      </c>
+      <c r="E31" s="94" t="s">
+        <v>519</v>
+      </c>
+      <c r="F31" s="105" t="s">
+        <v>592</v>
+      </c>
+      <c r="G31" s="83"/>
+      <c r="H31" s="108" t="s">
+        <v>593</v>
+      </c>
+      <c r="I31" s="81" t="s">
+        <v>594</v>
+      </c>
+      <c r="J31" s="49" t="s">
+        <v>520</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>595</v>
+      </c>
+      <c r="L31" s="112" t="s">
         <v>521</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="M31" s="112" t="s">
         <v>522</v>
       </c>
-      <c r="C31" s="92" t="s">
-        <v>523</v>
-      </c>
-      <c r="D31" s="107" t="s">
+    </row>
+    <row r="32" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="56" t="s">
         <v>596</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>524</v>
-      </c>
-      <c r="F31" s="95" t="s">
-        <v>597</v>
-      </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="98" t="s">
-        <v>598</v>
-      </c>
-      <c r="I31" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="J31" s="49" t="s">
-        <v>525</v>
-      </c>
-      <c r="K31" s="48" t="s">
-        <v>600</v>
-      </c>
-      <c r="L31" s="91" t="s">
-        <v>526</v>
-      </c>
-      <c r="M31" s="91" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="93"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="56" t="s">
-        <v>601</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="48" t="s">
-        <v>602</v>
-      </c>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
+        <v>597</v>
+      </c>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
     </row>
     <row r="33" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="93"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="97"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="63" t="s">
-        <v>618</v>
-      </c>
-      <c r="H33" s="100"/>
+        <v>613</v>
+      </c>
+      <c r="H33" s="110"/>
       <c r="I33" s="56" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="J33" s="49"/>
       <c r="K33" s="48"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
     </row>
     <row r="34" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="92" t="s">
+      <c r="A34" s="95"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="94" t="s">
+        <v>523</v>
+      </c>
+      <c r="F34" s="105" t="s">
+        <v>598</v>
+      </c>
+      <c r="G34" s="83"/>
+      <c r="H34" s="108" t="s">
+        <v>599</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="J34" s="49"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+    </row>
+    <row r="35" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="95"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="49" t="s">
+        <v>527</v>
+      </c>
+      <c r="J35" s="49"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+    </row>
+    <row r="36" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="95"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="63" t="s">
+        <v>613</v>
+      </c>
+      <c r="H36" s="110"/>
+      <c r="I36" s="49" t="s">
+        <v>601</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="L36" s="112"/>
+      <c r="M36" s="112"/>
+    </row>
+    <row r="37" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="95"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="F37" s="105" t="s">
+        <v>602</v>
+      </c>
+      <c r="G37" s="83"/>
+      <c r="H37" s="119" t="s">
+        <v>603</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>604</v>
+      </c>
+      <c r="J37" s="120" t="s">
         <v>528</v>
       </c>
-      <c r="F34" s="95" t="s">
-        <v>603</v>
-      </c>
-      <c r="G34" s="83"/>
-      <c r="H34" s="98" t="s">
-        <v>604</v>
-      </c>
-      <c r="I34" s="49" t="s">
+      <c r="K37" s="119" t="s">
+        <v>530</v>
+      </c>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+    </row>
+    <row r="38" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="95"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="H38" s="119"/>
+      <c r="I38" s="68" t="s">
         <v>605</v>
       </c>
-      <c r="J34" s="49"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-    </row>
-    <row r="35" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="49" t="s">
-        <v>532</v>
-      </c>
-      <c r="J35" s="49"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-    </row>
-    <row r="36" spans="1:13" s="23" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="63" t="s">
-        <v>618</v>
-      </c>
-      <c r="H36" s="100"/>
-      <c r="I36" s="49" t="s">
+      <c r="J38" s="120"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="112"/>
+    </row>
+    <row r="39" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="95"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="95" t="s">
+        <v>529</v>
+      </c>
+      <c r="F39" s="106" t="s">
         <v>606</v>
       </c>
-      <c r="J36" s="50" t="s">
-        <v>529</v>
-      </c>
-      <c r="K36" s="48" t="s">
-        <v>530</v>
-      </c>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-    </row>
-    <row r="37" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="92" t="s">
-        <v>531</v>
-      </c>
-      <c r="F37" s="95" t="s">
+      <c r="G39" s="84"/>
+      <c r="H39" s="119" t="s">
         <v>607</v>
       </c>
-      <c r="G37" s="83"/>
-      <c r="H37" s="102" t="s">
+      <c r="I39" s="68" t="s">
         <v>608</v>
-      </c>
-      <c r="I37" s="49" t="s">
-        <v>609</v>
-      </c>
-      <c r="J37" s="103" t="s">
-        <v>533</v>
-      </c>
-      <c r="K37" s="102" t="s">
-        <v>535</v>
-      </c>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-    </row>
-    <row r="38" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="84" t="s">
-        <v>618</v>
-      </c>
-      <c r="H38" s="102"/>
-      <c r="I38" s="68" t="s">
-        <v>610</v>
-      </c>
-      <c r="J38" s="103"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-    </row>
-    <row r="39" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="93" t="s">
-        <v>534</v>
-      </c>
-      <c r="F39" s="96" t="s">
-        <v>611</v>
-      </c>
-      <c r="G39" s="84"/>
-      <c r="H39" s="102" t="s">
-        <v>612</v>
-      </c>
-      <c r="I39" s="68" t="s">
-        <v>613</v>
       </c>
       <c r="J39" s="58"/>
       <c r="K39" s="56" t="s">
-        <v>614</v>
-      </c>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
+        <v>609</v>
+      </c>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
     </row>
     <row r="40" spans="1:13" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="96"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="106"/>
       <c r="G40" s="84"/>
-      <c r="H40" s="102"/>
+      <c r="H40" s="119"/>
       <c r="I40" s="68" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="J40" s="58"/>
       <c r="K40" s="56" t="s">
-        <v>616</v>
-      </c>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
+        <v>611</v>
+      </c>
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
     </row>
     <row r="41" spans="1:13" s="23" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="97"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="63" t="s">
-        <v>618</v>
-      </c>
-      <c r="H41" s="102"/>
+        <v>613</v>
+      </c>
+      <c r="H41" s="119"/>
       <c r="I41" s="68" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="J41" s="51"/>
       <c r="K41" s="48"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K42" s="82"/>
@@ -12934,42 +12818,6 @@
     <row r="43" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="L6:L22"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="D31:D41"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
     <mergeCell ref="L31:L41"/>
     <mergeCell ref="M31:M41"/>
     <mergeCell ref="E34:E36"/>
@@ -12986,6 +12834,42 @@
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="H31:H33"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1"/>
@@ -13122,97 +13006,97 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
